--- a/doc/OpenGL status.xlsx
+++ b/doc/OpenGL status.xlsx
@@ -305,6 +305,20 @@
           </rPr>
           <t xml:space="preserve">Zoming and rotating the quad shows tessellated triangle disappearing
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G87" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>One of the two quad is not displayed</t>
         </r>
       </text>
     </comment>
@@ -1056,7 +1070,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="161">
   <si>
     <t>gl-430-texture-view</t>
   </si>
@@ -1536,6 +1550,9 @@
   </si>
   <si>
     <t>4.3.1.0</t>
+  </si>
+  <si>
+    <t>15.31.64.2885</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1699,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1711,12 +1728,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1725,6 +1736,16 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="3"/>
@@ -2039,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F195"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2051,27 +2072,28 @@
     <col min="2" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>149</v>
       </c>
@@ -2090,8 +2112,11 @@
       <c r="F2" s="17">
         <v>41250</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="24">
+        <v>41259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>148</v>
       </c>
@@ -2110,9 +2135,12 @@
       <c r="F3" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="G3" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>157</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2130,8 +2158,11 @@
       <c r="F4" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -2139,7 +2170,7 @@
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>128</v>
       </c>
@@ -2148,8 +2179,9 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>129</v>
       </c>
@@ -2163,7 +2195,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>130</v>
       </c>
@@ -2177,7 +2209,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>132</v>
       </c>
@@ -2191,7 +2223,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>133</v>
       </c>
@@ -2205,7 +2237,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>134</v>
       </c>
@@ -2219,7 +2251,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>135</v>
       </c>
@@ -2233,7 +2265,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>136</v>
       </c>
@@ -2247,7 +2279,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>137</v>
       </c>
@@ -2261,7 +2293,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>138</v>
       </c>
@@ -2275,7 +2307,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -2289,7 +2321,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -2303,7 +2335,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -2317,7 +2349,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -2331,7 +2363,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
@@ -2345,21 +2377,22 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -2383,8 +2416,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="10">
+        <f>COUNTIF(G7:G21,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>143</v>
       </c>
@@ -2408,8 +2445,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="5">
+        <f>COUNTIF(G7:G21,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>140</v>
       </c>
@@ -2433,8 +2474,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="11">
+        <f>COUNTIF(G7:G21,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -2458,8 +2503,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="12">
+        <f>COUNTIF(G7:G21,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>145</v>
       </c>
@@ -2483,8 +2532,12 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="2">
+        <f>COUNT(G7:G21,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>139</v>
       </c>
@@ -2508,8 +2561,12 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="2">
+        <f t="shared" ref="G27" si="6">G22+G25+G24+G26+G23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>8</v>
       </c>
@@ -2522,27 +2579,32 @@
         <v>0.8</v>
       </c>
       <c r="D28" s="6" t="e">
-        <f t="shared" ref="D28:F28" si="6">(D22+D23)/D27</f>
+        <f t="shared" ref="D28:F28" si="7">(D22+D23)/D27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E28" s="6" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="6" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="6" t="e">
+        <f t="shared" ref="G28" si="8">(G22+G23)/G27</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>102</v>
       </c>
@@ -2551,8 +2613,9 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
@@ -2569,8 +2632,9 @@
         <v>6</v>
       </c>
       <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
@@ -2587,8 +2651,9 @@
         <v>6</v>
       </c>
       <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>98</v>
       </c>
@@ -2605,8 +2670,9 @@
         <v>6</v>
       </c>
       <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>99</v>
       </c>
@@ -2623,8 +2689,9 @@
         <v>6</v>
       </c>
       <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>100</v>
       </c>
@@ -2641,26 +2708,24 @@
         <v>6</v>
       </c>
       <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B36" s="27"/>
       <c r="C36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D36" s="27"/>
       <c r="E36" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>103</v>
       </c>
@@ -2677,8 +2742,9 @@
         <v>6</v>
       </c>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>108</v>
       </c>
@@ -2695,8 +2761,9 @@
         <v>6</v>
       </c>
       <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>109</v>
       </c>
@@ -2713,8 +2780,9 @@
         <v>6</v>
       </c>
       <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>110</v>
       </c>
@@ -2731,8 +2799,9 @@
         <v>6</v>
       </c>
       <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>111</v>
       </c>
@@ -2749,8 +2818,9 @@
         <v>6</v>
       </c>
       <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>112</v>
       </c>
@@ -2767,8 +2837,9 @@
         <v>6</v>
       </c>
       <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>113</v>
       </c>
@@ -2785,8 +2856,9 @@
         <v>6</v>
       </c>
       <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>115</v>
       </c>
@@ -2803,8 +2875,9 @@
         <v>6</v>
       </c>
       <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>116</v>
       </c>
@@ -2821,8 +2894,9 @@
         <v>6</v>
       </c>
       <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>118</v>
       </c>
@@ -2839,8 +2913,9 @@
         <v>6</v>
       </c>
       <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>120</v>
       </c>
@@ -2857,8 +2932,9 @@
         <v>6</v>
       </c>
       <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>121</v>
       </c>
@@ -2875,8 +2951,9 @@
         <v>7</v>
       </c>
       <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>122</v>
       </c>
@@ -2893,8 +2970,9 @@
         <v>6</v>
       </c>
       <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>123</v>
       </c>
@@ -2911,8 +2989,9 @@
         <v>6</v>
       </c>
       <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>124</v>
       </c>
@@ -2929,8 +3008,9 @@
         <v>6</v>
       </c>
       <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>126</v>
       </c>
@@ -2947,51 +3027,57 @@
         <v>140</v>
       </c>
       <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="23" t="s">
+      <c r="B53" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="21" t="s">
         <v>6</v>
       </c>
       <c r="F53" s="15"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="15"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B54" s="10">
         <f>COUNTIF(B31:B53,"pass")</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" s="10">
         <f>COUNTIF(C31:C53,"pass")</f>
         <v>21</v>
       </c>
       <c r="D54" s="10">
-        <f t="shared" ref="D54:F54" si="7">COUNTIF(D31:D53,"pass")</f>
+        <f t="shared" ref="D54:F54" si="9">COUNTIF(D31:D53,"pass")</f>
+        <v>20</v>
+      </c>
+      <c r="E54" s="10">
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="E54" s="10">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
       <c r="F54" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="10">
+        <f t="shared" ref="G54" si="10">COUNTIF(G31:G53,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>143</v>
       </c>
@@ -3004,19 +3090,23 @@
         <v>1</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" ref="D55:F55" si="8">COUNTIF(D31:D53,"Ok")</f>
+        <f t="shared" ref="D55:F55" si="11">COUNTIF(D31:D53,"Ok")</f>
         <v>0</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F55" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="5">
+        <f t="shared" ref="G55" si="12">COUNTIF(G31:G53,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>140</v>
       </c>
@@ -3029,19 +3119,23 @@
         <v>1</v>
       </c>
       <c r="D56" s="11">
-        <f t="shared" ref="D56:F56" si="9">COUNTIF(D31:D53,"workaround")</f>
+        <f t="shared" ref="D56:F56" si="13">COUNTIF(D31:D53,"workaround")</f>
         <v>1</v>
       </c>
       <c r="E56" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F56" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="11">
+        <f t="shared" ref="G56" si="14">COUNTIF(G31:G53,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>7</v>
       </c>
@@ -3054,19 +3148,23 @@
         <v>0</v>
       </c>
       <c r="D57" s="12">
-        <f t="shared" ref="D57:F57" si="10">COUNTIF(D31:D53,"Fail")</f>
+        <f t="shared" ref="D57:F57" si="15">COUNTIF(D31:D53,"Fail")</f>
         <v>1</v>
       </c>
       <c r="E57" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F57" s="12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="12">
+        <f t="shared" ref="G57" si="16">COUNTIF(G31:G53,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>145</v>
       </c>
@@ -3079,77 +3177,90 @@
         <v>0</v>
       </c>
       <c r="D58" s="2">
-        <f t="shared" ref="D58:F58" si="11">COUNT(D31:D53,"Untested")</f>
+        <f t="shared" ref="D58:F58" si="17">COUNT(D31:D53,"Untested")</f>
         <v>0</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" ref="G58" si="18">COUNT(G31:G53,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B59" s="2">
         <f>B54+B57+B56+B58+B55</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C59" s="2">
         <f>C54+C57+C56+C58+C55</f>
         <v>23</v>
       </c>
       <c r="D59" s="2">
-        <f t="shared" ref="D59:F59" si="12">D54+D57+D56+D58+D55</f>
+        <f t="shared" ref="D59:F59" si="19">D54+D57+D56+D58+D55</f>
+        <v>22</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
-      <c r="E59" s="2">
-        <f t="shared" si="12"/>
-        <v>23</v>
-      </c>
       <c r="F59" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" ref="G59" si="20">G54+G57+G56+G58+G55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B60" s="6">
         <f>(B54+B55)/B59</f>
-        <v>0.95652173913043481</v>
+        <v>0.95454545454545459</v>
       </c>
       <c r="C60" s="6">
         <f>(C54+C55)/C59</f>
         <v>0.95652173913043481</v>
       </c>
       <c r="D60" s="6">
-        <f t="shared" ref="D60:F60" si="13">(D54+D55)/D59</f>
+        <f t="shared" ref="D60:F60" si="21">(D54+D55)/D59</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="E60" s="6">
+        <f t="shared" si="21"/>
         <v>0.91304347826086951</v>
       </c>
-      <c r="E60" s="6">
-        <f t="shared" si="13"/>
-        <v>0.91304347826086951</v>
-      </c>
       <c r="F60" s="6" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="6" t="e">
+        <f t="shared" ref="G60" si="22">(G54+G55)/G59</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>85</v>
       </c>
@@ -3158,8 +3269,9 @@
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>86</v>
       </c>
@@ -3176,8 +3288,9 @@
         <v>6</v>
       </c>
       <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>87</v>
       </c>
@@ -3194,8 +3307,9 @@
         <v>6</v>
       </c>
       <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>88</v>
       </c>
@@ -3212,8 +3326,9 @@
         <v>6</v>
       </c>
       <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>89</v>
       </c>
@@ -3230,8 +3345,9 @@
         <v>6</v>
       </c>
       <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>90</v>
       </c>
@@ -3248,8 +3364,9 @@
         <v>6</v>
       </c>
       <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>91</v>
       </c>
@@ -3266,8 +3383,9 @@
         <v>6</v>
       </c>
       <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>92</v>
       </c>
@@ -3284,26 +3402,28 @@
         <v>6</v>
       </c>
       <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" s="23" t="s">
+      <c r="B70" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="21" t="s">
         <v>6</v>
       </c>
       <c r="F70" s="15"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="15"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>6</v>
       </c>
@@ -3316,19 +3436,23 @@
         <v>8</v>
       </c>
       <c r="D71" s="10">
-        <f t="shared" ref="D71:F71" si="14">COUNTIF(D63:D70,"pass")</f>
+        <f t="shared" ref="D71:F71" si="23">COUNTIF(D63:D70,"pass")</f>
         <v>8</v>
       </c>
       <c r="E71" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="F71" s="10">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="10">
+        <f t="shared" ref="G71" si="24">COUNTIF(G63:G70,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>143</v>
       </c>
@@ -3341,44 +3465,52 @@
         <v>0</v>
       </c>
       <c r="D72" s="5">
-        <f t="shared" ref="D72:F72" si="15">COUNTIF(D63:D70,"Ok")</f>
+        <f t="shared" ref="D72:F72" si="25">COUNTIF(D63:D70,"Ok")</f>
         <v>0</v>
       </c>
       <c r="E72" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F72" s="5">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="5">
+        <f t="shared" ref="G72" si="26">COUNTIF(G63:G70,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B73" s="11">
-        <f>COUNTIF(B94:B163,"workaround")</f>
+        <f t="shared" ref="B73:G73" si="27">COUNTIF(B94:B163,"workaround")</f>
         <v>1</v>
       </c>
       <c r="C73" s="11">
-        <f>COUNTIF(C94:C163,"workaround")</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="D73" s="11">
-        <f>COUNTIF(D94:D163,"workaround")</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="E73" s="11">
-        <f>COUNTIF(E94:E163,"workaround")</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="F73" s="11">
-        <f>COUNTIF(F94:F163,"workaround")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>7</v>
       </c>
@@ -3391,19 +3523,23 @@
         <v>0</v>
       </c>
       <c r="D74" s="12">
-        <f t="shared" ref="D74:F74" si="16">COUNTIF(D63:D70,"Fail")</f>
+        <f t="shared" ref="D74:F74" si="28">COUNTIF(D63:D70,"Fail")</f>
         <v>0</v>
       </c>
       <c r="E74" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F74" s="12">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="12">
+        <f t="shared" ref="G74" si="29">COUNTIF(G63:G70,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>145</v>
       </c>
@@ -3416,19 +3552,23 @@
         <v>0</v>
       </c>
       <c r="D75" s="2">
-        <f t="shared" ref="D75:F75" si="17">COUNT(D63:D70,"Untested")</f>
+        <f t="shared" ref="D75:F75" si="30">COUNT(D63:D70,"Untested")</f>
         <v>0</v>
       </c>
       <c r="E75" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F75" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="2">
+        <f t="shared" ref="G75" si="31">COUNT(G63:G70,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>139</v>
       </c>
@@ -3441,19 +3581,23 @@
         <v>9</v>
       </c>
       <c r="D76" s="2">
-        <f t="shared" ref="D76:F76" si="18">D71+D74+D73+D75+D72</f>
+        <f t="shared" ref="D76:F76" si="32">D71+D74+D73+D75+D72</f>
         <v>9</v>
       </c>
       <c r="E76" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="F76" s="2">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="2">
+        <f t="shared" ref="G76" si="33">G71+G74+G73+G75+G72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18" t="s">
         <v>8</v>
       </c>
@@ -3466,27 +3610,32 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="D77" s="6">
-        <f t="shared" ref="D77:F77" si="19">(D71+D72)/D76</f>
+        <f t="shared" ref="D77:F77" si="34">(D71+D72)/D76</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="E77" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="F77" s="6" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G77" s="6" t="e">
+        <f t="shared" ref="G77" si="35">(G71+G72)/G76</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="16"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>64</v>
       </c>
@@ -3495,8 +3644,9 @@
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="15"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>65</v>
       </c>
@@ -3515,8 +3665,11 @@
       <c r="F80" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>67</v>
       </c>
@@ -3535,8 +3688,11 @@
       <c r="F81" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>68</v>
       </c>
@@ -3555,8 +3711,11 @@
       <c r="F82" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>69</v>
       </c>
@@ -3575,8 +3734,11 @@
       <c r="F83" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>70</v>
       </c>
@@ -3595,8 +3757,11 @@
       <c r="F84" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>71</v>
       </c>
@@ -3615,8 +3780,11 @@
       <c r="F85" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>72</v>
       </c>
@@ -3635,8 +3803,11 @@
       <c r="F86" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>73</v>
       </c>
@@ -3655,8 +3826,11 @@
       <c r="F87" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>74</v>
       </c>
@@ -3675,8 +3849,11 @@
       <c r="F88" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>75</v>
       </c>
@@ -3695,8 +3872,11 @@
       <c r="F89" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>76</v>
       </c>
@@ -3715,8 +3895,11 @@
       <c r="F90" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>77</v>
       </c>
@@ -3735,8 +3918,11 @@
       <c r="F91" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>78</v>
       </c>
@@ -3755,8 +3941,11 @@
       <c r="F92" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>79</v>
       </c>
@@ -3775,8 +3964,11 @@
       <c r="F93" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>80</v>
       </c>
@@ -3795,8 +3987,11 @@
       <c r="F94" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4010,11 @@
       <c r="F95" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>82</v>
       </c>
@@ -3835,8 +4033,11 @@
       <c r="F96" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>83</v>
       </c>
@@ -3855,153 +4056,179 @@
       <c r="F97" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B98" s="24" t="s">
+      <c r="B98" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C98" s="24" t="s">
+      <c r="C98" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D98" s="24" t="s">
+      <c r="D98" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="E98" s="24" t="s">
+      <c r="E98" s="22" t="s">
         <v>140</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B99" s="10">
-        <f>COUNTIF(B80:B98,"pass")</f>
+        <f t="shared" ref="B99:G99" si="36">COUNTIF(B80:B98,"pass")</f>
         <v>18</v>
       </c>
       <c r="C99" s="10">
-        <f>COUNTIF(C80:C98,"pass")</f>
+        <f t="shared" si="36"/>
         <v>18</v>
       </c>
       <c r="D99" s="10">
-        <f>COUNTIF(D80:D98,"pass")</f>
+        <f t="shared" si="36"/>
         <v>17</v>
       </c>
       <c r="E99" s="10">
-        <f>COUNTIF(E80:E98,"pass")</f>
+        <f t="shared" si="36"/>
         <v>17</v>
       </c>
       <c r="F99" s="10">
-        <f>COUNTIF(F80:F98,"pass")</f>
+        <f t="shared" si="36"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="10">
+        <f t="shared" si="36"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B100" s="5">
-        <f>COUNTIF(B80:B98,"Ok")</f>
+        <f t="shared" ref="B100:G100" si="37">COUNTIF(B80:B98,"Ok")</f>
         <v>0</v>
       </c>
       <c r="C100" s="5">
-        <f>COUNTIF(C80:C98,"Ok")</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="D100" s="5">
-        <f>COUNTIF(D80:D98,"Ok")</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="E100" s="5">
-        <f>COUNTIF(E80:E98,"Ok")</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="F100" s="5">
-        <f>COUNTIF(F80:F98,"Ok")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="5">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B101" s="11">
-        <f>COUNTIF(B80:B98,"workaround")</f>
+        <f t="shared" ref="B101:G101" si="38">COUNTIF(B80:B98,"workaround")</f>
         <v>1</v>
       </c>
       <c r="C101" s="11">
-        <f>COUNTIF(C80:C98,"workaround")</f>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="D101" s="11">
-        <f>COUNTIF(D80:D98,"workaround")</f>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="E101" s="11">
-        <f>COUNTIF(E80:E98,"workaround")</f>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="F101" s="11">
-        <f>COUNTIF(F80:F98,"workaround")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="11">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B102" s="12">
-        <f>COUNTIF(B80:B98,"Fail")</f>
+        <f t="shared" ref="B102:G102" si="39">COUNTIF(B80:B98,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C102" s="12">
-        <f>COUNTIF(C80:C98,"Fail")</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="D102" s="12">
-        <f>COUNTIF(D80:D98,"Fail")</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="E102" s="12">
-        <f>COUNTIF(E80:E98,"Fail")</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="F102" s="12">
-        <f>COUNTIF(F80:F98,"Fail")</f>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="12">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B103" s="2">
-        <f>COUNT(B80:B98,"Untested")</f>
+        <f t="shared" ref="B103:G103" si="40">COUNT(B80:B98,"Untested")</f>
         <v>0</v>
       </c>
       <c r="C103" s="2">
-        <f>COUNT(C80:C98,"Untested")</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="D103" s="2">
-        <f>COUNT(D80:D98,"Untested")</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="E103" s="2">
-        <f>COUNT(E80:E98,"Untested")</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="F103" s="2">
-        <f>COUNT(F80:F98,"Untested")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="2">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>139</v>
       </c>
@@ -4014,19 +4241,23 @@
         <v>19</v>
       </c>
       <c r="D104" s="2">
-        <f t="shared" ref="D104:F104" si="20">D99+D102+D101+D103+D100</f>
+        <f t="shared" ref="D104:F104" si="41">D99+D102+D101+D103+D100</f>
         <v>19</v>
       </c>
       <c r="E104" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="41"/>
         <v>19</v>
       </c>
       <c r="F104" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="41"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G104" s="2">
+        <f t="shared" ref="G104" si="42">G99+G102+G101+G103+G100</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="18" t="s">
         <v>8</v>
       </c>
@@ -4039,27 +4270,32 @@
         <v>0.94736842105263153</v>
       </c>
       <c r="D105" s="6">
-        <f t="shared" ref="D105:F105" si="21">(D99+D100)/D104</f>
+        <f t="shared" ref="D105:F105" si="43">(D99+D100)/D104</f>
         <v>0.89473684210526316</v>
       </c>
       <c r="E105" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>0.89473684210526316</v>
       </c>
       <c r="F105" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>0.73684210526315785</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G105" s="6">
+        <f t="shared" ref="G105" si="44">(G99+G100)/G104</f>
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
       <c r="F106" s="14"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="14"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>12</v>
       </c>
@@ -4068,8 +4304,9 @@
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" s="15"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>14</v>
       </c>
@@ -4088,8 +4325,11 @@
       <c r="F108" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>15</v>
       </c>
@@ -4108,8 +4348,11 @@
       <c r="F109" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>16</v>
       </c>
@@ -4128,8 +4371,11 @@
       <c r="F110" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>17</v>
       </c>
@@ -4148,8 +4394,11 @@
       <c r="F111" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>18</v>
       </c>
@@ -4168,8 +4417,11 @@
       <c r="F112" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>19</v>
       </c>
@@ -4188,8 +4440,11 @@
       <c r="F113" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4463,11 @@
       <c r="F114" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>21</v>
       </c>
@@ -4228,8 +4486,11 @@
       <c r="F115" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>22</v>
       </c>
@@ -4248,8 +4509,11 @@
       <c r="F116" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>23</v>
       </c>
@@ -4268,8 +4532,11 @@
       <c r="F117" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>24</v>
       </c>
@@ -4288,8 +4555,11 @@
       <c r="F118" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>25</v>
       </c>
@@ -4308,8 +4578,11 @@
       <c r="F119" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>26</v>
       </c>
@@ -4328,8 +4601,11 @@
       <c r="F120" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>27</v>
       </c>
@@ -4348,8 +4624,11 @@
       <c r="F121" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>28</v>
       </c>
@@ -4368,8 +4647,11 @@
       <c r="F122" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>29</v>
       </c>
@@ -4388,8 +4670,11 @@
       <c r="F123" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>31</v>
       </c>
@@ -4408,8 +4693,11 @@
       <c r="F124" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>32</v>
       </c>
@@ -4428,8 +4716,11 @@
       <c r="F125" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>33</v>
       </c>
@@ -4448,8 +4739,11 @@
       <c r="F126" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>34</v>
       </c>
@@ -4468,8 +4762,11 @@
       <c r="F127" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>35</v>
       </c>
@@ -4488,8 +4785,11 @@
       <c r="F128" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>36</v>
       </c>
@@ -4508,8 +4808,11 @@
       <c r="F129" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>37</v>
       </c>
@@ -4528,8 +4831,11 @@
       <c r="F130" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>38</v>
       </c>
@@ -4548,8 +4854,11 @@
       <c r="F131" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>39</v>
       </c>
@@ -4568,8 +4877,11 @@
       <c r="F132" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>40</v>
       </c>
@@ -4588,8 +4900,11 @@
       <c r="F133" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>41</v>
       </c>
@@ -4608,8 +4923,11 @@
       <c r="F134" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>42</v>
       </c>
@@ -4628,8 +4946,11 @@
       <c r="F135" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>43</v>
       </c>
@@ -4648,8 +4969,11 @@
       <c r="F136" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>44</v>
       </c>
@@ -4668,8 +4992,11 @@
       <c r="F137" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>45</v>
       </c>
@@ -4688,8 +5015,11 @@
       <c r="F138" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>46</v>
       </c>
@@ -4708,8 +5038,11 @@
       <c r="F139" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>47</v>
       </c>
@@ -4728,8 +5061,11 @@
       <c r="F140" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>48</v>
       </c>
@@ -4748,8 +5084,11 @@
       <c r="F141" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>49</v>
       </c>
@@ -4768,8 +5107,11 @@
       <c r="F142" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>50</v>
       </c>
@@ -4788,8 +5130,11 @@
       <c r="F143" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>51</v>
       </c>
@@ -4808,8 +5153,11 @@
       <c r="F144" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>52</v>
       </c>
@@ -4828,8 +5176,11 @@
       <c r="F145" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>53</v>
       </c>
@@ -4848,8 +5199,11 @@
       <c r="F146" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>54</v>
       </c>
@@ -4868,8 +5222,11 @@
       <c r="F147" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>55</v>
       </c>
@@ -4888,8 +5245,11 @@
       <c r="F148" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>56</v>
       </c>
@@ -4908,8 +5268,11 @@
       <c r="F149" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>57</v>
       </c>
@@ -4928,8 +5291,11 @@
       <c r="F150" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>58</v>
       </c>
@@ -4948,8 +5314,11 @@
       <c r="F151" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>59</v>
       </c>
@@ -4968,8 +5337,11 @@
       <c r="F152" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>60</v>
       </c>
@@ -4988,8 +5360,11 @@
       <c r="F153" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>61</v>
       </c>
@@ -5008,8 +5383,11 @@
       <c r="F154" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>62</v>
       </c>
@@ -5028,153 +5406,179 @@
       <c r="F155" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B156" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C156" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D156" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E156" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F156" s="23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B156" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F156" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G156" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B157" s="10">
-        <f>COUNTIF(B108:B156,"pass")</f>
+        <f t="shared" ref="B157:G157" si="45">COUNTIF(B108:B156,"pass")</f>
         <v>48</v>
       </c>
       <c r="C157" s="10">
-        <f>COUNTIF(C108:C156,"pass")</f>
+        <f t="shared" si="45"/>
         <v>48</v>
       </c>
       <c r="D157" s="10">
-        <f>COUNTIF(D108:D156,"pass")</f>
+        <f t="shared" si="45"/>
         <v>49</v>
       </c>
       <c r="E157" s="10">
-        <f>COUNTIF(E108:E156,"pass")</f>
+        <f t="shared" si="45"/>
         <v>49</v>
       </c>
       <c r="F157" s="10">
-        <f>COUNTIF(F108:F156,"pass")</f>
+        <f t="shared" si="45"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157" s="10">
+        <f t="shared" si="45"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B158" s="5">
-        <f>COUNTIF(B108:B156,"Ok")</f>
+        <f t="shared" ref="B158:G158" si="46">COUNTIF(B108:B156,"Ok")</f>
         <v>1</v>
       </c>
       <c r="C158" s="5">
-        <f>COUNTIF(C108:C156,"Ok")</f>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="D158" s="5">
-        <f>COUNTIF(D108:D156,"Ok")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E158" s="5">
-        <f>COUNTIF(E108:E156,"Ok")</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F158" s="5">
-        <f>COUNTIF(F108:F156,"Ok")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="G158" s="5">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B159" s="11">
-        <f>COUNTIF(B108:B156,"workaround")</f>
+        <f t="shared" ref="B159:G159" si="47">COUNTIF(B108:B156,"workaround")</f>
         <v>0</v>
       </c>
       <c r="C159" s="11">
-        <f>COUNTIF(C108:C156,"workaround")</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="D159" s="11">
-        <f>COUNTIF(D108:D156,"workaround")</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E159" s="11">
-        <f>COUNTIF(E108:E156,"workaround")</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F159" s="11">
-        <f>COUNTIF(F108:F156,"workaround")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G159" s="11">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B160" s="12">
-        <f>COUNTIF(B108:B156,"Fail")</f>
+        <f t="shared" ref="B160:G160" si="48">COUNTIF(B108:B156,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C160" s="12">
-        <f>COUNTIF(C108:C156,"Fail")</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="D160" s="12">
-        <f>COUNTIF(D108:D156,"Fail")</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E160" s="12">
-        <f>COUNTIF(E108:E156,"Fail")</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="F160" s="12">
-        <f>COUNTIF(F108:F156,"Fail")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="48"/>
+        <v>6</v>
+      </c>
+      <c r="G160" s="12">
+        <f t="shared" si="48"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B161" s="2">
-        <f>COUNT(B108:B156,"Untested")</f>
+        <f t="shared" ref="B161:G161" si="49">COUNT(B108:B156,"Untested")</f>
         <v>0</v>
       </c>
       <c r="C161" s="2">
-        <f>COUNT(C108:C156,"Untested")</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="D161" s="2">
-        <f>COUNT(D108:D156,"Untested")</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="E161" s="2">
-        <f>COUNT(E108:E156,"Untested")</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F161" s="2">
-        <f>COUNT(F108:F156,"Untested")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G161" s="2">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>139</v>
       </c>
@@ -5187,19 +5591,23 @@
         <v>49</v>
       </c>
       <c r="D162" s="2">
-        <f t="shared" ref="D162:F162" si="22">D157+D160+D159+D161+D158</f>
+        <f t="shared" ref="D162:F162" si="50">D157+D160+D159+D161+D158</f>
         <v>49</v>
       </c>
       <c r="E162" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>49</v>
       </c>
       <c r="F162" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="50"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G162" s="2">
+        <f t="shared" ref="G162" si="51">G157+G160+G159+G161+G158</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="18" t="s">
         <v>8</v>
       </c>
@@ -5212,27 +5620,32 @@
         <v>1</v>
       </c>
       <c r="D163" s="6">
-        <f t="shared" ref="D163:F163" si="23">(D157+D158)/D162</f>
+        <f t="shared" ref="D163:F163" si="52">(D157+D158)/D162</f>
         <v>1</v>
       </c>
       <c r="E163" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="F163" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="52"/>
         <v>0.87755102040816324</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G163" s="6">
+        <f t="shared" ref="G163" si="53">(G157+G158)/G162</f>
+        <v>0.93877551020408168</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="13"/>
       <c r="B164" s="16"/>
       <c r="C164" s="16"/>
       <c r="D164" s="13"/>
       <c r="E164" s="13"/>
       <c r="F164" s="13"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164" s="13"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="19" t="s">
         <v>146</v>
       </c>
@@ -5241,8 +5654,9 @@
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
       <c r="F165" s="15"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165" s="15"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>30</v>
       </c>
@@ -5259,9 +5673,10 @@
         <v>6</v>
       </c>
       <c r="F166" s="2"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="25" t="s">
+      <c r="G166" s="2"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="23" t="s">
         <v>156</v>
       </c>
       <c r="B167" s="4" t="s">
@@ -5273,8 +5688,9 @@
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167" s="2"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>95</v>
       </c>
@@ -5287,8 +5703,9 @@
         <v>6</v>
       </c>
       <c r="F168" s="2"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168" s="2"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>96</v>
       </c>
@@ -5301,8 +5718,9 @@
         <v>6</v>
       </c>
       <c r="F169" s="2"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169" s="2"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>104</v>
       </c>
@@ -5315,8 +5733,9 @@
         <v>6</v>
       </c>
       <c r="F170" s="2"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170" s="2"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>105</v>
       </c>
@@ -5329,8 +5748,9 @@
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171" s="2"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>106</v>
       </c>
@@ -5343,8 +5763,9 @@
         <v>6</v>
       </c>
       <c r="F172" s="2"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172" s="2"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>107</v>
       </c>
@@ -5361,8 +5782,9 @@
         <v>6</v>
       </c>
       <c r="F173" s="2"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173" s="2"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>114</v>
       </c>
@@ -5375,8 +5797,9 @@
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174" s="2"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>117</v>
       </c>
@@ -5389,8 +5812,9 @@
         <v>6</v>
       </c>
       <c r="F175" s="2"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175" s="2"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>119</v>
       </c>
@@ -5403,8 +5827,9 @@
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176" s="2"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>125</v>
       </c>
@@ -5417,22 +5842,24 @@
         <v>6</v>
       </c>
       <c r="F177" s="2"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177" s="2"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B178" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C178" s="23" t="s">
+      <c r="B178" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
       <c r="F178" s="15"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178" s="15"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>6</v>
       </c>
@@ -5445,19 +5872,23 @@
         <v>7</v>
       </c>
       <c r="D179" s="10">
-        <f t="shared" ref="D179:F179" si="24">COUNTIF(D166:D178,"pass")</f>
+        <f t="shared" ref="D179:F179" si="54">COUNTIF(D166:D178,"pass")</f>
         <v>8</v>
       </c>
       <c r="E179" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="54"/>
         <v>8</v>
       </c>
       <c r="F179" s="10">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="G179" s="10">
+        <f t="shared" ref="G179" si="55">COUNTIF(G166:G178,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>143</v>
       </c>
@@ -5470,19 +5901,23 @@
         <v>0</v>
       </c>
       <c r="D180" s="5">
-        <f t="shared" ref="D180:F180" si="25">COUNTIF(D166:D178,"Ok")</f>
+        <f t="shared" ref="D180:F180" si="56">COUNTIF(D166:D178,"Ok")</f>
         <v>0</v>
       </c>
       <c r="E180" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="F180" s="5">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="G180" s="5">
+        <f t="shared" ref="G180" si="57">COUNTIF(G166:G178,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>140</v>
       </c>
@@ -5495,19 +5930,23 @@
         <v>0</v>
       </c>
       <c r="D181" s="11">
-        <f t="shared" ref="D181:F181" si="26">COUNTIF(D166:D178,"workaround")</f>
+        <f t="shared" ref="D181:F181" si="58">COUNTIF(D166:D178,"workaround")</f>
         <v>0</v>
       </c>
       <c r="E181" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="F181" s="11">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="G181" s="11">
+        <f t="shared" ref="G181" si="59">COUNTIF(G166:G178,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>7</v>
       </c>
@@ -5520,19 +5959,23 @@
         <v>0</v>
       </c>
       <c r="D182" s="12">
-        <f t="shared" ref="D182:F182" si="27">COUNTIF(D166:D178,"Fail")</f>
+        <f t="shared" ref="D182:F182" si="60">COUNTIF(D166:D178,"Fail")</f>
         <v>0</v>
       </c>
       <c r="E182" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="F182" s="12">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="G182" s="12">
+        <f t="shared" ref="G182" si="61">COUNTIF(G166:G178,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>145</v>
       </c>
@@ -5545,19 +5988,23 @@
         <v>0</v>
       </c>
       <c r="D183" s="2">
-        <f t="shared" ref="D183:F183" si="28">COUNT(D166:D178,"Untested")</f>
+        <f t="shared" ref="D183:F183" si="62">COUNT(D166:D178,"Untested")</f>
         <v>0</v>
       </c>
       <c r="E183" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="F183" s="2">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="G183" s="2">
+        <f t="shared" ref="G183" si="63">COUNT(G166:G178,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>139</v>
       </c>
@@ -5570,19 +6017,23 @@
         <v>7</v>
       </c>
       <c r="D184" s="2">
-        <f t="shared" ref="D184:F184" si="29">D179+D182+D181+D183+D180</f>
+        <f t="shared" ref="D184:F184" si="64">D179+D182+D181+D183+D180</f>
         <v>8</v>
       </c>
       <c r="E184" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="64"/>
         <v>8</v>
       </c>
       <c r="F184" s="2">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="G184" s="2">
+        <f t="shared" ref="G184" si="65">G179+G182+G181+G183+G180</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="18" t="s">
         <v>8</v>
       </c>
@@ -5595,27 +6046,32 @@
         <v>1</v>
       </c>
       <c r="D185" s="6">
-        <f t="shared" ref="D185:F185" si="30">(D179+D180)/D184</f>
+        <f t="shared" ref="D185:F185" si="66">(D179+D180)/D184</f>
         <v>1</v>
       </c>
       <c r="E185" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="F185" s="6" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G185" s="6" t="e">
+        <f t="shared" ref="G185" si="67">(G179+G180)/G184</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="13"/>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
       <c r="D186" s="13"/>
       <c r="E186" s="13"/>
       <c r="F186" s="13"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186" s="13"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="15" t="s">
         <v>10</v>
       </c>
@@ -5624,8 +6080,9 @@
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
       <c r="F187" s="15"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187" s="15"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>11</v>
       </c>
@@ -5640,8 +6097,11 @@
       <c r="F188" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>6</v>
       </c>
@@ -5654,19 +6114,23 @@
         <v>1</v>
       </c>
       <c r="D189" s="10">
-        <f t="shared" ref="D189:F189" si="31">COUNTIF(D188,"pass")</f>
+        <f t="shared" ref="D189:F189" si="68">COUNTIF(D188,"pass")</f>
         <v>0</v>
       </c>
       <c r="E189" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="F189" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189" s="10">
+        <f t="shared" ref="G189" si="69">COUNTIF(G188,"pass")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>143</v>
       </c>
@@ -5679,19 +6143,23 @@
         <v>0</v>
       </c>
       <c r="D190" s="5">
-        <f t="shared" ref="D190:F190" si="32">COUNTIF(D188,"Ok")</f>
+        <f t="shared" ref="D190:F190" si="70">COUNTIF(D188,"Ok")</f>
         <v>0</v>
       </c>
       <c r="E190" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="F190" s="5">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="G190" s="5">
+        <f t="shared" ref="G190" si="71">COUNTIF(G188,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>140</v>
       </c>
@@ -5704,19 +6172,23 @@
         <v>0</v>
       </c>
       <c r="D191" s="11">
-        <f t="shared" ref="D191:F191" si="33">COUNTIF(D188,"workaround")</f>
+        <f t="shared" ref="D191:F191" si="72">COUNTIF(D188,"workaround")</f>
         <v>0</v>
       </c>
       <c r="E191" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="F191" s="11">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="G191" s="11">
+        <f t="shared" ref="G191" si="73">COUNTIF(G188,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>7</v>
       </c>
@@ -5729,19 +6201,23 @@
         <v>0</v>
       </c>
       <c r="D192" s="12">
-        <f t="shared" ref="D192:F192" si="34">COUNTIF(D188,"Fail")</f>
+        <f t="shared" ref="D192:F192" si="74">COUNTIF(D188,"Fail")</f>
         <v>0</v>
       </c>
       <c r="E192" s="12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="F192" s="12">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="G192" s="12">
+        <f t="shared" ref="G192" si="75">COUNTIF(G188,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>145</v>
       </c>
@@ -5754,19 +6230,23 @@
         <v>0</v>
       </c>
       <c r="D193" s="2">
-        <f t="shared" ref="D193:F193" si="35">COUNT(D188,"Untested")</f>
+        <f t="shared" ref="D193:F193" si="76">COUNT(D188,"Untested")</f>
         <v>0</v>
       </c>
       <c r="E193" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="F193" s="2">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="G193" s="2">
+        <f t="shared" ref="G193" si="77">COUNT(G188,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>139</v>
       </c>
@@ -5779,19 +6259,23 @@
         <v>1</v>
       </c>
       <c r="D194" s="2">
-        <f t="shared" ref="D194:F194" si="36">D189+D192+D191+D193+D190</f>
+        <f t="shared" ref="D194:F194" si="78">D189+D192+D191+D193+D190</f>
         <v>0</v>
       </c>
       <c r="E194" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="F194" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G194" s="2">
+        <f t="shared" ref="G194" si="79">G189+G192+G191+G193+G190</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="18" t="s">
         <v>8</v>
       </c>
@@ -5804,22 +6288,27 @@
         <v>1</v>
       </c>
       <c r="D195" s="6" t="e">
-        <f t="shared" ref="D195:F195" si="37">(D189+D190)/D194</f>
+        <f t="shared" ref="D195:F195" si="80">(D189+D190)/D194</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E195" s="6" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F195" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="80"/>
         <v>1</v>
       </c>
+      <c r="G195" s="6">
+        <f t="shared" ref="G195" si="81">(G189+G190)/G194</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5847,14 +6336,14 @@
       <c r="A1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="21"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6092,10 +6581,10 @@
       <c r="A20" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="15"/>
@@ -6250,10 +6739,10 @@
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -6642,16 +7131,16 @@
       <c r="A52" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="23" t="s">
+      <c r="B52" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6804,10 +7293,10 @@
     </row>
     <row r="60" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
@@ -6941,16 +7430,16 @@
       <c r="A69" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B69" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="23" t="s">
+      <c r="B69" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7461,16 +7950,16 @@
       <c r="A99" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B99" s="24" t="s">
+      <c r="B99" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C99" s="24" t="s">
+      <c r="C99" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D99" s="24" t="s">
+      <c r="D99" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="E99" s="24" t="s">
+      <c r="E99" s="22" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8474,16 +8963,16 @@
       <c r="A158" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B158" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C158" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E158" s="23" t="s">
+      <c r="B158" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8805,10 +9294,10 @@
       <c r="A179" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B179" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C179" s="23" t="s">
+      <c r="B179" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D179" s="15"/>

--- a/doc/OpenGL status.xlsx
+++ b/doc/OpenGL status.xlsx
@@ -20,7 +20,7 @@
     <author>Groove</author>
   </authors>
   <commentList>
-    <comment ref="B8" authorId="0">
+    <comment ref="B37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -34,7 +34,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0">
+    <comment ref="C37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="B40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0">
+    <comment ref="C40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0">
+    <comment ref="C41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="0">
+    <comment ref="B70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="0">
+    <comment ref="C70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="0">
+    <comment ref="D77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0">
+    <comment ref="E77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B52" authorId="0">
+    <comment ref="B81" authorId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C52" authorId="0">
+    <comment ref="C81" authorId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D52" authorId="0">
+    <comment ref="D81" authorId="0">
       <text>
         <r>
           <rPr>
@@ -219,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E52" authorId="0">
+    <comment ref="E81" authorId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F81" authorId="0">
+    <comment ref="F110" authorId="0">
       <text>
         <r>
           <rPr>
@@ -248,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F82" authorId="0">
+    <comment ref="F111" authorId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F84" authorId="0">
+    <comment ref="F113" authorId="0">
       <text>
         <r>
           <rPr>
@@ -278,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F85" authorId="0">
+    <comment ref="F114" authorId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F87" authorId="0">
+    <comment ref="F116" authorId="0">
       <text>
         <r>
           <rPr>
@@ -308,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G87" authorId="0">
+    <comment ref="G116" authorId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D90" authorId="0">
+    <comment ref="D119" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E90" authorId="0">
+    <comment ref="E119" authorId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B97" authorId="0">
+    <comment ref="B126" authorId="0">
       <text>
         <r>
           <rPr>
@@ -365,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C97" authorId="0">
+    <comment ref="C126" authorId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B98" authorId="0">
+    <comment ref="B127" authorId="0">
       <text>
         <r>
           <rPr>
@@ -393,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C98" authorId="0">
+    <comment ref="C127" authorId="0">
       <text>
         <r>
           <rPr>
@@ -408,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F109" authorId="0">
+    <comment ref="F138" authorId="0">
       <text>
         <r>
           <rPr>
@@ -423,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F120" authorId="0">
+    <comment ref="F149" authorId="0">
       <text>
         <r>
           <rPr>
@@ -438,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F124" authorId="0">
+    <comment ref="F153" authorId="0">
       <text>
         <r>
           <rPr>
@@ -453,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B130" authorId="0">
+    <comment ref="B159" authorId="0">
       <text>
         <r>
           <rPr>
@@ -467,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C130" authorId="0">
+    <comment ref="C159" authorId="0">
       <text>
         <r>
           <rPr>
@@ -481,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F130" authorId="0">
+    <comment ref="F159" authorId="0">
       <text>
         <r>
           <rPr>
@@ -496,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F139" authorId="0">
+    <comment ref="F168" authorId="0">
       <text>
         <r>
           <rPr>
@@ -511,7 +511,35 @@
         </r>
       </text>
     </comment>
-    <comment ref="B150" authorId="0">
+    <comment ref="F173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GLSL compiler results an invalid warning, GLSL version are not deprecated in core profile</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GLSL compiler results an invalid warning, GLSL version are not deprecated in core profile</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B179" authorId="0">
       <text>
         <r>
           <rPr>
@@ -525,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C150" authorId="0">
+    <comment ref="C179" authorId="0">
       <text>
         <r>
           <rPr>
@@ -539,7 +567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F155" authorId="0">
+    <comment ref="F184" authorId="0">
       <text>
         <r>
           <rPr>
@@ -554,7 +582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B166" authorId="0">
+    <comment ref="B195" authorId="0">
       <text>
         <r>
           <rPr>
@@ -569,7 +597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D167" authorId="0">
+    <comment ref="D196" authorId="0">
       <text>
         <r>
           <rPr>
@@ -583,7 +611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E167" authorId="0">
+    <comment ref="E196" authorId="0">
       <text>
         <r>
           <rPr>
@@ -597,7 +625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F167" authorId="0">
+    <comment ref="F196" authorId="0">
       <text>
         <r>
           <rPr>
@@ -611,7 +639,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B171" authorId="0">
+    <comment ref="B200" authorId="0">
       <text>
         <r>
           <rPr>
@@ -626,7 +654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B173" authorId="0">
+    <comment ref="B202" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1070,7 +1098,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="168">
   <si>
     <t>gl-430-texture-view</t>
   </si>
@@ -1553,6 +1581,27 @@
   </si>
   <si>
     <t>15.31.64.2885</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>NVIDIA 310.33</t>
+  </si>
+  <si>
+    <t>NVIDIA 310.64</t>
+  </si>
+  <si>
+    <t>AMD 12.11 b4</t>
+  </si>
+  <si>
+    <t>AMD 12.11 b11</t>
+  </si>
+  <si>
+    <t>Intel 15.28.10.2897</t>
+  </si>
+  <si>
+    <t>Intel 15.31.64.2885</t>
   </si>
 </sst>
 </file>
@@ -1633,7 +1682,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1692,6 +1741,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1699,7 +1759,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1737,13 +1797,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1771,6 +1838,546 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2012-12'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NVIDIA 310.33</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2012-12'!$A$7:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2012-12'!$B$7:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.73333333333333328</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95454545454545459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94736842105263153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2012-12'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NVIDIA 310.64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2012-12'!$A$7:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2012-12'!$C$7:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94736842105263153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2012-12'!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AMD 12.11 b4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2012-12'!$A$7:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2012-12'!$D$7:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90909090909090906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89473684210526316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2012-12'!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AMD 12.11 b11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2012-12'!$A$7:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2012-12'!$E$7:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89473684210526316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2012-12'!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel 15.28.10.2897</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2012-12'!$A$7:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2012-12'!$F$7:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73684210526315785</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2012-12'!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel 15.31.64.2885</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2012-12'!$A$7:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2012-12'!$G$7:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94736842105263153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91836734693877553</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="157276800"/>
+        <c:axId val="130896256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="157276800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130896256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="130896256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="157276800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2060,10 +2667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,18 +2687,18 @@
       <c r="A1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="26"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2127,10 +2734,10 @@
         <v>141</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>154</v>
@@ -2163,439 +2770,336 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="A6" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="B7" s="20">
+        <f>IF(B$56=0, 0,(B$51+B$52)/B$56)</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="C7" s="20">
+        <f t="shared" ref="C7:G7" si="0">IF(C$56=0, 0,(C$51+C$52)/C$56)</f>
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="B8" s="20">
+        <f>IF(B$88=0,0,(B$83+B$84)/B$88)</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="C8" s="20">
+        <f t="shared" ref="C8:G8" si="1">IF(C$88=0,0,(C$83+C$84)/C$88)</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="D8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="E8" s="20">
+        <f t="shared" si="1"/>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="F8" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B9" s="20">
+        <f>IF(B$105=0, 0, (B$100+B$101)/B$105)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C9" s="20">
+        <f t="shared" ref="C9:G9" si="2">IF(C$105=0, 0, (C$100+C$101)/C$105)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D9" s="20">
+        <f t="shared" si="2"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E9" s="20">
+        <f t="shared" si="2"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F9" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="B10" s="20">
+        <f>IF(B$133=0, 0, (B$128+B$129)/B$133)</f>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="C10" s="20">
+        <f t="shared" ref="C10:G10" si="3">IF(C$133=0, 0, (C$128+C$129)/C$133)</f>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="D10" s="20">
+        <f t="shared" si="3"/>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="E10" s="20">
+        <f t="shared" si="3"/>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" si="3"/>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" si="3"/>
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="28">
+        <f>IF(B$191=0, 0, (B$186+B$187)/B$191)</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="28">
+        <f t="shared" ref="C11:G11" si="4">IF(C$191=0, 0, (C$186+C$187)/C$191)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="28">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="28">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="28">
+        <f t="shared" si="4"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G11" s="28">
+        <f t="shared" si="4"/>
+        <v>0.91836734693877553</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="10">
-        <f>COUNTIF(B7:B21,"pass")</f>
-        <v>11</v>
-      </c>
-      <c r="C22" s="10">
-        <f>COUNTIF(C7:C21,"pass")</f>
-        <v>12</v>
-      </c>
-      <c r="D22" s="10">
-        <f t="shared" ref="D22:F22" si="0">COUNTIF(D7:D21,"pass")</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
-        <f>COUNTIF(G7:G21,"pass")</f>
-        <v>0</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="5">
-        <f>COUNTIF(B7:B21,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="5">
-        <f>COUNTIF(C7:C21,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="5">
-        <f t="shared" ref="D23:F23" si="1">COUNTIF(D7:D21,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
-        <f>COUNTIF(G7:G21,"Ok")</f>
-        <v>0</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="11">
-        <f>COUNTIF(B7:B21,"workaround")</f>
-        <v>3</v>
-      </c>
-      <c r="C24" s="11">
-        <f>COUNTIF(C7:C21,"workaround")</f>
-        <v>2</v>
-      </c>
-      <c r="D24" s="11">
-        <f t="shared" ref="D24:F24" si="2">COUNTIF(D7:D21,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="11">
-        <f>COUNTIF(G7:G21,"workaround")</f>
-        <v>0</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="12">
-        <f>COUNTIF(B7:B21,"Fail")</f>
-        <v>1</v>
-      </c>
-      <c r="C25" s="12">
-        <f>COUNTIF(C7:C21,"Fail")</f>
-        <v>1</v>
-      </c>
-      <c r="D25" s="12">
-        <f t="shared" ref="D25:F25" si="3">COUNTIF(D7:D21,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="12">
-        <f>COUNTIF(G7:G21,"Fail")</f>
-        <v>0</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="2">
-        <f>COUNT(B7:B21,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="2">
-        <f>COUNT(C7:C21,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" ref="D26:F26" si="4">COUNT(D7:D21,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <f>COUNT(G7:G21,"Untested")</f>
-        <v>0</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="2">
-        <f>B22+B25+B24+B26+B23</f>
-        <v>15</v>
-      </c>
-      <c r="C27" s="2">
-        <f>C22+C25+C24+C26+C23</f>
-        <v>15</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" ref="D27:F27" si="5">D22+D25+D24+D26+D23</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" ref="G27" si="6">G22+G25+G24+G26+G23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="6">
-        <f>(B22+B23)/B27</f>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="C28" s="6">
-        <f>(C22+C23)/C27</f>
-        <v>0.8</v>
-      </c>
-      <c r="D28" s="6" t="e">
-        <f t="shared" ref="D28:F28" si="7">(D22+D23)/D27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="6" t="e">
-        <f t="shared" ref="G28" si="8">(G22+G23)/G27</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -2605,148 +3109,91 @@
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="A35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="27"/>
+        <v>129</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>6</v>
@@ -2754,18 +3201,13 @@
       <c r="C38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>6</v>
@@ -2773,56 +3215,41 @@
       <c r="C39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>6</v>
@@ -2830,37 +3257,27 @@
       <c r="C42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>6</v>
+        <v>137</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>6</v>
@@ -2868,18 +3285,13 @@
       <c r="C44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>6</v>
@@ -2887,18 +3299,13 @@
       <c r="C45" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>6</v>
@@ -2906,18 +3313,13 @@
       <c r="C46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>6</v>
@@ -2925,18 +3327,13 @@
       <c r="C47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>6</v>
@@ -2944,18 +3341,13 @@
       <c r="C48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>6</v>
@@ -2963,317 +3355,308 @@
       <c r="C49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="A50" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B51" s="10">
+        <f>COUNTIF(B36:B50,"pass")</f>
+        <v>11</v>
+      </c>
+      <c r="C51" s="10">
+        <f>COUNTIF(C36:C50,"pass")</f>
+        <v>12</v>
+      </c>
+      <c r="D51" s="10">
+        <f t="shared" ref="D51:F51" si="5">COUNTIF(D36:D50,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="10">
+        <f>COUNTIF(G36:G50,"pass")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B52" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="5">
+        <f>COUNTIF(B36:B50,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="5">
+        <f>COUNTIF(C36:C50,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" ref="D52:F52" si="6">COUNTIF(D36:D50,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="5">
+        <f>COUNTIF(G36:G50,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
+      <c r="B53" s="11">
+        <f>COUNTIF(B36:B50,"workaround")</f>
+        <v>3</v>
+      </c>
+      <c r="C53" s="11">
+        <f>COUNTIF(C36:C50,"workaround")</f>
+        <v>2</v>
+      </c>
+      <c r="D53" s="11">
+        <f t="shared" ref="D53:F53" si="7">COUNTIF(D36:D50,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="11">
+        <f>COUNTIF(G36:G50,"workaround")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B54" s="10">
-        <f>COUNTIF(B31:B53,"pass")</f>
-        <v>20</v>
-      </c>
-      <c r="C54" s="10">
-        <f>COUNTIF(C31:C53,"pass")</f>
-        <v>21</v>
-      </c>
-      <c r="D54" s="10">
-        <f t="shared" ref="D54:F54" si="9">COUNTIF(D31:D53,"pass")</f>
-        <v>20</v>
-      </c>
-      <c r="E54" s="10">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="F54" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="10">
-        <f t="shared" ref="G54" si="10">COUNTIF(G31:G53,"pass")</f>
+        <v>7</v>
+      </c>
+      <c r="B54" s="12">
+        <f>COUNTIF(B36:B50,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="C54" s="12">
+        <f>COUNTIF(C36:C50,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="D54" s="12">
+        <f t="shared" ref="D54:F54" si="8">COUNTIF(D36:D50,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="12">
+        <f>COUNTIF(G36:G50,"Fail")</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B55" s="5">
-        <f>COUNTIF(B31:B53,"Ok")</f>
-        <v>1</v>
-      </c>
-      <c r="C55" s="5">
-        <f>COUNTIF(C31:C53,"Ok")</f>
-        <v>1</v>
-      </c>
-      <c r="D55" s="5">
-        <f t="shared" ref="D55:F55" si="11">COUNTIF(D31:D53,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="E55" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="5">
-        <f t="shared" ref="G55" si="12">COUNTIF(G31:G53,"Ok")</f>
+        <v>145</v>
+      </c>
+      <c r="B55" s="2">
+        <f>COUNT(B36:B50,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="2">
+        <f>COUNT(C36:C50,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" ref="D55:F55" si="9">COUNT(D36:D50,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="2">
+        <f>COUNT(G36:G50,"Untested")</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B56" s="11">
-        <f>COUNTIF(B31:B53,"workaround")</f>
-        <v>1</v>
-      </c>
-      <c r="C56" s="11">
-        <f>COUNTIF(C31:C53,"workaround")</f>
-        <v>1</v>
-      </c>
-      <c r="D56" s="11">
-        <f t="shared" ref="D56:F56" si="13">COUNTIF(D31:D53,"workaround")</f>
-        <v>1</v>
-      </c>
-      <c r="E56" s="11">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="F56" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="11">
-        <f t="shared" ref="G56" si="14">COUNTIF(G31:G53,"workaround")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="12">
-        <f>COUNTIF(B31:B53,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C57" s="12">
-        <f>COUNTIF(C31:C53,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="D57" s="12">
-        <f t="shared" ref="D57:F57" si="15">COUNTIF(D31:D53,"Fail")</f>
-        <v>1</v>
-      </c>
-      <c r="E57" s="12">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="F57" s="12">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="12">
-        <f t="shared" ref="G57" si="16">COUNTIF(G31:G53,"Fail")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" s="2">
-        <f>COUNT(B31:B53,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C58" s="2">
-        <f>COUNT(C31:C53,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="2">
-        <f t="shared" ref="D58:F58" si="17">COUNT(D31:D53,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="2">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="2">
-        <f t="shared" ref="G58" si="18">COUNT(G31:G53,"Untested")</f>
-        <v>0</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B56" s="2">
+        <f>B51+B54+B53+B55+B52</f>
+        <v>15</v>
+      </c>
+      <c r="C56" s="2">
+        <f>C51+C54+C53+C55+C52</f>
+        <v>15</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" ref="D56:F56" si="10">D51+D54+D53+D55+D52</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" ref="G56" si="11">G51+G54+G53+G55+G52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="6">
+        <f>IF(B$56=0, 0,(B$51+B$52)/B$56)</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="C57" s="6">
+        <f t="shared" ref="C57:G57" si="12">IF(C$56=0, 0,(C$51+C$52)/C$56)</f>
+        <v>0.8</v>
+      </c>
+      <c r="D57" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B59" s="2">
-        <f>B54+B57+B56+B58+B55</f>
-        <v>22</v>
-      </c>
-      <c r="C59" s="2">
-        <f>C54+C57+C56+C58+C55</f>
-        <v>23</v>
-      </c>
-      <c r="D59" s="2">
-        <f t="shared" ref="D59:F59" si="19">D54+D57+D56+D58+D55</f>
-        <v>22</v>
-      </c>
-      <c r="E59" s="2">
-        <f t="shared" si="19"/>
-        <v>23</v>
-      </c>
-      <c r="F59" s="2">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="2">
-        <f t="shared" ref="G59" si="20">G54+G57+G56+G58+G55</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="6">
-        <f>(B54+B55)/B59</f>
-        <v>0.95454545454545459</v>
-      </c>
-      <c r="C60" s="6">
-        <f>(C54+C55)/C59</f>
-        <v>0.95652173913043481</v>
-      </c>
-      <c r="D60" s="6">
-        <f t="shared" ref="D60:F60" si="21">(D54+D55)/D59</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="E60" s="6">
-        <f t="shared" si="21"/>
-        <v>0.91304347826086951</v>
-      </c>
-      <c r="F60" s="6" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G60" s="6" t="e">
-        <f t="shared" ref="G60" si="22">(G54+G55)/G59</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
+      <c r="A59" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="A62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>6</v>
@@ -3292,7 +3675,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>6</v>
@@ -3311,17 +3694,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B65" s="25"/>
       <c r="C65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D65" s="25"/>
       <c r="E65" s="4" t="s">
         <v>6</v>
       </c>
@@ -3330,7 +3709,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>6</v>
@@ -3349,7 +3728,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>6</v>
@@ -3368,7 +3747,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>6</v>
@@ -3387,7 +3766,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>6</v>
@@ -3405,250 +3784,198 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
+      <c r="A70" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" s="10">
-        <f>COUNTIF(B63:B70,"pass")</f>
-        <v>8</v>
-      </c>
-      <c r="C71" s="10">
-        <f>COUNTIF(C63:C70,"pass")</f>
-        <v>8</v>
-      </c>
-      <c r="D71" s="10">
-        <f t="shared" ref="D71:F71" si="23">COUNTIF(D63:D70,"pass")</f>
-        <v>8</v>
-      </c>
-      <c r="E71" s="10">
-        <f t="shared" si="23"/>
-        <v>8</v>
-      </c>
-      <c r="F71" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="G71" s="10">
-        <f t="shared" ref="G71" si="24">COUNTIF(G63:G70,"pass")</f>
-        <v>0</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="5">
-        <f>COUNTIF(B63:B70,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="C72" s="5">
-        <f>COUNTIF(C63:C70,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="D72" s="5">
-        <f t="shared" ref="D72:F72" si="25">COUNTIF(D63:D70,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="E72" s="5">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F72" s="5">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="5">
-        <f t="shared" ref="G72" si="26">COUNTIF(G63:G70,"Ok")</f>
-        <v>0</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B73" s="11">
-        <f t="shared" ref="B73:G73" si="27">COUNTIF(B94:B163,"workaround")</f>
-        <v>1</v>
-      </c>
-      <c r="C73" s="11">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="D73" s="11">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="E73" s="11">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="F73" s="11">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="11">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="12">
-        <f>COUNTIF(B63:B70,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C74" s="12">
-        <f>COUNTIF(C63:C70,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="D74" s="12">
-        <f t="shared" ref="D74:F74" si="28">COUNTIF(D63:D70,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="E74" s="12">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="F74" s="12">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="12">
-        <f t="shared" ref="G74" si="29">COUNTIF(G63:G70,"Fail")</f>
-        <v>0</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B75" s="2">
-        <f>COUNT(B63:B70,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C75" s="2">
-        <f>COUNT(C63:C70,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D75" s="2">
-        <f t="shared" ref="D75:F75" si="30">COUNT(D63:D70,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E75" s="2">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="F75" s="2">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="2">
-        <f t="shared" ref="G75" si="31">COUNT(G63:G70,"Untested")</f>
-        <v>0</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B76" s="2">
-        <f>B71+B74+B73+B75+B72</f>
-        <v>9</v>
-      </c>
-      <c r="C76" s="2">
-        <f>C71+C74+C73+C75+C72</f>
-        <v>9</v>
-      </c>
-      <c r="D76" s="2">
-        <f t="shared" ref="D76:F76" si="32">D71+D74+D73+D75+D72</f>
-        <v>9</v>
-      </c>
-      <c r="E76" s="2">
-        <f t="shared" si="32"/>
-        <v>9</v>
-      </c>
-      <c r="F76" s="2">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="G76" s="2">
-        <f t="shared" ref="G76" si="33">G71+G74+G73+G75+G72</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="6">
-        <f>(B71+B72)/B76</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="C77" s="6">
-        <f>(C71+C72)/C76</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="D77" s="6">
-        <f t="shared" ref="D77:F77" si="34">(D71+D72)/D76</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="E77" s="6">
-        <f t="shared" si="34"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F77" s="6" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G77" s="6" t="e">
-        <f t="shared" ref="G77" si="35">(G71+G72)/G76</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="13"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
+        <v>120</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
+      <c r="A79" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>6</v>
@@ -3662,269 +3989,273 @@
       <c r="E80" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A82" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="B83" s="10">
+        <f>COUNTIF(B60:B82,"pass")</f>
+        <v>20</v>
+      </c>
+      <c r="C83" s="10">
+        <f>COUNTIF(C60:C82,"pass")</f>
+        <v>21</v>
+      </c>
+      <c r="D83" s="10">
+        <f t="shared" ref="D83:F83" si="13">COUNTIF(D60:D82,"pass")</f>
+        <v>20</v>
+      </c>
+      <c r="E83" s="10">
+        <f t="shared" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="F83" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="10">
+        <f t="shared" ref="G83" si="14">COUNTIF(G60:G82,"pass")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>6</v>
+        <v>143</v>
+      </c>
+      <c r="B84" s="5">
+        <f>COUNTIF(B60:B82,"Ok")</f>
+        <v>1</v>
+      </c>
+      <c r="C84" s="5">
+        <f>COUNTIF(C60:C82,"Ok")</f>
+        <v>1</v>
+      </c>
+      <c r="D84" s="5">
+        <f t="shared" ref="D84:F84" si="15">COUNTIF(D60:D82,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="5">
+        <f t="shared" ref="G84" si="16">COUNTIF(G60:G82,"Ok")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>6</v>
+        <v>140</v>
+      </c>
+      <c r="B85" s="11">
+        <f>COUNTIF(B60:B82,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="C85" s="11">
+        <f>COUNTIF(C60:C82,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="D85" s="11">
+        <f t="shared" ref="D85:F85" si="17">COUNTIF(D60:D82,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="E85" s="11">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="F85" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="11">
+        <f t="shared" ref="G85" si="18">COUNTIF(G60:G82,"workaround")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B86" s="12">
+        <f>COUNTIF(B60:B82,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C86" s="12">
+        <f>COUNTIF(C60:C82,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D86" s="12">
+        <f t="shared" ref="D86:F86" si="19">COUNTIF(D60:D82,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="E86" s="12">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="F86" s="12">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="12">
+        <f t="shared" ref="G86" si="20">COUNTIF(G60:G82,"Fail")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>7</v>
+        <v>145</v>
+      </c>
+      <c r="B87" s="2">
+        <f>COUNT(B60:B82,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C87" s="2">
+        <f>COUNT(C60:C82,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" ref="D87:F87" si="21">COUNT(D60:D82,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" ref="G87" si="22">COUNT(G60:G82,"Untested")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B88" s="2">
+        <f>B83+B86+B85+B87+B84</f>
+        <v>22</v>
+      </c>
+      <c r="C88" s="2">
+        <f>C83+C86+C85+C87+C84</f>
+        <v>23</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" ref="D88:F88" si="23">D83+D86+D85+D87+D84</f>
+        <v>22</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" si="23"/>
+        <v>23</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="2">
+        <f t="shared" ref="G88" si="24">G83+G86+G85+G87+G84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="6">
+        <f>IF(B$88=0,0,(B$83+B$84)/B$88)</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="C89" s="6">
+        <f t="shared" ref="C89:G89" si="25">IF(C$88=0,0,(C$83+C$84)/C$88)</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="D89" s="6">
+        <f t="shared" si="25"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="E89" s="6">
+        <f t="shared" si="25"/>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="F89" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A91" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>6</v>
@@ -3938,16 +4269,12 @@
       <c r="E92" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F92" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>6</v>
@@ -3961,16 +4288,12 @@
       <c r="E93" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>6</v>
@@ -3984,16 +4307,12 @@
       <c r="E94" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>6</v>
@@ -4007,16 +4326,12 @@
       <c r="E95" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>6</v>
@@ -4030,16 +4345,12 @@
       <c r="E96" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>6</v>
@@ -4053,285 +4364,273 @@
       <c r="E97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F97" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B98" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D98" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E98" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A98" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" s="10">
-        <f t="shared" ref="B99:G99" si="36">COUNTIF(B80:B98,"pass")</f>
-        <v>18</v>
-      </c>
-      <c r="C99" s="10">
-        <f t="shared" si="36"/>
-        <v>18</v>
-      </c>
-      <c r="D99" s="10">
-        <f t="shared" si="36"/>
-        <v>17</v>
-      </c>
-      <c r="E99" s="10">
-        <f t="shared" si="36"/>
-        <v>17</v>
-      </c>
-      <c r="F99" s="10">
-        <f t="shared" si="36"/>
-        <v>14</v>
-      </c>
-      <c r="G99" s="10">
-        <f t="shared" si="36"/>
-        <v>18</v>
-      </c>
+      <c r="A99" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B100" s="5">
-        <f t="shared" ref="B100:G100" si="37">COUNTIF(B80:B98,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="C100" s="5">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="D100" s="5">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E100" s="5">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="F100" s="5">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="5">
-        <f t="shared" si="37"/>
+        <v>6</v>
+      </c>
+      <c r="B100" s="10">
+        <f>COUNTIF(B92:B99,"pass")</f>
+        <v>8</v>
+      </c>
+      <c r="C100" s="10">
+        <f>COUNTIF(C92:C99,"pass")</f>
+        <v>8</v>
+      </c>
+      <c r="D100" s="10">
+        <f t="shared" ref="D100:F100" si="26">COUNTIF(D92:D99,"pass")</f>
+        <v>8</v>
+      </c>
+      <c r="E100" s="10">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="F100" s="10">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="10">
+        <f t="shared" ref="G100" si="27">COUNTIF(G92:G99,"pass")</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B101" s="11">
-        <f t="shared" ref="B101:G101" si="38">COUNTIF(B80:B98,"workaround")</f>
-        <v>1</v>
-      </c>
-      <c r="C101" s="11">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="D101" s="11">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="E101" s="11">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="F101" s="11">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="11">
-        <f t="shared" si="38"/>
+        <v>143</v>
+      </c>
+      <c r="B101" s="5">
+        <f>COUNTIF(B92:B99,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C101" s="5">
+        <f>COUNTIF(C92:C99,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D101" s="5">
+        <f t="shared" ref="D101:F101" si="28">COUNTIF(D92:D99,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="5">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F101" s="5">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="5">
+        <f t="shared" ref="G101" si="29">COUNTIF(G92:G99,"Ok")</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B102" s="12">
-        <f t="shared" ref="B102:G102" si="39">COUNTIF(B80:B98,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C102" s="12">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="D102" s="12">
-        <f t="shared" si="39"/>
+        <v>140</v>
+      </c>
+      <c r="B102" s="11">
+        <f t="shared" ref="B102:G102" si="30">COUNTIF(B123:B192,"workaround")</f>
         <v>1</v>
       </c>
-      <c r="E102" s="12">
-        <f t="shared" si="39"/>
+      <c r="C102" s="11">
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="F102" s="12">
-        <f t="shared" si="39"/>
-        <v>5</v>
-      </c>
-      <c r="G102" s="12">
-        <f t="shared" si="39"/>
+      <c r="D102" s="11">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="E102" s="11">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="F102" s="11">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="G102" s="11">
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B103" s="2">
-        <f t="shared" ref="B103:G103" si="40">COUNT(B80:B98,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C103" s="2">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="D103" s="2">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="E103" s="2">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="F103" s="2">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="2">
-        <f t="shared" si="40"/>
+        <v>7</v>
+      </c>
+      <c r="B103" s="12">
+        <f>COUNTIF(B92:B99,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C103" s="12">
+        <f>COUNTIF(C92:C99,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D103" s="12">
+        <f t="shared" ref="D103:F103" si="31">COUNTIF(D92:D99,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="F103" s="12">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="12">
+        <f t="shared" ref="G103" si="32">COUNTIF(G92:G99,"Fail")</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B104" s="2">
+        <f>COUNT(B92:B99,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C104" s="2">
+        <f>COUNT(C92:C99,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D104" s="2">
+        <f t="shared" ref="D104:F104" si="33">COUNT(D92:D99,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E104" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="F104" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="2">
+        <f t="shared" ref="G104" si="34">COUNT(G92:G99,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B104" s="2">
-        <f>B99+B102+B101+B103+B100</f>
-        <v>19</v>
-      </c>
-      <c r="C104" s="2">
-        <f>C99+C102+C101+C103+C100</f>
-        <v>19</v>
-      </c>
-      <c r="D104" s="2">
-        <f t="shared" ref="D104:F104" si="41">D99+D102+D101+D103+D100</f>
-        <v>19</v>
-      </c>
-      <c r="E104" s="2">
-        <f t="shared" si="41"/>
-        <v>19</v>
-      </c>
-      <c r="F104" s="2">
-        <f t="shared" si="41"/>
-        <v>19</v>
-      </c>
-      <c r="G104" s="2">
-        <f t="shared" ref="G104" si="42">G99+G102+G101+G103+G100</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="18" t="s">
+      <c r="B105" s="2">
+        <f>B100+B103+B102+B104+B101</f>
+        <v>9</v>
+      </c>
+      <c r="C105" s="2">
+        <f>C100+C103+C102+C104+C101</f>
+        <v>9</v>
+      </c>
+      <c r="D105" s="2">
+        <f t="shared" ref="D105:F105" si="35">D100+D103+D102+D104+D101</f>
+        <v>9</v>
+      </c>
+      <c r="E105" s="2">
+        <f t="shared" si="35"/>
+        <v>9</v>
+      </c>
+      <c r="F105" s="2">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="G105" s="2">
+        <f t="shared" ref="G105" si="36">G100+G103+G102+G104+G101</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B105" s="6">
-        <f>(B99+B100)/B104</f>
-        <v>0.94736842105263153</v>
-      </c>
-      <c r="C105" s="6">
-        <f>(C99+C100)/C104</f>
-        <v>0.94736842105263153</v>
-      </c>
-      <c r="D105" s="6">
-        <f t="shared" ref="D105:F105" si="43">(D99+D100)/D104</f>
-        <v>0.89473684210526316</v>
-      </c>
-      <c r="E105" s="6">
-        <f t="shared" si="43"/>
-        <v>0.89473684210526316</v>
-      </c>
-      <c r="F105" s="6">
-        <f t="shared" si="43"/>
-        <v>0.73684210526315785</v>
-      </c>
-      <c r="G105" s="6">
-        <f t="shared" ref="G105" si="44">(G99+G100)/G104</f>
-        <v>0.94736842105263153</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="14"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
+      <c r="B106" s="6">
+        <f>IF(B$105=0, 0, (B$100+B$101)/B$105)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C106" s="6">
+        <f t="shared" ref="C106:G106" si="37">IF(C$105=0, 0, (C$100+C$101)/C$105)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D106" s="6">
+        <f t="shared" si="37"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E106" s="6">
+        <f t="shared" si="37"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F106" s="6">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="6">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="13"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A108" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>6</v>
@@ -4345,16 +4644,16 @@
       <c r="E109" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F109" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>7</v>
+      <c r="F109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>6</v>
@@ -4368,8 +4667,8 @@
       <c r="E110" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F110" s="4" t="s">
-        <v>6</v>
+      <c r="F110" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>6</v>
@@ -4377,7 +4676,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>6</v>
@@ -4391,8 +4690,8 @@
       <c r="E111" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F111" s="4" t="s">
-        <v>6</v>
+      <c r="F111" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>6</v>
@@ -4400,7 +4699,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>6</v>
@@ -4423,7 +4722,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>6</v>
@@ -4437,8 +4736,8 @@
       <c r="E113" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F113" s="4" t="s">
-        <v>6</v>
+      <c r="F113" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>6</v>
@@ -4446,7 +4745,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>6</v>
@@ -4460,8 +4759,8 @@
       <c r="E114" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F114" s="4" t="s">
-        <v>6</v>
+      <c r="F114" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>6</v>
@@ -4469,7 +4768,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>6</v>
@@ -4492,7 +4791,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>6</v>
@@ -4506,16 +4805,16 @@
       <c r="E116" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F116" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>6</v>
+      <c r="F116" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>6</v>
@@ -4538,7 +4837,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>6</v>
@@ -4561,7 +4860,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>6</v>
@@ -4569,11 +4868,11 @@
       <c r="C119" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>6</v>
+      <c r="D119" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>6</v>
@@ -4584,7 +4883,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>6</v>
@@ -4598,8 +4897,8 @@
       <c r="E120" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F120" s="8" t="s">
-        <v>7</v>
+      <c r="F120" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>6</v>
@@ -4607,7 +4906,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>6</v>
@@ -4630,7 +4929,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>6</v>
@@ -4653,7 +4952,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>6</v>
@@ -4676,7 +4975,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>6</v>
@@ -4690,8 +4989,8 @@
       <c r="E124" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F124" s="8" t="s">
-        <v>7</v>
+      <c r="F124" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>6</v>
@@ -4699,7 +4998,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>6</v>
@@ -4722,7 +5021,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>6</v>
@@ -4744,238 +5043,254 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G127" s="4" t="s">
+      <c r="A127" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E127" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F127" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>6</v>
+        <v>6</v>
+      </c>
+      <c r="B128" s="10">
+        <f t="shared" ref="B128:G128" si="38">COUNTIF(B109:B127,"pass")</f>
+        <v>18</v>
+      </c>
+      <c r="C128" s="10">
+        <f t="shared" si="38"/>
+        <v>18</v>
+      </c>
+      <c r="D128" s="10">
+        <f t="shared" si="38"/>
+        <v>17</v>
+      </c>
+      <c r="E128" s="10">
+        <f t="shared" si="38"/>
+        <v>17</v>
+      </c>
+      <c r="F128" s="10">
+        <f t="shared" si="38"/>
+        <v>14</v>
+      </c>
+      <c r="G128" s="10">
+        <f t="shared" si="38"/>
+        <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>6</v>
+        <v>143</v>
+      </c>
+      <c r="B129" s="5">
+        <f t="shared" ref="B129:G129" si="39">COUNTIF(B109:B127,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C129" s="5">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="D129" s="5">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="E129" s="5">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="F129" s="5">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G129" s="5">
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>6</v>
+        <v>140</v>
+      </c>
+      <c r="B130" s="11">
+        <f t="shared" ref="B130:G130" si="40">COUNTIF(B109:B127,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="C130" s="11">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="D130" s="11">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="E130" s="11">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="F130" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="G130" s="11">
+        <f t="shared" si="40"/>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B131" s="12">
+        <f t="shared" ref="B131:G131" si="41">COUNTIF(B109:B127,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C131" s="12">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="D131" s="12">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="E131" s="12">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="F131" s="12">
+        <f t="shared" si="41"/>
+        <v>5</v>
+      </c>
+      <c r="G131" s="12">
+        <f t="shared" si="41"/>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>6</v>
+        <v>145</v>
+      </c>
+      <c r="B132" s="2">
+        <f t="shared" ref="B132:G132" si="42">COUNT(B109:B127,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C132" s="2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="D132" s="2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="E132" s="2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="F132" s="2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="G132" s="2">
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B133" s="2">
+        <f>B128+B131+B130+B132+B129</f>
+        <v>19</v>
+      </c>
+      <c r="C133" s="2">
+        <f>C128+C131+C130+C132+C129</f>
+        <v>19</v>
+      </c>
+      <c r="D133" s="2">
+        <f t="shared" ref="D133:F133" si="43">D128+D131+D130+D132+D129</f>
+        <v>19</v>
+      </c>
+      <c r="E133" s="2">
+        <f t="shared" si="43"/>
+        <v>19</v>
+      </c>
+      <c r="F133" s="2">
+        <f t="shared" si="43"/>
+        <v>19</v>
+      </c>
+      <c r="G133" s="2">
+        <f t="shared" ref="G133" si="44">G128+G131+G130+G132+G129</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="6">
+        <f>IF(B$133=0, 0, (B$128+B$129)/B$133)</f>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="C134" s="6">
+        <f t="shared" ref="C134:G134" si="45">IF(C$133=0, 0, (C$128+C$129)/C$133)</f>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="D134" s="6">
+        <f t="shared" si="45"/>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="E134" s="6">
+        <f t="shared" si="45"/>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="F134" s="6">
+        <f t="shared" si="45"/>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="G134" s="6">
+        <f t="shared" si="45"/>
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="14"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="14"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A136" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>6</v>
@@ -4998,7 +5313,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>6</v>
@@ -5012,16 +5327,16 @@
       <c r="E138" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F138" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>6</v>
+      <c r="F138" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>6</v>
@@ -5035,16 +5350,16 @@
       <c r="E139" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F139" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G139" s="8" t="s">
-        <v>7</v>
+      <c r="F139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>6</v>
@@ -5067,7 +5382,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>6</v>
@@ -5090,7 +5405,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>6</v>
@@ -5113,7 +5428,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>6</v>
@@ -5136,7 +5451,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>6</v>
@@ -5159,7 +5474,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>6</v>
@@ -5182,7 +5497,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>6</v>
@@ -5205,7 +5520,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>6</v>
@@ -5228,7 +5543,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>6</v>
@@ -5251,7 +5566,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>6</v>
@@ -5265,8 +5580,8 @@
       <c r="E149" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F149" s="4" t="s">
-        <v>6</v>
+      <c r="F149" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>6</v>
@@ -5274,7 +5589,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>6</v>
@@ -5297,7 +5612,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>6</v>
@@ -5320,7 +5635,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>6</v>
@@ -5343,7 +5658,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>6</v>
@@ -5357,8 +5672,8 @@
       <c r="E153" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F153" s="4" t="s">
-        <v>6</v>
+      <c r="F153" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>6</v>
@@ -5366,7 +5681,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>6</v>
@@ -5389,7 +5704,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>6</v>
@@ -5403,265 +5718,249 @@
       <c r="E155" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F155" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G155" s="8" t="s">
-        <v>7</v>
+      <c r="F155" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B156" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C156" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D156" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E156" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F156" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G156" s="21" t="s">
+      <c r="A156" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G156" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B157" s="10">
-        <f t="shared" ref="B157:G157" si="45">COUNTIF(B108:B156,"pass")</f>
-        <v>48</v>
-      </c>
-      <c r="C157" s="10">
-        <f t="shared" si="45"/>
-        <v>48</v>
-      </c>
-      <c r="D157" s="10">
-        <f t="shared" si="45"/>
-        <v>49</v>
-      </c>
-      <c r="E157" s="10">
-        <f t="shared" si="45"/>
-        <v>49</v>
-      </c>
-      <c r="F157" s="10">
-        <f t="shared" si="45"/>
-        <v>43</v>
-      </c>
-      <c r="G157" s="10">
-        <f t="shared" si="45"/>
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B158" s="5">
-        <f t="shared" ref="B158:G158" si="46">COUNTIF(B108:B156,"Ok")</f>
-        <v>1</v>
-      </c>
-      <c r="C158" s="5">
-        <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
-      <c r="D158" s="5">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="E158" s="5">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="F158" s="5">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="G158" s="5">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B159" s="11">
-        <f t="shared" ref="B159:G159" si="47">COUNTIF(B108:B156,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="C159" s="11">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="D159" s="11">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="E159" s="11">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="F159" s="11">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G159" s="11">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B160" s="12">
-        <f t="shared" ref="B160:G160" si="48">COUNTIF(B108:B156,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C160" s="12">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="D160" s="12">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="E160" s="12">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="F160" s="12">
-        <f t="shared" si="48"/>
-        <v>6</v>
-      </c>
-      <c r="G160" s="12">
-        <f t="shared" si="48"/>
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B161" s="2">
-        <f t="shared" ref="B161:G161" si="49">COUNT(B108:B156,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C161" s="2">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="D161" s="2">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="E161" s="2">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="F161" s="2">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="G161" s="2">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B162" s="2">
-        <f>B157+B160+B159+B161+B158</f>
-        <v>49</v>
-      </c>
-      <c r="C162" s="2">
-        <f>C157+C160+C159+C161+C158</f>
-        <v>49</v>
-      </c>
-      <c r="D162" s="2">
-        <f t="shared" ref="D162:F162" si="50">D157+D160+D159+D161+D158</f>
-        <v>49</v>
-      </c>
-      <c r="E162" s="2">
-        <f t="shared" si="50"/>
-        <v>49</v>
-      </c>
-      <c r="F162" s="2">
-        <f t="shared" si="50"/>
-        <v>49</v>
-      </c>
-      <c r="G162" s="2">
-        <f t="shared" ref="G162" si="51">G157+G160+G159+G161+G158</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B163" s="6">
-        <f>(B157+B158)/B162</f>
-        <v>1</v>
-      </c>
-      <c r="C163" s="6">
-        <f>(C157+C158)/C162</f>
-        <v>1</v>
-      </c>
-      <c r="D163" s="6">
-        <f t="shared" ref="D163:F163" si="52">(D157+D158)/D162</f>
-        <v>1</v>
-      </c>
-      <c r="E163" s="6">
-        <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="F163" s="6">
-        <f t="shared" si="52"/>
-        <v>0.87755102040816324</v>
-      </c>
-      <c r="G163" s="6">
-        <f t="shared" ref="G163" si="53">(G157+G158)/G162</f>
-        <v>0.93877551020408168</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="13"/>
-      <c r="B164" s="16"/>
-      <c r="C164" s="16"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="13"/>
-      <c r="G164" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B165" s="15"/>
-      <c r="C165" s="15"/>
-      <c r="D165" s="15"/>
-      <c r="E165" s="15"/>
-      <c r="F165" s="15"/>
-      <c r="G165" s="15"/>
+      <c r="A165" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>7</v>
+        <v>44</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>6</v>
@@ -5672,12 +5971,16 @@
       <c r="E166" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
+      <c r="F166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="23" t="s">
-        <v>156</v>
+      <c r="A167" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>6</v>
@@ -5685,92 +5988,140 @@
       <c r="C167" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
+      <c r="D167" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D168" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
+      <c r="F168" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G168" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D169" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
+      <c r="F169" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D170" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
+      <c r="F170" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
+      <c r="D171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D172" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
+      <c r="F172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>7</v>
+        <v>51</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>6</v>
@@ -5781,12 +6132,16 @@
       <c r="E173" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
+      <c r="F173" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G173" s="7" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>6</v>
@@ -5794,29 +6149,45 @@
       <c r="C174" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
+      <c r="D174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D175" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
+      <c r="F175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>6</v>
@@ -5824,485 +6195,1130 @@
       <c r="C176" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
+      <c r="D176" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D177" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
+      <c r="F177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B178" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C178" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D178" s="15"/>
-      <c r="E178" s="15"/>
-      <c r="F178" s="15"/>
-      <c r="G178" s="15"/>
+      <c r="A178" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B179" s="10">
-        <f>COUNTIF(B166:B178,"pass")</f>
+        <v>57</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G184" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B185" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F185" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G185" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" s="10">
+        <f t="shared" ref="B186:G186" si="46">COUNTIF(B137:B185,"pass")</f>
+        <v>48</v>
+      </c>
+      <c r="C186" s="10">
+        <f t="shared" si="46"/>
+        <v>48</v>
+      </c>
+      <c r="D186" s="10">
+        <f t="shared" si="46"/>
+        <v>49</v>
+      </c>
+      <c r="E186" s="10">
+        <f t="shared" si="46"/>
+        <v>49</v>
+      </c>
+      <c r="F186" s="10">
+        <f t="shared" si="46"/>
+        <v>42</v>
+      </c>
+      <c r="G186" s="10">
+        <f t="shared" si="46"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B187" s="5">
+        <f t="shared" ref="B187:G187" si="47">COUNTIF(B137:B185,"Ok")</f>
+        <v>1</v>
+      </c>
+      <c r="C187" s="5">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="D187" s="5">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="E187" s="5">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="F187" s="5">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G187" s="5">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B188" s="11">
+        <f t="shared" ref="B188:G188" si="48">COUNTIF(B137:B185,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C188" s="11">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="D188" s="11">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="E188" s="11">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="F188" s="11">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="G188" s="11">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" s="12">
+        <f t="shared" ref="B189:G189" si="49">COUNTIF(B137:B185,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C189" s="12">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="D189" s="12">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="E189" s="12">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F189" s="12">
+        <f t="shared" si="49"/>
+        <v>6</v>
+      </c>
+      <c r="G189" s="12">
+        <f t="shared" si="49"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B190" s="2">
+        <f t="shared" ref="B190:G190" si="50">COUNT(B137:B185,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C190" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="D190" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="E190" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="F190" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="G190" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B191" s="2">
+        <f>B186+B189+B188+B190+B187</f>
+        <v>49</v>
+      </c>
+      <c r="C191" s="2">
+        <f>C186+C189+C188+C190+C187</f>
+        <v>49</v>
+      </c>
+      <c r="D191" s="2">
+        <f t="shared" ref="D191:F191" si="51">D186+D189+D188+D190+D187</f>
+        <v>49</v>
+      </c>
+      <c r="E191" s="2">
+        <f t="shared" si="51"/>
+        <v>49</v>
+      </c>
+      <c r="F191" s="2">
+        <f t="shared" si="51"/>
+        <v>49</v>
+      </c>
+      <c r="G191" s="2">
+        <f t="shared" ref="G191" si="52">G186+G189+G188+G190+G187</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" s="6">
+        <f>IF(B$191=0, 0, (B$186+B$187)/B$191)</f>
+        <v>1</v>
+      </c>
+      <c r="C192" s="6">
+        <f t="shared" ref="C192:G192" si="53">IF(C$191=0, 0, (C$186+C$187)/C$191)</f>
+        <v>1</v>
+      </c>
+      <c r="D192" s="6">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="E192" s="6">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="F192" s="6">
+        <f t="shared" si="53"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G192" s="6">
+        <f t="shared" si="53"/>
+        <v>0.91836734693877553</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="13"/>
+      <c r="B193" s="16"/>
+      <c r="C193" s="16"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="13"/>
+      <c r="F193" s="13"/>
+      <c r="G193" s="13"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B194" s="15"/>
+      <c r="C194" s="15"/>
+      <c r="D194" s="15"/>
+      <c r="E194" s="15"/>
+      <c r="F194" s="15"/>
+      <c r="G194" s="15"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B207" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" s="15"/>
+      <c r="E207" s="15"/>
+      <c r="F207" s="15"/>
+      <c r="G207" s="15"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208" s="10">
+        <f>COUNTIF(B195:B207,"pass")</f>
         <v>4</v>
       </c>
-      <c r="C179" s="10">
-        <f>COUNTIF(C166:C178,"pass")</f>
+      <c r="C208" s="10">
+        <f>COUNTIF(C195:C207,"pass")</f>
         <v>7</v>
       </c>
-      <c r="D179" s="10">
-        <f t="shared" ref="D179:F179" si="54">COUNTIF(D166:D178,"pass")</f>
+      <c r="D208" s="10">
+        <f t="shared" ref="D208:F208" si="54">COUNTIF(D195:D207,"pass")</f>
         <v>8</v>
       </c>
-      <c r="E179" s="10">
+      <c r="E208" s="10">
         <f t="shared" si="54"/>
         <v>8</v>
       </c>
-      <c r="F179" s="10">
+      <c r="F208" s="10">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="G179" s="10">
-        <f t="shared" ref="G179" si="55">COUNTIF(G166:G178,"pass")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
+      <c r="G208" s="10">
+        <f t="shared" ref="G208" si="55">COUNTIF(G195:G207,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B180" s="5">
-        <f>COUNTIF(B166:B178,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="C180" s="5">
-        <f>COUNTIF(C166:C178,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="D180" s="5">
-        <f t="shared" ref="D180:F180" si="56">COUNTIF(D166:D178,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="E180" s="5">
+      <c r="B209" s="5">
+        <f>COUNTIF(B195:B207,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C209" s="5">
+        <f>COUNTIF(C195:C207,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D209" s="5">
+        <f t="shared" ref="D209:F209" si="56">COUNTIF(D195:D207,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E209" s="5">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="F180" s="5">
+      <c r="F209" s="5">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="G180" s="5">
-        <f t="shared" ref="G180" si="57">COUNTIF(G166:G178,"Ok")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
+      <c r="G209" s="5">
+        <f t="shared" ref="G209" si="57">COUNTIF(G195:G207,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B181" s="11">
-        <f>COUNTIF(B166:B178,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="C181" s="11">
-        <f>COUNTIF(C166:C178,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="D181" s="11">
-        <f t="shared" ref="D181:F181" si="58">COUNTIF(D166:D178,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="E181" s="11">
+      <c r="B210" s="11">
+        <f>COUNTIF(B195:B207,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C210" s="11">
+        <f>COUNTIF(C195:C207,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D210" s="11">
+        <f t="shared" ref="D210:F210" si="58">COUNTIF(D195:D207,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E210" s="11">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="F181" s="11">
+      <c r="F210" s="11">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="G181" s="11">
-        <f t="shared" ref="G181" si="59">COUNTIF(G166:G178,"workaround")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
+      <c r="G210" s="11">
+        <f t="shared" ref="G210" si="59">COUNTIF(G195:G207,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B182" s="12">
-        <f>COUNTIF(B166:B178,"Fail")</f>
+      <c r="B211" s="12">
+        <f>COUNTIF(B195:B207,"Fail")</f>
         <v>3</v>
       </c>
-      <c r="C182" s="12">
-        <f>COUNTIF(C166:C178,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="D182" s="12">
-        <f t="shared" ref="D182:F182" si="60">COUNTIF(D166:D178,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="E182" s="12">
+      <c r="C211" s="12">
+        <f>COUNTIF(C195:C207,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D211" s="12">
+        <f t="shared" ref="D211:F211" si="60">COUNTIF(D195:D207,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E211" s="12">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="F182" s="12">
+      <c r="F211" s="12">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="G182" s="12">
-        <f t="shared" ref="G182" si="61">COUNTIF(G166:G178,"Fail")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
+      <c r="G211" s="12">
+        <f t="shared" ref="G211" si="61">COUNTIF(G195:G207,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B183" s="2">
-        <f>COUNT(B166:B178,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C183" s="2">
-        <f>COUNT(C166:C178,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D183" s="2">
-        <f t="shared" ref="D183:F183" si="62">COUNT(D166:D178,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E183" s="2">
+      <c r="B212" s="2">
+        <f>COUNT(B195:B207,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C212" s="2">
+        <f>COUNT(C195:C207,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D212" s="2">
+        <f t="shared" ref="D212:F212" si="62">COUNT(D195:D207,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E212" s="2">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="F183" s="2">
+      <c r="F212" s="2">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="G183" s="2">
-        <f t="shared" ref="G183" si="63">COUNT(G166:G178,"Untested")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
+      <c r="G212" s="2">
+        <f t="shared" ref="G212" si="63">COUNT(G195:G207,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B184" s="2">
-        <f>B179+B182+B181+B183+B180</f>
+      <c r="B213" s="2">
+        <f>B208+B211+B210+B212+B209</f>
         <v>7</v>
       </c>
-      <c r="C184" s="2">
-        <f>C179+C182+C181+C183+C180</f>
+      <c r="C213" s="2">
+        <f>C208+C211+C210+C212+C209</f>
         <v>7</v>
       </c>
-      <c r="D184" s="2">
-        <f t="shared" ref="D184:F184" si="64">D179+D182+D181+D183+D180</f>
+      <c r="D213" s="2">
+        <f t="shared" ref="D213:F213" si="64">D208+D211+D210+D212+D209</f>
         <v>8</v>
       </c>
-      <c r="E184" s="2">
+      <c r="E213" s="2">
         <f t="shared" si="64"/>
         <v>8</v>
       </c>
-      <c r="F184" s="2">
+      <c r="F213" s="2">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="G184" s="2">
-        <f t="shared" ref="G184" si="65">G179+G182+G181+G183+G180</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="18" t="s">
+      <c r="G213" s="2">
+        <f t="shared" ref="G213" si="65">G208+G211+G210+G212+G209</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B185" s="6">
-        <f>(B179+B180)/B184</f>
+      <c r="B214" s="6">
+        <f>IF(B$213=0, 0, (B$208+B$209)/B$213)</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="C185" s="6">
-        <f>(C179+C180)/C184</f>
+      <c r="C214" s="6">
+        <f t="shared" ref="C214:G214" si="66">IF(C$213=0, 0, (C$208+C$209)/C$213)</f>
         <v>1</v>
       </c>
-      <c r="D185" s="6">
-        <f t="shared" ref="D185:F185" si="66">(D179+D180)/D184</f>
-        <v>1</v>
-      </c>
-      <c r="E185" s="6">
+      <c r="D214" s="6">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="F185" s="6" t="e">
+      <c r="E214" s="6">
         <f t="shared" si="66"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G185" s="6" t="e">
-        <f t="shared" ref="G185" si="67">(G179+G180)/G184</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="13"/>
-      <c r="B186" s="13"/>
-      <c r="C186" s="13"/>
-      <c r="D186" s="13"/>
-      <c r="E186" s="13"/>
-      <c r="F186" s="13"/>
-      <c r="G186" s="13"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F214" s="6">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="G214" s="6">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="13"/>
+      <c r="B215" s="13"/>
+      <c r="C215" s="13"/>
+      <c r="D215" s="13"/>
+      <c r="E215" s="13"/>
+      <c r="F215" s="13"/>
+      <c r="G215" s="13"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B187" s="15"/>
-      <c r="C187" s="15"/>
-      <c r="D187" s="15"/>
-      <c r="E187" s="15"/>
-      <c r="F187" s="15"/>
-      <c r="G187" s="15"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
+      <c r="B216" s="15"/>
+      <c r="C216" s="15"/>
+      <c r="D216" s="15"/>
+      <c r="E216" s="15"/>
+      <c r="F216" s="15"/>
+      <c r="G216" s="15"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B188" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2"/>
-      <c r="F188" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G188" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B189" s="10">
-        <f>COUNTIF(B188,"pass")</f>
+      <c r="B217" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C217" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" s="31"/>
+      <c r="E217" s="31"/>
+      <c r="F217" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G217" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" s="10">
+        <f>COUNTIF(B217,"pass")</f>
         <v>1</v>
       </c>
-      <c r="C189" s="10">
-        <f>COUNTIF(C188,"pass")</f>
+      <c r="C218" s="10">
+        <f>COUNTIF(C217,"pass")</f>
         <v>1</v>
       </c>
-      <c r="D189" s="10">
-        <f t="shared" ref="D189:F189" si="68">COUNTIF(D188,"pass")</f>
-        <v>0</v>
-      </c>
-      <c r="E189" s="10">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-      <c r="F189" s="10">
-        <f t="shared" si="68"/>
+      <c r="D218" s="10">
+        <f t="shared" ref="D218:F218" si="67">COUNTIF(D217,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="E218" s="10">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="F218" s="10">
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
-      <c r="G189" s="10">
-        <f t="shared" ref="G189" si="69">COUNTIF(G188,"pass")</f>
+      <c r="G218" s="10">
+        <f t="shared" ref="G218" si="68">COUNTIF(G217,"pass")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B190" s="5">
-        <f>COUNTIF(B188,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="C190" s="5">
-        <f>COUNTIF(C188,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="D190" s="5">
-        <f t="shared" ref="D190:F190" si="70">COUNTIF(D188,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="E190" s="5">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="F190" s="5">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="G190" s="5">
-        <f t="shared" ref="G190" si="71">COUNTIF(G188,"Ok")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
+      <c r="B219" s="5">
+        <f>COUNTIF(B217,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C219" s="5">
+        <f>COUNTIF(C217,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D219" s="5">
+        <f t="shared" ref="D219:F219" si="69">COUNTIF(D217,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E219" s="5">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="F219" s="5">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="G219" s="5">
+        <f t="shared" ref="G219" si="70">COUNTIF(G217,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B191" s="11">
-        <f>COUNTIF(B188,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="C191" s="11">
-        <f>COUNTIF(C188,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="D191" s="11">
-        <f t="shared" ref="D191:F191" si="72">COUNTIF(D188,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="E191" s="11">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="F191" s="11">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-      <c r="G191" s="11">
-        <f t="shared" ref="G191" si="73">COUNTIF(G188,"workaround")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
+      <c r="B220" s="11">
+        <f>COUNTIF(B217,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C220" s="11">
+        <f>COUNTIF(C217,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D220" s="11">
+        <f t="shared" ref="D220:F220" si="71">COUNTIF(D217,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E220" s="11">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F220" s="11">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="G220" s="11">
+        <f t="shared" ref="G220" si="72">COUNTIF(G217,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B192" s="12">
-        <f>COUNTIF(B188,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C192" s="12">
-        <f>COUNTIF(C188,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="D192" s="12">
-        <f t="shared" ref="D192:F192" si="74">COUNTIF(D188,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="E192" s="12">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="F192" s="12">
-        <f t="shared" si="74"/>
-        <v>0</v>
-      </c>
-      <c r="G192" s="12">
-        <f t="shared" ref="G192" si="75">COUNTIF(G188,"Fail")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
+      <c r="B221" s="12">
+        <f>COUNTIF(B217,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C221" s="12">
+        <f>COUNTIF(C217,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D221" s="12">
+        <f t="shared" ref="D221:F221" si="73">COUNTIF(D217,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E221" s="12">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="F221" s="12">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="G221" s="12">
+        <f t="shared" ref="G221" si="74">COUNTIF(G217,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B193" s="2">
-        <f>COUNT(B188,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C193" s="2">
-        <f>COUNT(C188,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D193" s="2">
-        <f t="shared" ref="D193:F193" si="76">COUNT(D188,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E193" s="2">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="F193" s="2">
-        <f t="shared" si="76"/>
-        <v>0</v>
-      </c>
-      <c r="G193" s="2">
-        <f t="shared" ref="G193" si="77">COUNT(G188,"Untested")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
+      <c r="B222" s="2">
+        <f>COUNT(B217,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C222" s="2">
+        <f>COUNT(C217,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D222" s="2">
+        <f t="shared" ref="D222:F222" si="75">COUNT(D217,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E222" s="2">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="F222" s="2">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="G222" s="2">
+        <f t="shared" ref="G222" si="76">COUNT(G217,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B194" s="2">
-        <f>B189+B192+B191+B193+B190</f>
+      <c r="B223" s="2">
+        <f>B218+B221+B220+B222+B219</f>
         <v>1</v>
       </c>
-      <c r="C194" s="2">
-        <f>C189+C192+C191+C193+C190</f>
+      <c r="C223" s="2">
+        <f>C218+C221+C220+C222+C219</f>
         <v>1</v>
       </c>
-      <c r="D194" s="2">
-        <f t="shared" ref="D194:F194" si="78">D189+D192+D191+D193+D190</f>
-        <v>0</v>
-      </c>
-      <c r="E194" s="2">
-        <f t="shared" si="78"/>
-        <v>0</v>
-      </c>
-      <c r="F194" s="2">
-        <f t="shared" si="78"/>
+      <c r="D223" s="2">
+        <f t="shared" ref="D223:F223" si="77">D218+D221+D220+D222+D219</f>
+        <v>0</v>
+      </c>
+      <c r="E223" s="2">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="F223" s="2">
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
-      <c r="G194" s="2">
-        <f t="shared" ref="G194" si="79">G189+G192+G191+G193+G190</f>
+      <c r="G223" s="2">
+        <f t="shared" ref="G223" si="78">G218+G221+G220+G222+G219</f>
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="18" t="s">
+    <row r="224" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B195" s="6">
-        <f>(B189+B190)/B194</f>
+      <c r="B224" s="6">
+        <f>IF(B$223=0, 0, (B$218+B$219)/B$223)</f>
         <v>1</v>
       </c>
-      <c r="C195" s="6">
-        <f>(C189+C190)/C194</f>
+      <c r="C224" s="6">
+        <f t="shared" ref="C224:G224" si="79">IF(C$223=0, 0, (C$218+C$219)/C$223)</f>
         <v>1</v>
       </c>
-      <c r="D195" s="6" t="e">
-        <f t="shared" ref="D195:F195" si="80">(D189+D190)/D194</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E195" s="6" t="e">
-        <f t="shared" si="80"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F195" s="6">
-        <f t="shared" si="80"/>
+      <c r="D224" s="6">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="E224" s="6">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="F224" s="6">
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
-      <c r="G195" s="6">
-        <f t="shared" ref="G195" si="81">(G189+G190)/G194</f>
+      <c r="G224" s="6">
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
+    </row>
+    <row r="225" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+    </row>
+    <row r="226" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="20"/>
+      <c r="C226" s="20"/>
+      <c r="D226" s="20"/>
+      <c r="E226" s="20"/>
+      <c r="F226" s="20"/>
+      <c r="G226" s="20"/>
+    </row>
+    <row r="227" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="20"/>
+      <c r="C227" s="20"/>
+      <c r="D227" s="20"/>
+      <c r="E227" s="20"/>
+      <c r="F227" s="20"/>
+      <c r="G227" s="20"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="2"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6312,7 +7328,8 @@
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6336,14 +7353,14 @@
       <c r="A1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/doc/OpenGL status.xlsx
+++ b/doc/OpenGL status.xlsx
@@ -20,7 +20,7 @@
     <author>Groove</author>
   </authors>
   <commentList>
-    <comment ref="B37" authorId="0">
+    <comment ref="B40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -34,7 +34,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C37" authorId="0">
+    <comment ref="C40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B40" authorId="0">
+    <comment ref="B43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C40" authorId="0">
+    <comment ref="C43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="0">
+    <comment ref="B44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C41" authorId="0">
+    <comment ref="C44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B70" authorId="0">
+    <comment ref="B73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C70" authorId="0">
+    <comment ref="C73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D77" authorId="0">
+    <comment ref="D80" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E77" authorId="0">
+    <comment ref="E80" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B81" authorId="0">
+    <comment ref="B84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C81" authorId="0">
+    <comment ref="C84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D81" authorId="0">
+    <comment ref="D84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -219,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E81" authorId="0">
+    <comment ref="E84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F110" authorId="0">
+    <comment ref="F113" authorId="0">
       <text>
         <r>
           <rPr>
@@ -244,36 +244,6 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Fail to render
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F111" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">The rendering is corrupt
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F113" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">The rendering is corrupt
 </t>
         </r>
       </text>
@@ -303,12 +273,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Zoming and rotating the quad shows tessellated triangle disappearing
+          <t xml:space="preserve">The rendering is corrupt
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="G116" authorId="0">
+    <comment ref="F117" authorId="0">
       <text>
         <r>
           <rPr>
@@ -316,13 +286,43 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The rendering is corrupt
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F119" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Zoming and rotating the quad shows tessellated triangle disappearing
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G119" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>One of the two quad is not displayed</t>
         </r>
       </text>
     </comment>
-    <comment ref="D119" authorId="0">
+    <comment ref="D122" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E119" authorId="0">
+    <comment ref="E122" authorId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B126" authorId="0">
+    <comment ref="B129" authorId="0">
       <text>
         <r>
           <rPr>
@@ -365,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C126" authorId="0">
+    <comment ref="C129" authorId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B127" authorId="0">
+    <comment ref="B130" authorId="0">
       <text>
         <r>
           <rPr>
@@ -393,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C127" authorId="0">
+    <comment ref="C130" authorId="0">
       <text>
         <r>
           <rPr>
@@ -408,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F138" authorId="0">
+    <comment ref="F141" authorId="0">
       <text>
         <r>
           <rPr>
@@ -423,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F149" authorId="0">
+    <comment ref="F152" authorId="0">
       <text>
         <r>
           <rPr>
@@ -438,7 +438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F153" authorId="0">
+    <comment ref="F156" authorId="0">
       <text>
         <r>
           <rPr>
@@ -453,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B159" authorId="0">
+    <comment ref="B162" authorId="0">
       <text>
         <r>
           <rPr>
@@ -467,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C159" authorId="0">
+    <comment ref="C162" authorId="0">
       <text>
         <r>
           <rPr>
@@ -481,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F159" authorId="0">
+    <comment ref="F162" authorId="0">
       <text>
         <r>
           <rPr>
@@ -496,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F168" authorId="0">
+    <comment ref="F171" authorId="0">
       <text>
         <r>
           <rPr>
@@ -511,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F173" authorId="0">
+    <comment ref="F176" authorId="0">
       <text>
         <r>
           <rPr>
@@ -525,7 +525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G173" authorId="0">
+    <comment ref="G176" authorId="0">
       <text>
         <r>
           <rPr>
@@ -539,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B179" authorId="0">
+    <comment ref="B182" authorId="0">
       <text>
         <r>
           <rPr>
@@ -553,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C179" authorId="0">
+    <comment ref="C182" authorId="0">
       <text>
         <r>
           <rPr>
@@ -567,7 +567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F184" authorId="0">
+    <comment ref="F187" authorId="0">
       <text>
         <r>
           <rPr>
@@ -582,7 +582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B195" authorId="0">
+    <comment ref="B198" authorId="0">
       <text>
         <r>
           <rPr>
@@ -597,7 +597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D196" authorId="0">
+    <comment ref="D199" authorId="0">
       <text>
         <r>
           <rPr>
@@ -605,13 +605,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>GL_NV_gpu_shader5 not supported</t>
         </r>
       </text>
     </comment>
-    <comment ref="E196" authorId="0">
+    <comment ref="E199" authorId="0">
       <text>
         <r>
           <rPr>
@@ -619,13 +619,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>GL_NV_gpu_shader5 not supported</t>
         </r>
       </text>
     </comment>
-    <comment ref="F196" authorId="0">
+    <comment ref="F199" authorId="0">
       <text>
         <r>
           <rPr>
@@ -633,13 +633,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>GL_NV_gpu_shader5 not supported</t>
         </r>
       </text>
     </comment>
-    <comment ref="B200" authorId="0">
+    <comment ref="B203" authorId="0">
       <text>
         <r>
           <rPr>
@@ -654,7 +654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B202" authorId="0">
+    <comment ref="B205" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1098,7 +1098,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="170">
   <si>
     <t>gl-430-texture-view</t>
   </si>
@@ -1602,6 +1602,12 @@
   </si>
   <si>
     <t>Intel 15.31.64.2885</t>
+  </si>
+  <si>
+    <t>G-Truc Creation</t>
+  </si>
+  <si>
+    <t>OpenGL Status - December 2012</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1617,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1644,10 +1650,36 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1753,13 +1785,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1796,8 +1829,14 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1806,16 +1845,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="3"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Percent 2" xfId="2"/>
@@ -1866,7 +1914,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2012-12'!$B$6</c:f>
+              <c:f>'2012-12'!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1885,7 +1933,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2012-12'!$A$7:$A$11</c:f>
+              <c:f>'2012-12'!$A$10:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1908,7 +1956,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2012-12'!$B$7:$B$11</c:f>
+              <c:f>'2012-12'!$B$10:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1936,7 +1984,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2012-12'!$C$6</c:f>
+              <c:f>'2012-12'!$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1955,7 +2003,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2012-12'!$A$7:$A$11</c:f>
+              <c:f>'2012-12'!$A$10:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1978,7 +2026,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2012-12'!$C$7:$C$11</c:f>
+              <c:f>'2012-12'!$C$10:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2006,7 +2054,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2012-12'!$D$6</c:f>
+              <c:f>'2012-12'!$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2025,7 +2073,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2012-12'!$A$7:$A$11</c:f>
+              <c:f>'2012-12'!$A$10:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2048,7 +2096,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2012-12'!$D$7:$D$11</c:f>
+              <c:f>'2012-12'!$D$10:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2076,7 +2124,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2012-12'!$E$6</c:f>
+              <c:f>'2012-12'!$E$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2095,7 +2143,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2012-12'!$A$7:$A$11</c:f>
+              <c:f>'2012-12'!$A$10:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2118,7 +2166,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2012-12'!$E$7:$E$11</c:f>
+              <c:f>'2012-12'!$E$10:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2146,7 +2194,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2012-12'!$F$6</c:f>
+              <c:f>'2012-12'!$F$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2165,7 +2213,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2012-12'!$A$7:$A$11</c:f>
+              <c:f>'2012-12'!$A$10:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2188,7 +2236,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2012-12'!$F$7:$F$11</c:f>
+              <c:f>'2012-12'!$F$10:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2216,7 +2264,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2012-12'!$G$6</c:f>
+              <c:f>'2012-12'!$G$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2235,7 +2283,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2012-12'!$A$7:$A$11</c:f>
+              <c:f>'2012-12'!$A$10:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2258,7 +2306,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2012-12'!$G$7:$G$11</c:f>
+              <c:f>'2012-12'!$G$10:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2290,11 +2338,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="157276800"/>
-        <c:axId val="130896256"/>
+        <c:axId val="42734336"/>
+        <c:axId val="42758528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157276800"/>
+        <c:axId val="42734336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2303,7 +2351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130896256"/>
+        <c:crossAx val="42758528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2311,7 +2359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130896256"/>
+        <c:axId val="42758528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2323,7 +2371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157276800"/>
+        <c:crossAx val="42734336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2351,13 +2399,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2667,311 +2715,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G228"/>
+  <dimension ref="A1:G231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="G4" s="35"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B5" s="17">
         <v>41206</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C5" s="17">
         <v>41241</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D5" s="17">
         <v>41205</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E5" s="17">
         <v>41247</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F5" s="17">
         <v>41250</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G5" s="17">
         <v>41259</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G6" s="23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C7" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D7" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E7" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F7" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G7" s="14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="20">
-        <f>IF(B$56=0, 0,(B$51+B$52)/B$56)</f>
+      <c r="B10" s="20">
+        <f>IF(B$59=0, 0,(B$54+B$55)/B$59)</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="C7" s="20">
-        <f t="shared" ref="C7:G7" si="0">IF(C$56=0, 0,(C$51+C$52)/C$56)</f>
+      <c r="C10" s="20">
+        <f t="shared" ref="C10:G10" si="0">IF(C$59=0, 0,(C$54+C$55)/C$59)</f>
         <v>0.8</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="20">
-        <f>IF(B$88=0,0,(B$83+B$84)/B$88)</f>
+      <c r="B11" s="20">
+        <f>IF(B$91=0,0,(B$86+B$87)/B$91)</f>
         <v>0.95454545454545459</v>
       </c>
-      <c r="C8" s="20">
-        <f t="shared" ref="C8:G8" si="1">IF(C$88=0,0,(C$83+C$84)/C$88)</f>
+      <c r="C11" s="20">
+        <f t="shared" ref="C11:G11" si="1">IF(C$91=0,0,(C$86+C$87)/C$91)</f>
         <v>0.95652173913043481</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D11" s="20">
         <f t="shared" si="1"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E11" s="20">
         <f t="shared" si="1"/>
         <v>0.91304347826086951</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F11" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G11" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="20">
-        <f>IF(B$105=0, 0, (B$100+B$101)/B$105)</f>
+      <c r="B12" s="20">
+        <f>IF(B$108=0, 0, (B$103+B$104)/B$108)</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="C9" s="20">
-        <f t="shared" ref="C9:G9" si="2">IF(C$105=0, 0, (C$100+C$101)/C$105)</f>
+      <c r="C12" s="20">
+        <f t="shared" ref="C12:G12" si="2">IF(C$108=0, 0, (C$103+C$104)/C$108)</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D12" s="20">
         <f t="shared" si="2"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E12" s="20">
         <f t="shared" si="2"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F12" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G12" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="20">
-        <f>IF(B$133=0, 0, (B$128+B$129)/B$133)</f>
+      <c r="B13" s="20">
+        <f>IF(B$136=0, 0, (B$131+B$132)/B$136)</f>
         <v>0.94736842105263153</v>
       </c>
-      <c r="C10" s="20">
-        <f t="shared" ref="C10:G10" si="3">IF(C$133=0, 0, (C$128+C$129)/C$133)</f>
+      <c r="C13" s="20">
+        <f t="shared" ref="C13:G13" si="3">IF(C$136=0, 0, (C$131+C$132)/C$136)</f>
         <v>0.94736842105263153</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D13" s="20">
         <f t="shared" si="3"/>
         <v>0.89473684210526316</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E13" s="20">
         <f t="shared" si="3"/>
         <v>0.89473684210526316</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F13" s="20">
         <f t="shared" si="3"/>
         <v>0.73684210526315785</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G13" s="20">
         <f t="shared" si="3"/>
         <v>0.94736842105263153</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="28">
-        <f>IF(B$191=0, 0, (B$186+B$187)/B$191)</f>
+      <c r="B14" s="25">
+        <f>IF(B$194=0, 0, (B$189+B$190)/B$194)</f>
         <v>1</v>
       </c>
-      <c r="C11" s="28">
-        <f t="shared" ref="C11:G11" si="4">IF(C$191=0, 0, (C$186+C$187)/C$191)</f>
+      <c r="C14" s="25">
+        <f t="shared" ref="C14:G14" si="4">IF(C$194=0, 0, (C$189+C$190)/C$194)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D14" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E14" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F14" s="25">
         <f t="shared" si="4"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G14" s="25">
         <f t="shared" si="4"/>
         <v>0.91836734693877553</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -3144,70 +3197,55 @@
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>6</v>
@@ -3221,7 +3259,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>140</v>
@@ -3235,13 +3273,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>7</v>
+        <v>132</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -3249,7 +3287,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>6</v>
@@ -3263,13 +3301,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>6</v>
+      <c r="C43" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -3277,13 +3315,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>6</v>
+        <v>135</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -3291,7 +3329,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>6</v>
@@ -3305,10 +3343,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>6</v>
+        <v>137</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>6</v>
@@ -3319,7 +3357,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>6</v>
@@ -3333,7 +3371,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>6</v>
@@ -3347,7 +3385,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>6</v>
@@ -3360,303 +3398,288 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
+      <c r="A50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="10">
-        <f>COUNTIF(B36:B50,"pass")</f>
-        <v>11</v>
-      </c>
-      <c r="C51" s="10">
-        <f>COUNTIF(C36:C50,"pass")</f>
-        <v>12</v>
-      </c>
-      <c r="D51" s="10">
-        <f t="shared" ref="D51:F51" si="5">COUNTIF(D36:D50,"pass")</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="10">
-        <f>COUNTIF(G36:G50,"pass")</f>
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B52" s="5">
-        <f>COUNTIF(B36:B50,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="C52" s="5">
-        <f>COUNTIF(C36:C50,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="5">
-        <f t="shared" ref="D52:F52" si="6">COUNTIF(D36:D50,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="5">
-        <f>COUNTIF(G36:G50,"Ok")</f>
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B53" s="11">
-        <f>COUNTIF(B36:B50,"workaround")</f>
-        <v>3</v>
-      </c>
-      <c r="C53" s="11">
-        <f>COUNTIF(C36:C50,"workaround")</f>
-        <v>2</v>
-      </c>
-      <c r="D53" s="11">
-        <f t="shared" ref="D53:F53" si="7">COUNTIF(D36:D50,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="11">
-        <f>COUNTIF(G36:G50,"workaround")</f>
-        <v>0</v>
-      </c>
+      <c r="A53" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="12">
-        <f>COUNTIF(B36:B50,"Fail")</f>
-        <v>1</v>
-      </c>
-      <c r="C54" s="12">
-        <f>COUNTIF(C36:C50,"Fail")</f>
-        <v>1</v>
-      </c>
-      <c r="D54" s="12">
-        <f t="shared" ref="D54:F54" si="8">COUNTIF(D36:D50,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="E54" s="12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="12">
-        <f>COUNTIF(G36:G50,"Fail")</f>
+        <v>6</v>
+      </c>
+      <c r="B54" s="10">
+        <f>COUNTIF(B39:B53,"pass")</f>
+        <v>11</v>
+      </c>
+      <c r="C54" s="10">
+        <f>COUNTIF(C39:C53,"pass")</f>
+        <v>12</v>
+      </c>
+      <c r="D54" s="10">
+        <f t="shared" ref="D54:F54" si="5">COUNTIF(D39:D53,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="10">
+        <f>COUNTIF(G39:G53,"pass")</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B55" s="2">
-        <f>COUNT(B36:B50,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C55" s="2">
-        <f>COUNT(C36:C50,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D55" s="2">
-        <f t="shared" ref="D55:F55" si="9">COUNT(D36:D50,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E55" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="2">
-        <f>COUNT(G36:G50,"Untested")</f>
+        <v>143</v>
+      </c>
+      <c r="B55" s="5">
+        <f>COUNTIF(B39:B53,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="5">
+        <f>COUNTIF(C39:C53,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" ref="D55:F55" si="6">COUNTIF(D39:D53,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="5">
+        <f>COUNTIF(G39:G53,"Ok")</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="11">
+        <f>COUNTIF(B39:B53,"workaround")</f>
+        <v>3</v>
+      </c>
+      <c r="C56" s="11">
+        <f>COUNTIF(C39:C53,"workaround")</f>
+        <v>2</v>
+      </c>
+      <c r="D56" s="11">
+        <f t="shared" ref="D56:F56" si="7">COUNTIF(D39:D53,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="11">
+        <f>COUNTIF(G39:G53,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="12">
+        <f>COUNTIF(B39:B53,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="C57" s="12">
+        <f>COUNTIF(C39:C53,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="D57" s="12">
+        <f t="shared" ref="D57:F57" si="8">COUNTIF(D39:D53,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="12">
+        <f>COUNTIF(G39:G53,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="2">
+        <f>COUNT(B39:B53,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="2">
+        <f>COUNT(C39:C53,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" ref="D58:F58" si="9">COUNT(D39:D53,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <f>COUNT(G39:G53,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B56" s="2">
-        <f>B51+B54+B53+B55+B52</f>
+      <c r="B59" s="2">
+        <f>B54+B57+B56+B58+B55</f>
         <v>15</v>
       </c>
-      <c r="C56" s="2">
-        <f>C51+C54+C53+C55+C52</f>
+      <c r="C59" s="2">
+        <f>C54+C57+C56+C58+C55</f>
         <v>15</v>
       </c>
-      <c r="D56" s="2">
-        <f t="shared" ref="D56:F56" si="10">D51+D54+D53+D55+D52</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="2">
+      <c r="D59" s="2">
+        <f t="shared" ref="D59:F59" si="10">D54+D57+D56+D58+D55</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F59" s="2">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G56" s="2">
-        <f t="shared" ref="G56" si="11">G51+G54+G53+G55+G52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="18" t="s">
+      <c r="G59" s="2">
+        <f t="shared" ref="G59" si="11">G54+G57+G56+G58+G55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="6">
-        <f>IF(B$56=0, 0,(B$51+B$52)/B$56)</f>
+      <c r="B60" s="6">
+        <f>IF(B$59=0, 0,(B$54+B$55)/B$59)</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="C57" s="6">
-        <f t="shared" ref="C57:G57" si="12">IF(C$56=0, 0,(C$51+C$52)/C$56)</f>
+      <c r="C60" s="6">
+        <f t="shared" ref="C60:G60" si="12">IF(C$59=0, 0,(C$54+C$55)/C$59)</f>
         <v>0.8</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D60" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E60" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F60" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G60" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>6</v>
@@ -3675,7 +3698,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>6</v>
@@ -3694,13 +3717,17 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B65" s="25"/>
+        <v>98</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="25"/>
+      <c r="D65" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E65" s="4" t="s">
         <v>6</v>
       </c>
@@ -3709,7 +3736,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>6</v>
@@ -3728,7 +3755,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>6</v>
@@ -3747,17 +3774,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B68" s="24"/>
       <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D68" s="24"/>
       <c r="E68" s="4" t="s">
         <v>6</v>
       </c>
@@ -3766,7 +3789,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>6</v>
@@ -3785,13 +3808,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>144</v>
+        <v>108</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>6</v>
@@ -3804,7 +3827,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>6</v>
@@ -3823,7 +3846,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>6</v>
@@ -3842,13 +3865,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>6</v>
+        <v>111</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>6</v>
@@ -3861,7 +3884,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>6</v>
@@ -3880,7 +3903,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>6</v>
@@ -3899,7 +3922,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>6</v>
@@ -3918,7 +3941,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>6</v>
@@ -3926,18 +3949,18 @@
       <c r="C77" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>7</v>
+      <c r="D77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>6</v>
@@ -3956,7 +3979,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>6</v>
@@ -3975,7 +3998,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>6</v>
@@ -3983,336 +4006,336 @@
       <c r="C80" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>6</v>
+      <c r="D80" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>140</v>
+        <v>122</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
+      <c r="A82" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="10">
-        <f>COUNTIF(B60:B82,"pass")</f>
+        <v>124</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="10">
+        <f>COUNTIF(B63:B85,"pass")</f>
         <v>20</v>
       </c>
-      <c r="C83" s="10">
-        <f>COUNTIF(C60:C82,"pass")</f>
+      <c r="C86" s="10">
+        <f>COUNTIF(C63:C85,"pass")</f>
         <v>21</v>
       </c>
-      <c r="D83" s="10">
-        <f t="shared" ref="D83:F83" si="13">COUNTIF(D60:D82,"pass")</f>
+      <c r="D86" s="10">
+        <f t="shared" ref="D86:F86" si="13">COUNTIF(D63:D85,"pass")</f>
         <v>20</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E86" s="10">
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F86" s="10">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G83" s="10">
-        <f t="shared" ref="G83" si="14">COUNTIF(G60:G82,"pass")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="G86" s="10">
+        <f t="shared" ref="G86" si="14">COUNTIF(G63:G85,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="5">
-        <f>COUNTIF(B60:B82,"Ok")</f>
+      <c r="B87" s="5">
+        <f>COUNTIF(B63:B85,"Ok")</f>
         <v>1</v>
       </c>
-      <c r="C84" s="5">
-        <f>COUNTIF(C60:C82,"Ok")</f>
+      <c r="C87" s="5">
+        <f>COUNTIF(C63:C85,"Ok")</f>
         <v>1</v>
       </c>
-      <c r="D84" s="5">
-        <f t="shared" ref="D84:F84" si="15">COUNTIF(D60:D82,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="E84" s="5">
+      <c r="D87" s="5">
+        <f t="shared" ref="D87:F87" si="15">COUNTIF(D63:D85,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F87" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G84" s="5">
-        <f t="shared" ref="G84" si="16">COUNTIF(G60:G82,"Ok")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="G87" s="5">
+        <f t="shared" ref="G87" si="16">COUNTIF(G63:G85,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B85" s="11">
-        <f>COUNTIF(B60:B82,"workaround")</f>
+      <c r="B88" s="11">
+        <f>COUNTIF(B63:B85,"workaround")</f>
         <v>1</v>
       </c>
-      <c r="C85" s="11">
-        <f>COUNTIF(C60:C82,"workaround")</f>
+      <c r="C88" s="11">
+        <f>COUNTIF(C63:C85,"workaround")</f>
         <v>1</v>
       </c>
-      <c r="D85" s="11">
-        <f t="shared" ref="D85:F85" si="17">COUNTIF(D60:D82,"workaround")</f>
+      <c r="D88" s="11">
+        <f t="shared" ref="D88:F88" si="17">COUNTIF(D63:D85,"workaround")</f>
         <v>1</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E88" s="11">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F88" s="11">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="G85" s="11">
-        <f t="shared" ref="G85" si="18">COUNTIF(G60:G82,"workaround")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="G88" s="11">
+        <f t="shared" ref="G88" si="18">COUNTIF(G63:G85,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B86" s="12">
-        <f>COUNTIF(B60:B82,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C86" s="12">
-        <f>COUNTIF(C60:C82,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="D86" s="12">
-        <f t="shared" ref="D86:F86" si="19">COUNTIF(D60:D82,"Fail")</f>
+      <c r="B89" s="12">
+        <f>COUNTIF(B63:B85,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C89" s="12">
+        <f>COUNTIF(C63:C85,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="12">
+        <f t="shared" ref="D89:F89" si="19">COUNTIF(D63:D85,"Fail")</f>
         <v>1</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E89" s="12">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F89" s="12">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G86" s="12">
-        <f t="shared" ref="G86" si="20">COUNTIF(G60:G82,"Fail")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="G89" s="12">
+        <f t="shared" ref="G89" si="20">COUNTIF(G63:G85,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B87" s="2">
-        <f>COUNT(B60:B82,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C87" s="2">
-        <f>COUNT(C60:C82,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D87" s="2">
-        <f t="shared" ref="D87:F87" si="21">COUNT(D60:D82,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E87" s="2">
+      <c r="B90" s="2">
+        <f>COUNT(B63:B85,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C90" s="2">
+        <f>COUNT(C63:C85,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D90" s="2">
+        <f t="shared" ref="D90:F90" si="21">COUNT(D63:D85,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="2">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F90" s="2">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="G87" s="2">
-        <f t="shared" ref="G87" si="22">COUNT(G60:G82,"Untested")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="G90" s="2">
+        <f t="shared" ref="G90" si="22">COUNT(G63:G85,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B88" s="2">
-        <f>B83+B86+B85+B87+B84</f>
+      <c r="B91" s="2">
+        <f>B86+B89+B88+B90+B87</f>
         <v>22</v>
       </c>
-      <c r="C88" s="2">
-        <f>C83+C86+C85+C87+C84</f>
+      <c r="C91" s="2">
+        <f>C86+C89+C88+C90+C87</f>
         <v>23</v>
       </c>
-      <c r="D88" s="2">
-        <f t="shared" ref="D88:F88" si="23">D83+D86+D85+D87+D84</f>
+      <c r="D91" s="2">
+        <f t="shared" ref="D91:F91" si="23">D86+D89+D88+D90+D87</f>
         <v>22</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E91" s="2">
         <f t="shared" si="23"/>
         <v>23</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F91" s="2">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G88" s="2">
-        <f t="shared" ref="G88" si="24">G83+G86+G85+G87+G84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="18" t="s">
+      <c r="G91" s="2">
+        <f t="shared" ref="G91" si="24">G86+G89+G88+G90+G87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="6">
-        <f>IF(B$88=0,0,(B$83+B$84)/B$88)</f>
+      <c r="B92" s="6">
+        <f>IF(B$91=0,0,(B$86+B$87)/B$91)</f>
         <v>0.95454545454545459</v>
       </c>
-      <c r="C89" s="6">
-        <f t="shared" ref="C89:G89" si="25">IF(C$88=0,0,(C$83+C$84)/C$88)</f>
+      <c r="C92" s="6">
+        <f t="shared" ref="C92:G92" si="25">IF(C$91=0,0,(C$86+C$87)/C$91)</f>
         <v>0.95652173913043481</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D92" s="6">
         <f t="shared" si="25"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E92" s="6">
         <f t="shared" si="25"/>
         <v>0.91304347826086951</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F92" s="6">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G92" s="6">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+    <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>6</v>
@@ -4331,7 +4354,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>6</v>
@@ -4350,7 +4373,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>6</v>
@@ -4369,7 +4392,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>6</v>
@@ -4387,319 +4410,307 @@
       <c r="G98" s="2"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E99" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
+      <c r="A99" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" s="10">
-        <f>COUNTIF(B92:B99,"pass")</f>
+        <v>91</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="10">
+        <f>COUNTIF(B95:B102,"pass")</f>
         <v>8</v>
       </c>
-      <c r="C100" s="10">
-        <f>COUNTIF(C92:C99,"pass")</f>
+      <c r="C103" s="10">
+        <f>COUNTIF(C95:C102,"pass")</f>
         <v>8</v>
       </c>
-      <c r="D100" s="10">
-        <f t="shared" ref="D100:F100" si="26">COUNTIF(D92:D99,"pass")</f>
+      <c r="D103" s="10">
+        <f t="shared" ref="D103:F103" si="26">COUNTIF(D95:D102,"pass")</f>
         <v>8</v>
       </c>
-      <c r="E100" s="10">
+      <c r="E103" s="10">
         <f t="shared" si="26"/>
         <v>8</v>
       </c>
-      <c r="F100" s="10">
+      <c r="F103" s="10">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="G100" s="10">
-        <f t="shared" ref="G100" si="27">COUNTIF(G92:G99,"pass")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="G103" s="10">
+        <f t="shared" ref="G103" si="27">COUNTIF(G95:G102,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B101" s="5">
-        <f>COUNTIF(B92:B99,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="C101" s="5">
-        <f>COUNTIF(C92:C99,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="D101" s="5">
-        <f t="shared" ref="D101:F101" si="28">COUNTIF(D92:D99,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="E101" s="5">
+      <c r="B104" s="5">
+        <f>COUNTIF(B95:B102,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C104" s="5">
+        <f>COUNTIF(C95:C102,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D104" s="5">
+        <f t="shared" ref="D104:F104" si="28">COUNTIF(D95:D102,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E104" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="F101" s="5">
+      <c r="F104" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="G101" s="5">
-        <f t="shared" ref="G101" si="29">COUNTIF(G92:G99,"Ok")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="G104" s="5">
+        <f t="shared" ref="G104" si="29">COUNTIF(G95:G102,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B102" s="11">
-        <f t="shared" ref="B102:G102" si="30">COUNTIF(B123:B192,"workaround")</f>
+      <c r="B105" s="11">
+        <f t="shared" ref="B105:G105" si="30">COUNTIF(B126:B195,"workaround")</f>
         <v>1</v>
       </c>
-      <c r="C102" s="11">
+      <c r="C105" s="11">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="D102" s="11">
+      <c r="D105" s="11">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="E102" s="11">
+      <c r="E105" s="11">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="F102" s="11">
+      <c r="F105" s="11">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="G102" s="11">
+      <c r="G105" s="11">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B103" s="12">
-        <f>COUNTIF(B92:B99,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C103" s="12">
-        <f>COUNTIF(C92:C99,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="D103" s="12">
-        <f t="shared" ref="D103:F103" si="31">COUNTIF(D92:D99,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="E103" s="12">
+      <c r="B106" s="12">
+        <f>COUNTIF(B95:B102,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C106" s="12">
+        <f>COUNTIF(C95:C102,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D106" s="12">
+        <f t="shared" ref="D106:F106" si="31">COUNTIF(D95:D102,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E106" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F103" s="12">
+      <c r="F106" s="12">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="G103" s="12">
-        <f t="shared" ref="G103" si="32">COUNTIF(G92:G99,"Fail")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="G106" s="12">
+        <f t="shared" ref="G106" si="32">COUNTIF(G95:G102,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B104" s="2">
-        <f>COUNT(B92:B99,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C104" s="2">
-        <f>COUNT(C92:C99,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D104" s="2">
-        <f t="shared" ref="D104:F104" si="33">COUNT(D92:D99,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E104" s="2">
+      <c r="B107" s="2">
+        <f>COUNT(B95:B102,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C107" s="2">
+        <f>COUNT(C95:C102,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D107" s="2">
+        <f t="shared" ref="D107:F107" si="33">COUNT(D95:D102,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E107" s="2">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F107" s="2">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="G104" s="2">
-        <f t="shared" ref="G104" si="34">COUNT(G92:G99,"Untested")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="G107" s="2">
+        <f t="shared" ref="G107" si="34">COUNT(G95:G102,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B105" s="2">
-        <f>B100+B103+B102+B104+B101</f>
+      <c r="B108" s="2">
+        <f>B103+B106+B105+B107+B104</f>
         <v>9</v>
       </c>
-      <c r="C105" s="2">
-        <f>C100+C103+C102+C104+C101</f>
+      <c r="C108" s="2">
+        <f>C103+C106+C105+C107+C104</f>
         <v>9</v>
       </c>
-      <c r="D105" s="2">
-        <f t="shared" ref="D105:F105" si="35">D100+D103+D102+D104+D101</f>
+      <c r="D108" s="2">
+        <f t="shared" ref="D108:F108" si="35">D103+D106+D105+D107+D104</f>
         <v>9</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E108" s="2">
         <f t="shared" si="35"/>
         <v>9</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F108" s="2">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="G105" s="2">
-        <f t="shared" ref="G105" si="36">G100+G103+G102+G104+G101</f>
+      <c r="G108" s="2">
+        <f t="shared" ref="G108" si="36">G103+G106+G105+G107+G104</f>
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="18" t="s">
+    <row r="109" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="6">
-        <f>IF(B$105=0, 0, (B$100+B$101)/B$105)</f>
+      <c r="B109" s="6">
+        <f>IF(B$108=0, 0, (B$103+B$104)/B$108)</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="C106" s="6">
-        <f t="shared" ref="C106:G106" si="37">IF(C$105=0, 0, (C$100+C$101)/C$105)</f>
+      <c r="C109" s="6">
+        <f t="shared" ref="C109:G109" si="37">IF(C$108=0, 0, (C$103+C$104)/C$108)</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="D106" s="6">
+      <c r="D109" s="6">
         <f t="shared" si="37"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E109" s="6">
         <f t="shared" si="37"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F109" s="6">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="G106" s="6">
+      <c r="G109" s="6">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="13"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="15" t="s">
+    <row r="110" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="13"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>6</v>
@@ -4722,7 +4733,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>6</v>
@@ -4745,7 +4756,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>6</v>
@@ -4768,7 +4779,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>6</v>
@@ -4791,7 +4802,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>6</v>
@@ -4808,13 +4819,13 @@
       <c r="F116" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G116" s="8" t="s">
-        <v>7</v>
+      <c r="G116" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>6</v>
@@ -4828,8 +4839,8 @@
       <c r="E117" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F117" s="4" t="s">
-        <v>6</v>
+      <c r="F117" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>6</v>
@@ -4837,7 +4848,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>6</v>
@@ -4860,7 +4871,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>6</v>
@@ -4868,22 +4879,22 @@
       <c r="C119" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F119" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="G119" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>6</v>
@@ -4906,7 +4917,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>6</v>
@@ -4929,7 +4940,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>6</v>
@@ -4937,11 +4948,11 @@
       <c r="C122" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D122" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>6</v>
+      <c r="D122" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>6</v>
@@ -4952,7 +4963,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>6</v>
@@ -4975,7 +4986,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>6</v>
@@ -4998,7 +5009,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>6</v>
@@ -5021,7 +5032,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>6</v>
@@ -5043,323 +5054,323 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B127" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C127" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D127" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E127" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="F127" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G127" s="21" t="s">
+      <c r="A127" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B128" s="10">
-        <f t="shared" ref="B128:G128" si="38">COUNTIF(B109:B127,"pass")</f>
+        <v>82</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B130" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E130" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F130" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" s="10">
+        <f t="shared" ref="B131:G131" si="38">COUNTIF(B112:B130,"pass")</f>
         <v>18</v>
       </c>
-      <c r="C128" s="10">
+      <c r="C131" s="10">
         <f t="shared" si="38"/>
         <v>18</v>
       </c>
-      <c r="D128" s="10">
+      <c r="D131" s="10">
         <f t="shared" si="38"/>
         <v>17</v>
       </c>
-      <c r="E128" s="10">
+      <c r="E131" s="10">
         <f t="shared" si="38"/>
         <v>17</v>
       </c>
-      <c r="F128" s="10">
+      <c r="F131" s="10">
         <f t="shared" si="38"/>
         <v>14</v>
       </c>
-      <c r="G128" s="10">
+      <c r="G131" s="10">
         <f t="shared" si="38"/>
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B129" s="5">
-        <f t="shared" ref="B129:G129" si="39">COUNTIF(B109:B127,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="C129" s="5">
+      <c r="B132" s="5">
+        <f t="shared" ref="B132:G132" si="39">COUNTIF(B112:B130,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C132" s="5">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D132" s="5">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E129" s="5">
+      <c r="E132" s="5">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F129" s="5">
+      <c r="F132" s="5">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G129" s="5">
+      <c r="G132" s="5">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B130" s="11">
-        <f t="shared" ref="B130:G130" si="40">COUNTIF(B109:B127,"workaround")</f>
+      <c r="B133" s="11">
+        <f t="shared" ref="B133:G133" si="40">COUNTIF(B112:B130,"workaround")</f>
         <v>1</v>
       </c>
-      <c r="C130" s="11">
+      <c r="C133" s="11">
         <f t="shared" si="40"/>
         <v>1</v>
       </c>
-      <c r="D130" s="11">
+      <c r="D133" s="11">
         <f t="shared" si="40"/>
         <v>1</v>
       </c>
-      <c r="E130" s="11">
+      <c r="E133" s="11">
         <f t="shared" si="40"/>
         <v>1</v>
       </c>
-      <c r="F130" s="11">
+      <c r="F133" s="11">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="G130" s="11">
+      <c r="G133" s="11">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B131" s="12">
-        <f t="shared" ref="B131:G131" si="41">COUNTIF(B109:B127,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C131" s="12">
+      <c r="B134" s="12">
+        <f t="shared" ref="B134:G134" si="41">COUNTIF(B112:B130,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C134" s="12">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="D131" s="12">
+      <c r="D134" s="12">
         <f t="shared" si="41"/>
         <v>1</v>
       </c>
-      <c r="E131" s="12">
+      <c r="E134" s="12">
         <f t="shared" si="41"/>
         <v>1</v>
       </c>
-      <c r="F131" s="12">
+      <c r="F134" s="12">
         <f t="shared" si="41"/>
         <v>5</v>
       </c>
-      <c r="G131" s="12">
+      <c r="G134" s="12">
         <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B132" s="2">
-        <f t="shared" ref="B132:G132" si="42">COUNT(B109:B127,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C132" s="2">
+      <c r="B135" s="2">
+        <f t="shared" ref="B135:G135" si="42">COUNT(B112:B130,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C135" s="2">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D135" s="2">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E135" s="2">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="F132" s="2">
+      <c r="F135" s="2">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="G132" s="2">
+      <c r="G135" s="2">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B133" s="2">
-        <f>B128+B131+B130+B132+B129</f>
+      <c r="B136" s="2">
+        <f>B131+B134+B133+B135+B132</f>
         <v>19</v>
       </c>
-      <c r="C133" s="2">
-        <f>C128+C131+C130+C132+C129</f>
+      <c r="C136" s="2">
+        <f>C131+C134+C133+C135+C132</f>
         <v>19</v>
       </c>
-      <c r="D133" s="2">
-        <f t="shared" ref="D133:F133" si="43">D128+D131+D130+D132+D129</f>
+      <c r="D136" s="2">
+        <f t="shared" ref="D136:F136" si="43">D131+D134+D133+D135+D132</f>
         <v>19</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E136" s="2">
         <f t="shared" si="43"/>
         <v>19</v>
       </c>
-      <c r="F133" s="2">
+      <c r="F136" s="2">
         <f t="shared" si="43"/>
         <v>19</v>
       </c>
-      <c r="G133" s="2">
-        <f t="shared" ref="G133" si="44">G128+G131+G130+G132+G129</f>
+      <c r="G136" s="2">
+        <f t="shared" ref="G136" si="44">G131+G134+G133+G135+G132</f>
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="18" t="s">
+    <row r="137" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B134" s="6">
-        <f>IF(B$133=0, 0, (B$128+B$129)/B$133)</f>
+      <c r="B137" s="6">
+        <f>IF(B$136=0, 0, (B$131+B$132)/B$136)</f>
         <v>0.94736842105263153</v>
       </c>
-      <c r="C134" s="6">
-        <f t="shared" ref="C134:G134" si="45">IF(C$133=0, 0, (C$128+C$129)/C$133)</f>
+      <c r="C137" s="6">
+        <f t="shared" ref="C137:G137" si="45">IF(C$136=0, 0, (C$131+C$132)/C$136)</f>
         <v>0.94736842105263153</v>
       </c>
-      <c r="D134" s="6">
+      <c r="D137" s="6">
         <f t="shared" si="45"/>
         <v>0.89473684210526316</v>
       </c>
-      <c r="E134" s="6">
+      <c r="E137" s="6">
         <f t="shared" si="45"/>
         <v>0.89473684210526316</v>
       </c>
-      <c r="F134" s="6">
+      <c r="F137" s="6">
         <f t="shared" si="45"/>
         <v>0.73684210526315785</v>
       </c>
-      <c r="G134" s="6">
+      <c r="G137" s="6">
         <f t="shared" si="45"/>
         <v>0.94736842105263153</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="14"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="15" t="s">
+    <row r="138" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="14"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B136" s="15"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F138" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G138" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>6</v>
@@ -5382,7 +5393,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>6</v>
@@ -5396,16 +5407,16 @@
       <c r="E141" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F141" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>6</v>
+      <c r="F141" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>6</v>
@@ -5428,7 +5439,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>6</v>
@@ -5451,7 +5462,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>6</v>
@@ -5474,7 +5485,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>6</v>
@@ -5497,7 +5508,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>6</v>
@@ -5520,7 +5531,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>6</v>
@@ -5543,7 +5554,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>6</v>
@@ -5566,7 +5577,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>6</v>
@@ -5580,8 +5591,8 @@
       <c r="E149" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F149" s="8" t="s">
-        <v>7</v>
+      <c r="F149" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>6</v>
@@ -5589,7 +5600,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>6</v>
@@ -5612,7 +5623,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>6</v>
@@ -5635,7 +5646,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>6</v>
@@ -5649,8 +5660,8 @@
       <c r="E152" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F152" s="4" t="s">
-        <v>6</v>
+      <c r="F152" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>6</v>
@@ -5658,7 +5669,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>6</v>
@@ -5672,8 +5683,8 @@
       <c r="E153" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F153" s="8" t="s">
-        <v>7</v>
+      <c r="F153" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>6</v>
@@ -5681,7 +5692,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>6</v>
@@ -5704,7 +5715,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>6</v>
@@ -5727,7 +5738,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>6</v>
@@ -5741,8 +5752,8 @@
       <c r="E156" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F156" s="4" t="s">
-        <v>6</v>
+      <c r="F156" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>6</v>
@@ -5750,7 +5761,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>6</v>
@@ -5773,7 +5784,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>6</v>
@@ -5796,13 +5807,13 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>144</v>
+        <v>34</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>6</v>
@@ -5810,8 +5821,8 @@
       <c r="E159" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F159" s="8" t="s">
-        <v>7</v>
+      <c r="F159" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>6</v>
@@ -5819,7 +5830,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>6</v>
@@ -5842,7 +5853,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>6</v>
@@ -5865,13 +5876,13 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>6</v>
@@ -5879,8 +5890,8 @@
       <c r="E162" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F162" s="4" t="s">
-        <v>6</v>
+      <c r="F162" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>6</v>
@@ -5888,7 +5899,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>6</v>
@@ -5911,7 +5922,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>6</v>
@@ -5934,7 +5945,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>6</v>
@@ -5957,7 +5968,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>6</v>
@@ -5980,7 +5991,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>6</v>
@@ -6003,7 +6014,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>6</v>
@@ -6017,16 +6028,16 @@
       <c r="E168" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F168" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G168" s="8" t="s">
-        <v>7</v>
+      <c r="F168" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>6</v>
@@ -6049,7 +6060,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>6</v>
@@ -6072,7 +6083,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>6</v>
@@ -6086,16 +6097,16 @@
       <c r="E171" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F171" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G171" s="4" t="s">
-        <v>6</v>
+      <c r="F171" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G171" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>6</v>
@@ -6118,7 +6129,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>6</v>
@@ -6132,16 +6143,16 @@
       <c r="E173" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F173" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G173" s="7" t="s">
-        <v>140</v>
+      <c r="F173" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>6</v>
@@ -6164,7 +6175,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>6</v>
@@ -6187,7 +6198,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>6</v>
@@ -6201,16 +6212,16 @@
       <c r="E176" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F176" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G176" s="4" t="s">
-        <v>6</v>
+      <c r="F176" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>6</v>
@@ -6233,7 +6244,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>6</v>
@@ -6256,7 +6267,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>6</v>
@@ -6279,7 +6290,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>6</v>
@@ -6302,7 +6313,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>6</v>
@@ -6325,7 +6336,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>6</v>
@@ -6348,7 +6359,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>6</v>
@@ -6371,7 +6382,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>6</v>
@@ -6385,314 +6396,338 @@
       <c r="E184" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F184" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G184" s="8" t="s">
-        <v>7</v>
+      <c r="F184" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B185" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C185" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D185" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E185" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F185" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G185" s="21" t="s">
+      <c r="A185" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G185" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B186" s="10">
-        <f t="shared" ref="B186:G186" si="46">COUNTIF(B137:B185,"pass")</f>
+        <v>61</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G187" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B188" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E188" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F188" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G188" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" s="10">
+        <f t="shared" ref="B189:G189" si="46">COUNTIF(B140:B188,"pass")</f>
         <v>48</v>
       </c>
-      <c r="C186" s="10">
+      <c r="C189" s="10">
         <f t="shared" si="46"/>
         <v>48</v>
       </c>
-      <c r="D186" s="10">
+      <c r="D189" s="10">
         <f t="shared" si="46"/>
         <v>49</v>
       </c>
-      <c r="E186" s="10">
+      <c r="E189" s="10">
         <f t="shared" si="46"/>
         <v>49</v>
       </c>
-      <c r="F186" s="10">
+      <c r="F189" s="10">
         <f t="shared" si="46"/>
         <v>42</v>
       </c>
-      <c r="G186" s="10">
+      <c r="G189" s="10">
         <f t="shared" si="46"/>
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B187" s="5">
-        <f t="shared" ref="B187:G187" si="47">COUNTIF(B137:B185,"Ok")</f>
+      <c r="B190" s="5">
+        <f t="shared" ref="B190:G190" si="47">COUNTIF(B140:B188,"Ok")</f>
         <v>1</v>
       </c>
-      <c r="C187" s="5">
+      <c r="C190" s="5">
         <f t="shared" si="47"/>
         <v>1</v>
       </c>
-      <c r="D187" s="5">
+      <c r="D190" s="5">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="E187" s="5">
+      <c r="E190" s="5">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="F187" s="5">
+      <c r="F190" s="5">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="G187" s="5">
+      <c r="G190" s="5">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B188" s="11">
-        <f t="shared" ref="B188:G188" si="48">COUNTIF(B137:B185,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="C188" s="11">
+      <c r="B191" s="11">
+        <f t="shared" ref="B191:G191" si="48">COUNTIF(B140:B188,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C191" s="11">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="D188" s="11">
+      <c r="D191" s="11">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="E188" s="11">
+      <c r="E191" s="11">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="F188" s="11">
+      <c r="F191" s="11">
         <f t="shared" si="48"/>
         <v>1</v>
       </c>
-      <c r="G188" s="11">
+      <c r="G191" s="11">
         <f t="shared" si="48"/>
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B189" s="12">
-        <f t="shared" ref="B189:G189" si="49">COUNTIF(B137:B185,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C189" s="12">
+      <c r="B192" s="12">
+        <f t="shared" ref="B192:G192" si="49">COUNTIF(B140:B188,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C192" s="12">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="D189" s="12">
+      <c r="D192" s="12">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="E189" s="12">
+      <c r="E192" s="12">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="F189" s="12">
+      <c r="F192" s="12">
         <f t="shared" si="49"/>
         <v>6</v>
       </c>
-      <c r="G189" s="12">
+      <c r="G192" s="12">
         <f t="shared" si="49"/>
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B190" s="2">
-        <f t="shared" ref="B190:G190" si="50">COUNT(B137:B185,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C190" s="2">
+      <c r="B193" s="2">
+        <f t="shared" ref="B193:G193" si="50">COUNT(B140:B188,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C193" s="2">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D190" s="2">
+      <c r="D193" s="2">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="E190" s="2">
+      <c r="E193" s="2">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="F190" s="2">
+      <c r="F193" s="2">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="G190" s="2">
+      <c r="G193" s="2">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B191" s="2">
-        <f>B186+B189+B188+B190+B187</f>
+      <c r="B194" s="2">
+        <f>B189+B192+B191+B193+B190</f>
         <v>49</v>
       </c>
-      <c r="C191" s="2">
-        <f>C186+C189+C188+C190+C187</f>
+      <c r="C194" s="2">
+        <f>C189+C192+C191+C193+C190</f>
         <v>49</v>
       </c>
-      <c r="D191" s="2">
-        <f t="shared" ref="D191:F191" si="51">D186+D189+D188+D190+D187</f>
+      <c r="D194" s="2">
+        <f t="shared" ref="D194:F194" si="51">D189+D192+D191+D193+D190</f>
         <v>49</v>
       </c>
-      <c r="E191" s="2">
+      <c r="E194" s="2">
         <f t="shared" si="51"/>
         <v>49</v>
       </c>
-      <c r="F191" s="2">
+      <c r="F194" s="2">
         <f t="shared" si="51"/>
         <v>49</v>
       </c>
-      <c r="G191" s="2">
-        <f t="shared" ref="G191" si="52">G186+G189+G188+G190+G187</f>
+      <c r="G194" s="2">
+        <f t="shared" ref="G194" si="52">G189+G192+G191+G193+G190</f>
         <v>49</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="18" t="s">
+    <row r="195" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B192" s="6">
-        <f>IF(B$191=0, 0, (B$186+B$187)/B$191)</f>
+      <c r="B195" s="6">
+        <f>IF(B$194=0, 0, (B$189+B$190)/B$194)</f>
         <v>1</v>
       </c>
-      <c r="C192" s="6">
-        <f t="shared" ref="C192:G192" si="53">IF(C$191=0, 0, (C$186+C$187)/C$191)</f>
+      <c r="C195" s="6">
+        <f t="shared" ref="C195:G195" si="53">IF(C$194=0, 0, (C$189+C$190)/C$194)</f>
         <v>1</v>
       </c>
-      <c r="D192" s="6">
+      <c r="D195" s="6">
         <f t="shared" si="53"/>
         <v>1</v>
       </c>
-      <c r="E192" s="6">
+      <c r="E195" s="6">
         <f t="shared" si="53"/>
         <v>1</v>
       </c>
-      <c r="F192" s="6">
+      <c r="F195" s="6">
         <f t="shared" si="53"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="G192" s="6">
+      <c r="G195" s="6">
         <f t="shared" si="53"/>
         <v>0.91836734693877553</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="13"/>
-      <c r="B193" s="16"/>
-      <c r="C193" s="16"/>
-      <c r="D193" s="13"/>
-      <c r="E193" s="13"/>
-      <c r="F193" s="13"/>
-      <c r="G193" s="13"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="19" t="s">
+    <row r="196" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="13"/>
+      <c r="B196" s="16"/>
+      <c r="C196" s="16"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="13"/>
+      <c r="F196" s="13"/>
+      <c r="G196" s="13"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="B194" s="15"/>
-      <c r="C194" s="15"/>
-      <c r="D194" s="15"/>
-      <c r="E194" s="15"/>
-      <c r="F194" s="15"/>
-      <c r="G194" s="15"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E195" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
+      <c r="B197" s="15"/>
+      <c r="C197" s="15"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="15"/>
+      <c r="G197" s="15"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D198" s="4" t="s">
         <v>6</v>
       </c>
@@ -6703,38 +6738,38 @@
       <c r="G198" s="2"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A199" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6749,14 +6784,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
       <c r="D202" s="4" t="s">
         <v>6</v>
       </c>
@@ -6768,10 +6799,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>6</v>
+        <v>105</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>6</v>
@@ -6783,7 +6814,7 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6798,538 +6829,593 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
+      <c r="D205" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B207" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C207" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D207" s="15"/>
-      <c r="E207" s="15"/>
-      <c r="F207" s="15"/>
-      <c r="G207" s="15"/>
+      <c r="A207" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B208" s="10">
-        <f>COUNTIF(B195:B207,"pass")</f>
+        <v>119</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B210" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15"/>
+      <c r="F210" s="15"/>
+      <c r="G210" s="15"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B211" s="10">
+        <f>COUNTIF(B198:B210,"pass")</f>
         <v>4</v>
       </c>
-      <c r="C208" s="10">
-        <f>COUNTIF(C195:C207,"pass")</f>
+      <c r="C211" s="10">
+        <f>COUNTIF(C198:C210,"pass")</f>
         <v>7</v>
       </c>
-      <c r="D208" s="10">
-        <f t="shared" ref="D208:F208" si="54">COUNTIF(D195:D207,"pass")</f>
+      <c r="D211" s="10">
+        <f t="shared" ref="D211:F211" si="54">COUNTIF(D198:D210,"pass")</f>
         <v>8</v>
       </c>
-      <c r="E208" s="10">
+      <c r="E211" s="10">
         <f t="shared" si="54"/>
         <v>8</v>
       </c>
-      <c r="F208" s="10">
+      <c r="F211" s="10">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="G208" s="10">
-        <f t="shared" ref="G208" si="55">COUNTIF(G195:G207,"pass")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B209" s="5">
-        <f>COUNTIF(B195:B207,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="C209" s="5">
-        <f>COUNTIF(C195:C207,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="D209" s="5">
-        <f t="shared" ref="D209:F209" si="56">COUNTIF(D195:D207,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="E209" s="5">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="F209" s="5">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="G209" s="5">
-        <f t="shared" ref="G209" si="57">COUNTIF(G195:G207,"Ok")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B210" s="11">
-        <f>COUNTIF(B195:B207,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="C210" s="11">
-        <f>COUNTIF(C195:C207,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="D210" s="11">
-        <f t="shared" ref="D210:F210" si="58">COUNTIF(D195:D207,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="E210" s="11">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="F210" s="11">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="G210" s="11">
-        <f t="shared" ref="G210" si="59">COUNTIF(G195:G207,"workaround")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B211" s="12">
-        <f>COUNTIF(B195:B207,"Fail")</f>
-        <v>3</v>
-      </c>
-      <c r="C211" s="12">
-        <f>COUNTIF(C195:C207,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="D211" s="12">
-        <f t="shared" ref="D211:F211" si="60">COUNTIF(D195:D207,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="E211" s="12">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="F211" s="12">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="G211" s="12">
-        <f t="shared" ref="G211" si="61">COUNTIF(G195:G207,"Fail")</f>
+      <c r="G211" s="10">
+        <f t="shared" ref="G211" si="55">COUNTIF(G198:G210,"pass")</f>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B212" s="2">
-        <f>COUNT(B195:B207,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C212" s="2">
-        <f>COUNT(C195:C207,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D212" s="2">
-        <f t="shared" ref="D212:F212" si="62">COUNT(D195:D207,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E212" s="2">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="F212" s="2">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="G212" s="2">
-        <f t="shared" ref="G212" si="63">COUNT(G195:G207,"Untested")</f>
+        <v>143</v>
+      </c>
+      <c r="B212" s="5">
+        <f>COUNTIF(B198:B210,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C212" s="5">
+        <f>COUNTIF(C198:C210,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D212" s="5">
+        <f t="shared" ref="D212:F212" si="56">COUNTIF(D198:D210,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E212" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="F212" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="G212" s="5">
+        <f t="shared" ref="G212" si="57">COUNTIF(G198:G210,"Ok")</f>
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B213" s="11">
+        <f>COUNTIF(B198:B210,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C213" s="11">
+        <f>COUNTIF(C198:C210,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D213" s="11">
+        <f t="shared" ref="D213:F213" si="58">COUNTIF(D198:D210,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E213" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="F213" s="11">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="G213" s="11">
+        <f t="shared" ref="G213" si="59">COUNTIF(G198:G210,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B214" s="12">
+        <f>COUNTIF(B198:B210,"Fail")</f>
+        <v>3</v>
+      </c>
+      <c r="C214" s="12">
+        <f>COUNTIF(C198:C210,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D214" s="12">
+        <f t="shared" ref="D214:F214" si="60">COUNTIF(D198:D210,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E214" s="12">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F214" s="12">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="G214" s="12">
+        <f t="shared" ref="G214" si="61">COUNTIF(G198:G210,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B215" s="2">
+        <f>COUNT(B198:B210,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C215" s="2">
+        <f>COUNT(C198:C210,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D215" s="2">
+        <f t="shared" ref="D215:F215" si="62">COUNT(D198:D210,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E215" s="2">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="F215" s="2">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="G215" s="2">
+        <f t="shared" ref="G215" si="63">COUNT(G198:G210,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B213" s="2">
-        <f>B208+B211+B210+B212+B209</f>
+      <c r="B216" s="2">
+        <f>B211+B214+B213+B215+B212</f>
         <v>7</v>
       </c>
-      <c r="C213" s="2">
-        <f>C208+C211+C210+C212+C209</f>
+      <c r="C216" s="2">
+        <f>C211+C214+C213+C215+C212</f>
         <v>7</v>
       </c>
-      <c r="D213" s="2">
-        <f t="shared" ref="D213:F213" si="64">D208+D211+D210+D212+D209</f>
+      <c r="D216" s="2">
+        <f t="shared" ref="D216:F216" si="64">D211+D214+D213+D215+D212</f>
         <v>8</v>
       </c>
-      <c r="E213" s="2">
+      <c r="E216" s="2">
         <f t="shared" si="64"/>
         <v>8</v>
       </c>
-      <c r="F213" s="2">
+      <c r="F216" s="2">
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="G213" s="2">
-        <f t="shared" ref="G213" si="65">G208+G211+G210+G212+G209</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="18" t="s">
+      <c r="G216" s="2">
+        <f t="shared" ref="G216" si="65">G211+G214+G213+G215+G212</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B214" s="6">
-        <f>IF(B$213=0, 0, (B$208+B$209)/B$213)</f>
+      <c r="B217" s="6">
+        <f>IF(B$216=0, 0, (B$211+B$212)/B$216)</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="C214" s="6">
-        <f t="shared" ref="C214:G214" si="66">IF(C$213=0, 0, (C$208+C$209)/C$213)</f>
+      <c r="C217" s="6">
+        <f t="shared" ref="C217:G217" si="66">IF(C$216=0, 0, (C$211+C$212)/C$216)</f>
         <v>1</v>
       </c>
-      <c r="D214" s="6">
+      <c r="D217" s="6">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="E214" s="6">
+      <c r="E217" s="6">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="F214" s="6">
+      <c r="F217" s="6">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="G214" s="6">
+      <c r="G217" s="6">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="13"/>
-      <c r="B215" s="13"/>
-      <c r="C215" s="13"/>
-      <c r="D215" s="13"/>
-      <c r="E215" s="13"/>
-      <c r="F215" s="13"/>
-      <c r="G215" s="13"/>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="15" t="s">
+    <row r="218" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="13"/>
+      <c r="B218" s="13"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="13"/>
+      <c r="E218" s="13"/>
+      <c r="F218" s="13"/>
+      <c r="G218" s="13"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B216" s="15"/>
-      <c r="C216" s="15"/>
-      <c r="D216" s="15"/>
-      <c r="E216" s="15"/>
-      <c r="F216" s="15"/>
-      <c r="G216" s="15"/>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="31" t="s">
+      <c r="B219" s="15"/>
+      <c r="C219" s="15"/>
+      <c r="D219" s="15"/>
+      <c r="E219" s="15"/>
+      <c r="F219" s="15"/>
+      <c r="G219" s="15"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B217" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C217" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D217" s="31"/>
-      <c r="E217" s="31"/>
-      <c r="F217" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G217" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B218" s="10">
-        <f>COUNTIF(B217,"pass")</f>
+      <c r="B220" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C220" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" s="28"/>
+      <c r="E220" s="28"/>
+      <c r="F220" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G220" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" s="10">
+        <f>COUNTIF(B220,"pass")</f>
         <v>1</v>
       </c>
-      <c r="C218" s="10">
-        <f>COUNTIF(C217,"pass")</f>
+      <c r="C221" s="10">
+        <f>COUNTIF(C220,"pass")</f>
         <v>1</v>
       </c>
-      <c r="D218" s="10">
-        <f t="shared" ref="D218:F218" si="67">COUNTIF(D217,"pass")</f>
-        <v>0</v>
-      </c>
-      <c r="E218" s="10">
+      <c r="D221" s="10">
+        <f t="shared" ref="D221:F221" si="67">COUNTIF(D220,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="E221" s="10">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="F218" s="10">
+      <c r="F221" s="10">
         <f t="shared" si="67"/>
         <v>1</v>
       </c>
-      <c r="G218" s="10">
-        <f t="shared" ref="G218" si="68">COUNTIF(G217,"pass")</f>
+      <c r="G221" s="10">
+        <f t="shared" ref="G221" si="68">COUNTIF(G220,"pass")</f>
         <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B219" s="5">
-        <f>COUNTIF(B217,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="C219" s="5">
-        <f>COUNTIF(C217,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="D219" s="5">
-        <f t="shared" ref="D219:F219" si="69">COUNTIF(D217,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="E219" s="5">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="F219" s="5">
-        <f t="shared" si="69"/>
-        <v>0</v>
-      </c>
-      <c r="G219" s="5">
-        <f t="shared" ref="G219" si="70">COUNTIF(G217,"Ok")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B220" s="11">
-        <f>COUNTIF(B217,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="C220" s="11">
-        <f>COUNTIF(C217,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="D220" s="11">
-        <f t="shared" ref="D220:F220" si="71">COUNTIF(D217,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="E220" s="11">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="F220" s="11">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="G220" s="11">
-        <f t="shared" ref="G220" si="72">COUNTIF(G217,"workaround")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B221" s="12">
-        <f>COUNTIF(B217,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C221" s="12">
-        <f>COUNTIF(C217,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="D221" s="12">
-        <f t="shared" ref="D221:F221" si="73">COUNTIF(D217,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="E221" s="12">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="F221" s="12">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="G221" s="12">
-        <f t="shared" ref="G221" si="74">COUNTIF(G217,"Fail")</f>
-        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B222" s="2">
-        <f>COUNT(B217,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C222" s="2">
-        <f>COUNT(C217,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D222" s="2">
-        <f t="shared" ref="D222:F222" si="75">COUNT(D217,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E222" s="2">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="F222" s="2">
-        <f t="shared" si="75"/>
-        <v>0</v>
-      </c>
-      <c r="G222" s="2">
-        <f t="shared" ref="G222" si="76">COUNT(G217,"Untested")</f>
+        <v>143</v>
+      </c>
+      <c r="B222" s="5">
+        <f>COUNTIF(B220,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C222" s="5">
+        <f>COUNTIF(C220,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D222" s="5">
+        <f t="shared" ref="D222:F222" si="69">COUNTIF(D220,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E222" s="5">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="F222" s="5">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="G222" s="5">
+        <f t="shared" ref="G222" si="70">COUNTIF(G220,"Ok")</f>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B223" s="11">
+        <f>COUNTIF(B220,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C223" s="11">
+        <f>COUNTIF(C220,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D223" s="11">
+        <f t="shared" ref="D223:F223" si="71">COUNTIF(D220,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E223" s="11">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="F223" s="11">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="G223" s="11">
+        <f t="shared" ref="G223" si="72">COUNTIF(G220,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B224" s="12">
+        <f>COUNTIF(B220,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C224" s="12">
+        <f>COUNTIF(C220,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D224" s="12">
+        <f t="shared" ref="D224:F224" si="73">COUNTIF(D220,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E224" s="12">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="F224" s="12">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="G224" s="12">
+        <f t="shared" ref="G224" si="74">COUNTIF(G220,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B225" s="2">
+        <f>COUNT(B220,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C225" s="2">
+        <f>COUNT(C220,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D225" s="2">
+        <f t="shared" ref="D225:F225" si="75">COUNT(D220,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E225" s="2">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="F225" s="2">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="G225" s="2">
+        <f t="shared" ref="G225" si="76">COUNT(G220,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B223" s="2">
-        <f>B218+B221+B220+B222+B219</f>
+      <c r="B226" s="2">
+        <f>B221+B224+B223+B225+B222</f>
         <v>1</v>
       </c>
-      <c r="C223" s="2">
-        <f>C218+C221+C220+C222+C219</f>
+      <c r="C226" s="2">
+        <f>C221+C224+C223+C225+C222</f>
         <v>1</v>
       </c>
-      <c r="D223" s="2">
-        <f t="shared" ref="D223:F223" si="77">D218+D221+D220+D222+D219</f>
-        <v>0</v>
-      </c>
-      <c r="E223" s="2">
+      <c r="D226" s="2">
+        <f t="shared" ref="D226:F226" si="77">D221+D224+D223+D225+D222</f>
+        <v>0</v>
+      </c>
+      <c r="E226" s="2">
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="F223" s="2">
+      <c r="F226" s="2">
         <f t="shared" si="77"/>
         <v>1</v>
       </c>
-      <c r="G223" s="2">
-        <f t="shared" ref="G223" si="78">G218+G221+G220+G222+G219</f>
+      <c r="G226" s="2">
+        <f t="shared" ref="G226" si="78">G221+G224+G223+G225+G222</f>
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="18" t="s">
+    <row r="227" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B224" s="6">
-        <f>IF(B$223=0, 0, (B$218+B$219)/B$223)</f>
+      <c r="B227" s="6">
+        <f>IF(B$226=0, 0, (B$221+B$222)/B$226)</f>
         <v>1</v>
       </c>
-      <c r="C224" s="6">
-        <f t="shared" ref="C224:G224" si="79">IF(C$223=0, 0, (C$218+C$219)/C$223)</f>
+      <c r="C227" s="6">
+        <f t="shared" ref="C227:G227" si="79">IF(C$226=0, 0, (C$221+C$222)/C$226)</f>
         <v>1</v>
       </c>
-      <c r="D224" s="6">
+      <c r="D227" s="6">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="E224" s="6">
+      <c r="E227" s="6">
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="F224" s="6">
+      <c r="F227" s="6">
         <f t="shared" si="79"/>
         <v>1</v>
       </c>
-      <c r="G224" s="6">
+      <c r="G227" s="6">
         <f t="shared" si="79"/>
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
-    </row>
-    <row r="226" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="20"/>
-      <c r="C226" s="20"/>
-      <c r="D226" s="20"/>
-      <c r="E226" s="20"/>
-      <c r="F226" s="20"/>
-      <c r="G226" s="20"/>
-    </row>
-    <row r="227" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="20"/>
-      <c r="C227" s="20"/>
-      <c r="D227" s="20"/>
-      <c r="E227" s="20"/>
-      <c r="F227" s="20"/>
-      <c r="G227" s="20"/>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
+    <row r="228" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+    </row>
+    <row r="229" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="20"/>
+      <c r="C229" s="20"/>
+      <c r="D229" s="20"/>
+      <c r="E229" s="20"/>
+      <c r="F229" s="20"/>
+      <c r="G229" s="20"/>
+    </row>
+    <row r="230" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="20"/>
+      <c r="C230" s="20"/>
+      <c r="D230" s="20"/>
+      <c r="E230" s="20"/>
+      <c r="F230" s="20"/>
+      <c r="G230" s="20"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
+  <mergeCells count="5">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://www.g-truc.net"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -7353,14 +7439,14 @@
       <c r="A1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/doc/OpenGL status.xlsx
+++ b/doc/OpenGL status.xlsx
@@ -7,14 +7,646 @@
     <workbookView xWindow="120" yWindow="60" windowWidth="21075" windowHeight="9780"/>
   </bookViews>
   <sheets>
-    <sheet name="2012-12" sheetId="3" r:id="rId1"/>
-    <sheet name="2012-11" sheetId="1" r:id="rId2"/>
+    <sheet name="2013-01" sheetId="4" r:id="rId1"/>
+    <sheet name="2012-12" sheetId="3" r:id="rId2"/>
+    <sheet name="2012-11" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Groove</author>
+  </authors>
+  <commentList>
+    <comment ref="B40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Object labels not used in the debug output log.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Object labels not used in the debug output log.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>coherent qualifier on image2D result in a parsing error.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">dvec4 vertex input generates an error: "unknown opcode modifier"
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B72" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Structure for vertex inputs supported</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C72" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Structure for vertex inputs supported</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D79" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">BPTC online conversions is not/won't be supported
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E79" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">BPTC online conversions is not/won't be supported
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B83" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Convertions with precision qualifiers are not working correctly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C83" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Convertions with precision qualifiers are not working correctly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D83" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Allows an implicit cast on texture coordinates parameter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E83" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Allows an implicit cast on texture coordinates parameter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F112" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Fail to render
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F113" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The rendering is corrupt
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F115" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The rendering is corrupt
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F116" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The rendering is corrupt
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F118" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Zoming and rotating the quad shows tessellated triangle disappearing
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G118" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>One of the two quad is not displayed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unable to call directly a subroutine</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E121" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">BPTC online conversions is not/won't be supported
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B128" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EXT_transform_feedback extension string missing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C128" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EXT_transform_feedback extension string missing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B129" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>layout(triangles) in; declaration is required by the specification</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C129" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">layout(triangles) in; declaration is required by the specification
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F140" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Per framebuffer color mask are not functional
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F151" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Layered rendering is not functional
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F155" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Rendering to multiple color attachment seems defective when each attachment is a different texture object
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B161" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pop free clipping</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C161" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pop free clipping</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F161" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Scissor test is performed at the center of the point sprite only, not each fragment of the point.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F170" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The GLSL compiler generates the error: "'structure' : samplers cannot be structure or block members"
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F175" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GLSL compiler results an invalid warning, GLSL version are not deprecated in core profile</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G175" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GLSL compiler results an invalid warning, GLSL version are not deprecated in core profile</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B181" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EXT_texture_snorm string missing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C181" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EXT_texture_snorm string missing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F187" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">glGetActiveUniform fails to return correct results
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E202" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Crash when there is only a depth attachment
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E203" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Generates a GL_FRAMEBUFFER_INCOMPLETE_DRAW_BUFFER error
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G203" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Crash
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D216" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GL_NV_gpu_shader5 not supported</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E216" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GL_NV_gpu_shader5 not supported</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F216" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GL_NV_gpu_shader5 not supported</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G216" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GL_NV_gpu_shader5 not supported</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Groove</author>
@@ -673,7 +1305,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Groove</author>
@@ -1098,7 +1730,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="188">
   <si>
     <t>gl-430-texture-view</t>
   </si>
@@ -1608,6 +2240,60 @@
   </si>
   <si>
     <t>OpenGL Status - December 2012</t>
+  </si>
+  <si>
+    <t>OpenGL Status - January 2013</t>
+  </si>
+  <si>
+    <t>313.95</t>
+  </si>
+  <si>
+    <t>NVIDIA 313.95</t>
+  </si>
+  <si>
+    <t>13.2 beta</t>
+  </si>
+  <si>
+    <t>AMD 13.2 beta</t>
+  </si>
+  <si>
+    <t>4.3.2 branch</t>
+  </si>
+  <si>
+    <t>gl-430-texture-buffer</t>
+  </si>
+  <si>
+    <t>Unsupported</t>
+  </si>
+  <si>
+    <t>OpenGL 3.2</t>
+  </si>
+  <si>
+    <t>320-draw-image-space</t>
+  </si>
+  <si>
+    <t>320-draw-instanced</t>
+  </si>
+  <si>
+    <t>320-draw-without-vertex-attrib</t>
+  </si>
+  <si>
+    <t>320-fbo</t>
+  </si>
+  <si>
+    <t>320-fbo-depth</t>
+  </si>
+  <si>
+    <t>320-fbo-depth-multisample</t>
+  </si>
+  <si>
+    <t>320-primitive-shading</t>
+  </si>
+  <si>
+    <t>320-texture-2d</t>
+  </si>
+  <si>
+    <t>gl-330-texture-integer</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +2303,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1680,6 +2366,13 @@
       <name val="Cambria"/>
       <family val="1"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1792,7 +2485,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1839,16 +2532,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1857,7 +2553,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1889,6 +2588,547 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2013-01'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NVIDIA 310.33</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2013-01'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenGL 3.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2013-01'!$B$10:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.7857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94736842105263153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2013-01'!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NVIDIA 313.95</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2013-01'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenGL 3.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2013-01'!$C$10:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94736842105263153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2013-01'!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AMD 12.11 b11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2013-01'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenGL 3.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2013-01'!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89473684210526316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2013-01'!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AMD 13.2 beta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2013-01'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenGL 3.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2013-01'!$E$10:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89473684210526316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2013-01'!$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel 15.28.10.2897</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2013-01'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenGL 3.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2013-01'!$F$10:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73684210526315785</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2013-01'!$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel 15.31.64.2885</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2013-01'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenGL 3.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2013-01'!$G$10:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94736842105263153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="42562688"/>
+        <c:axId val="42564224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="42562688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42564224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="42564224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42562688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2338,11 +3578,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="42734336"/>
-        <c:axId val="42758528"/>
+        <c:axId val="177304320"/>
+        <c:axId val="177306624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42734336"/>
+        <c:axId val="177304320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2351,7 +3591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42758528"/>
+        <c:crossAx val="177306624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2359,7 +3599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42758528"/>
+        <c:axId val="177306624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2371,14 +3611,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42734336"/>
+        <c:crossAx val="177304320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2394,6 +3633,43 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2715,10 +3991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G231"/>
+  <dimension ref="A1:G248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2733,26 +4009,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="A1" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -2767,18 +4043,5365 @@
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="36"/>
+      <c r="F4" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="35"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="17">
+        <v>41241</v>
+      </c>
+      <c r="C5" s="17">
+        <v>40936</v>
+      </c>
+      <c r="D5" s="17">
+        <v>41247</v>
+      </c>
+      <c r="E5" s="17">
+        <v>41303</v>
+      </c>
+      <c r="F5" s="17">
+        <v>41250</v>
+      </c>
+      <c r="G5" s="17">
+        <v>41259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="20">
+        <f>IF(B$58=0, 0,(B$53+B$54)/B$58)</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="C10" s="20">
+        <f t="shared" ref="C10:G10" si="0">IF(C$58=0, 0,(C$53+C$54)/C$58)</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="D10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="20">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="20">
+        <f>IF(B$90=0,0,(B$85+B$86)/B$90)</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="C11" s="20">
+        <f t="shared" ref="C11:G11" si="1">IF(C$90=0,0,(C$85+C$86)/C$90)</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="D11" s="20">
+        <f t="shared" si="1"/>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="E11" s="20">
+        <f t="shared" si="1"/>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="F11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="20">
+        <f>IF(B$107=0, 0, (B$102+B$103)/B$107)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C12" s="20">
+        <f t="shared" ref="C12:G12" si="2">IF(C$107=0, 0, (C$102+C$103)/C$107)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D12" s="20">
+        <f t="shared" si="2"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E12" s="20">
+        <f t="shared" si="2"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="20">
+        <f>IF(B$135=0, 0, (B$130+B$131)/B$135)</f>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="C13" s="20">
+        <f t="shared" ref="C13:G13" si="3">IF(C$135=0, 0, (C$130+C$131)/C$135)</f>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="D13" s="20">
+        <f t="shared" si="3"/>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" si="3"/>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="3"/>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="3"/>
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20">
+        <f>IF(B$194=0, 0, (B$189+B$190)/B$194)</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="20">
+        <f t="shared" ref="C14:G14" si="4">IF(C$194=0, 0, (C$189+C$190)/C$194)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="20">
+        <f t="shared" si="4"/>
+        <v>0.86</v>
+      </c>
+      <c r="G14" s="20">
+        <f t="shared" si="4"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="25">
+        <f>IF(B$211=0, 0, (B$206+B$207)/B$211)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="25">
+        <f t="shared" ref="C15:G15" si="5">IF(C$211=0, 0, (C$206+C$207)/C$211)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="25">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="F15" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="25">
+        <f t="shared" si="5"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G47" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G49" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G51" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E52" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="10">
+        <f t="shared" ref="B53:G53" si="6">COUNTIF(B39:B52,"pass")</f>
+        <v>11</v>
+      </c>
+      <c r="C53" s="10">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="D53" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="10">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F53" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="5">
+        <f t="shared" ref="B54:G54" si="7">COUNTIF(B39:B52,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="11">
+        <f t="shared" ref="B55:G55" si="8">COUNTIF(B39:B52,"workaround")</f>
+        <v>2</v>
+      </c>
+      <c r="C55" s="11">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D55" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="12">
+        <f t="shared" ref="B56:G56" si="9">COUNTIF(B39:B52,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="C56" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D56" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" s="2">
+        <f>COUNT(B39:B52,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="2">
+        <f>COUNT(C39:C52,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <f>COUNT(D39:D52,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <f>COUNTIF(E39:E52,"unsupported")</f>
+        <v>12</v>
+      </c>
+      <c r="F57" s="2">
+        <f>COUNT(F39:F52,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <f>COUNT(G39:G52,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="2">
+        <f>B53+B56+B55+B57+B54</f>
+        <v>14</v>
+      </c>
+      <c r="C58" s="2">
+        <f>C53+C56+C55+C57+C54</f>
+        <v>14</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" ref="D58:G58" si="10">D53+D56+D55+D57+D54</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="6">
+        <f>IF(B$58=0, 0,(B$53+B$54)/B$58)</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="C59" s="6">
+        <f t="shared" ref="C59:G59" si="11">IF(C$58=0, 0,(C$53+C$54)/C$58)</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="D59" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <f t="shared" si="11"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F59" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G62" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G63" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G64" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G65" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G66" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G67" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G68" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G69" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G70" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G71" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G73" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G74" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G75" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G76" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G77" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G78" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G79" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G80" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G81" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G82" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G83" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="G84" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="10">
+        <f>COUNTIF(B62:B84,"pass")</f>
+        <v>21</v>
+      </c>
+      <c r="C85" s="10">
+        <f>COUNTIF(C62:C84,"pass")</f>
+        <v>21</v>
+      </c>
+      <c r="D85" s="10">
+        <f t="shared" ref="D85:G85" si="12">COUNTIF(D62:D84,"pass")</f>
+        <v>21</v>
+      </c>
+      <c r="E85" s="10">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="F85" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" s="5">
+        <f>COUNTIF(B62:B84,"Ok")</f>
+        <v>1</v>
+      </c>
+      <c r="C86" s="5">
+        <f>COUNTIF(C62:C84,"Ok")</f>
+        <v>1</v>
+      </c>
+      <c r="D86" s="5">
+        <f t="shared" ref="D86:G86" si="13">COUNTIF(D62:D84,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B87" s="11">
+        <f>COUNTIF(B62:B84,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="C87" s="11">
+        <f>COUNTIF(C62:C84,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="D87" s="11">
+        <f t="shared" ref="D87:G87" si="14">COUNTIF(D62:D84,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="E87" s="11">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F87" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="12">
+        <f>COUNTIF(B62:B84,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C88" s="12">
+        <f>COUNTIF(C62:C84,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="12">
+        <f t="shared" ref="D88:G88" si="15">COUNTIF(D62:D84,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="E88" s="12">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F88" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B89" s="2">
+        <f>COUNT(B62:B84,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C89" s="2">
+        <f>COUNT(C62:C84,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="2">
+        <f t="shared" ref="D89:G89" si="16">COUNT(D62:D84,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B90" s="2">
+        <f>B85+B88+B87+B89+B86</f>
+        <v>23</v>
+      </c>
+      <c r="C90" s="2">
+        <f>C85+C88+C87+C89+C86</f>
+        <v>23</v>
+      </c>
+      <c r="D90" s="2">
+        <f t="shared" ref="D90:G90" si="17">D85+D88+D87+D89+D86</f>
+        <v>23</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" si="17"/>
+        <v>23</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="6">
+        <f>IF(B$90=0,0,(B$85+B$86)/B$90)</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="C91" s="6">
+        <f t="shared" ref="C91:G91" si="18">IF(C$90=0,0,(C$85+C$86)/C$90)</f>
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="D91" s="6">
+        <f t="shared" si="18"/>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="E91" s="6">
+        <f t="shared" si="18"/>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="F91" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G94" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G95" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G96" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G97" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G98" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G99" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G100" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="G101" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="10">
+        <f>COUNTIF(B94:B101,"pass")</f>
+        <v>8</v>
+      </c>
+      <c r="C102" s="10">
+        <f>COUNTIF(C94:C101,"pass")</f>
+        <v>8</v>
+      </c>
+      <c r="D102" s="10">
+        <f t="shared" ref="D102:G102" si="19">COUNTIF(D94:D101,"pass")</f>
+        <v>8</v>
+      </c>
+      <c r="E102" s="10">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="F102" s="10">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="10">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B103" s="5">
+        <f>COUNTIF(B94:B101,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C103" s="5">
+        <f>COUNTIF(C94:C101,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D103" s="5">
+        <f t="shared" ref="D103:G103" si="20">COUNTIF(D94:D101,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F103" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B104" s="11">
+        <f t="shared" ref="B104:G104" si="21">COUNTIF(B125:B195,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="C104" s="11">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="D104" s="11">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="E104" s="11">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="F104" s="11">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="G104" s="11">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="12">
+        <f>COUNTIF(B94:B101,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C105" s="12">
+        <f>COUNTIF(C94:C101,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D105" s="12">
+        <f t="shared" ref="D105:G105" si="22">COUNTIF(D94:D101,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E105" s="12">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="12">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="12">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B106" s="2">
+        <f>COUNT(B94:B101,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C106" s="2">
+        <f>COUNT(C94:C101,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D106" s="2">
+        <f t="shared" ref="D106:G106" si="23">COUNT(D94:D101,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E106" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B107" s="2">
+        <f>B102+B105+B104+B106+B103</f>
+        <v>9</v>
+      </c>
+      <c r="C107" s="2">
+        <f>C102+C105+C104+C106+C103</f>
+        <v>9</v>
+      </c>
+      <c r="D107" s="2">
+        <f t="shared" ref="D107:G107" si="24">D102+D105+D104+D106+D103</f>
+        <v>9</v>
+      </c>
+      <c r="E107" s="2">
+        <f t="shared" si="24"/>
+        <v>9</v>
+      </c>
+      <c r="F107" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="G107" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="6">
+        <f>IF(B$107=0, 0, (B$102+B$103)/B$107)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="C108" s="6">
+        <f t="shared" ref="C108:G108" si="25">IF(C$107=0, 0, (C$102+C$103)/C$107)</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D108" s="6">
+        <f t="shared" si="25"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E108" s="6">
+        <f t="shared" si="25"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F108" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="6">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="13"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D129" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F129" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G129" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="10">
+        <f t="shared" ref="B130:G130" si="26">COUNTIF(B111:B129,"pass")</f>
+        <v>18</v>
+      </c>
+      <c r="C130" s="10">
+        <f t="shared" si="26"/>
+        <v>18</v>
+      </c>
+      <c r="D130" s="10">
+        <f t="shared" si="26"/>
+        <v>17</v>
+      </c>
+      <c r="E130" s="10">
+        <f t="shared" si="26"/>
+        <v>17</v>
+      </c>
+      <c r="F130" s="10">
+        <f t="shared" si="26"/>
+        <v>14</v>
+      </c>
+      <c r="G130" s="10">
+        <f t="shared" si="26"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B131" s="5">
+        <f t="shared" ref="B131:G131" si="27">COUNTIF(B111:B129,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C131" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D131" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="E131" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="F131" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G131" s="5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B132" s="11">
+        <f t="shared" ref="B132:G132" si="28">COUNTIF(B111:B129,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="C132" s="11">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D132" s="11">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="E132" s="11">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F132" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="G132" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" s="12">
+        <f t="shared" ref="B133:G133" si="29">COUNTIF(B111:B129,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C133" s="12">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="D133" s="12">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="E133" s="12">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="F133" s="12">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="G133" s="12">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B134" s="2">
+        <f t="shared" ref="B134:G134" si="30">COUNT(B111:B129,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C134" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="D134" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E134" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F134" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="G134" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135" s="2">
+        <f>B130+B133+B132+B134+B131</f>
+        <v>19</v>
+      </c>
+      <c r="C135" s="2">
+        <f>C130+C133+C132+C134+C131</f>
+        <v>19</v>
+      </c>
+      <c r="D135" s="2">
+        <f t="shared" ref="D135:G135" si="31">D130+D133+D132+D134+D131</f>
+        <v>19</v>
+      </c>
+      <c r="E135" s="2">
+        <f t="shared" si="31"/>
+        <v>19</v>
+      </c>
+      <c r="F135" s="2">
+        <f t="shared" si="31"/>
+        <v>19</v>
+      </c>
+      <c r="G135" s="2">
+        <f t="shared" si="31"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="6">
+        <f>IF(B$135=0, 0, (B$130+B$131)/B$135)</f>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="C136" s="6">
+        <f t="shared" ref="C136:G136" si="32">IF(C$135=0, 0, (C$130+C$131)/C$135)</f>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="D136" s="6">
+        <f t="shared" si="32"/>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="E136" s="6">
+        <f t="shared" si="32"/>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="F136" s="6">
+        <f t="shared" si="32"/>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="G136" s="6">
+        <f t="shared" si="32"/>
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="14"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="15"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G170" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G175" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G179" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G180" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G181" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G184" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G187" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B188" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E188" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F188" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G188" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" s="10">
+        <f t="shared" ref="B189:G189" si="33">COUNTIF(B139:B188,"pass")</f>
+        <v>49</v>
+      </c>
+      <c r="C189" s="10">
+        <f t="shared" si="33"/>
+        <v>49</v>
+      </c>
+      <c r="D189" s="10">
+        <f t="shared" si="33"/>
+        <v>50</v>
+      </c>
+      <c r="E189" s="10">
+        <f t="shared" si="33"/>
+        <v>50</v>
+      </c>
+      <c r="F189" s="10">
+        <f t="shared" si="33"/>
+        <v>43</v>
+      </c>
+      <c r="G189" s="10">
+        <f t="shared" si="33"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B190" s="5">
+        <f t="shared" ref="B190:G190" si="34">COUNTIF(B139:B188,"Ok")</f>
+        <v>1</v>
+      </c>
+      <c r="C190" s="5">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="D190" s="5">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E190" s="5">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F190" s="5">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G190" s="5">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B191" s="11">
+        <f t="shared" ref="B191:G191" si="35">COUNTIF(B139:B188,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C191" s="11">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="D191" s="11">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="E191" s="11">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F191" s="11">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="G191" s="11">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B192" s="12">
+        <f t="shared" ref="B192:G192" si="36">COUNTIF(B139:B188,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C192" s="12">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="D192" s="12">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E192" s="12">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F192" s="12">
+        <f t="shared" si="36"/>
+        <v>6</v>
+      </c>
+      <c r="G192" s="12">
+        <f t="shared" si="36"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B193" s="2">
+        <f t="shared" ref="B193:G193" si="37">COUNT(B139:B188,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C193" s="2">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="D193" s="2">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E193" s="2">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="F193" s="2">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="G193" s="2">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B194" s="2">
+        <f>B189+B192+B191+B193+B190</f>
+        <v>50</v>
+      </c>
+      <c r="C194" s="2">
+        <f>C189+C192+C191+C193+C190</f>
+        <v>50</v>
+      </c>
+      <c r="D194" s="2">
+        <f t="shared" ref="D194:G194" si="38">D189+D192+D191+D193+D190</f>
+        <v>50</v>
+      </c>
+      <c r="E194" s="2">
+        <f t="shared" si="38"/>
+        <v>50</v>
+      </c>
+      <c r="F194" s="2">
+        <f t="shared" si="38"/>
+        <v>50</v>
+      </c>
+      <c r="G194" s="2">
+        <f t="shared" si="38"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195" s="6">
+        <f>IF(B$194=0, 0, (B$189+B$190)/B$194)</f>
+        <v>1</v>
+      </c>
+      <c r="C195" s="6">
+        <f t="shared" ref="C195:G195" si="39">IF(C$194=0, 0, (C$189+C$190)/C$194)</f>
+        <v>1</v>
+      </c>
+      <c r="D195" s="6">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="E195" s="6">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="F195" s="6">
+        <f t="shared" si="39"/>
+        <v>0.86</v>
+      </c>
+      <c r="G195" s="6">
+        <f t="shared" si="39"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="13"/>
+      <c r="B196" s="16"/>
+      <c r="C196" s="16"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="13"/>
+      <c r="F196" s="13"/>
+      <c r="G196" s="13"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B197" s="15"/>
+      <c r="C197" s="15"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="15"/>
+      <c r="G197" s="15"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B198" s="2"/>
+      <c r="C198" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" s="2"/>
+      <c r="E198" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F198" s="2"/>
+      <c r="G198" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B199" s="2"/>
+      <c r="C199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" s="2"/>
+      <c r="E199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F199" s="2"/>
+      <c r="G199" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B200" s="2"/>
+      <c r="C200" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="2"/>
+      <c r="E200" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F200" s="2"/>
+      <c r="G200" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B201" s="2"/>
+      <c r="C201" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" s="2"/>
+      <c r="E201" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F201" s="2"/>
+      <c r="G201" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B202" s="2"/>
+      <c r="C202" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" s="2"/>
+      <c r="E202" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F202" s="2"/>
+      <c r="G202" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B203" s="2"/>
+      <c r="C203" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" s="2"/>
+      <c r="E203" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F203" s="2"/>
+      <c r="G203" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B204" s="2"/>
+      <c r="C204" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" s="2"/>
+      <c r="E204" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F204" s="2"/>
+      <c r="G204" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B205" s="15"/>
+      <c r="C205" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" s="15"/>
+      <c r="E205" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F205" s="15"/>
+      <c r="G205" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B206" s="10">
+        <f>COUNTIF(B$198:B$205,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="C206" s="10">
+        <f t="shared" ref="C206:G206" si="40">COUNTIF(C$198:C$205,"pass")</f>
+        <v>8</v>
+      </c>
+      <c r="D206" s="10">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="E206" s="10">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="F206" s="10">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="G206" s="10">
+        <f t="shared" si="40"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B207" s="5">
+        <f>COUNTIF(B$198:B$205,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C207" s="5">
+        <f t="shared" ref="C207:G207" si="41">COUNTIF(C$198:C$205,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D207" s="5">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="E207" s="5">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F207" s="5">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="G207" s="5">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B208" s="11">
+        <f>COUNTIF(B$198:B$205,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C208" s="11">
+        <f t="shared" ref="C208:G208" si="42">COUNTIF(C$198:C$205,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D208" s="11">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="E208" s="11">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="F208" s="11">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="G208" s="11">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209" s="12">
+        <f>COUNTIF(B198:B205,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C209" s="12">
+        <f t="shared" ref="C209:G209" si="43">COUNTIF(C198:C205,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D209" s="12">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="E209" s="12">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="F209" s="12">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G209" s="12">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B210" s="2">
+        <f>COUNT(B$198:B$205,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C210" s="2">
+        <f t="shared" ref="C210:G210" si="44">COUNT(C$198:C$205,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D210" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="E210" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="F210" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="G210" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B211" s="2">
+        <f>B$206+B$209+B$208+B$210+B$207</f>
+        <v>0</v>
+      </c>
+      <c r="C211" s="2">
+        <f t="shared" ref="C211:G211" si="45">C$206+C$209+C$208+C$210+C$207</f>
+        <v>8</v>
+      </c>
+      <c r="D211" s="2">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="E211" s="2">
+        <f t="shared" si="45"/>
+        <v>8</v>
+      </c>
+      <c r="F211" s="2">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="G211" s="2">
+        <f t="shared" si="45"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" s="6">
+        <f>IF(B$211=0, 0, (B$206+B$207)/B$211)</f>
+        <v>0</v>
+      </c>
+      <c r="C212" s="6">
+        <f t="shared" ref="C212:G212" si="46">IF(C$211=0, 0, (C$206+C$207)/C$211)</f>
+        <v>1</v>
+      </c>
+      <c r="D212" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="E212" s="6">
+        <f t="shared" si="46"/>
+        <v>0.75</v>
+      </c>
+      <c r="F212" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="G212" s="6">
+        <f t="shared" si="46"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="15"/>
+      <c r="B213" s="15"/>
+      <c r="C213" s="15"/>
+      <c r="D213" s="15"/>
+      <c r="E213" s="15"/>
+      <c r="F213" s="15"/>
+      <c r="G213" s="15"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B214" s="15"/>
+      <c r="C214" s="15"/>
+      <c r="D214" s="15"/>
+      <c r="E214" s="15"/>
+      <c r="F214" s="15"/>
+      <c r="G214" s="15"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B227" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" s="15"/>
+      <c r="E227" s="15"/>
+      <c r="F227" s="15"/>
+      <c r="G227" s="15"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B228" s="10">
+        <f>COUNTIF(B215:B227,"pass")</f>
+        <v>7</v>
+      </c>
+      <c r="C228" s="10">
+        <f>COUNTIF(C215:C227,"pass")</f>
+        <v>7</v>
+      </c>
+      <c r="D228" s="10">
+        <f t="shared" ref="D228:G228" si="47">COUNTIF(D215:D227,"pass")</f>
+        <v>8</v>
+      </c>
+      <c r="E228" s="10">
+        <f t="shared" si="47"/>
+        <v>8</v>
+      </c>
+      <c r="F228" s="10">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G228" s="10">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B229" s="5">
+        <f>COUNTIF(B215:B227,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C229" s="5">
+        <f>COUNTIF(C215:C227,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D229" s="5">
+        <f t="shared" ref="D229:G229" si="48">COUNTIF(D215:D227,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E229" s="5">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="F229" s="5">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G229" s="5">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B230" s="11">
+        <f>COUNTIF(B215:B227,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C230" s="11">
+        <f>COUNTIF(C215:C227,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D230" s="11">
+        <f t="shared" ref="D230:G230" si="49">COUNTIF(D215:D227,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E230" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F230" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G230" s="11">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B231" s="12">
+        <f>COUNTIF(B215:B227,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C231" s="12">
+        <f>COUNTIF(C215:C227,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D231" s="12">
+        <f t="shared" ref="D231:G231" si="50">COUNTIF(D215:D227,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E231" s="12">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="F231" s="12">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="G231" s="12">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B232" s="2">
+        <f>COUNT(B215:B227,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C232" s="2">
+        <f>COUNT(C215:C227,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D232" s="2">
+        <f t="shared" ref="D232:G232" si="51">COUNT(D215:D227,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E232" s="2">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="F232" s="2">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="G232" s="2">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B233" s="2">
+        <f>B228+B231+B230+B232+B229</f>
+        <v>7</v>
+      </c>
+      <c r="C233" s="2">
+        <f>C228+C231+C230+C232+C229</f>
+        <v>7</v>
+      </c>
+      <c r="D233" s="2">
+        <f t="shared" ref="D233:G233" si="52">D228+D231+D230+D232+D229</f>
+        <v>8</v>
+      </c>
+      <c r="E233" s="2">
+        <f t="shared" si="52"/>
+        <v>8</v>
+      </c>
+      <c r="F233" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="G233" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B234" s="6">
+        <f>IF(B$233=0, 0, (B$228+B$229)/B$233)</f>
+        <v>1</v>
+      </c>
+      <c r="C234" s="6">
+        <f t="shared" ref="C234:G234" si="53">IF(C$233=0, 0, (C$228+C$229)/C$233)</f>
+        <v>1</v>
+      </c>
+      <c r="D234" s="6">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="E234" s="6">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="F234" s="6">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="G234" s="6">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="13"/>
+      <c r="B235" s="13"/>
+      <c r="C235" s="13"/>
+      <c r="D235" s="13"/>
+      <c r="E235" s="13"/>
+      <c r="F235" s="13"/>
+      <c r="G235" s="13"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" s="15"/>
+      <c r="C236" s="15"/>
+      <c r="D236" s="15"/>
+      <c r="E236" s="15"/>
+      <c r="F236" s="15"/>
+      <c r="G236" s="15"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B237" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C237" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" s="28"/>
+      <c r="E237" s="28"/>
+      <c r="F237" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G237" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B238" s="10">
+        <f>COUNTIF(B237,"pass")</f>
+        <v>1</v>
+      </c>
+      <c r="C238" s="10">
+        <f>COUNTIF(C237,"pass")</f>
+        <v>1</v>
+      </c>
+      <c r="D238" s="10">
+        <f t="shared" ref="D238:G238" si="54">COUNTIF(D237,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="E238" s="10">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="F238" s="10">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="G238" s="10">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B239" s="5">
+        <f>COUNTIF(B237,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C239" s="5">
+        <f>COUNTIF(C237,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D239" s="5">
+        <f t="shared" ref="D239:G239" si="55">COUNTIF(D237,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E239" s="5">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="F239" s="5">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G239" s="5">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B240" s="11">
+        <f>COUNTIF(B237,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C240" s="11">
+        <f>COUNTIF(C237,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D240" s="11">
+        <f t="shared" ref="D240:G240" si="56">COUNTIF(D237,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E240" s="11">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="F240" s="11">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="G240" s="11">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241" s="12">
+        <f>COUNTIF(B237,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C241" s="12">
+        <f>COUNTIF(C237,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D241" s="12">
+        <f t="shared" ref="D241:G241" si="57">COUNTIF(D237,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E241" s="12">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="F241" s="12">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="G241" s="12">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B242" s="2">
+        <f>COUNT(B237,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C242" s="2">
+        <f>COUNT(C237,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D242" s="2">
+        <f t="shared" ref="D242:G242" si="58">COUNT(D237,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E242" s="2">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="F242" s="2">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="G242" s="2">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B243" s="2">
+        <f>B238+B241+B240+B242+B239</f>
+        <v>1</v>
+      </c>
+      <c r="C243" s="2">
+        <f>C238+C241+C240+C242+C239</f>
+        <v>1</v>
+      </c>
+      <c r="D243" s="2">
+        <f t="shared" ref="D243:G243" si="59">D238+D241+D240+D242+D239</f>
+        <v>0</v>
+      </c>
+      <c r="E243" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F243" s="2">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="G243" s="2">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B244" s="6">
+        <f>IF(B$243=0, 0, (B$238+B$239)/B$243)</f>
+        <v>1</v>
+      </c>
+      <c r="C244" s="6">
+        <f t="shared" ref="C244:G244" si="60">IF(C$243=0, 0, (C$238+C$239)/C$243)</f>
+        <v>1</v>
+      </c>
+      <c r="D244" s="6">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="E244" s="6">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F244" s="6">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="G244" s="6">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+      <c r="G245" s="1"/>
+    </row>
+    <row r="246" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="20"/>
+      <c r="C246" s="20"/>
+      <c r="D246" s="20"/>
+      <c r="E246" s="20"/>
+      <c r="F246" s="20"/>
+      <c r="G246" s="20"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="2"/>
+      <c r="B247" s="20"/>
+      <c r="C247" s="20"/>
+      <c r="D247" s="20"/>
+      <c r="E247" s="20"/>
+      <c r="F247" s="20"/>
+      <c r="G247" s="20"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://www.g-truc.net"/>
+  </hyperlinks>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G231"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -7419,7 +14042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E197"/>
   <sheetViews>
@@ -7439,14 +14062,14 @@
       <c r="A1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="31"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/doc/OpenGL status.xlsx
+++ b/doc/OpenGL status.xlsx
@@ -4,18 +4,676 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="21075" windowHeight="9780"/>
+    <workbookView xWindow="810" yWindow="3090" windowWidth="11955" windowHeight="9780"/>
   </bookViews>
   <sheets>
-    <sheet name="2013-01" sheetId="4" r:id="rId1"/>
-    <sheet name="2012-12" sheetId="3" r:id="rId2"/>
-    <sheet name="2012-11" sheetId="1" r:id="rId3"/>
+    <sheet name="2013-02" sheetId="5" r:id="rId1"/>
+    <sheet name="2013-01" sheetId="4" r:id="rId2"/>
+    <sheet name="2012-12" sheetId="3" r:id="rId3"/>
+    <sheet name="2012-11" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Groove</author>
+  </authors>
+  <commentList>
+    <comment ref="B37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Object labels not used in the debug output log.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B69" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Structure for vertex inputs supported</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C76" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">BPTC online conversions is not/won't be supported
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C80" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Allows an implicit cast on texture coordinates parameter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C118" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Crash
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B125" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EXT_transform_feedback extension string missing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B126" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">layout(triangles) in; declaration is required by the specification but the implementation doesn't requires it.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C126" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">layout(triangles) in; declaration is required by the specification but the implementation doesn't requires it.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D137" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fixed with the new drivers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B138" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Doesn't support GL_INT_2_10_10_10_REV correctly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C138" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Doesn't support GL_INT_2_10_10_10_REV correctly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D138" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Doesn't support GL_INT_2_10_10_10_REV correctly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C158" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">The implementation is confusing block name and instance name when enumerating uniforms
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D158" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">The implementation is confusing block name and instance name when enumerating uniforms
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E159" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Can't use the layout qualifier at a glocal scope on uniforms. Generate a GLSL compiler error.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E160" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D161" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">The depth test can't be enable
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E161" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">The depth test can't be enable
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E164" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E167" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Clearing a FBO failed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C168" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Crash when there is only a depth attachment
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C169" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Generates a GL_FRAMEBUFFER_INCOMPLETE_DRAW_BUFFER error
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D169" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fixed with this new driver</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E170" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E171" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Blit of integer multisample texture with even a single sample per texel doesn't work.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Blit of integer multisample texture with even a single sample per texel doesn't work.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Render a black screen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E174" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E175" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E177" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Clearing a FBO bigger than the window dimentions generate unclear bands</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E178" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Doesn't allow to redeclare any built-in blocks in any shader stage</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B180" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Generates a GLSL error: unknown opcode modifier
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E180" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Compiler crash</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B183" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pop free clipping</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C185" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">glClearBufferfv is always performed, even is the condition fails.
+OpenGL 4.3 - 10.10 Conditional Rendering:
+all drawing commands (see section 10.5), as well as Clear and ClearBuffer* (see section 17.4.3), and compute dispatch through DispatchCompute*
+(see section 19), have no effect.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E187" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E188" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E189" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B195" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EXT_texture_snorm string missing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E196" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>"The internal format of the texture arrays is integer (see table 3.12), and either the magniﬁcation ﬁlter is not NEAREST, or the miniﬁcation ﬁlter is neither NEAREST nor NEAREST_MIPMAP_NEAREST."
+Other implementation doesn't have this requirement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E200" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C212" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GL_NV_gpu_shader5 not supported</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D212" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GL_NV_gpu_shader5 not supported</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E212" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GL_NV_gpu_shader5 not supported</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Groove</author>
@@ -646,7 +1304,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Groove</author>
@@ -1305,7 +1963,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Groove</author>
@@ -1730,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="318">
   <si>
     <t>gl-430-texture-view</t>
   </si>
@@ -2294,6 +2952,396 @@
   </si>
   <si>
     <t>gl-330-texture-integer</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>MacOS X 10.8.2</t>
+  </si>
+  <si>
+    <t>Intel Windows</t>
+  </si>
+  <si>
+    <t>OpenGL 3.3 support</t>
+  </si>
+  <si>
+    <t>OpenGL 4.0 support</t>
+  </si>
+  <si>
+    <t>OpenGL 4.1 support</t>
+  </si>
+  <si>
+    <t>OpenGL 4.2 support</t>
+  </si>
+  <si>
+    <t>OpenGL 4.3 support</t>
+  </si>
+  <si>
+    <t>OpenGL 3.2 support</t>
+  </si>
+  <si>
+    <t>OpenGL Status - February 2013</t>
+  </si>
+  <si>
+    <t>400-sampler-array-nv</t>
+  </si>
+  <si>
+    <t>420-blend-op-amd</t>
+  </si>
+  <si>
+    <t>420-buffer-pinned-amd</t>
+  </si>
+  <si>
+    <t>420-fbo-layered-amd</t>
+  </si>
+  <si>
+    <t>420-fbo-multisample-dsa-nv</t>
+  </si>
+  <si>
+    <t>420-fbo-srgb-decode-ext</t>
+  </si>
+  <si>
+    <t>420-primitive-bindless-nv</t>
+  </si>
+  <si>
+    <t>420-texture-bindless-nv</t>
+  </si>
+  <si>
+    <t>420-texture-sparse-amd</t>
+  </si>
+  <si>
+    <t>430-direct-state-access-ext</t>
+  </si>
+  <si>
+    <t>atomic-counter</t>
+  </si>
+  <si>
+    <t>debug</t>
+  </si>
+  <si>
+    <t>draw-without-vertex-attrib</t>
+  </si>
+  <si>
+    <t>image-sampling</t>
+  </si>
+  <si>
+    <t>image-store</t>
+  </si>
+  <si>
+    <t>interface-matching</t>
+  </si>
+  <si>
+    <t>multi-draw-indirect</t>
+  </si>
+  <si>
+    <t>program-compute</t>
+  </si>
+  <si>
+    <t>program-compute-image</t>
+  </si>
+  <si>
+    <t>program-subroutine</t>
+  </si>
+  <si>
+    <t>texture-buffer</t>
+  </si>
+  <si>
+    <t>texture-copy</t>
+  </si>
+  <si>
+    <t>texture-storage</t>
+  </si>
+  <si>
+    <t>texture-view</t>
+  </si>
+  <si>
+    <t>buffer-uniform</t>
+  </si>
+  <si>
+    <t>clipping</t>
+  </si>
+  <si>
+    <t>debug-output</t>
+  </si>
+  <si>
+    <t>draw-base-instance</t>
+  </si>
+  <si>
+    <t>draw-image-space-rendering</t>
+  </si>
+  <si>
+    <t>fbo</t>
+  </si>
+  <si>
+    <t>image-load</t>
+  </si>
+  <si>
+    <t>image-unpack</t>
+  </si>
+  <si>
+    <t>memory-barrier</t>
+  </si>
+  <si>
+    <t>picking</t>
+  </si>
+  <si>
+    <t>primitive-line-aa</t>
+  </si>
+  <si>
+    <t>sampler-fetch</t>
+  </si>
+  <si>
+    <t>test-depth-conservative</t>
+  </si>
+  <si>
+    <t>texture-compressed</t>
+  </si>
+  <si>
+    <t>texture-conversion</t>
+  </si>
+  <si>
+    <t>texture-cube</t>
+  </si>
+  <si>
+    <t>texture-pixel-store</t>
+  </si>
+  <si>
+    <t>texture-shadow</t>
+  </si>
+  <si>
+    <t>transform-feedback-instanced</t>
+  </si>
+  <si>
+    <t>texture-swizzle</t>
+  </si>
+  <si>
+    <t>texture-rect</t>
+  </si>
+  <si>
+    <t>texture-streaming</t>
+  </si>
+  <si>
+    <t>texture-integer</t>
+  </si>
+  <si>
+    <t>texture-format</t>
+  </si>
+  <si>
+    <t>texture-compressed-ext</t>
+  </si>
+  <si>
+    <t>texture-3d</t>
+  </si>
+  <si>
+    <t>texture-2d</t>
+  </si>
+  <si>
+    <t>query-occlusion</t>
+  </si>
+  <si>
+    <t>query-conditional</t>
+  </si>
+  <si>
+    <t>primitive-shading</t>
+  </si>
+  <si>
+    <t>primitive-point-sprite</t>
+  </si>
+  <si>
+    <t>primitive-point</t>
+  </si>
+  <si>
+    <t>primitive-front-face</t>
+  </si>
+  <si>
+    <t>glsl-precision</t>
+  </si>
+  <si>
+    <t>glsl-discard</t>
+  </si>
+  <si>
+    <t>glsl-builtin-blocks</t>
+  </si>
+  <si>
+    <t>fbo-shadow</t>
+  </si>
+  <si>
+    <t>fbo-depth-multisample</t>
+  </si>
+  <si>
+    <t>fbo-depth</t>
+  </si>
+  <si>
+    <t>draw-instanced</t>
+  </si>
+  <si>
+    <t>draw-image-space</t>
+  </si>
+  <si>
+    <t>buffer-uniform-shared</t>
+  </si>
+  <si>
+    <t>NVIDIA 314.07</t>
+  </si>
+  <si>
+    <t>314.07</t>
+  </si>
+  <si>
+    <t>13.2 beta 6</t>
+  </si>
+  <si>
+    <t>fbo-rtt</t>
+  </si>
+  <si>
+    <t>fbo-blit</t>
+  </si>
+  <si>
+    <t>fbo-layered</t>
+  </si>
+  <si>
+    <t>fbo-multisample-explicit</t>
+  </si>
+  <si>
+    <t>fbo-rtt-texture-array</t>
+  </si>
+  <si>
+    <t>test-scissor</t>
+  </si>
+  <si>
+    <t>sync</t>
+  </si>
+  <si>
+    <t>420-test-depth-clamp-amd</t>
+  </si>
+  <si>
+    <t>420-fbo-multisample-amd</t>
+  </si>
+  <si>
+    <t>330-fbo-multisample-nv</t>
+  </si>
+  <si>
+    <t>transform-feedback-stream</t>
+  </si>
+  <si>
+    <t>transform-feedback-object</t>
+  </si>
+  <si>
+    <t>primitive-smooth-shading</t>
+  </si>
+  <si>
+    <t>fbo-srgb</t>
+  </si>
+  <si>
+    <t>sampler-wrap</t>
+  </si>
+  <si>
+    <t>sampler-offset</t>
+  </si>
+  <si>
+    <t>sampler-object</t>
+  </si>
+  <si>
+    <t>sampler-filter</t>
+  </si>
+  <si>
+    <t>sampler-anisotropy-ext</t>
+  </si>
+  <si>
+    <t>query-timer</t>
+  </si>
+  <si>
+    <t>fbo-multisample-integer</t>
+  </si>
+  <si>
+    <t>fbo-multisample</t>
+  </si>
+  <si>
+    <t>draw-multiple</t>
+  </si>
+  <si>
+    <t>draw-instanced-array</t>
+  </si>
+  <si>
+    <t>draw-base-vertex</t>
+  </si>
+  <si>
+    <t>buffer-update</t>
+  </si>
+  <si>
+    <t>buffer-type</t>
+  </si>
+  <si>
+    <t>blend-rtt</t>
+  </si>
+  <si>
+    <t>blend-index</t>
+  </si>
+  <si>
+    <t>texture-fetch</t>
+  </si>
+  <si>
+    <t>texture-buffer-rgb</t>
+  </si>
+  <si>
+    <t>sampler-gather</t>
+  </si>
+  <si>
+    <t>sampler-array</t>
+  </si>
+  <si>
+    <t>program-varying-structs</t>
+  </si>
+  <si>
+    <t>program-varying-blocks</t>
+  </si>
+  <si>
+    <t>program-64</t>
+  </si>
+  <si>
+    <t>primitive-tessellation</t>
+  </si>
+  <si>
+    <t>primitive-instanced</t>
+  </si>
+  <si>
+    <t>draw-indirect</t>
+  </si>
+  <si>
+    <t>primitive-tessellation-2</t>
+  </si>
+  <si>
+    <t>primitive-tessellation-5</t>
+  </si>
+  <si>
+    <t>program-binary</t>
+  </si>
+  <si>
+    <t>program-separate</t>
+  </si>
+  <si>
+    <t>texture-integer-rgb10a2ui</t>
+  </si>
+  <si>
+    <t>transform-feedback-interleave</t>
+  </si>
+  <si>
+    <t>transform-feedback-separate</t>
+  </si>
+  <si>
+    <t>texture-offset</t>
+  </si>
+  <si>
+    <t>9.18.10.2973</t>
+  </si>
+  <si>
+    <t>Intel 9.18.10.2973</t>
+  </si>
+  <si>
+    <t>AMD 13.6 beta</t>
+  </si>
+  <si>
+    <t>4.3.2.1</t>
   </si>
 </sst>
 </file>
@@ -2485,7 +3533,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2538,10 +3586,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2559,6 +3625,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="3"/>
@@ -2571,11 +3643,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC080"/>
+      <color rgb="FF80FF80"/>
       <color rgb="FFFFFF80"/>
-      <color rgb="FFFFC080"/>
       <color rgb="FFFF8080"/>
       <color rgb="FFFFC0C0"/>
-      <color rgb="FF80FF80"/>
       <color rgb="FFC0FFC0"/>
     </mruColors>
   </colors>
@@ -2588,6 +3660,395 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2013-02'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NVIDIA 314.07</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2013-02'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3 support</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2 support</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1 support</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0 support</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3 support</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenGL 3.2 support</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2013-02'!$B$10:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92307692307692313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95454545454545459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2013-02'!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AMD 13.6 beta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2013-02'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3 support</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2 support</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1 support</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0 support</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3 support</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenGL 3.2 support</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2013-02'!$C$10:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92307692307692313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88636363636363635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2013-02'!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel 9.18.10.2973</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2013-02'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3 support</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2 support</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1 support</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0 support</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3 support</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenGL 3.2 support</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2013-02'!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92307692307692313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95454545454545459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2013-02'!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MacOS X 10.8.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2013-02'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3 support</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2 support</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1 support</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0 support</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3 support</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenGL 3.2 support</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2013-02'!$E$10:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61363636363636365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="77510144"/>
+        <c:axId val="77511680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="77510144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77511680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77511680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77510144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3073,11 +4534,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="42562688"/>
-        <c:axId val="42564224"/>
+        <c:axId val="78265344"/>
+        <c:axId val="78267136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42562688"/>
+        <c:axId val="78265344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3086,7 +4547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42564224"/>
+        <c:crossAx val="78267136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3094,7 +4555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42564224"/>
+        <c:axId val="78267136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3106,14 +4567,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42562688"/>
+        <c:crossAx val="78265344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3128,7 +4588,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3578,11 +5038,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="177304320"/>
-        <c:axId val="177306624"/>
+        <c:axId val="78492416"/>
+        <c:axId val="78493952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="177304320"/>
+        <c:axId val="78492416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3591,7 +5051,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177306624"/>
+        <c:crossAx val="78493952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3599,7 +5059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177306624"/>
+        <c:axId val="78493952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3611,7 +5071,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177304320"/>
+        <c:crossAx val="78492416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3633,6 +5093,41 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>404811</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3669,7 +5164,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3991,10 +5486,4009 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E244"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="17">
+        <v>40957</v>
+      </c>
+      <c r="C5" s="17">
+        <v>41324</v>
+      </c>
+      <c r="D5" s="46">
+        <v>41296</v>
+      </c>
+      <c r="E5" s="17">
+        <v>41186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="20">
+        <f>IF(B$55=0, 0,(B$50+B$51)/B$55)</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="C10" s="20">
+        <f>IF(C$55=0, 0,(C$50+C$51)/C$55)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D10" s="20">
+        <f>IF(D$55=0, 0,(D$50+D$51)/D$55)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="20">
+        <f>IF(E$55=0, 0,(E$50+E$51)/E$55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="20">
+        <f>IF(B$87=0,0,(B$82+B$83)/B$87)</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="20">
+        <f>IF(C$87=0,0,(C$82+C$83)/C$87)</f>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="D11" s="20">
+        <f>IF(D$87=0,0,(D$82+D$83)/D$87)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="20">
+        <f>IF(E$87=0,0,(E$82+E$83)/E$87)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="20">
+        <f>IF(B$103=0, 0, (B$98+B$99)/B$103)</f>
+        <v>0.875</v>
+      </c>
+      <c r="C12" s="20">
+        <f>IF(C$103=0, 0, (C$98+C$99)/C$103)</f>
+        <v>0.875</v>
+      </c>
+      <c r="D12" s="20">
+        <f>IF(D$103=0, 0, (D$98+D$99)/D$103)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="20">
+        <f>IF(E$103=0, 0, (E$98+E$99)/E$103)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="20">
+        <f>IF(B$132=0, 0, (B$127+B$128)/B$132)</f>
+        <v>0.95</v>
+      </c>
+      <c r="C13" s="20">
+        <f>IF(C$132=0, 0, (C$127+C$128)/C$132)</f>
+        <v>0.9</v>
+      </c>
+      <c r="D13" s="20">
+        <f>IF(D$132=0, 0, (D$127+D$128)/D$132)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="20">
+        <f>IF(E$132=0, 0, (E$127+E$128)/E$132)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="20">
+        <f>IF(B$154=0, 0, (B$149+B$150)/B$154)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="C14" s="20">
+        <f>IF(C$154=0, 0, (C$149+C$150)/C$154)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="D14" s="20">
+        <f>IF(D$154=0, 0, (D$149+D$150)/D$154)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="E14" s="20">
+        <f>IF(E$154=0, 0, (E$149+E$150)/E$154)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="25">
+        <f>IF(B$207=0, 0, (B$202+B$203)/B$207)</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="C15" s="25">
+        <f>IF(C$207=0, 0, (C$202+C$203)/C$207)</f>
+        <v>0.88636363636363635</v>
+      </c>
+      <c r="D15" s="25">
+        <f>IF(D$207=0, 0, (D$202+D$203)/D$207)</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="E15" s="25">
+        <f>IF(E$207=0, 0, (E$202+E$203)/E$207)</f>
+        <v>0.61363636363636365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="10">
+        <f>COUNTIF(B36:B49,"pass")</f>
+        <v>13</v>
+      </c>
+      <c r="C50" s="10">
+        <f>COUNTIF(C36:C49,"pass")</f>
+        <v>2</v>
+      </c>
+      <c r="D50" s="10">
+        <f>COUNTIF(D36:D49,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="10">
+        <f>COUNTIF(E36:E49,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="5">
+        <f>COUNTIF(B36:B49,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="5">
+        <f>COUNTIF(C36:C49,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="5">
+        <f>COUNTIF(D36:D49,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <f>COUNTIF(E36:E49,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="11">
+        <f>COUNTIF(B36:B49,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="C52" s="11">
+        <f>COUNTIF(C36:C49,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="11">
+        <f>COUNTIF(D36:D49,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
+        <f>COUNTIF(E36:E49,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="12">
+        <f>COUNTIF(B36:B49,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="12">
+        <f>COUNTIF(C36:C49,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="12">
+        <f>COUNTIF(D36:D49,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="12">
+        <f>COUNTIF(E36:E49,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" s="2">
+        <f>COUNT(B36:B49,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="2">
+        <f>COUNTIF(C36:C49,"unsupported")</f>
+        <v>12</v>
+      </c>
+      <c r="D54" s="2">
+        <f>COUNT(D36:D49,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
+        <f>COUNT(E36:E49,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="2">
+        <f>B50+B53+B52+B54+B51</f>
+        <v>14</v>
+      </c>
+      <c r="C55" s="2">
+        <f>C50+C53+C52+C54+C51</f>
+        <v>14</v>
+      </c>
+      <c r="D55" s="2">
+        <f>D50+D53+D52+D54+D51</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <f>E50+E53+E52+E54+E51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="6">
+        <f>IF(B$55=0, 0,(B$50+B$51)/B$55)</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="C56" s="6">
+        <f>IF(C$55=0, 0,(C$50+C$51)/C$55)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D56" s="6">
+        <f>IF(D$55=0, 0,(D$50+D$51)/D$55)</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <f>IF(E$55=0, 0,(E$50+E$51)/E$55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E70" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E74" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E76" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E80" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="10">
+        <f>COUNTIF(B59:B81,"pass")</f>
+        <v>22</v>
+      </c>
+      <c r="C82" s="10">
+        <f>COUNTIF(C59:C81,"pass")</f>
+        <v>21</v>
+      </c>
+      <c r="D82" s="10">
+        <f>COUNTIF(D59:D81,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="10">
+        <f>COUNTIF(E59:E81,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" s="5">
+        <f>COUNTIF(B59:B81,"Ok")</f>
+        <v>1</v>
+      </c>
+      <c r="C83" s="5">
+        <f>COUNTIF(C59:C81,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="5">
+        <f>COUNTIF(D59:D81,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="5">
+        <f>COUNTIF(E59:E81,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" s="11">
+        <f>COUNTIF(B59:B81,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C84" s="11">
+        <f>COUNTIF(C59:C81,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="D84" s="11">
+        <f>COUNTIF(D59:D81,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
+        <f>COUNTIF(E59:E81,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="12">
+        <f>COUNTIF(B59:B81,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C85" s="12">
+        <f>COUNTIF(C59:C81,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="D85" s="12">
+        <f>COUNTIF(D59:D81,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="12">
+        <f>COUNTIF(E59:E81,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="2">
+        <f>COUNT(B59:B81,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C86" s="2">
+        <f>COUNT(C59:C81,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <f>COUNT(D59:D81,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <f>COUNT(E59:E81,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B87" s="2">
+        <f>B82+B85+B84+B86+B83</f>
+        <v>23</v>
+      </c>
+      <c r="C87" s="2">
+        <f>C82+C85+C84+C86+C83</f>
+        <v>23</v>
+      </c>
+      <c r="D87" s="2">
+        <f>D82+D85+D84+D86+D83</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <f>E82+E85+E84+E86+E83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="6">
+        <f>IF(B$87=0,0,(B$82+B$83)/B$87)</f>
+        <v>1</v>
+      </c>
+      <c r="C88" s="6">
+        <f>IF(C$87=0,0,(C$82+C$83)/C$87)</f>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="D88" s="6">
+        <f>IF(D$87=0,0,(D$82+D$83)/D$87)</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="6">
+        <f>IF(E$87=0,0,(E$82+E$83)/E$87)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E91" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E92" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E93" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E94" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E95" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="E96" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E97" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="10">
+        <f>COUNTIF(B91:B97,"pass")</f>
+        <v>7</v>
+      </c>
+      <c r="C98" s="10">
+        <f>COUNTIF(C91:C97,"pass")</f>
+        <v>7</v>
+      </c>
+      <c r="D98" s="10">
+        <f>COUNTIF(D91:D97,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="10">
+        <f>COUNTIF(E91:E97,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B99" s="5">
+        <f>COUNTIF(B91:B97,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C99" s="5">
+        <f>COUNTIF(C91:C97,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D99" s="5">
+        <f>COUNTIF(D91:D97,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="5">
+        <f>COUNTIF(E91:E97,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B100" s="11">
+        <f>COUNTIF(B122:B155,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="C100" s="11">
+        <f>COUNTIF(C122:C155,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="D100" s="11">
+        <f>COUNTIF(D122:D155,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="11">
+        <f>COUNTIF(E122:E155,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="12">
+        <f>COUNTIF(B91:B97,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C101" s="12">
+        <f>COUNTIF(C91:C97,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D101" s="12">
+        <f>COUNTIF(D91:D97,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="12">
+        <f>COUNTIF(E91:E97,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B102" s="2">
+        <f>COUNT(B91:B97,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C102" s="2">
+        <f>COUNT(C91:C97,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="2">
+        <f>COUNT(D91:D97,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E102" s="2">
+        <f>COUNT(E91:E97,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B103" s="2">
+        <f>B98+B101+B100+B102+B99</f>
+        <v>8</v>
+      </c>
+      <c r="C103" s="2">
+        <f>C98+C101+C100+C102+C99</f>
+        <v>8</v>
+      </c>
+      <c r="D103" s="2">
+        <f>D98+D101+D100+D102+D99</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="2">
+        <f>E98+E101+E100+E102+E99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="6">
+        <f>IF(B$103=0, 0, (B$98+B$99)/B$103)</f>
+        <v>0.875</v>
+      </c>
+      <c r="C104" s="6">
+        <f>IF(C$103=0, 0, (C$98+C$99)/C$103)</f>
+        <v>0.875</v>
+      </c>
+      <c r="D104" s="6">
+        <f>IF(D$103=0, 0, (D$98+D$99)/D$103)</f>
+        <v>0</v>
+      </c>
+      <c r="E104" s="6">
+        <f>IF(E$103=0, 0, (E$98+E$99)/E$103)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="13"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D106" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="10">
+        <f>COUNTIF(B107:B126,"pass")</f>
+        <v>19</v>
+      </c>
+      <c r="C127" s="10">
+        <f>COUNTIF(C107:C126,"pass")</f>
+        <v>18</v>
+      </c>
+      <c r="D127" s="10">
+        <f>COUNTIF(D107:D126,"pass")</f>
+        <v>20</v>
+      </c>
+      <c r="E127" s="10">
+        <f>COUNTIF(E107:E126,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B128" s="5">
+        <f>COUNTIF(B107:B126,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C128" s="5">
+        <f>COUNTIF(C107:C126,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D128" s="5">
+        <f>COUNTIF(D107:D126,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E128" s="5">
+        <f>COUNTIF(E107:E126,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129" s="11">
+        <f>COUNTIF(B107:B126,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="C129" s="11">
+        <f>COUNTIF(C107:C126,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="D129" s="11">
+        <f>COUNTIF(D107:D126,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E129" s="11">
+        <f>COUNTIF(E107:E126,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" s="12">
+        <f>COUNTIF(B107:B126,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C130" s="12">
+        <f>COUNTIF(C107:C126,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="D130" s="12">
+        <f>COUNTIF(D107:D126,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E130" s="12">
+        <f>COUNTIF(E107:E126,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B131" s="2">
+        <f>COUNT(B107:B126,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C131" s="2">
+        <f>COUNT(C107:C126,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D131" s="2">
+        <f>COUNT(D107:D126,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E131" s="2">
+        <f>COUNT(E107:E126,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B132" s="2">
+        <f>B127+B130+B129+B131+B128</f>
+        <v>20</v>
+      </c>
+      <c r="C132" s="2">
+        <f>C127+C130+C129+C131+C128</f>
+        <v>20</v>
+      </c>
+      <c r="D132" s="2">
+        <f>D127+D130+D129+D131+D128</f>
+        <v>20</v>
+      </c>
+      <c r="E132" s="2">
+        <f>E127+E130+E129+E131+E128</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="6">
+        <f>IF(B$132=0, 0, (B$127+B$128)/B$132)</f>
+        <v>0.95</v>
+      </c>
+      <c r="C133" s="6">
+        <f>IF(C$132=0, 0, (C$127+C$128)/C$132)</f>
+        <v>0.9</v>
+      </c>
+      <c r="D133" s="6">
+        <f>IF(D$132=0, 0, (D$127+D$128)/D$132)</f>
+        <v>1</v>
+      </c>
+      <c r="E133" s="6">
+        <f>IF(E$132=0, 0, (E$127+E$128)/E$132)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="14"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D135" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="10">
+        <f>COUNTIF(B136:B148,"pass")</f>
+        <v>12</v>
+      </c>
+      <c r="C149" s="10">
+        <f>COUNTIF(C136:C148,"pass")</f>
+        <v>12</v>
+      </c>
+      <c r="D149" s="10">
+        <f>COUNTIF(D136:D148,"pass")</f>
+        <v>12</v>
+      </c>
+      <c r="E149" s="10">
+        <f>COUNTIF(E136:E148,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B150" s="5">
+        <f>COUNTIF(B136:B148,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C150" s="5">
+        <f>COUNTIF(C136:C148,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D150" s="5">
+        <f>COUNTIF(D136:D148,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E150" s="5">
+        <f>COUNTIF(E136:E148,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B151" s="11">
+        <f>COUNTIF(B136:B148,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C151" s="11">
+        <f>COUNTIF(C136:C148,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D151" s="11">
+        <f>COUNTIF(D136:D148,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E151" s="11">
+        <f>COUNTIF(E136:E148,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" s="12">
+        <f>COUNTIF(B136:B148,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="C152" s="12">
+        <f>COUNTIF(C136:C148,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="D152" s="12">
+        <f>COUNTIF(D136:D148,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="E152" s="12">
+        <f>COUNTIF(E136:E148,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B153" s="2">
+        <f>COUNT(B136:B148,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C153" s="2">
+        <f>COUNT(C136:C148,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D153" s="2">
+        <f>COUNT(D136:D148,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E153" s="2">
+        <f>COUNT(E136:E148,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B154" s="2">
+        <f>B149+B152+B151+B153+B150</f>
+        <v>13</v>
+      </c>
+      <c r="C154" s="2">
+        <f>C149+C152+C151+C153+C150</f>
+        <v>13</v>
+      </c>
+      <c r="D154" s="2">
+        <f>D149+D152+D151+D153+D150</f>
+        <v>13</v>
+      </c>
+      <c r="E154" s="2">
+        <f>E149+E152+E151+E153+E150</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" s="6">
+        <f>IF(B$154=0, 0, (B$149+B$150)/B$154)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="C155" s="6">
+        <f>IF(C$154=0, 0, (C$149+C$150)/C$154)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="D155" s="6">
+        <f>IF(D$154=0, 0, (D$149+D$150)/D$154)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="E155" s="6">
+        <f>IF(E$154=0, 0, (E$149+E$150)/E$154)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="13"/>
+      <c r="B156" s="16"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B157" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D157" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B183" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E187" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E188" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="B201" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E201" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" s="10">
+        <f>COUNTIF(B$158:B$201,"pass")</f>
+        <v>41</v>
+      </c>
+      <c r="C202" s="10">
+        <f>COUNTIF(C$158:C$201,"pass")</f>
+        <v>39</v>
+      </c>
+      <c r="D202" s="10">
+        <f>COUNTIF(D$158:D$201,"pass")</f>
+        <v>42</v>
+      </c>
+      <c r="E202" s="10">
+        <f>COUNTIF(E$158:E$201,"pass")</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B203" s="5">
+        <f>COUNTIF(B$158:B$201,"Ok")</f>
+        <v>1</v>
+      </c>
+      <c r="C203" s="5">
+        <f>COUNTIF(C$158:C$201,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D203" s="5">
+        <f>COUNTIF(D$158:D$201,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E203" s="5">
+        <f>COUNTIF(E$158:E$201,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B204" s="11">
+        <f>COUNTIF(B$158:B$201,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C204" s="11">
+        <f>COUNTIF(C$158:C$201,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D204" s="11">
+        <f>COUNTIF(D$158:D$201,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E204" s="11">
+        <f>COUNTIF(E$158:E$201,"workaround")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" s="12">
+        <f>COUNTIF(B158:B201,"Fail")</f>
+        <v>2</v>
+      </c>
+      <c r="C205" s="12">
+        <f>COUNTIF(C158:C201,"Fail")</f>
+        <v>5</v>
+      </c>
+      <c r="D205" s="12">
+        <f>COUNTIF(D158:D201,"Fail")</f>
+        <v>2</v>
+      </c>
+      <c r="E205" s="12">
+        <f>COUNTIF(E158:E201,"Fail")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B206" s="2">
+        <f>COUNT(B$162:B$189,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C206" s="2">
+        <f>COUNT(C$162:C$189,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D206" s="2">
+        <f>COUNT(D$162:D$189,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E206" s="2">
+        <f>COUNT(E$162:E$189,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B207" s="2">
+        <f>B$202+B$205+B$204+B$206+B$203</f>
+        <v>44</v>
+      </c>
+      <c r="C207" s="2">
+        <f>C$202+C$205+C$204+C$206+C$203</f>
+        <v>44</v>
+      </c>
+      <c r="D207" s="2">
+        <f>D$202+D$205+D$204+D$206+D$203</f>
+        <v>44</v>
+      </c>
+      <c r="E207" s="2">
+        <f>E$202+E$205+E$204+E$206+E$203</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B208" s="6">
+        <f>IF(B$207=0, 0, (B$202+B$203)/B$207)</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="C208" s="6">
+        <f>IF(C$207=0, 0, (C$202+C$203)/C$207)</f>
+        <v>0.88636363636363635</v>
+      </c>
+      <c r="D208" s="6">
+        <f>IF(D$207=0, 0, (D$202+D$203)/D$207)</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="E208" s="6">
+        <f>IF(E$207=0, 0, (E$202+E$203)/E$207)</f>
+        <v>0.61363636363636365</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="15"/>
+      <c r="B209" s="15"/>
+      <c r="C209" s="15"/>
+      <c r="D209" s="15"/>
+      <c r="E209" s="15"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B210" s="15"/>
+      <c r="C210" s="15"/>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B213" s="2"/>
+      <c r="C213" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B214" s="2"/>
+      <c r="C214" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B215" s="2"/>
+      <c r="C215" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B217" s="2"/>
+      <c r="C217" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B220" s="2"/>
+      <c r="C220" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B222" s="2"/>
+      <c r="C222" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B223" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223" s="15"/>
+      <c r="D223" s="15"/>
+      <c r="E223" s="15"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224" s="10">
+        <f>COUNTIF(B211:B223,"pass")</f>
+        <v>7</v>
+      </c>
+      <c r="C224" s="10">
+        <f>COUNTIF(C211:C223,"pass")</f>
+        <v>8</v>
+      </c>
+      <c r="D224" s="10">
+        <f>COUNTIF(D211:D223,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="E224" s="10">
+        <f>COUNTIF(E211:E223,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B225" s="5">
+        <f>COUNTIF(B211:B223,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C225" s="5">
+        <f>COUNTIF(C211:C223,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D225" s="5">
+        <f>COUNTIF(D211:D223,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E225" s="5">
+        <f>COUNTIF(E211:E223,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B226" s="11">
+        <f>COUNTIF(B211:B223,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C226" s="11">
+        <f>COUNTIF(C211:C223,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D226" s="11">
+        <f>COUNTIF(D211:D223,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E226" s="11">
+        <f>COUNTIF(E211:E223,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B227" s="12">
+        <f>COUNTIF(B211:B223,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C227" s="12">
+        <f>COUNTIF(C211:C223,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D227" s="12">
+        <f>COUNTIF(D211:D223,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E227" s="12">
+        <f>COUNTIF(E211:E223,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B228" s="2">
+        <f>COUNT(B211:B223,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C228" s="2">
+        <f>COUNT(C211:C223,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D228" s="2">
+        <f>COUNT(D211:D223,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E228" s="2">
+        <f>COUNT(E211:E223,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B229" s="2">
+        <f>B224+B227+B226+B228+B225</f>
+        <v>7</v>
+      </c>
+      <c r="C229" s="2">
+        <f>C224+C227+C226+C228+C225</f>
+        <v>8</v>
+      </c>
+      <c r="D229" s="2">
+        <f>D224+D227+D226+D228+D225</f>
+        <v>0</v>
+      </c>
+      <c r="E229" s="2">
+        <f>E224+E227+E226+E228+E225</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230" s="6">
+        <f>IF(B$229=0, 0, (B$224+B$225)/B$229)</f>
+        <v>1</v>
+      </c>
+      <c r="C230" s="6">
+        <f>IF(C$229=0, 0, (C$224+C$225)/C$229)</f>
+        <v>1</v>
+      </c>
+      <c r="D230" s="6">
+        <f>IF(D$229=0, 0, (D$224+D$225)/D$229)</f>
+        <v>0</v>
+      </c>
+      <c r="E230" s="6">
+        <f>IF(E$229=0, 0, (E$224+E$225)/E$229)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="13"/>
+      <c r="B231" s="13"/>
+      <c r="C231" s="13"/>
+      <c r="D231" s="13"/>
+      <c r="E231" s="13"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" s="15"/>
+      <c r="C232" s="15"/>
+      <c r="D232" s="15"/>
+      <c r="E232" s="15"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B233" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233" s="28"/>
+      <c r="D233" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E233" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" s="10">
+        <f>COUNTIF(B233,"pass")</f>
+        <v>1</v>
+      </c>
+      <c r="C234" s="10">
+        <f>COUNTIF(C233,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="D234" s="10">
+        <f>COUNTIF(D233,"pass")</f>
+        <v>1</v>
+      </c>
+      <c r="E234" s="10">
+        <f>COUNTIF(E233,"pass")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B235" s="5">
+        <f>COUNTIF(B233,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C235" s="5">
+        <f>COUNTIF(C233,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D235" s="5">
+        <f>COUNTIF(D233,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E235" s="5">
+        <f>COUNTIF(E233,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B236" s="11">
+        <f>COUNTIF(B233,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C236" s="11">
+        <f>COUNTIF(C233,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D236" s="11">
+        <f>COUNTIF(D233,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E236" s="11">
+        <f>COUNTIF(E233,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237" s="12">
+        <f>COUNTIF(B233,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C237" s="12">
+        <f>COUNTIF(C233,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D237" s="12">
+        <f>COUNTIF(D233,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E237" s="12">
+        <f>COUNTIF(E233,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B238" s="2">
+        <f>COUNT(B233,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C238" s="2">
+        <f>COUNT(C233,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D238" s="2">
+        <f>COUNT(D233,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E238" s="2">
+        <f>COUNT(E233,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B239" s="2">
+        <f>B234+B237+B236+B238+B235</f>
+        <v>1</v>
+      </c>
+      <c r="C239" s="2">
+        <f>C234+C237+C236+C238+C235</f>
+        <v>0</v>
+      </c>
+      <c r="D239" s="2">
+        <f>D234+D237+D236+D238+D235</f>
+        <v>1</v>
+      </c>
+      <c r="E239" s="2">
+        <f>E234+E237+E236+E238+E235</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B240" s="6">
+        <f>IF(B$239=0, 0, (B$234+B$235)/B$239)</f>
+        <v>1</v>
+      </c>
+      <c r="C240" s="6">
+        <f>IF(C$239=0, 0, (C$234+C$235)/C$239)</f>
+        <v>0</v>
+      </c>
+      <c r="D240" s="6">
+        <f>IF(D$239=0, 0, (D$234+D$235)/D$239)</f>
+        <v>1</v>
+      </c>
+      <c r="E240" s="6">
+        <f>IF(E$239=0, 0, (E$234+E$235)/E$239)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+    </row>
+    <row r="242" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="20"/>
+      <c r="C242" s="20"/>
+      <c r="D242" s="20"/>
+      <c r="E242" s="20"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="2"/>
+      <c r="B243" s="20"/>
+      <c r="C243" s="20"/>
+      <c r="D243" s="20"/>
+      <c r="E243" s="20"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://www.g-truc.net"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4009,26 +9503,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -4043,18 +9537,18 @@
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36" t="s">
+      <c r="E4" s="42"/>
+      <c r="F4" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="36"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -4162,11 +9656,11 @@
         <v>128</v>
       </c>
       <c r="B10" s="20">
-        <f>IF(B$58=0, 0,(B$53+B$54)/B$58)</f>
+        <f t="shared" ref="B10:G10" si="0">IF(B$58=0, 0,(B$53+B$54)/B$58)</f>
         <v>0.7857142857142857</v>
       </c>
       <c r="C10" s="20">
-        <f t="shared" ref="C10:G10" si="0">IF(C$58=0, 0,(C$53+C$54)/C$58)</f>
+        <f t="shared" si="0"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="D10" s="20">
@@ -4191,11 +9685,11 @@
         <v>102</v>
       </c>
       <c r="B11" s="20">
-        <f>IF(B$90=0,0,(B$85+B$86)/B$90)</f>
+        <f t="shared" ref="B11:G11" si="1">IF(B$90=0,0,(B$85+B$86)/B$90)</f>
         <v>0.95652173913043481</v>
       </c>
       <c r="C11" s="20">
-        <f t="shared" ref="C11:G11" si="1">IF(C$90=0,0,(C$85+C$86)/C$90)</f>
+        <f t="shared" si="1"/>
         <v>0.95652173913043481</v>
       </c>
       <c r="D11" s="20">
@@ -4220,11 +9714,11 @@
         <v>85</v>
       </c>
       <c r="B12" s="20">
-        <f>IF(B$107=0, 0, (B$102+B$103)/B$107)</f>
+        <f t="shared" ref="B12:G12" si="2">IF(B$107=0, 0, (B$102+B$103)/B$107)</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="C12" s="20">
-        <f t="shared" ref="C12:G12" si="2">IF(C$107=0, 0, (C$102+C$103)/C$107)</f>
+        <f t="shared" si="2"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="D12" s="20">
@@ -4249,11 +9743,11 @@
         <v>64</v>
       </c>
       <c r="B13" s="20">
-        <f>IF(B$135=0, 0, (B$130+B$131)/B$135)</f>
+        <f t="shared" ref="B13:G13" si="3">IF(B$135=0, 0, (B$130+B$131)/B$135)</f>
         <v>0.94736842105263153</v>
       </c>
       <c r="C13" s="20">
-        <f t="shared" ref="C13:G13" si="3">IF(C$135=0, 0, (C$130+C$131)/C$135)</f>
+        <f t="shared" si="3"/>
         <v>0.94736842105263153</v>
       </c>
       <c r="D13" s="20">
@@ -4278,11 +9772,11 @@
         <v>12</v>
       </c>
       <c r="B14" s="20">
-        <f>IF(B$194=0, 0, (B$189+B$190)/B$194)</f>
+        <f t="shared" ref="B14:G14" si="4">IF(B$194=0, 0, (B$189+B$190)/B$194)</f>
         <v>1</v>
       </c>
       <c r="C14" s="20">
-        <f t="shared" ref="C14:G14" si="4">IF(C$194=0, 0, (C$189+C$190)/C$194)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D14" s="20">
@@ -4307,11 +9801,11 @@
         <v>178</v>
       </c>
       <c r="B15" s="25">
-        <f>IF(B$211=0, 0, (B$206+B$207)/B$211)</f>
+        <f t="shared" ref="B15:G15" si="5">IF(B$211=0, 0, (B$206+B$207)/B$211)</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
-        <f t="shared" ref="C15:G15" si="5">IF(C$211=0, 0, (C$206+C$207)/C$211)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D15" s="25">
@@ -5011,15 +10505,15 @@
         <v>139</v>
       </c>
       <c r="B58" s="2">
-        <f>B53+B56+B55+B57+B54</f>
+        <f t="shared" ref="B58:G58" si="10">B53+B56+B55+B57+B54</f>
         <v>14</v>
       </c>
       <c r="C58" s="2">
-        <f>C53+C56+C55+C57+C54</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="D58" s="2">
-        <f t="shared" ref="D58:G58" si="10">D53+D56+D55+D57+D54</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E58" s="2">
@@ -5040,11 +10534,11 @@
         <v>8</v>
       </c>
       <c r="B59" s="6">
-        <f>IF(B$58=0, 0,(B$53+B$54)/B$58)</f>
+        <f t="shared" ref="B59:G59" si="11">IF(B$58=0, 0,(B$53+B$54)/B$58)</f>
         <v>0.7857142857142857</v>
       </c>
       <c r="C59" s="6">
-        <f t="shared" ref="C59:G59" si="11">IF(C$58=0, 0,(C$53+C$54)/C$58)</f>
+        <f t="shared" si="11"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="D59" s="6">
@@ -5618,15 +11112,15 @@
         <v>6</v>
       </c>
       <c r="B85" s="10">
-        <f>COUNTIF(B62:B84,"pass")</f>
+        <f t="shared" ref="B85:G85" si="12">COUNTIF(B62:B84,"pass")</f>
         <v>21</v>
       </c>
       <c r="C85" s="10">
-        <f>COUNTIF(C62:C84,"pass")</f>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="D85" s="10">
-        <f t="shared" ref="D85:G85" si="12">COUNTIF(D62:D84,"pass")</f>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="E85" s="10">
@@ -5647,15 +11141,15 @@
         <v>143</v>
       </c>
       <c r="B86" s="5">
-        <f>COUNTIF(B62:B84,"Ok")</f>
+        <f t="shared" ref="B86:G86" si="13">COUNTIF(B62:B84,"Ok")</f>
         <v>1</v>
       </c>
       <c r="C86" s="5">
-        <f>COUNTIF(C62:C84,"Ok")</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D86" s="5">
-        <f t="shared" ref="D86:G86" si="13">COUNTIF(D62:D84,"Ok")</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E86" s="5">
@@ -5676,15 +11170,15 @@
         <v>140</v>
       </c>
       <c r="B87" s="11">
-        <f>COUNTIF(B62:B84,"workaround")</f>
+        <f t="shared" ref="B87:G87" si="14">COUNTIF(B62:B84,"workaround")</f>
         <v>1</v>
       </c>
       <c r="C87" s="11">
-        <f>COUNTIF(C62:C84,"workaround")</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="D87" s="11">
-        <f t="shared" ref="D87:G87" si="14">COUNTIF(D62:D84,"workaround")</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="E87" s="11">
@@ -5705,15 +11199,15 @@
         <v>7</v>
       </c>
       <c r="B88" s="12">
-        <f>COUNTIF(B62:B84,"Fail")</f>
+        <f t="shared" ref="B88:G88" si="15">COUNTIF(B62:B84,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C88" s="12">
-        <f>COUNTIF(C62:C84,"Fail")</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D88" s="12">
-        <f t="shared" ref="D88:G88" si="15">COUNTIF(D62:D84,"Fail")</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="E88" s="12">
@@ -5734,15 +11228,15 @@
         <v>145</v>
       </c>
       <c r="B89" s="2">
-        <f>COUNT(B62:B84,"Untested")</f>
+        <f t="shared" ref="B89:G89" si="16">COUNT(B62:B84,"Untested")</f>
         <v>0</v>
       </c>
       <c r="C89" s="2">
-        <f>COUNT(C62:C84,"Untested")</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D89" s="2">
-        <f t="shared" ref="D89:G89" si="16">COUNT(D62:D84,"Untested")</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E89" s="2">
@@ -5763,15 +11257,15 @@
         <v>139</v>
       </c>
       <c r="B90" s="2">
-        <f>B85+B88+B87+B89+B86</f>
+        <f t="shared" ref="B90:G90" si="17">B85+B88+B87+B89+B86</f>
         <v>23</v>
       </c>
       <c r="C90" s="2">
-        <f>C85+C88+C87+C89+C86</f>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="D90" s="2">
-        <f t="shared" ref="D90:G90" si="17">D85+D88+D87+D89+D86</f>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="E90" s="2">
@@ -5792,11 +11286,11 @@
         <v>8</v>
       </c>
       <c r="B91" s="6">
-        <f>IF(B$90=0,0,(B$85+B$86)/B$90)</f>
+        <f t="shared" ref="B91:G91" si="18">IF(B$90=0,0,(B$85+B$86)/B$90)</f>
         <v>0.95652173913043481</v>
       </c>
       <c r="C91" s="6">
-        <f t="shared" ref="C91:G91" si="18">IF(C$90=0,0,(C$85+C$86)/C$90)</f>
+        <f t="shared" si="18"/>
         <v>0.95652173913043481</v>
       </c>
       <c r="D91" s="6">
@@ -6025,15 +11519,15 @@
         <v>6</v>
       </c>
       <c r="B102" s="10">
-        <f>COUNTIF(B94:B101,"pass")</f>
+        <f t="shared" ref="B102:G102" si="19">COUNTIF(B94:B101,"pass")</f>
         <v>8</v>
       </c>
       <c r="C102" s="10">
-        <f>COUNTIF(C94:C101,"pass")</f>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="D102" s="10">
-        <f t="shared" ref="D102:G102" si="19">COUNTIF(D94:D101,"pass")</f>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="E102" s="10">
@@ -6054,15 +11548,15 @@
         <v>143</v>
       </c>
       <c r="B103" s="5">
-        <f>COUNTIF(B94:B101,"Ok")</f>
+        <f t="shared" ref="B103:G103" si="20">COUNTIF(B94:B101,"Ok")</f>
         <v>0</v>
       </c>
       <c r="C103" s="5">
-        <f>COUNTIF(C94:C101,"Ok")</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="D103" s="5">
-        <f t="shared" ref="D103:G103" si="20">COUNTIF(D94:D101,"Ok")</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E103" s="5">
@@ -6112,15 +11606,15 @@
         <v>7</v>
       </c>
       <c r="B105" s="12">
-        <f>COUNTIF(B94:B101,"Fail")</f>
+        <f t="shared" ref="B105:G105" si="22">COUNTIF(B94:B101,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C105" s="12">
-        <f>COUNTIF(C94:C101,"Fail")</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="D105" s="12">
-        <f t="shared" ref="D105:G105" si="22">COUNTIF(D94:D101,"Fail")</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E105" s="12">
@@ -6141,15 +11635,15 @@
         <v>145</v>
       </c>
       <c r="B106" s="2">
-        <f>COUNT(B94:B101,"Untested")</f>
+        <f t="shared" ref="B106:G106" si="23">COUNT(B94:B101,"Untested")</f>
         <v>0</v>
       </c>
       <c r="C106" s="2">
-        <f>COUNT(C94:C101,"Untested")</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="D106" s="2">
-        <f t="shared" ref="D106:G106" si="23">COUNT(D94:D101,"Untested")</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E106" s="2">
@@ -6170,15 +11664,15 @@
         <v>139</v>
       </c>
       <c r="B107" s="2">
-        <f>B102+B105+B104+B106+B103</f>
+        <f t="shared" ref="B107:G107" si="24">B102+B105+B104+B106+B103</f>
         <v>9</v>
       </c>
       <c r="C107" s="2">
-        <f>C102+C105+C104+C106+C103</f>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="D107" s="2">
-        <f t="shared" ref="D107:G107" si="24">D102+D105+D104+D106+D103</f>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="E107" s="2">
@@ -6199,11 +11693,11 @@
         <v>8</v>
       </c>
       <c r="B108" s="6">
-        <f>IF(B$107=0, 0, (B$102+B$103)/B$107)</f>
+        <f t="shared" ref="B108:G108" si="25">IF(B$107=0, 0, (B$102+B$103)/B$107)</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="C108" s="6">
-        <f t="shared" ref="C108:G108" si="25">IF(C$107=0, 0, (C$102+C$103)/C$107)</f>
+        <f t="shared" si="25"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="D108" s="6">
@@ -6830,15 +12324,15 @@
         <v>139</v>
       </c>
       <c r="B135" s="2">
-        <f>B130+B133+B132+B134+B131</f>
+        <f t="shared" ref="B135:G135" si="31">B130+B133+B132+B134+B131</f>
         <v>19</v>
       </c>
       <c r="C135" s="2">
-        <f>C130+C133+C132+C134+C131</f>
+        <f t="shared" si="31"/>
         <v>19</v>
       </c>
       <c r="D135" s="2">
-        <f t="shared" ref="D135:G135" si="31">D130+D133+D132+D134+D131</f>
+        <f t="shared" si="31"/>
         <v>19</v>
       </c>
       <c r="E135" s="2">
@@ -6859,11 +12353,11 @@
         <v>8</v>
       </c>
       <c r="B136" s="6">
-        <f>IF(B$135=0, 0, (B$130+B$131)/B$135)</f>
+        <f t="shared" ref="B136:G136" si="32">IF(B$135=0, 0, (B$130+B$131)/B$135)</f>
         <v>0.94736842105263153</v>
       </c>
       <c r="C136" s="6">
-        <f t="shared" ref="C136:G136" si="32">IF(C$135=0, 0, (C$130+C$131)/C$135)</f>
+        <f t="shared" si="32"/>
         <v>0.94736842105263153</v>
       </c>
       <c r="D136" s="6">
@@ -8203,15 +13697,15 @@
         <v>139</v>
       </c>
       <c r="B194" s="2">
-        <f>B189+B192+B191+B193+B190</f>
+        <f t="shared" ref="B194:G194" si="38">B189+B192+B191+B193+B190</f>
         <v>50</v>
       </c>
       <c r="C194" s="2">
-        <f>C189+C192+C191+C193+C190</f>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="D194" s="2">
-        <f t="shared" ref="D194:G194" si="38">D189+D192+D191+D193+D190</f>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="E194" s="2">
@@ -8232,11 +13726,11 @@
         <v>8</v>
       </c>
       <c r="B195" s="6">
-        <f>IF(B$194=0, 0, (B$189+B$190)/B$194)</f>
+        <f t="shared" ref="B195:G195" si="39">IF(B$194=0, 0, (B$189+B$190)/B$194)</f>
         <v>1</v>
       </c>
       <c r="C195" s="6">
-        <f t="shared" ref="C195:G195" si="39">IF(C$194=0, 0, (C$189+C$190)/C$194)</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="D195" s="6">
@@ -8417,11 +13911,11 @@
         <v>6</v>
       </c>
       <c r="B206" s="10">
-        <f>COUNTIF(B$198:B$205,"pass")</f>
+        <f t="shared" ref="B206:G206" si="40">COUNTIF(B$198:B$205,"pass")</f>
         <v>0</v>
       </c>
       <c r="C206" s="10">
-        <f t="shared" ref="C206:G206" si="40">COUNTIF(C$198:C$205,"pass")</f>
+        <f t="shared" si="40"/>
         <v>8</v>
       </c>
       <c r="D206" s="10">
@@ -8446,11 +13940,11 @@
         <v>143</v>
       </c>
       <c r="B207" s="5">
-        <f>COUNTIF(B$198:B$205,"Ok")</f>
+        <f t="shared" ref="B207:G207" si="41">COUNTIF(B$198:B$205,"Ok")</f>
         <v>0</v>
       </c>
       <c r="C207" s="5">
-        <f t="shared" ref="C207:G207" si="41">COUNTIF(C$198:C$205,"Ok")</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="D207" s="5">
@@ -8475,11 +13969,11 @@
         <v>140</v>
       </c>
       <c r="B208" s="11">
-        <f>COUNTIF(B$198:B$205,"workaround")</f>
+        <f t="shared" ref="B208:G208" si="42">COUNTIF(B$198:B$205,"workaround")</f>
         <v>0</v>
       </c>
       <c r="C208" s="11">
-        <f t="shared" ref="C208:G208" si="42">COUNTIF(C$198:C$205,"workaround")</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="D208" s="11">
@@ -8504,11 +13998,11 @@
         <v>7</v>
       </c>
       <c r="B209" s="12">
-        <f>COUNTIF(B198:B205,"Fail")</f>
+        <f t="shared" ref="B209:G209" si="43">COUNTIF(B198:B205,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C209" s="12">
-        <f t="shared" ref="C209:G209" si="43">COUNTIF(C198:C205,"Fail")</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="D209" s="12">
@@ -8533,11 +14027,11 @@
         <v>145</v>
       </c>
       <c r="B210" s="2">
-        <f>COUNT(B$198:B$205,"Untested")</f>
+        <f t="shared" ref="B210:G210" si="44">COUNT(B$198:B$205,"Untested")</f>
         <v>0</v>
       </c>
       <c r="C210" s="2">
-        <f t="shared" ref="C210:G210" si="44">COUNT(C$198:C$205,"Untested")</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="D210" s="2">
@@ -8562,11 +14056,11 @@
         <v>139</v>
       </c>
       <c r="B211" s="2">
-        <f>B$206+B$209+B$208+B$210+B$207</f>
+        <f t="shared" ref="B211:G211" si="45">B$206+B$209+B$208+B$210+B$207</f>
         <v>0</v>
       </c>
       <c r="C211" s="2">
-        <f t="shared" ref="C211:G211" si="45">C$206+C$209+C$208+C$210+C$207</f>
+        <f t="shared" si="45"/>
         <v>8</v>
       </c>
       <c r="D211" s="2">
@@ -8591,11 +14085,11 @@
         <v>8</v>
       </c>
       <c r="B212" s="6">
-        <f>IF(B$211=0, 0, (B$206+B$207)/B$211)</f>
+        <f t="shared" ref="B212:G212" si="46">IF(B$211=0, 0, (B$206+B$207)/B$211)</f>
         <v>0</v>
       </c>
       <c r="C212" s="6">
-        <f t="shared" ref="C212:G212" si="46">IF(C$211=0, 0, (C$206+C$207)/C$211)</f>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="D212" s="6">
@@ -8843,15 +14337,15 @@
         <v>6</v>
       </c>
       <c r="B228" s="10">
-        <f>COUNTIF(B215:B227,"pass")</f>
+        <f t="shared" ref="B228:G228" si="47">COUNTIF(B215:B227,"pass")</f>
         <v>7</v>
       </c>
       <c r="C228" s="10">
-        <f>COUNTIF(C215:C227,"pass")</f>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="D228" s="10">
-        <f t="shared" ref="D228:G228" si="47">COUNTIF(D215:D227,"pass")</f>
+        <f t="shared" si="47"/>
         <v>8</v>
       </c>
       <c r="E228" s="10">
@@ -8872,15 +14366,15 @@
         <v>143</v>
       </c>
       <c r="B229" s="5">
-        <f>COUNTIF(B215:B227,"Ok")</f>
+        <f t="shared" ref="B229:G229" si="48">COUNTIF(B215:B227,"Ok")</f>
         <v>0</v>
       </c>
       <c r="C229" s="5">
-        <f>COUNTIF(C215:C227,"Ok")</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="D229" s="5">
-        <f t="shared" ref="D229:G229" si="48">COUNTIF(D215:D227,"Ok")</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E229" s="5">
@@ -8901,15 +14395,15 @@
         <v>140</v>
       </c>
       <c r="B230" s="11">
-        <f>COUNTIF(B215:B227,"workaround")</f>
+        <f t="shared" ref="B230:G230" si="49">COUNTIF(B215:B227,"workaround")</f>
         <v>0</v>
       </c>
       <c r="C230" s="11">
-        <f>COUNTIF(C215:C227,"workaround")</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="D230" s="11">
-        <f t="shared" ref="D230:G230" si="49">COUNTIF(D215:D227,"workaround")</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="E230" s="11">
@@ -8930,15 +14424,15 @@
         <v>7</v>
       </c>
       <c r="B231" s="12">
-        <f>COUNTIF(B215:B227,"Fail")</f>
+        <f t="shared" ref="B231:G231" si="50">COUNTIF(B215:B227,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C231" s="12">
-        <f>COUNTIF(C215:C227,"Fail")</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="D231" s="12">
-        <f t="shared" ref="D231:G231" si="50">COUNTIF(D215:D227,"Fail")</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="E231" s="12">
@@ -8959,15 +14453,15 @@
         <v>145</v>
       </c>
       <c r="B232" s="2">
-        <f>COUNT(B215:B227,"Untested")</f>
+        <f t="shared" ref="B232:G232" si="51">COUNT(B215:B227,"Untested")</f>
         <v>0</v>
       </c>
       <c r="C232" s="2">
-        <f>COUNT(C215:C227,"Untested")</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="D232" s="2">
-        <f t="shared" ref="D232:G232" si="51">COUNT(D215:D227,"Untested")</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="E232" s="2">
@@ -8988,15 +14482,15 @@
         <v>139</v>
       </c>
       <c r="B233" s="2">
-        <f>B228+B231+B230+B232+B229</f>
+        <f t="shared" ref="B233:G233" si="52">B228+B231+B230+B232+B229</f>
         <v>7</v>
       </c>
       <c r="C233" s="2">
-        <f>C228+C231+C230+C232+C229</f>
+        <f t="shared" si="52"/>
         <v>7</v>
       </c>
       <c r="D233" s="2">
-        <f t="shared" ref="D233:G233" si="52">D228+D231+D230+D232+D229</f>
+        <f t="shared" si="52"/>
         <v>8</v>
       </c>
       <c r="E233" s="2">
@@ -9017,11 +14511,11 @@
         <v>8</v>
       </c>
       <c r="B234" s="6">
-        <f>IF(B$233=0, 0, (B$228+B$229)/B$233)</f>
+        <f t="shared" ref="B234:G234" si="53">IF(B$233=0, 0, (B$228+B$229)/B$233)</f>
         <v>1</v>
       </c>
       <c r="C234" s="6">
-        <f t="shared" ref="C234:G234" si="53">IF(C$233=0, 0, (C$228+C$229)/C$233)</f>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="D234" s="6">
@@ -9085,15 +14579,15 @@
         <v>6</v>
       </c>
       <c r="B238" s="10">
-        <f>COUNTIF(B237,"pass")</f>
+        <f t="shared" ref="B238:G238" si="54">COUNTIF(B237,"pass")</f>
         <v>1</v>
       </c>
       <c r="C238" s="10">
-        <f>COUNTIF(C237,"pass")</f>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="D238" s="10">
-        <f t="shared" ref="D238:G238" si="54">COUNTIF(D237,"pass")</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="E238" s="10">
@@ -9114,15 +14608,15 @@
         <v>143</v>
       </c>
       <c r="B239" s="5">
-        <f>COUNTIF(B237,"Ok")</f>
+        <f t="shared" ref="B239:G239" si="55">COUNTIF(B237,"Ok")</f>
         <v>0</v>
       </c>
       <c r="C239" s="5">
-        <f>COUNTIF(C237,"Ok")</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="D239" s="5">
-        <f t="shared" ref="D239:G239" si="55">COUNTIF(D237,"Ok")</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="E239" s="5">
@@ -9143,15 +14637,15 @@
         <v>140</v>
       </c>
       <c r="B240" s="11">
-        <f>COUNTIF(B237,"workaround")</f>
+        <f t="shared" ref="B240:G240" si="56">COUNTIF(B237,"workaround")</f>
         <v>0</v>
       </c>
       <c r="C240" s="11">
-        <f>COUNTIF(C237,"workaround")</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="D240" s="11">
-        <f t="shared" ref="D240:G240" si="56">COUNTIF(D237,"workaround")</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="E240" s="11">
@@ -9172,15 +14666,15 @@
         <v>7</v>
       </c>
       <c r="B241" s="12">
-        <f>COUNTIF(B237,"Fail")</f>
+        <f t="shared" ref="B241:G241" si="57">COUNTIF(B237,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C241" s="12">
-        <f>COUNTIF(C237,"Fail")</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="D241" s="12">
-        <f t="shared" ref="D241:G241" si="57">COUNTIF(D237,"Fail")</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="E241" s="12">
@@ -9201,15 +14695,15 @@
         <v>145</v>
       </c>
       <c r="B242" s="2">
-        <f>COUNT(B237,"Untested")</f>
+        <f t="shared" ref="B242:G242" si="58">COUNT(B237,"Untested")</f>
         <v>0</v>
       </c>
       <c r="C242" s="2">
-        <f>COUNT(C237,"Untested")</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="D242" s="2">
-        <f t="shared" ref="D242:G242" si="58">COUNT(D237,"Untested")</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="E242" s="2">
@@ -9230,15 +14724,15 @@
         <v>139</v>
       </c>
       <c r="B243" s="2">
-        <f>B238+B241+B240+B242+B239</f>
+        <f t="shared" ref="B243:G243" si="59">B238+B241+B240+B242+B239</f>
         <v>1</v>
       </c>
       <c r="C243" s="2">
-        <f>C238+C241+C240+C242+C239</f>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="D243" s="2">
-        <f t="shared" ref="D243:G243" si="59">D238+D241+D240+D242+D239</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="E243" s="2">
@@ -9259,11 +14753,11 @@
         <v>8</v>
       </c>
       <c r="B244" s="6">
-        <f>IF(B$243=0, 0, (B$238+B$239)/B$243)</f>
+        <f t="shared" ref="B244:G244" si="60">IF(B$243=0, 0, (B$238+B$239)/B$243)</f>
         <v>1</v>
       </c>
       <c r="C244" s="6">
-        <f t="shared" ref="C244:G244" si="60">IF(C$243=0, 0, (C$238+C$239)/C$243)</f>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="D244" s="6">
@@ -9336,7 +14830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G231"/>
   <sheetViews>
@@ -9356,26 +14850,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -9390,18 +14884,18 @@
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36" t="s">
+      <c r="E4" s="42"/>
+      <c r="F4" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="36"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -9509,11 +15003,11 @@
         <v>128</v>
       </c>
       <c r="B10" s="20">
-        <f>IF(B$59=0, 0,(B$54+B$55)/B$59)</f>
+        <f t="shared" ref="B10:G10" si="0">IF(B$59=0, 0,(B$54+B$55)/B$59)</f>
         <v>0.73333333333333328</v>
       </c>
       <c r="C10" s="20">
-        <f t="shared" ref="C10:G10" si="0">IF(C$59=0, 0,(C$54+C$55)/C$59)</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="D10" s="20">
@@ -9538,11 +15032,11 @@
         <v>102</v>
       </c>
       <c r="B11" s="20">
-        <f>IF(B$91=0,0,(B$86+B$87)/B$91)</f>
+        <f t="shared" ref="B11:G11" si="1">IF(B$91=0,0,(B$86+B$87)/B$91)</f>
         <v>0.95454545454545459</v>
       </c>
       <c r="C11" s="20">
-        <f t="shared" ref="C11:G11" si="1">IF(C$91=0,0,(C$86+C$87)/C$91)</f>
+        <f t="shared" si="1"/>
         <v>0.95652173913043481</v>
       </c>
       <c r="D11" s="20">
@@ -9567,11 +15061,11 @@
         <v>85</v>
       </c>
       <c r="B12" s="20">
-        <f>IF(B$108=0, 0, (B$103+B$104)/B$108)</f>
+        <f t="shared" ref="B12:G12" si="2">IF(B$108=0, 0, (B$103+B$104)/B$108)</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="C12" s="20">
-        <f t="shared" ref="C12:G12" si="2">IF(C$108=0, 0, (C$103+C$104)/C$108)</f>
+        <f t="shared" si="2"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="D12" s="20">
@@ -9596,11 +15090,11 @@
         <v>64</v>
       </c>
       <c r="B13" s="20">
-        <f>IF(B$136=0, 0, (B$131+B$132)/B$136)</f>
+        <f t="shared" ref="B13:G13" si="3">IF(B$136=0, 0, (B$131+B$132)/B$136)</f>
         <v>0.94736842105263153</v>
       </c>
       <c r="C13" s="20">
-        <f t="shared" ref="C13:G13" si="3">IF(C$136=0, 0, (C$131+C$132)/C$136)</f>
+        <f t="shared" si="3"/>
         <v>0.94736842105263153</v>
       </c>
       <c r="D13" s="20">
@@ -9625,11 +15119,11 @@
         <v>12</v>
       </c>
       <c r="B14" s="25">
-        <f>IF(B$194=0, 0, (B$189+B$190)/B$194)</f>
+        <f t="shared" ref="B14:G14" si="4">IF(B$194=0, 0, (B$189+B$190)/B$194)</f>
         <v>1</v>
       </c>
       <c r="C14" s="25">
-        <f t="shared" ref="C14:G14" si="4">IF(C$194=0, 0, (C$189+C$190)/C$194)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D14" s="25">
@@ -10082,15 +15576,15 @@
         <v>6</v>
       </c>
       <c r="B54" s="10">
-        <f>COUNTIF(B39:B53,"pass")</f>
+        <f t="shared" ref="B54:G54" si="5">COUNTIF(B39:B53,"pass")</f>
         <v>11</v>
       </c>
       <c r="C54" s="10">
-        <f>COUNTIF(C39:C53,"pass")</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="D54" s="10">
-        <f t="shared" ref="D54:F54" si="5">COUNTIF(D39:D53,"pass")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E54" s="10">
@@ -10102,7 +15596,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="10">
-        <f>COUNTIF(G39:G53,"pass")</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10111,15 +15605,15 @@
         <v>143</v>
       </c>
       <c r="B55" s="5">
-        <f>COUNTIF(B39:B53,"Ok")</f>
+        <f t="shared" ref="B55:G55" si="6">COUNTIF(B39:B53,"Ok")</f>
         <v>0</v>
       </c>
       <c r="C55" s="5">
-        <f>COUNTIF(C39:C53,"Ok")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" ref="D55:F55" si="6">COUNTIF(D39:D53,"Ok")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E55" s="5">
@@ -10131,7 +15625,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="5">
-        <f>COUNTIF(G39:G53,"Ok")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10140,15 +15634,15 @@
         <v>140</v>
       </c>
       <c r="B56" s="11">
-        <f>COUNTIF(B39:B53,"workaround")</f>
+        <f t="shared" ref="B56:G56" si="7">COUNTIF(B39:B53,"workaround")</f>
         <v>3</v>
       </c>
       <c r="C56" s="11">
-        <f>COUNTIF(C39:C53,"workaround")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="D56" s="11">
-        <f t="shared" ref="D56:F56" si="7">COUNTIF(D39:D53,"workaround")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E56" s="11">
@@ -10160,7 +15654,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="11">
-        <f>COUNTIF(G39:G53,"workaround")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10169,15 +15663,15 @@
         <v>7</v>
       </c>
       <c r="B57" s="12">
-        <f>COUNTIF(B39:B53,"Fail")</f>
+        <f t="shared" ref="B57:G57" si="8">COUNTIF(B39:B53,"Fail")</f>
         <v>1</v>
       </c>
       <c r="C57" s="12">
-        <f>COUNTIF(C39:C53,"Fail")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D57" s="12">
-        <f t="shared" ref="D57:F57" si="8">COUNTIF(D39:D53,"Fail")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E57" s="12">
@@ -10189,7 +15683,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="12">
-        <f>COUNTIF(G39:G53,"Fail")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10198,15 +15692,15 @@
         <v>145</v>
       </c>
       <c r="B58" s="2">
-        <f>COUNT(B39:B53,"Untested")</f>
+        <f t="shared" ref="B58:G58" si="9">COUNT(B39:B53,"Untested")</f>
         <v>0</v>
       </c>
       <c r="C58" s="2">
-        <f>COUNT(C39:C53,"Untested")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D58" s="2">
-        <f t="shared" ref="D58:F58" si="9">COUNT(D39:D53,"Untested")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E58" s="2">
@@ -10218,7 +15712,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="2">
-        <f>COUNT(G39:G53,"Untested")</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10227,15 +15721,15 @@
         <v>139</v>
       </c>
       <c r="B59" s="2">
-        <f>B54+B57+B56+B58+B55</f>
+        <f t="shared" ref="B59:G59" si="10">B54+B57+B56+B58+B55</f>
         <v>15</v>
       </c>
       <c r="C59" s="2">
-        <f>C54+C57+C56+C58+C55</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="D59" s="2">
-        <f t="shared" ref="D59:F59" si="10">D54+D57+D56+D58+D55</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E59" s="2">
@@ -10247,7 +15741,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" ref="G59" si="11">G54+G57+G56+G58+G55</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10256,27 +15750,27 @@
         <v>8</v>
       </c>
       <c r="B60" s="6">
-        <f>IF(B$59=0, 0,(B$54+B$55)/B$59)</f>
+        <f t="shared" ref="B60:G60" si="11">IF(B$59=0, 0,(B$54+B$55)/B$59)</f>
         <v>0.73333333333333328</v>
       </c>
       <c r="C60" s="6">
-        <f t="shared" ref="C60:G60" si="12">IF(C$59=0, 0,(C$54+C$55)/C$59)</f>
+        <f t="shared" si="11"/>
         <v>0.8</v>
       </c>
       <c r="D60" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E60" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -10738,27 +16232,27 @@
         <v>6</v>
       </c>
       <c r="B86" s="10">
-        <f>COUNTIF(B63:B85,"pass")</f>
+        <f t="shared" ref="B86:G86" si="12">COUNTIF(B63:B85,"pass")</f>
         <v>20</v>
       </c>
       <c r="C86" s="10">
-        <f>COUNTIF(C63:C85,"pass")</f>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="D86" s="10">
-        <f t="shared" ref="D86:F86" si="13">COUNTIF(D63:D85,"pass")</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="E86" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="F86" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G86" s="10">
-        <f t="shared" ref="G86" si="14">COUNTIF(G63:G85,"pass")</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -10767,27 +16261,27 @@
         <v>143</v>
       </c>
       <c r="B87" s="5">
-        <f>COUNTIF(B63:B85,"Ok")</f>
+        <f t="shared" ref="B87:G87" si="13">COUNTIF(B63:B85,"Ok")</f>
         <v>1</v>
       </c>
       <c r="C87" s="5">
-        <f>COUNTIF(C63:C85,"Ok")</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D87" s="5">
-        <f t="shared" ref="D87:F87" si="15">COUNTIF(D63:D85,"Ok")</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E87" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F87" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G87" s="5">
-        <f t="shared" ref="G87" si="16">COUNTIF(G63:G85,"Ok")</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -10796,27 +16290,27 @@
         <v>140</v>
       </c>
       <c r="B88" s="11">
-        <f>COUNTIF(B63:B85,"workaround")</f>
+        <f t="shared" ref="B88:G88" si="14">COUNTIF(B63:B85,"workaround")</f>
         <v>1</v>
       </c>
       <c r="C88" s="11">
-        <f>COUNTIF(C63:C85,"workaround")</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="D88" s="11">
-        <f t="shared" ref="D88:F88" si="17">COUNTIF(D63:D85,"workaround")</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="E88" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F88" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G88" s="11">
-        <f t="shared" ref="G88" si="18">COUNTIF(G63:G85,"workaround")</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -10825,27 +16319,27 @@
         <v>7</v>
       </c>
       <c r="B89" s="12">
-        <f>COUNTIF(B63:B85,"Fail")</f>
+        <f t="shared" ref="B89:G89" si="15">COUNTIF(B63:B85,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C89" s="12">
-        <f>COUNTIF(C63:C85,"Fail")</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="D89" s="12">
-        <f t="shared" ref="D89:F89" si="19">COUNTIF(D63:D85,"Fail")</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="E89" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="F89" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G89" s="12">
-        <f t="shared" ref="G89" si="20">COUNTIF(G63:G85,"Fail")</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -10854,27 +16348,27 @@
         <v>145</v>
       </c>
       <c r="B90" s="2">
-        <f>COUNT(B63:B85,"Untested")</f>
+        <f t="shared" ref="B90:G90" si="16">COUNT(B63:B85,"Untested")</f>
         <v>0</v>
       </c>
       <c r="C90" s="2">
-        <f>COUNT(C63:C85,"Untested")</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D90" s="2">
-        <f t="shared" ref="D90:F90" si="21">COUNT(D63:D85,"Untested")</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E90" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F90" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" ref="G90" si="22">COUNT(G63:G85,"Untested")</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -10883,27 +16377,27 @@
         <v>139</v>
       </c>
       <c r="B91" s="2">
-        <f>B86+B89+B88+B90+B87</f>
+        <f t="shared" ref="B91:G91" si="17">B86+B89+B88+B90+B87</f>
         <v>22</v>
       </c>
       <c r="C91" s="2">
-        <f>C86+C89+C88+C90+C87</f>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="D91" s="2">
-        <f t="shared" ref="D91:F91" si="23">D86+D89+D88+D90+D87</f>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="E91" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="F91" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" ref="G91" si="24">G86+G89+G88+G90+G87</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -10912,27 +16406,27 @@
         <v>8</v>
       </c>
       <c r="B92" s="6">
-        <f>IF(B$91=0,0,(B$86+B$87)/B$91)</f>
+        <f t="shared" ref="B92:G92" si="18">IF(B$91=0,0,(B$86+B$87)/B$91)</f>
         <v>0.95454545454545459</v>
       </c>
       <c r="C92" s="6">
-        <f t="shared" ref="C92:G92" si="25">IF(C$91=0,0,(C$86+C$87)/C$91)</f>
+        <f t="shared" si="18"/>
         <v>0.95652173913043481</v>
       </c>
       <c r="D92" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="E92" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>0.91304347826086951</v>
       </c>
       <c r="F92" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G92" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -11113,27 +16607,27 @@
         <v>6</v>
       </c>
       <c r="B103" s="10">
-        <f>COUNTIF(B95:B102,"pass")</f>
+        <f t="shared" ref="B103:G103" si="19">COUNTIF(B95:B102,"pass")</f>
         <v>8</v>
       </c>
       <c r="C103" s="10">
-        <f>COUNTIF(C95:C102,"pass")</f>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="D103" s="10">
-        <f t="shared" ref="D103:F103" si="26">COUNTIF(D95:D102,"pass")</f>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="E103" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="F103" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G103" s="10">
-        <f t="shared" ref="G103" si="27">COUNTIF(G95:G102,"pass")</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -11142,27 +16636,27 @@
         <v>143</v>
       </c>
       <c r="B104" s="5">
-        <f>COUNTIF(B95:B102,"Ok")</f>
+        <f t="shared" ref="B104:G104" si="20">COUNTIF(B95:B102,"Ok")</f>
         <v>0</v>
       </c>
       <c r="C104" s="5">
-        <f>COUNTIF(C95:C102,"Ok")</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="D104" s="5">
-        <f t="shared" ref="D104:F104" si="28">COUNTIF(D95:D102,"Ok")</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E104" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F104" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G104" s="5">
-        <f t="shared" ref="G104" si="29">COUNTIF(G95:G102,"Ok")</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -11171,27 +16665,27 @@
         <v>140</v>
       </c>
       <c r="B105" s="11">
-        <f t="shared" ref="B105:G105" si="30">COUNTIF(B126:B195,"workaround")</f>
+        <f t="shared" ref="B105:G105" si="21">COUNTIF(B126:B195,"workaround")</f>
         <v>1</v>
       </c>
       <c r="C105" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="D105" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="E105" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="F105" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G105" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -11200,27 +16694,27 @@
         <v>7</v>
       </c>
       <c r="B106" s="12">
-        <f>COUNTIF(B95:B102,"Fail")</f>
+        <f t="shared" ref="B106:G106" si="22">COUNTIF(B95:B102,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C106" s="12">
-        <f>COUNTIF(C95:C102,"Fail")</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="D106" s="12">
-        <f t="shared" ref="D106:F106" si="31">COUNTIF(D95:D102,"Fail")</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E106" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F106" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G106" s="12">
-        <f t="shared" ref="G106" si="32">COUNTIF(G95:G102,"Fail")</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -11229,27 +16723,27 @@
         <v>145</v>
       </c>
       <c r="B107" s="2">
-        <f>COUNT(B95:B102,"Untested")</f>
+        <f t="shared" ref="B107:G107" si="23">COUNT(B95:B102,"Untested")</f>
         <v>0</v>
       </c>
       <c r="C107" s="2">
-        <f>COUNT(C95:C102,"Untested")</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="D107" s="2">
-        <f t="shared" ref="D107:F107" si="33">COUNT(D95:D102,"Untested")</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="E107" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F107" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" ref="G107" si="34">COUNT(G95:G102,"Untested")</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -11258,27 +16752,27 @@
         <v>139</v>
       </c>
       <c r="B108" s="2">
-        <f>B103+B106+B105+B107+B104</f>
+        <f t="shared" ref="B108:G108" si="24">B103+B106+B105+B107+B104</f>
         <v>9</v>
       </c>
       <c r="C108" s="2">
-        <f>C103+C106+C105+C107+C104</f>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="D108" s="2">
-        <f t="shared" ref="D108:F108" si="35">D103+D106+D105+D107+D104</f>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="E108" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="F108" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" ref="G108" si="36">G103+G106+G105+G107+G104</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -11287,27 +16781,27 @@
         <v>8</v>
       </c>
       <c r="B109" s="6">
-        <f>IF(B$108=0, 0, (B$103+B$104)/B$108)</f>
+        <f t="shared" ref="B109:G109" si="25">IF(B$108=0, 0, (B$103+B$104)/B$108)</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="C109" s="6">
-        <f t="shared" ref="C109:G109" si="37">IF(C$108=0, 0, (C$103+C$104)/C$108)</f>
+        <f t="shared" si="25"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="D109" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="25"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="E109" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="25"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="F109" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G109" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -11773,27 +17267,27 @@
         <v>6</v>
       </c>
       <c r="B131" s="10">
-        <f t="shared" ref="B131:G131" si="38">COUNTIF(B112:B130,"pass")</f>
+        <f t="shared" ref="B131:G131" si="26">COUNTIF(B112:B130,"pass")</f>
         <v>18</v>
       </c>
       <c r="C131" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="D131" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="E131" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="F131" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="G131" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
     </row>
@@ -11802,27 +17296,27 @@
         <v>143</v>
       </c>
       <c r="B132" s="5">
-        <f t="shared" ref="B132:G132" si="39">COUNTIF(B112:B130,"Ok")</f>
+        <f t="shared" ref="B132:G132" si="27">COUNTIF(B112:B130,"Ok")</f>
         <v>0</v>
       </c>
       <c r="C132" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="D132" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="E132" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F132" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G132" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -11831,27 +17325,27 @@
         <v>140</v>
       </c>
       <c r="B133" s="11">
-        <f t="shared" ref="B133:G133" si="40">COUNTIF(B112:B130,"workaround")</f>
+        <f t="shared" ref="B133:G133" si="28">COUNTIF(B112:B130,"workaround")</f>
         <v>1</v>
       </c>
       <c r="C133" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="D133" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="E133" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="F133" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G133" s="11">
-        <f t="shared" si="40"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -11860,27 +17354,27 @@
         <v>7</v>
       </c>
       <c r="B134" s="12">
-        <f t="shared" ref="B134:G134" si="41">COUNTIF(B112:B130,"Fail")</f>
+        <f t="shared" ref="B134:G134" si="29">COUNTIF(B112:B130,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C134" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="D134" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="E134" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="F134" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="G134" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
     </row>
@@ -11889,27 +17383,27 @@
         <v>145</v>
       </c>
       <c r="B135" s="2">
-        <f t="shared" ref="B135:G135" si="42">COUNT(B112:B130,"Untested")</f>
+        <f t="shared" ref="B135:G135" si="30">COUNT(B112:B130,"Untested")</f>
         <v>0</v>
       </c>
       <c r="C135" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="D135" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E135" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F135" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -11918,27 +17412,27 @@
         <v>139</v>
       </c>
       <c r="B136" s="2">
-        <f>B131+B134+B133+B135+B132</f>
+        <f t="shared" ref="B136:G136" si="31">B131+B134+B133+B135+B132</f>
         <v>19</v>
       </c>
       <c r="C136" s="2">
-        <f>C131+C134+C133+C135+C132</f>
+        <f t="shared" si="31"/>
         <v>19</v>
       </c>
       <c r="D136" s="2">
-        <f t="shared" ref="D136:F136" si="43">D131+D134+D133+D135+D132</f>
+        <f t="shared" si="31"/>
         <v>19</v>
       </c>
       <c r="E136" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="31"/>
         <v>19</v>
       </c>
       <c r="F136" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="31"/>
         <v>19</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" ref="G136" si="44">G131+G134+G133+G135+G132</f>
+        <f t="shared" si="31"/>
         <v>19</v>
       </c>
     </row>
@@ -11947,27 +17441,27 @@
         <v>8</v>
       </c>
       <c r="B137" s="6">
-        <f>IF(B$136=0, 0, (B$131+B$132)/B$136)</f>
+        <f t="shared" ref="B137:G137" si="32">IF(B$136=0, 0, (B$131+B$132)/B$136)</f>
         <v>0.94736842105263153</v>
       </c>
       <c r="C137" s="6">
-        <f t="shared" ref="C137:G137" si="45">IF(C$136=0, 0, (C$131+C$132)/C$136)</f>
+        <f t="shared" si="32"/>
         <v>0.94736842105263153</v>
       </c>
       <c r="D137" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="32"/>
         <v>0.89473684210526316</v>
       </c>
       <c r="E137" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="32"/>
         <v>0.89473684210526316</v>
       </c>
       <c r="F137" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="32"/>
         <v>0.73684210526315785</v>
       </c>
       <c r="G137" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="32"/>
         <v>0.94736842105263153</v>
       </c>
     </row>
@@ -13123,27 +18617,27 @@
         <v>6</v>
       </c>
       <c r="B189" s="10">
-        <f t="shared" ref="B189:G189" si="46">COUNTIF(B140:B188,"pass")</f>
+        <f t="shared" ref="B189:G189" si="33">COUNTIF(B140:B188,"pass")</f>
         <v>48</v>
       </c>
       <c r="C189" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="33"/>
         <v>48</v>
       </c>
       <c r="D189" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="33"/>
         <v>49</v>
       </c>
       <c r="E189" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="33"/>
         <v>49</v>
       </c>
       <c r="F189" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="33"/>
         <v>42</v>
       </c>
       <c r="G189" s="10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="33"/>
         <v>45</v>
       </c>
     </row>
@@ -13152,27 +18646,27 @@
         <v>143</v>
       </c>
       <c r="B190" s="5">
-        <f t="shared" ref="B190:G190" si="47">COUNTIF(B140:B188,"Ok")</f>
+        <f t="shared" ref="B190:G190" si="34">COUNTIF(B140:B188,"Ok")</f>
         <v>1</v>
       </c>
       <c r="C190" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="D190" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="E190" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F190" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G190" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -13181,27 +18675,27 @@
         <v>140</v>
       </c>
       <c r="B191" s="11">
-        <f t="shared" ref="B191:G191" si="48">COUNTIF(B140:B188,"workaround")</f>
+        <f t="shared" ref="B191:G191" si="35">COUNTIF(B140:B188,"workaround")</f>
         <v>0</v>
       </c>
       <c r="C191" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="D191" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="E191" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="F191" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="G191" s="11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
@@ -13210,27 +18704,27 @@
         <v>7</v>
       </c>
       <c r="B192" s="12">
-        <f t="shared" ref="B192:G192" si="49">COUNTIF(B140:B188,"Fail")</f>
+        <f t="shared" ref="B192:G192" si="36">COUNTIF(B140:B188,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C192" s="12">
-        <f t="shared" si="49"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="D192" s="12">
-        <f t="shared" si="49"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="E192" s="12">
-        <f t="shared" si="49"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="F192" s="12">
-        <f t="shared" si="49"/>
+        <f t="shared" si="36"/>
         <v>6</v>
       </c>
       <c r="G192" s="12">
-        <f t="shared" si="49"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
     </row>
@@ -13239,27 +18733,27 @@
         <v>145</v>
       </c>
       <c r="B193" s="2">
-        <f t="shared" ref="B193:G193" si="50">COUNT(B140:B188,"Untested")</f>
+        <f t="shared" ref="B193:G193" si="37">COUNT(B140:B188,"Untested")</f>
         <v>0</v>
       </c>
       <c r="C193" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="D193" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="E193" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="F193" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="G193" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -13268,27 +18762,27 @@
         <v>139</v>
       </c>
       <c r="B194" s="2">
-        <f>B189+B192+B191+B193+B190</f>
+        <f t="shared" ref="B194:G194" si="38">B189+B192+B191+B193+B190</f>
         <v>49</v>
       </c>
       <c r="C194" s="2">
-        <f>C189+C192+C191+C193+C190</f>
+        <f t="shared" si="38"/>
         <v>49</v>
       </c>
       <c r="D194" s="2">
-        <f t="shared" ref="D194:F194" si="51">D189+D192+D191+D193+D190</f>
+        <f t="shared" si="38"/>
         <v>49</v>
       </c>
       <c r="E194" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="38"/>
         <v>49</v>
       </c>
       <c r="F194" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="38"/>
         <v>49</v>
       </c>
       <c r="G194" s="2">
-        <f t="shared" ref="G194" si="52">G189+G192+G191+G193+G190</f>
+        <f t="shared" si="38"/>
         <v>49</v>
       </c>
     </row>
@@ -13297,27 +18791,27 @@
         <v>8</v>
       </c>
       <c r="B195" s="6">
-        <f>IF(B$194=0, 0, (B$189+B$190)/B$194)</f>
+        <f t="shared" ref="B195:G195" si="39">IF(B$194=0, 0, (B$189+B$190)/B$194)</f>
         <v>1</v>
       </c>
       <c r="C195" s="6">
-        <f t="shared" ref="C195:G195" si="53">IF(C$194=0, 0, (C$189+C$190)/C$194)</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="D195" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="E195" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="F195" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="39"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="G195" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="39"/>
         <v>0.91836734693877553</v>
       </c>
     </row>
@@ -13549,27 +19043,27 @@
         <v>6</v>
       </c>
       <c r="B211" s="10">
-        <f>COUNTIF(B198:B210,"pass")</f>
+        <f t="shared" ref="B211:G211" si="40">COUNTIF(B198:B210,"pass")</f>
         <v>4</v>
       </c>
       <c r="C211" s="10">
-        <f>COUNTIF(C198:C210,"pass")</f>
+        <f t="shared" si="40"/>
         <v>7</v>
       </c>
       <c r="D211" s="10">
-        <f t="shared" ref="D211:F211" si="54">COUNTIF(D198:D210,"pass")</f>
+        <f t="shared" si="40"/>
         <v>8</v>
       </c>
       <c r="E211" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="40"/>
         <v>8</v>
       </c>
       <c r="F211" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="G211" s="10">
-        <f t="shared" ref="G211" si="55">COUNTIF(G198:G210,"pass")</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -13578,27 +19072,27 @@
         <v>143</v>
       </c>
       <c r="B212" s="5">
-        <f>COUNTIF(B198:B210,"Ok")</f>
+        <f t="shared" ref="B212:G212" si="41">COUNTIF(B198:B210,"Ok")</f>
         <v>0</v>
       </c>
       <c r="C212" s="5">
-        <f>COUNTIF(C198:C210,"Ok")</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="D212" s="5">
-        <f t="shared" ref="D212:F212" si="56">COUNTIF(D198:D210,"Ok")</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="E212" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="F212" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G212" s="5">
-        <f t="shared" ref="G212" si="57">COUNTIF(G198:G210,"Ok")</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -13607,27 +19101,27 @@
         <v>140</v>
       </c>
       <c r="B213" s="11">
-        <f>COUNTIF(B198:B210,"workaround")</f>
+        <f t="shared" ref="B213:G213" si="42">COUNTIF(B198:B210,"workaround")</f>
         <v>0</v>
       </c>
       <c r="C213" s="11">
-        <f>COUNTIF(C198:C210,"workaround")</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="D213" s="11">
-        <f t="shared" ref="D213:F213" si="58">COUNTIF(D198:D210,"workaround")</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="E213" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="F213" s="11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G213" s="11">
-        <f t="shared" ref="G213" si="59">COUNTIF(G198:G210,"workaround")</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
@@ -13636,27 +19130,27 @@
         <v>7</v>
       </c>
       <c r="B214" s="12">
-        <f>COUNTIF(B198:B210,"Fail")</f>
+        <f t="shared" ref="B214:G214" si="43">COUNTIF(B198:B210,"Fail")</f>
         <v>3</v>
       </c>
       <c r="C214" s="12">
-        <f>COUNTIF(C198:C210,"Fail")</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="D214" s="12">
-        <f t="shared" ref="D214:F214" si="60">COUNTIF(D198:D210,"Fail")</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="E214" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F214" s="12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="G214" s="12">
-        <f t="shared" ref="G214" si="61">COUNTIF(G198:G210,"Fail")</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -13665,27 +19159,27 @@
         <v>145</v>
       </c>
       <c r="B215" s="2">
-        <f>COUNT(B198:B210,"Untested")</f>
+        <f t="shared" ref="B215:G215" si="44">COUNT(B198:B210,"Untested")</f>
         <v>0</v>
       </c>
       <c r="C215" s="2">
-        <f>COUNT(C198:C210,"Untested")</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="D215" s="2">
-        <f t="shared" ref="D215:F215" si="62">COUNT(D198:D210,"Untested")</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="E215" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F215" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G215" s="2">
-        <f t="shared" ref="G215" si="63">COUNT(G198:G210,"Untested")</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
@@ -13694,27 +19188,27 @@
         <v>139</v>
       </c>
       <c r="B216" s="2">
-        <f>B211+B214+B213+B215+B212</f>
+        <f t="shared" ref="B216:G216" si="45">B211+B214+B213+B215+B212</f>
         <v>7</v>
       </c>
       <c r="C216" s="2">
-        <f>C211+C214+C213+C215+C212</f>
+        <f t="shared" si="45"/>
         <v>7</v>
       </c>
       <c r="D216" s="2">
-        <f t="shared" ref="D216:F216" si="64">D211+D214+D213+D215+D212</f>
+        <f t="shared" si="45"/>
         <v>8</v>
       </c>
       <c r="E216" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="45"/>
         <v>8</v>
       </c>
       <c r="F216" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="G216" s="2">
-        <f t="shared" ref="G216" si="65">G211+G214+G213+G215+G212</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -13723,27 +19217,27 @@
         <v>8</v>
       </c>
       <c r="B217" s="6">
-        <f>IF(B$216=0, 0, (B$211+B$212)/B$216)</f>
+        <f t="shared" ref="B217:G217" si="46">IF(B$216=0, 0, (B$211+B$212)/B$216)</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="C217" s="6">
-        <f t="shared" ref="C217:G217" si="66">IF(C$216=0, 0, (C$211+C$212)/C$216)</f>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="D217" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="E217" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="F217" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G217" s="6">
-        <f t="shared" si="66"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -13791,27 +19285,27 @@
         <v>6</v>
       </c>
       <c r="B221" s="10">
-        <f>COUNTIF(B220,"pass")</f>
+        <f t="shared" ref="B221:G221" si="47">COUNTIF(B220,"pass")</f>
         <v>1</v>
       </c>
       <c r="C221" s="10">
-        <f>COUNTIF(C220,"pass")</f>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="D221" s="10">
-        <f t="shared" ref="D221:F221" si="67">COUNTIF(D220,"pass")</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="E221" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F221" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="G221" s="10">
-        <f t="shared" ref="G221" si="68">COUNTIF(G220,"pass")</f>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
     </row>
@@ -13820,27 +19314,27 @@
         <v>143</v>
       </c>
       <c r="B222" s="5">
-        <f>COUNTIF(B220,"Ok")</f>
+        <f t="shared" ref="B222:G222" si="48">COUNTIF(B220,"Ok")</f>
         <v>0</v>
       </c>
       <c r="C222" s="5">
-        <f>COUNTIF(C220,"Ok")</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="D222" s="5">
-        <f t="shared" ref="D222:F222" si="69">COUNTIF(D220,"Ok")</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E222" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="F222" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G222" s="5">
-        <f t="shared" ref="G222" si="70">COUNTIF(G220,"Ok")</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -13849,27 +19343,27 @@
         <v>140</v>
       </c>
       <c r="B223" s="11">
-        <f>COUNTIF(B220,"workaround")</f>
+        <f t="shared" ref="B223:G223" si="49">COUNTIF(B220,"workaround")</f>
         <v>0</v>
       </c>
       <c r="C223" s="11">
-        <f>COUNTIF(C220,"workaround")</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="D223" s="11">
-        <f t="shared" ref="D223:F223" si="71">COUNTIF(D220,"workaround")</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="E223" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F223" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="G223" s="11">
-        <f t="shared" ref="G223" si="72">COUNTIF(G220,"workaround")</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -13878,27 +19372,27 @@
         <v>7</v>
       </c>
       <c r="B224" s="12">
-        <f>COUNTIF(B220,"Fail")</f>
+        <f t="shared" ref="B224:G224" si="50">COUNTIF(B220,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C224" s="12">
-        <f>COUNTIF(C220,"Fail")</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="D224" s="12">
-        <f t="shared" ref="D224:F224" si="73">COUNTIF(D220,"Fail")</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="E224" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="F224" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G224" s="12">
-        <f t="shared" ref="G224" si="74">COUNTIF(G220,"Fail")</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -13907,27 +19401,27 @@
         <v>145</v>
       </c>
       <c r="B225" s="2">
-        <f>COUNT(B220,"Untested")</f>
+        <f t="shared" ref="B225:G225" si="51">COUNT(B220,"Untested")</f>
         <v>0</v>
       </c>
       <c r="C225" s="2">
-        <f>COUNT(C220,"Untested")</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="D225" s="2">
-        <f t="shared" ref="D225:F225" si="75">COUNT(D220,"Untested")</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="E225" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F225" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G225" s="2">
-        <f t="shared" ref="G225" si="76">COUNT(G220,"Untested")</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -13936,27 +19430,27 @@
         <v>139</v>
       </c>
       <c r="B226" s="2">
-        <f>B221+B224+B223+B225+B222</f>
+        <f t="shared" ref="B226:G226" si="52">B221+B224+B223+B225+B222</f>
         <v>1</v>
       </c>
       <c r="C226" s="2">
-        <f>C221+C224+C223+C225+C222</f>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="D226" s="2">
-        <f t="shared" ref="D226:F226" si="77">D221+D224+D223+D225+D222</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="E226" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="F226" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="G226" s="2">
-        <f t="shared" ref="G226" si="78">G221+G224+G223+G225+G222</f>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
     </row>
@@ -13965,27 +19459,27 @@
         <v>8</v>
       </c>
       <c r="B227" s="6">
-        <f>IF(B$226=0, 0, (B$221+B$222)/B$226)</f>
+        <f t="shared" ref="B227:G227" si="53">IF(B$226=0, 0, (B$221+B$222)/B$226)</f>
         <v>1</v>
       </c>
       <c r="C227" s="6">
-        <f t="shared" ref="C227:G227" si="79">IF(C$226=0, 0, (C$221+C$222)/C$226)</f>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="D227" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="E227" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="F227" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="G227" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
     </row>
@@ -14042,7 +19536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E197"/>
   <sheetViews>
@@ -14062,14 +19556,14 @@
       <c r="A1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -14329,11 +19823,11 @@
         <v>12</v>
       </c>
       <c r="D21" s="10">
-        <f t="shared" ref="D21:E21" si="0">COUNTIF(D6:D20,"pass")</f>
+        <f>COUNTIF(D6:D20,"pass")</f>
         <v>0</v>
       </c>
       <c r="E21" s="10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E6:E20,"pass")</f>
         <v>0</v>
       </c>
     </row>
@@ -14350,11 +19844,11 @@
         <v>0</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" ref="D22:E22" si="1">COUNTIF(D6:D20,"Ok")</f>
+        <f>COUNTIF(D6:D20,"Ok")</f>
         <v>0</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(E6:E20,"Ok")</f>
         <v>0</v>
       </c>
     </row>
@@ -14371,11 +19865,11 @@
         <v>2</v>
       </c>
       <c r="D23" s="11">
-        <f t="shared" ref="D23:E23" si="2">COUNTIF(D6:D20,"workaround")</f>
+        <f>COUNTIF(D6:D20,"workaround")</f>
         <v>0</v>
       </c>
       <c r="E23" s="11">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(E6:E20,"workaround")</f>
         <v>0</v>
       </c>
     </row>
@@ -14392,11 +19886,11 @@
         <v>1</v>
       </c>
       <c r="D24" s="12">
-        <f t="shared" ref="D24:E24" si="3">COUNTIF(D6:D20,"Fail")</f>
+        <f>COUNTIF(D6:D20,"Fail")</f>
         <v>0</v>
       </c>
       <c r="E24" s="12">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(E6:E20,"Fail")</f>
         <v>0</v>
       </c>
     </row>
@@ -14413,11 +19907,11 @@
         <v>0</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" ref="D25:E25" si="4">COUNT(D6:D20,"Untested")</f>
+        <f>COUNT(D6:D20,"Untested")</f>
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="4"/>
+        <f>COUNT(E6:E20,"Untested")</f>
         <v>0</v>
       </c>
     </row>
@@ -14434,11 +19928,11 @@
         <v>15</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" ref="D26:E26" si="5">D21+D24+D23+D25+D22</f>
+        <f>D21+D24+D23+D25+D22</f>
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="5"/>
+        <f>E21+E24+E23+E25+E22</f>
         <v>0</v>
       </c>
     </row>
@@ -14455,11 +19949,11 @@
         <v>0.8</v>
       </c>
       <c r="D27" s="6" t="e">
-        <f t="shared" ref="D27:E27" si="6">(D21+D22)/D26</f>
+        <f>(D21+D22)/D26</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" s="6" t="e">
-        <f t="shared" si="6"/>
+        <f>(E21+E22)/E26</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14883,11 +20377,11 @@
         <v>21</v>
       </c>
       <c r="D53" s="10">
-        <f t="shared" ref="D53:E53" si="7">COUNTIF(D30:D52,"pass")</f>
+        <f>COUNTIF(D30:D52,"pass")</f>
         <v>21</v>
       </c>
       <c r="E53" s="10">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(E30:E52,"pass")</f>
         <v>21</v>
       </c>
     </row>
@@ -14904,11 +20398,11 @@
         <v>1</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" ref="D54:E54" si="8">COUNTIF(D30:D52,"Ok")</f>
+        <f>COUNTIF(D30:D52,"Ok")</f>
         <v>0</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(E30:E52,"Ok")</f>
         <v>0</v>
       </c>
     </row>
@@ -14925,11 +20419,11 @@
         <v>1</v>
       </c>
       <c r="D55" s="11">
-        <f t="shared" ref="D55:E55" si="9">COUNTIF(D30:D52,"workaround")</f>
+        <f>COUNTIF(D30:D52,"workaround")</f>
         <v>1</v>
       </c>
       <c r="E55" s="11">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(E30:E52,"workaround")</f>
         <v>1</v>
       </c>
     </row>
@@ -14946,11 +20440,11 @@
         <v>0</v>
       </c>
       <c r="D56" s="12">
-        <f t="shared" ref="D56:E56" si="10">COUNTIF(D30:D52,"Fail")</f>
+        <f>COUNTIF(D30:D52,"Fail")</f>
         <v>1</v>
       </c>
       <c r="E56" s="12">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(E30:E52,"Fail")</f>
         <v>1</v>
       </c>
     </row>
@@ -14967,11 +20461,11 @@
         <v>0</v>
       </c>
       <c r="D57" s="2">
-        <f t="shared" ref="D57:E57" si="11">COUNT(D30:D52,"Untested")</f>
+        <f>COUNT(D30:D52,"Untested")</f>
         <v>0</v>
       </c>
       <c r="E57" s="2">
-        <f t="shared" si="11"/>
+        <f>COUNT(E30:E52,"Untested")</f>
         <v>0</v>
       </c>
     </row>
@@ -14988,11 +20482,11 @@
         <v>23</v>
       </c>
       <c r="D58" s="2">
-        <f t="shared" ref="D58:E58" si="12">D53+D56+D55+D57+D54</f>
+        <f>D53+D56+D55+D57+D54</f>
         <v>23</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" si="12"/>
+        <f>E53+E56+E55+E57+E54</f>
         <v>23</v>
       </c>
     </row>
@@ -15009,11 +20503,11 @@
         <v>0.95652173913043481</v>
       </c>
       <c r="D59" s="6">
-        <f t="shared" ref="D59:E59" si="13">(D53+D54)/D58</f>
+        <f>(D53+D54)/D58</f>
         <v>0.91304347826086951</v>
       </c>
       <c r="E59" s="6">
-        <f t="shared" si="13"/>
+        <f>(E53+E54)/E58</f>
         <v>0.91304347826086951</v>
       </c>
     </row>
@@ -15182,11 +20676,11 @@
         <v>8</v>
       </c>
       <c r="D70" s="10">
-        <f t="shared" ref="D70:E70" si="14">COUNTIF(D62:D69,"pass")</f>
+        <f>COUNTIF(D62:D69,"pass")</f>
         <v>8</v>
       </c>
       <c r="E70" s="10">
-        <f t="shared" si="14"/>
+        <f>COUNTIF(E62:E69,"pass")</f>
         <v>8</v>
       </c>
     </row>
@@ -15203,11 +20697,11 @@
         <v>0</v>
       </c>
       <c r="D71" s="5">
-        <f t="shared" ref="D71:E71" si="15">COUNTIF(D62:D69,"Ok")</f>
+        <f>COUNTIF(D62:D69,"Ok")</f>
         <v>0</v>
       </c>
       <c r="E71" s="5">
-        <f t="shared" si="15"/>
+        <f>COUNTIF(E62:E69,"Ok")</f>
         <v>0</v>
       </c>
     </row>
@@ -15245,11 +20739,11 @@
         <v>0</v>
       </c>
       <c r="D73" s="12">
-        <f t="shared" ref="D73:E73" si="16">COUNTIF(D62:D69,"Fail")</f>
+        <f>COUNTIF(D62:D69,"Fail")</f>
         <v>0</v>
       </c>
       <c r="E73" s="12">
-        <f t="shared" si="16"/>
+        <f>COUNTIF(E62:E69,"Fail")</f>
         <v>0</v>
       </c>
     </row>
@@ -15266,11 +20760,11 @@
         <v>0</v>
       </c>
       <c r="D74" s="2">
-        <f t="shared" ref="D74:E74" si="17">COUNT(D62:D69,"Untested")</f>
+        <f>COUNT(D62:D69,"Untested")</f>
         <v>0</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" si="17"/>
+        <f>COUNT(E62:E69,"Untested")</f>
         <v>0</v>
       </c>
     </row>
@@ -15287,11 +20781,11 @@
         <v>9</v>
       </c>
       <c r="D75" s="2">
-        <f t="shared" ref="D75:E75" si="18">D70+D73+D72+D74+D71</f>
+        <f>D70+D73+D72+D74+D71</f>
         <v>9</v>
       </c>
       <c r="E75" s="2">
-        <f t="shared" si="18"/>
+        <f>E70+E73+E72+E74+E71</f>
         <v>9</v>
       </c>
     </row>
@@ -15308,11 +20802,11 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="D76" s="6">
-        <f t="shared" ref="D76:E76" si="19">(D70+D71)/D75</f>
+        <f>(D70+D71)/D75</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="E76" s="6">
-        <f t="shared" si="19"/>
+        <f>(E70+E71)/E75</f>
         <v>0.88888888888888884</v>
       </c>
     </row>
@@ -15702,11 +21196,11 @@
         <v>20</v>
       </c>
       <c r="D100" s="10">
-        <f t="shared" ref="D100:E100" si="20">COUNTIF(D79:D99,"pass")</f>
+        <f>COUNTIF(D79:D99,"pass")</f>
         <v>19</v>
       </c>
       <c r="E100" s="10">
-        <f t="shared" si="20"/>
+        <f>COUNTIF(E79:E99,"pass")</f>
         <v>19</v>
       </c>
     </row>
@@ -15723,11 +21217,11 @@
         <v>0</v>
       </c>
       <c r="D101" s="5">
-        <f t="shared" ref="D101:E101" si="21">COUNTIF(D79:D99,"Ok")</f>
+        <f>COUNTIF(D79:D99,"Ok")</f>
         <v>0</v>
       </c>
       <c r="E101" s="5">
-        <f t="shared" si="21"/>
+        <f>COUNTIF(E79:E99,"Ok")</f>
         <v>0</v>
       </c>
     </row>
@@ -15744,11 +21238,11 @@
         <v>1</v>
       </c>
       <c r="D102" s="11">
-        <f t="shared" ref="D102:E102" si="22">COUNTIF(D79:D99,"workaround")</f>
+        <f>COUNTIF(D79:D99,"workaround")</f>
         <v>1</v>
       </c>
       <c r="E102" s="11">
-        <f t="shared" si="22"/>
+        <f>COUNTIF(E79:E99,"workaround")</f>
         <v>1</v>
       </c>
     </row>
@@ -15765,11 +21259,11 @@
         <v>0</v>
       </c>
       <c r="D103" s="12">
-        <f t="shared" ref="D103:E103" si="23">COUNTIF(D79:D99,"Fail")</f>
+        <f>COUNTIF(D79:D99,"Fail")</f>
         <v>1</v>
       </c>
       <c r="E103" s="12">
-        <f t="shared" si="23"/>
+        <f>COUNTIF(E79:E99,"Fail")</f>
         <v>1</v>
       </c>
     </row>
@@ -15786,11 +21280,11 @@
         <v>0</v>
       </c>
       <c r="D104" s="2">
-        <f t="shared" ref="D104:E104" si="24">COUNT(D79:D99,"Untested")</f>
+        <f>COUNT(D79:D99,"Untested")</f>
         <v>0</v>
       </c>
       <c r="E104" s="2">
-        <f t="shared" si="24"/>
+        <f>COUNT(E79:E99,"Untested")</f>
         <v>0</v>
       </c>
     </row>
@@ -15807,11 +21301,11 @@
         <v>21</v>
       </c>
       <c r="D105" s="2">
-        <f t="shared" ref="D105:E105" si="25">D100+D103+D102+D104+D101</f>
+        <f>D100+D103+D102+D104+D101</f>
         <v>21</v>
       </c>
       <c r="E105" s="2">
-        <f t="shared" si="25"/>
+        <f>E100+E103+E102+E104+E101</f>
         <v>21</v>
       </c>
     </row>
@@ -15828,11 +21322,11 @@
         <v>0.95238095238095233</v>
       </c>
       <c r="D106" s="6">
-        <f t="shared" ref="D106:E106" si="26">(D100+D101)/D105</f>
+        <f>(D100+D101)/D105</f>
         <v>0.90476190476190477</v>
       </c>
       <c r="E106" s="6">
-        <f t="shared" si="26"/>
+        <f>(E100+E101)/E105</f>
         <v>0.90476190476190477</v>
       </c>
     </row>
@@ -16715,11 +22209,11 @@
         <v>49</v>
       </c>
       <c r="D159" s="10">
-        <f t="shared" ref="D159:E159" si="27">COUNTIF(D109:D158,"pass")</f>
+        <f>COUNTIF(D109:D158,"pass")</f>
         <v>50</v>
       </c>
       <c r="E159" s="10">
-        <f t="shared" si="27"/>
+        <f>COUNTIF(E109:E158,"pass")</f>
         <v>50</v>
       </c>
     </row>
@@ -16736,11 +22230,11 @@
         <v>1</v>
       </c>
       <c r="D160" s="5">
-        <f t="shared" ref="D160:E160" si="28">COUNTIF(D109:D158,"Ok")</f>
+        <f>COUNTIF(D109:D158,"Ok")</f>
         <v>0</v>
       </c>
       <c r="E160" s="5">
-        <f t="shared" si="28"/>
+        <f>COUNTIF(E109:E158,"Ok")</f>
         <v>0</v>
       </c>
     </row>
@@ -16757,11 +22251,11 @@
         <v>0</v>
       </c>
       <c r="D161" s="11">
-        <f t="shared" ref="D161:E161" si="29">COUNTIF(D109:D158,"workaround")</f>
+        <f>COUNTIF(D109:D158,"workaround")</f>
         <v>0</v>
       </c>
       <c r="E161" s="11">
-        <f t="shared" si="29"/>
+        <f>COUNTIF(E109:E158,"workaround")</f>
         <v>0</v>
       </c>
     </row>
@@ -16778,11 +22272,11 @@
         <v>0</v>
       </c>
       <c r="D162" s="12">
-        <f t="shared" ref="D162:E162" si="30">COUNTIF(D109:D158,"Fail")</f>
+        <f>COUNTIF(D109:D158,"Fail")</f>
         <v>0</v>
       </c>
       <c r="E162" s="12">
-        <f t="shared" si="30"/>
+        <f>COUNTIF(E109:E158,"Fail")</f>
         <v>0</v>
       </c>
     </row>
@@ -16799,11 +22293,11 @@
         <v>0</v>
       </c>
       <c r="D163" s="2">
-        <f t="shared" ref="D163:E163" si="31">COUNT(D109:D158,"Untested")</f>
+        <f>COUNT(D109:D158,"Untested")</f>
         <v>0</v>
       </c>
       <c r="E163" s="2">
-        <f t="shared" si="31"/>
+        <f>COUNT(E109:E158,"Untested")</f>
         <v>0</v>
       </c>
     </row>
@@ -16820,11 +22314,11 @@
         <v>50</v>
       </c>
       <c r="D164" s="2">
-        <f t="shared" ref="D164:E164" si="32">D159+D162+D161+D163+D160</f>
+        <f>D159+D162+D161+D163+D160</f>
         <v>50</v>
       </c>
       <c r="E164" s="2">
-        <f t="shared" si="32"/>
+        <f>E159+E162+E161+E163+E160</f>
         <v>50</v>
       </c>
     </row>
@@ -16841,11 +22335,11 @@
         <v>1</v>
       </c>
       <c r="D165" s="6">
-        <f t="shared" ref="D165:E165" si="33">(D159+D160)/D164</f>
+        <f>(D159+D160)/D164</f>
         <v>1</v>
       </c>
       <c r="E165" s="6">
-        <f t="shared" si="33"/>
+        <f>(E159+E160)/E164</f>
         <v>1</v>
       </c>
     </row>
@@ -17042,11 +22536,11 @@
         <v>6</v>
       </c>
       <c r="D180" s="10">
-        <f t="shared" ref="D180:E180" si="34">COUNTIF(D168:D179,"pass")</f>
+        <f>COUNTIF(D168:D179,"pass")</f>
         <v>8</v>
       </c>
       <c r="E180" s="10">
-        <f t="shared" si="34"/>
+        <f>COUNTIF(E168:E179,"pass")</f>
         <v>8</v>
       </c>
     </row>
@@ -17063,11 +22557,11 @@
         <v>0</v>
       </c>
       <c r="D181" s="5">
-        <f t="shared" ref="D181:E181" si="35">COUNTIF(D168:D179,"Ok")</f>
+        <f>COUNTIF(D168:D179,"Ok")</f>
         <v>0</v>
       </c>
       <c r="E181" s="5">
-        <f t="shared" si="35"/>
+        <f>COUNTIF(E168:E179,"Ok")</f>
         <v>0</v>
       </c>
     </row>
@@ -17084,11 +22578,11 @@
         <v>0</v>
       </c>
       <c r="D182" s="11">
-        <f t="shared" ref="D182:E182" si="36">COUNTIF(D168:D179,"workaround")</f>
+        <f>COUNTIF(D168:D179,"workaround")</f>
         <v>0</v>
       </c>
       <c r="E182" s="11">
-        <f t="shared" si="36"/>
+        <f>COUNTIF(E168:E179,"workaround")</f>
         <v>0</v>
       </c>
     </row>
@@ -17105,11 +22599,11 @@
         <v>0</v>
       </c>
       <c r="D183" s="12">
-        <f t="shared" ref="D183:E183" si="37">COUNTIF(D168:D179,"Fail")</f>
+        <f>COUNTIF(D168:D179,"Fail")</f>
         <v>0</v>
       </c>
       <c r="E183" s="12">
-        <f t="shared" si="37"/>
+        <f>COUNTIF(E168:E179,"Fail")</f>
         <v>0</v>
       </c>
     </row>
@@ -17126,11 +22620,11 @@
         <v>0</v>
       </c>
       <c r="D184" s="2">
-        <f t="shared" ref="D184:E184" si="38">COUNT(D168:D179,"Untested")</f>
+        <f>COUNT(D168:D179,"Untested")</f>
         <v>0</v>
       </c>
       <c r="E184" s="2">
-        <f t="shared" si="38"/>
+        <f>COUNT(E168:E179,"Untested")</f>
         <v>0</v>
       </c>
     </row>
@@ -17147,11 +22641,11 @@
         <v>6</v>
       </c>
       <c r="D185" s="2">
-        <f t="shared" ref="D185:E185" si="39">D180+D183+D182+D184+D181</f>
+        <f>D180+D183+D182+D184+D181</f>
         <v>8</v>
       </c>
       <c r="E185" s="2">
-        <f t="shared" si="39"/>
+        <f>E180+E183+E182+E184+E181</f>
         <v>8</v>
       </c>
     </row>
@@ -17168,11 +22662,11 @@
         <v>1</v>
       </c>
       <c r="D186" s="6">
-        <f t="shared" ref="D186:E186" si="40">(D180+D181)/D185</f>
+        <f>(D180+D181)/D185</f>
         <v>1</v>
       </c>
       <c r="E186" s="6">
-        <f t="shared" si="40"/>
+        <f>(E180+E181)/E185</f>
         <v>1</v>
       </c>
     </row>
@@ -17222,11 +22716,11 @@
         <v>1</v>
       </c>
       <c r="D190" s="10">
-        <f t="shared" ref="D190:E190" si="41">COUNTIF(D189,"pass")</f>
+        <f>COUNTIF(D189,"pass")</f>
         <v>1</v>
       </c>
       <c r="E190" s="10">
-        <f t="shared" si="41"/>
+        <f>COUNTIF(E189,"pass")</f>
         <v>1</v>
       </c>
     </row>
@@ -17243,11 +22737,11 @@
         <v>0</v>
       </c>
       <c r="D191" s="5">
-        <f t="shared" ref="D191:E191" si="42">COUNTIF(D189,"Ok")</f>
+        <f>COUNTIF(D189,"Ok")</f>
         <v>0</v>
       </c>
       <c r="E191" s="5">
-        <f t="shared" si="42"/>
+        <f>COUNTIF(E189,"Ok")</f>
         <v>0</v>
       </c>
     </row>
@@ -17264,11 +22758,11 @@
         <v>0</v>
       </c>
       <c r="D192" s="11">
-        <f t="shared" ref="D192:E192" si="43">COUNTIF(D189,"workaround")</f>
+        <f>COUNTIF(D189,"workaround")</f>
         <v>0</v>
       </c>
       <c r="E192" s="11">
-        <f t="shared" si="43"/>
+        <f>COUNTIF(E189,"workaround")</f>
         <v>0</v>
       </c>
     </row>
@@ -17285,11 +22779,11 @@
         <v>0</v>
       </c>
       <c r="D193" s="12">
-        <f t="shared" ref="D193:E193" si="44">COUNTIF(D189,"Fail")</f>
+        <f>COUNTIF(D189,"Fail")</f>
         <v>0</v>
       </c>
       <c r="E193" s="12">
-        <f t="shared" si="44"/>
+        <f>COUNTIF(E189,"Fail")</f>
         <v>0</v>
       </c>
     </row>
@@ -17306,11 +22800,11 @@
         <v>0</v>
       </c>
       <c r="D194" s="2">
-        <f t="shared" ref="D194:E194" si="45">COUNT(D189,"Untested")</f>
+        <f>COUNT(D189,"Untested")</f>
         <v>0</v>
       </c>
       <c r="E194" s="2">
-        <f t="shared" si="45"/>
+        <f>COUNT(E189,"Untested")</f>
         <v>0</v>
       </c>
     </row>
@@ -17327,11 +22821,11 @@
         <v>1</v>
       </c>
       <c r="D195" s="2">
-        <f t="shared" ref="D195:E195" si="46">D190+D193+D192+D194+D191</f>
+        <f>D190+D193+D192+D194+D191</f>
         <v>1</v>
       </c>
       <c r="E195" s="2">
-        <f t="shared" si="46"/>
+        <f>E190+E193+E192+E194+E191</f>
         <v>1</v>
       </c>
     </row>
@@ -17348,11 +22842,11 @@
         <v>1</v>
       </c>
       <c r="D196" s="6">
-        <f t="shared" ref="D196:E196" si="47">(D190+D191)/D195</f>
+        <f>(D190+D191)/D195</f>
         <v>1</v>
       </c>
       <c r="E196" s="6">
-        <f t="shared" si="47"/>
+        <f>(E190+E191)/E195</f>
         <v>1</v>
       </c>
     </row>

--- a/doc/OpenGL status.xlsx
+++ b/doc/OpenGL status.xlsx
@@ -13,7 +13,6 @@
     <sheet name="2012-11" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -3604,6 +3603,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3623,12 +3628,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3993,11 +3992,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="77510144"/>
-        <c:axId val="77511680"/>
+        <c:axId val="153696128"/>
+        <c:axId val="153697664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77510144"/>
+        <c:axId val="153696128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4006,7 +4005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77511680"/>
+        <c:crossAx val="153697664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4014,7 +4013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77511680"/>
+        <c:axId val="153697664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4026,7 +4025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77510144"/>
+        <c:crossAx val="153696128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4534,11 +4533,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="78265344"/>
-        <c:axId val="78267136"/>
+        <c:axId val="154365312"/>
+        <c:axId val="154371200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78265344"/>
+        <c:axId val="154365312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4547,7 +4546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78267136"/>
+        <c:crossAx val="154371200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4555,7 +4554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78267136"/>
+        <c:axId val="154371200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4567,7 +4566,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78265344"/>
+        <c:crossAx val="154365312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5038,11 +5037,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="78492416"/>
-        <c:axId val="78493952"/>
+        <c:axId val="154969216"/>
+        <c:axId val="154970752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78492416"/>
+        <c:axId val="154969216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,7 +5050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78493952"/>
+        <c:crossAx val="154970752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5059,7 +5058,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78493952"/>
+        <c:axId val="154970752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5071,7 +5070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78492416"/>
+        <c:crossAx val="154969216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5488,8 +5487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5503,22 +5502,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -5554,7 +5553,7 @@
       <c r="C5" s="17">
         <v>41324</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="39">
         <v>41296</v>
       </c>
       <c r="E5" s="17">
@@ -8104,7 +8103,7 @@
       <c r="D160" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E160" s="45" t="s">
+      <c r="E160" s="38" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8172,7 +8171,7 @@
       <c r="D164" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E164" s="45" t="s">
+      <c r="E164" s="38" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8274,7 +8273,7 @@
       <c r="D170" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E170" s="45" t="s">
+      <c r="E170" s="38" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8291,7 +8290,7 @@
       <c r="D171" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E171" s="45" t="s">
+      <c r="E171" s="38" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8342,7 +8341,7 @@
       <c r="D174" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E174" s="45" t="s">
+      <c r="E174" s="38" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8359,7 +8358,7 @@
       <c r="D175" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E175" s="45" t="s">
+      <c r="E175" s="38" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8563,7 +8562,7 @@
       <c r="D187" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E187" s="45" t="s">
+      <c r="E187" s="38" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8580,7 +8579,7 @@
       <c r="D188" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E188" s="45" t="s">
+      <c r="E188" s="38" t="s">
         <v>140</v>
       </c>
     </row>
@@ -8784,7 +8783,7 @@
       <c r="D200" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E200" s="45" t="s">
+      <c r="E200" s="38" t="s">
         <v>140</v>
       </c>
     </row>
@@ -9503,26 +9502,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -9537,18 +9536,18 @@
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42" t="s">
+      <c r="E4" s="44"/>
+      <c r="F4" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="42"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -14850,26 +14849,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -14884,18 +14883,18 @@
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42" t="s">
+      <c r="E4" s="44"/>
+      <c r="F4" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="42"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -19556,14 +19555,14 @@
       <c r="A1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/doc/OpenGL status.xlsx
+++ b/doc/OpenGL status.xlsx
@@ -4,19 +4,633 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="3090" windowWidth="11955" windowHeight="9780"/>
+    <workbookView xWindow="45" yWindow="-60" windowWidth="13230" windowHeight="15270"/>
   </bookViews>
   <sheets>
-    <sheet name="2013-02" sheetId="5" r:id="rId1"/>
-    <sheet name="2013-01" sheetId="4" r:id="rId2"/>
-    <sheet name="2012-12" sheetId="3" r:id="rId3"/>
-    <sheet name="2012-11" sheetId="1" r:id="rId4"/>
+    <sheet name="2013-03" sheetId="6" r:id="rId1"/>
+    <sheet name="2013-02" sheetId="5" r:id="rId2"/>
+    <sheet name="2013-01" sheetId="4" r:id="rId3"/>
+    <sheet name="2012-12" sheetId="3" r:id="rId4"/>
+    <sheet name="2012-11" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Groove</author>
+  </authors>
+  <commentList>
+    <comment ref="B37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Object labels not used in the debug output log.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B69" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Structure for vertex inputs supported</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C76" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">BPTC online conversions is not/won't be supported
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C80" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Allows an implicit cast on texture coordinates parameter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C118" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Crash
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B125" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EXT_transform_feedback extension string missing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B126" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">layout(triangles) in; declaration is required by the specification but the implementation doesn't requires it.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C126" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">layout(triangles) in; declaration is required by the specification but the implementation doesn't requires it.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D137" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fixed with the new drivers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B138" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Doesn't support GL_INT_2_10_10_10_REV correctly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C138" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Doesn't support GL_INT_2_10_10_10_REV correctly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D138" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Doesn't support GL_INT_2_10_10_10_REV correctly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C158" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">The implementation is confusing block name and instance name when enumerating uniforms
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D158" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">The implementation is confusing block name and instance name when enumerating uniforms
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E159" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E160" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D161" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">The depth test can't be enable
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E161" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">The depth test can't be enable
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E164" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E167" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Clearing a FBO failed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C168" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Crash when there is only a depth attachment
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C169" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Generates a GL_FRAMEBUFFER_INCOMPLETE_DRAW_BUFFER error
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D169" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fixed with this new driver</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E170" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E171" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Blit of integer multisample texture with even a single sample per texel doesn't work.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Blit of integer multisample texture with even a single sample per texel doesn't work.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Render a black screen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E174" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E175" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E177" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Clearing a FBO bigger than the window dimentions generate unclear bands</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B180" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>No error but doesn't render anything</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B183" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pop free clipping</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C185" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">glClearBufferfv is always performed, even is the condition fails.
+OpenGL 4.3 - 10.10 Conditional Rendering:
+all drawing commands (see section 10.5), as well as Clear and ClearBuffer* (see section 17.4.3), and compute dispatch through DispatchCompute*
+(see section 19), have no effect.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E187" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E188" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B195" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EXT_texture_snorm string missing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E196" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>"The internal format of the texture arrays is integer (see table 3.12), and either the magniﬁcation ﬁlter is not NEAREST, or the miniﬁcation ﬁlter is neither NEAREST nor NEAREST_MIPMAP_NEAREST."
+Other implementation doesn't have this requirement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E200" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C212" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GL_NV_gpu_shader5 not supported</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D212" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GL_NV_gpu_shader5 not supported</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E212" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GL_NV_gpu_shader5 not supported</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Groove</author>
@@ -672,7 +1286,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Groove</author>
@@ -1303,7 +1917,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Groove</author>
@@ -1962,7 +2576,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Groove</author>
@@ -2387,7 +3001,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="326">
   <si>
     <t>gl-430-texture-view</t>
   </si>
@@ -3341,6 +3955,30 @@
   </si>
   <si>
     <t>4.3.2.1</t>
+  </si>
+  <si>
+    <t>OpenGL Status - March 2013</t>
+  </si>
+  <si>
+    <t>13.3 beta 2</t>
+  </si>
+  <si>
+    <t>MacOS X 10.8.3</t>
+  </si>
+  <si>
+    <t>Intel 9.18.10.3006</t>
+  </si>
+  <si>
+    <t>9.18.10.3006</t>
+  </si>
+  <si>
+    <t>AMD 13.3 beta 2</t>
+  </si>
+  <si>
+    <t>314.21 beta</t>
+  </si>
+  <si>
+    <t>NVIDIA 314.21 beta</t>
   </si>
 </sst>
 </file>
@@ -3532,7 +4170,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3609,10 +4247,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3659,6 +4306,395 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2013-03'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NVIDIA 314.21 beta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2013-03'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3 support</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2 support</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1 support</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0 support</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3 support</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenGL 3.2 support</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2013-03'!$B$10:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92307692307692313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95454545454545459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2013-03'!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AMD 13.3 beta 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2013-03'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3 support</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2 support</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1 support</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0 support</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3 support</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenGL 3.2 support</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2013-03'!$C$10:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92307692307692313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88636363636363635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2013-03'!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel 9.18.10.3006</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2013-03'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3 support</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2 support</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1 support</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0 support</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3 support</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenGL 3.2 support</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2013-03'!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92307692307692313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95454545454545459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2013-03'!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MacOS X 10.8.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2013-03'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3 support</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2 support</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1 support</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0 support</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3 support</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenGL 3.2 support</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2013-03'!$E$10:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68181818181818177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="38730752"/>
+        <c:axId val="38861440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="38730752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38861440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="38861440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38730752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -3992,11 +5028,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153696128"/>
-        <c:axId val="153697664"/>
+        <c:axId val="40925440"/>
+        <c:axId val="41361408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153696128"/>
+        <c:axId val="40925440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4005,7 +5041,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153697664"/>
+        <c:crossAx val="41361408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4013,7 +5049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153697664"/>
+        <c:axId val="41361408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4025,14 +5061,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153696128"/>
+        <c:crossAx val="40925440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4047,7 +5082,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -4533,11 +5568,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154365312"/>
-        <c:axId val="154371200"/>
+        <c:axId val="154161152"/>
+        <c:axId val="154173824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154365312"/>
+        <c:axId val="154161152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4546,7 +5581,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154371200"/>
+        <c:crossAx val="154173824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4554,7 +5589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154371200"/>
+        <c:axId val="154173824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4566,7 +5601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154365312"/>
+        <c:crossAx val="154161152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4587,7 +5622,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -5037,11 +6072,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154969216"/>
-        <c:axId val="154970752"/>
+        <c:axId val="159900416"/>
+        <c:axId val="159901952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154969216"/>
+        <c:axId val="159900416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5050,7 +6085,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154970752"/>
+        <c:crossAx val="159901952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5058,7 +6093,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154970752"/>
+        <c:axId val="159901952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5070,7 +6105,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154969216"/>
+        <c:crossAx val="159900416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5092,6 +6127,43 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>138111</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5126,7 +6198,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5163,7 +6235,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5487,7 +6559,4006 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="E189" sqref="E189"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="17">
+        <v>41349</v>
+      </c>
+      <c r="C5" s="17">
+        <v>41347</v>
+      </c>
+      <c r="D5" s="39">
+        <v>41353</v>
+      </c>
+      <c r="E5" s="17">
+        <v>41347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="20">
+        <f>IF(B$55=0, 0,(B$50+B$51)/B$55)</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="C10" s="20">
+        <f>IF(C$55=0, 0,(C$50+C$51)/C$55)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D10" s="20">
+        <f>IF(D$55=0, 0,(D$50+D$51)/D$55)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="20">
+        <f>IF(E$55=0, 0,(E$50+E$51)/E$55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="20">
+        <f>IF(B$87=0,0,(B$82+B$83)/B$87)</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="20">
+        <f>IF(C$87=0,0,(C$82+C$83)/C$87)</f>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="D11" s="20">
+        <f>IF(D$87=0,0,(D$82+D$83)/D$87)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="20">
+        <f>IF(E$87=0,0,(E$82+E$83)/E$87)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="20">
+        <f>IF(B$103=0, 0, (B$98+B$99)/B$103)</f>
+        <v>0.875</v>
+      </c>
+      <c r="C12" s="20">
+        <f>IF(C$103=0, 0, (C$98+C$99)/C$103)</f>
+        <v>0.875</v>
+      </c>
+      <c r="D12" s="20">
+        <f>IF(D$103=0, 0, (D$98+D$99)/D$103)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="20">
+        <f>IF(E$103=0, 0, (E$98+E$99)/E$103)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="20">
+        <f>IF(B$132=0, 0, (B$127+B$128)/B$132)</f>
+        <v>0.95</v>
+      </c>
+      <c r="C13" s="20">
+        <f>IF(C$132=0, 0, (C$127+C$128)/C$132)</f>
+        <v>0.9</v>
+      </c>
+      <c r="D13" s="20">
+        <f>IF(D$132=0, 0, (D$127+D$128)/D$132)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="20">
+        <f>IF(E$132=0, 0, (E$127+E$128)/E$132)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="20">
+        <f>IF(B$154=0, 0, (B$149+B$150)/B$154)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="C14" s="20">
+        <f>IF(C$154=0, 0, (C$149+C$150)/C$154)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="D14" s="20">
+        <f>IF(D$154=0, 0, (D$149+D$150)/D$154)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="E14" s="20">
+        <f>IF(E$154=0, 0, (E$149+E$150)/E$154)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="25">
+        <f>IF(B$207=0, 0, (B$202+B$203)/B$207)</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="C15" s="25">
+        <f>IF(C$207=0, 0, (C$202+C$203)/C$207)</f>
+        <v>0.88636363636363635</v>
+      </c>
+      <c r="D15" s="25">
+        <f>IF(D$207=0, 0, (D$202+D$203)/D$207)</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="E15" s="25">
+        <f>IF(E$207=0, 0, (E$202+E$203)/E$207)</f>
+        <v>0.68181818181818177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="10">
+        <f>COUNTIF(B36:B49,"pass")</f>
+        <v>13</v>
+      </c>
+      <c r="C50" s="10">
+        <f>COUNTIF(C36:C49,"pass")</f>
+        <v>2</v>
+      </c>
+      <c r="D50" s="10">
+        <f>COUNTIF(D36:D49,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="10">
+        <f>COUNTIF(E36:E49,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="5">
+        <f>COUNTIF(B36:B49,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="5">
+        <f>COUNTIF(C36:C49,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="5">
+        <f>COUNTIF(D36:D49,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <f>COUNTIF(E36:E49,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="11">
+        <f>COUNTIF(B36:B49,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="C52" s="11">
+        <f>COUNTIF(C36:C49,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="11">
+        <f>COUNTIF(D36:D49,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
+        <f>COUNTIF(E36:E49,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="12">
+        <f>COUNTIF(B36:B49,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="12">
+        <f>COUNTIF(C36:C49,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="12">
+        <f>COUNTIF(D36:D49,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="12">
+        <f>COUNTIF(E36:E49,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" s="2">
+        <f>COUNT(B36:B49,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="2">
+        <f>COUNTIF(C36:C49,"unsupported")</f>
+        <v>12</v>
+      </c>
+      <c r="D54" s="2">
+        <f>COUNT(D36:D49,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
+        <f>COUNT(E36:E49,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="2">
+        <f>B50+B53+B52+B54+B51</f>
+        <v>14</v>
+      </c>
+      <c r="C55" s="2">
+        <f>C50+C53+C52+C54+C51</f>
+        <v>14</v>
+      </c>
+      <c r="D55" s="2">
+        <f>D50+D53+D52+D54+D51</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <f>E50+E53+E52+E54+E51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="6">
+        <f>IF(B$55=0, 0,(B$50+B$51)/B$55)</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="C56" s="6">
+        <f>IF(C$55=0, 0,(C$50+C$51)/C$55)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D56" s="6">
+        <f>IF(D$55=0, 0,(D$50+D$51)/D$55)</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <f>IF(E$55=0, 0,(E$50+E$51)/E$55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E64" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E67" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E70" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E74" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E76" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E77" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E79" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E80" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="10">
+        <f>COUNTIF(B59:B81,"pass")</f>
+        <v>22</v>
+      </c>
+      <c r="C82" s="10">
+        <f>COUNTIF(C59:C81,"pass")</f>
+        <v>21</v>
+      </c>
+      <c r="D82" s="10">
+        <f>COUNTIF(D59:D81,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="10">
+        <f>COUNTIF(E59:E81,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" s="5">
+        <f>COUNTIF(B59:B81,"Ok")</f>
+        <v>1</v>
+      </c>
+      <c r="C83" s="5">
+        <f>COUNTIF(C59:C81,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="5">
+        <f>COUNTIF(D59:D81,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="5">
+        <f>COUNTIF(E59:E81,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" s="11">
+        <f>COUNTIF(B59:B81,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C84" s="11">
+        <f>COUNTIF(C59:C81,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="D84" s="11">
+        <f>COUNTIF(D59:D81,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
+        <f>COUNTIF(E59:E81,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="12">
+        <f>COUNTIF(B59:B81,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C85" s="12">
+        <f>COUNTIF(C59:C81,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="D85" s="12">
+        <f>COUNTIF(D59:D81,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="12">
+        <f>COUNTIF(E59:E81,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="2">
+        <f>COUNT(B59:B81,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C86" s="2">
+        <f>COUNT(C59:C81,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <f>COUNT(D59:D81,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <f>COUNT(E59:E81,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B87" s="2">
+        <f>B82+B85+B84+B86+B83</f>
+        <v>23</v>
+      </c>
+      <c r="C87" s="2">
+        <f>C82+C85+C84+C86+C83</f>
+        <v>23</v>
+      </c>
+      <c r="D87" s="2">
+        <f>D82+D85+D84+D86+D83</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <f>E82+E85+E84+E86+E83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="6">
+        <f>IF(B$87=0,0,(B$82+B$83)/B$87)</f>
+        <v>1</v>
+      </c>
+      <c r="C88" s="6">
+        <f>IF(C$87=0,0,(C$82+C$83)/C$87)</f>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="D88" s="6">
+        <f>IF(D$87=0,0,(D$82+D$83)/D$87)</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="6">
+        <f>IF(E$87=0,0,(E$82+E$83)/E$87)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D90" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E91" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E92" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E93" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E94" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E95" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E96" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E97" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="10">
+        <f>COUNTIF(B91:B97,"pass")</f>
+        <v>7</v>
+      </c>
+      <c r="C98" s="10">
+        <f>COUNTIF(C91:C97,"pass")</f>
+        <v>7</v>
+      </c>
+      <c r="D98" s="10">
+        <f>COUNTIF(D91:D97,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="10">
+        <f>COUNTIF(E91:E97,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B99" s="5">
+        <f>COUNTIF(B91:B97,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C99" s="5">
+        <f>COUNTIF(C91:C97,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D99" s="5">
+        <f>COUNTIF(D91:D97,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="5">
+        <f>COUNTIF(E91:E97,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B100" s="11">
+        <f>COUNTIF(B122:B155,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="C100" s="11">
+        <f>COUNTIF(C122:C155,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="D100" s="11">
+        <f>COUNTIF(D122:D155,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="11">
+        <f>COUNTIF(E122:E155,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="12">
+        <f>COUNTIF(B91:B97,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C101" s="12">
+        <f>COUNTIF(C91:C97,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D101" s="12">
+        <f>COUNTIF(D91:D97,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="12">
+        <f>COUNTIF(E91:E97,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B102" s="2">
+        <f>COUNT(B91:B97,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C102" s="2">
+        <f>COUNT(C91:C97,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="2">
+        <f>COUNT(D91:D97,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E102" s="2">
+        <f>COUNT(E91:E97,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B103" s="2">
+        <f>B98+B101+B100+B102+B99</f>
+        <v>8</v>
+      </c>
+      <c r="C103" s="2">
+        <f>C98+C101+C100+C102+C99</f>
+        <v>8</v>
+      </c>
+      <c r="D103" s="2">
+        <f>D98+D101+D100+D102+D99</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="2">
+        <f>E98+E101+E100+E102+E99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="6">
+        <f>IF(B$103=0, 0, (B$98+B$99)/B$103)</f>
+        <v>0.875</v>
+      </c>
+      <c r="C104" s="6">
+        <f>IF(C$103=0, 0, (C$98+C$99)/C$103)</f>
+        <v>0.875</v>
+      </c>
+      <c r="D104" s="6">
+        <f>IF(D$103=0, 0, (D$98+D$99)/D$103)</f>
+        <v>0</v>
+      </c>
+      <c r="E104" s="6">
+        <f>IF(E$103=0, 0, (E$98+E$99)/E$103)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="13"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B106" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D106" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="10">
+        <f>COUNTIF(B107:B126,"pass")</f>
+        <v>19</v>
+      </c>
+      <c r="C127" s="10">
+        <f>COUNTIF(C107:C126,"pass")</f>
+        <v>18</v>
+      </c>
+      <c r="D127" s="10">
+        <f>COUNTIF(D107:D126,"pass")</f>
+        <v>20</v>
+      </c>
+      <c r="E127" s="10">
+        <f>COUNTIF(E107:E126,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B128" s="5">
+        <f>COUNTIF(B107:B126,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C128" s="5">
+        <f>COUNTIF(C107:C126,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D128" s="5">
+        <f>COUNTIF(D107:D126,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E128" s="5">
+        <f>COUNTIF(E107:E126,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129" s="11">
+        <f>COUNTIF(B107:B126,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="C129" s="11">
+        <f>COUNTIF(C107:C126,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="D129" s="11">
+        <f>COUNTIF(D107:D126,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E129" s="11">
+        <f>COUNTIF(E107:E126,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" s="12">
+        <f>COUNTIF(B107:B126,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C130" s="12">
+        <f>COUNTIF(C107:C126,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="D130" s="12">
+        <f>COUNTIF(D107:D126,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E130" s="12">
+        <f>COUNTIF(E107:E126,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B131" s="2">
+        <f>COUNT(B107:B126,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C131" s="2">
+        <f>COUNT(C107:C126,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D131" s="2">
+        <f>COUNT(D107:D126,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E131" s="2">
+        <f>COUNT(E107:E126,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B132" s="2">
+        <f>B127+B130+B129+B131+B128</f>
+        <v>20</v>
+      </c>
+      <c r="C132" s="2">
+        <f>C127+C130+C129+C131+C128</f>
+        <v>20</v>
+      </c>
+      <c r="D132" s="2">
+        <f>D127+D130+D129+D131+D128</f>
+        <v>20</v>
+      </c>
+      <c r="E132" s="2">
+        <f>E127+E130+E129+E131+E128</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="6">
+        <f>IF(B$132=0, 0, (B$127+B$128)/B$132)</f>
+        <v>0.95</v>
+      </c>
+      <c r="C133" s="6">
+        <f>IF(C$132=0, 0, (C$127+C$128)/C$132)</f>
+        <v>0.9</v>
+      </c>
+      <c r="D133" s="6">
+        <f>IF(D$132=0, 0, (D$127+D$128)/D$132)</f>
+        <v>1</v>
+      </c>
+      <c r="E133" s="6">
+        <f>IF(E$132=0, 0, (E$127+E$128)/E$132)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="14"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D135" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="10">
+        <f>COUNTIF(B136:B148,"pass")</f>
+        <v>12</v>
+      </c>
+      <c r="C149" s="10">
+        <f>COUNTIF(C136:C148,"pass")</f>
+        <v>12</v>
+      </c>
+      <c r="D149" s="10">
+        <f>COUNTIF(D136:D148,"pass")</f>
+        <v>12</v>
+      </c>
+      <c r="E149" s="10">
+        <f>COUNTIF(E136:E148,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B150" s="5">
+        <f>COUNTIF(B136:B148,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C150" s="5">
+        <f>COUNTIF(C136:C148,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D150" s="5">
+        <f>COUNTIF(D136:D148,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E150" s="5">
+        <f>COUNTIF(E136:E148,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B151" s="11">
+        <f>COUNTIF(B136:B148,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C151" s="11">
+        <f>COUNTIF(C136:C148,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D151" s="11">
+        <f>COUNTIF(D136:D148,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E151" s="11">
+        <f>COUNTIF(E136:E148,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" s="12">
+        <f>COUNTIF(B136:B148,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="C152" s="12">
+        <f>COUNTIF(C136:C148,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="D152" s="12">
+        <f>COUNTIF(D136:D148,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="E152" s="12">
+        <f>COUNTIF(E136:E148,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B153" s="2">
+        <f>COUNT(B136:B148,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C153" s="2">
+        <f>COUNT(C136:C148,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D153" s="2">
+        <f>COUNT(D136:D148,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E153" s="2">
+        <f>COUNT(E136:E148,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B154" s="2">
+        <f>B149+B152+B151+B153+B150</f>
+        <v>13</v>
+      </c>
+      <c r="C154" s="2">
+        <f>C149+C152+C151+C153+C150</f>
+        <v>13</v>
+      </c>
+      <c r="D154" s="2">
+        <f>D149+D152+D151+D153+D150</f>
+        <v>13</v>
+      </c>
+      <c r="E154" s="2">
+        <f>E149+E152+E151+E153+E150</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" s="6">
+        <f>IF(B$154=0, 0, (B$149+B$150)/B$154)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="C155" s="6">
+        <f>IF(C$154=0, 0, (C$149+C$150)/C$154)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="D155" s="6">
+        <f>IF(D$154=0, 0, (D$149+D$150)/D$154)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="E155" s="6">
+        <f>IF(E$154=0, 0, (E$149+E$150)/E$154)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="13"/>
+      <c r="B156" s="16"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B157" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D157" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B183" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E187" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E188" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="B201" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E201" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" s="10">
+        <f>COUNTIF(B$158:B$201,"pass")</f>
+        <v>41</v>
+      </c>
+      <c r="C202" s="10">
+        <f>COUNTIF(C$158:C$201,"pass")</f>
+        <v>39</v>
+      </c>
+      <c r="D202" s="10">
+        <f>COUNTIF(D$158:D$201,"pass")</f>
+        <v>42</v>
+      </c>
+      <c r="E202" s="10">
+        <f>COUNTIF(E$158:E$201,"pass")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B203" s="5">
+        <f>COUNTIF(B$158:B$201,"Ok")</f>
+        <v>1</v>
+      </c>
+      <c r="C203" s="5">
+        <f>COUNTIF(C$158:C$201,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D203" s="5">
+        <f>COUNTIF(D$158:D$201,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E203" s="5">
+        <f>COUNTIF(E$158:E$201,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B204" s="11">
+        <f>COUNTIF(B$158:B$201,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C204" s="11">
+        <f>COUNTIF(C$158:C$201,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D204" s="11">
+        <f>COUNTIF(D$158:D$201,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E204" s="11">
+        <f>COUNTIF(E$158:E$201,"workaround")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" s="12">
+        <f>COUNTIF(B158:B201,"Fail")</f>
+        <v>2</v>
+      </c>
+      <c r="C205" s="12">
+        <f>COUNTIF(C158:C201,"Fail")</f>
+        <v>5</v>
+      </c>
+      <c r="D205" s="12">
+        <f>COUNTIF(D158:D201,"Fail")</f>
+        <v>2</v>
+      </c>
+      <c r="E205" s="12">
+        <f>COUNTIF(E158:E201,"Fail")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B206" s="2">
+        <f>COUNT(B$162:B$189,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C206" s="2">
+        <f>COUNT(C$162:C$189,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D206" s="2">
+        <f>COUNT(D$162:D$189,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E206" s="2">
+        <f>COUNT(E$162:E$189,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B207" s="2">
+        <f>B$202+B$205+B$204+B$206+B$203</f>
+        <v>44</v>
+      </c>
+      <c r="C207" s="2">
+        <f>C$202+C$205+C$204+C$206+C$203</f>
+        <v>44</v>
+      </c>
+      <c r="D207" s="2">
+        <f>D$202+D$205+D$204+D$206+D$203</f>
+        <v>44</v>
+      </c>
+      <c r="E207" s="2">
+        <f>E$202+E$205+E$204+E$206+E$203</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B208" s="6">
+        <f>IF(B$207=0, 0, (B$202+B$203)/B$207)</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="C208" s="6">
+        <f>IF(C$207=0, 0, (C$202+C$203)/C$207)</f>
+        <v>0.88636363636363635</v>
+      </c>
+      <c r="D208" s="6">
+        <f>IF(D$207=0, 0, (D$202+D$203)/D$207)</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="E208" s="6">
+        <f>IF(E$207=0, 0, (E$202+E$203)/E$207)</f>
+        <v>0.68181818181818177</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="15"/>
+      <c r="B209" s="15"/>
+      <c r="C209" s="15"/>
+      <c r="D209" s="15"/>
+      <c r="E209" s="15"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B210" s="15"/>
+      <c r="C210" s="15"/>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B213" s="2"/>
+      <c r="C213" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B214" s="2"/>
+      <c r="C214" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B215" s="2"/>
+      <c r="C215" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B217" s="2"/>
+      <c r="C217" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B220" s="2"/>
+      <c r="C220" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B222" s="2"/>
+      <c r="C222" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B223" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223" s="15"/>
+      <c r="D223" s="15"/>
+      <c r="E223" s="15"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224" s="10">
+        <f>COUNTIF(B211:B223,"pass")</f>
+        <v>7</v>
+      </c>
+      <c r="C224" s="10">
+        <f>COUNTIF(C211:C223,"pass")</f>
+        <v>8</v>
+      </c>
+      <c r="D224" s="10">
+        <f>COUNTIF(D211:D223,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="E224" s="10">
+        <f>COUNTIF(E211:E223,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B225" s="5">
+        <f>COUNTIF(B211:B223,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C225" s="5">
+        <f>COUNTIF(C211:C223,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D225" s="5">
+        <f>COUNTIF(D211:D223,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E225" s="5">
+        <f>COUNTIF(E211:E223,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B226" s="11">
+        <f>COUNTIF(B211:B223,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C226" s="11">
+        <f>COUNTIF(C211:C223,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D226" s="11">
+        <f>COUNTIF(D211:D223,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E226" s="11">
+        <f>COUNTIF(E211:E223,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B227" s="12">
+        <f>COUNTIF(B211:B223,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C227" s="12">
+        <f>COUNTIF(C211:C223,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D227" s="12">
+        <f>COUNTIF(D211:D223,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E227" s="12">
+        <f>COUNTIF(E211:E223,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B228" s="2">
+        <f>COUNT(B211:B223,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C228" s="2">
+        <f>COUNT(C211:C223,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D228" s="2">
+        <f>COUNT(D211:D223,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E228" s="2">
+        <f>COUNT(E211:E223,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B229" s="2">
+        <f>B224+B227+B226+B228+B225</f>
+        <v>7</v>
+      </c>
+      <c r="C229" s="2">
+        <f>C224+C227+C226+C228+C225</f>
+        <v>8</v>
+      </c>
+      <c r="D229" s="2">
+        <f>D224+D227+D226+D228+D225</f>
+        <v>0</v>
+      </c>
+      <c r="E229" s="2">
+        <f>E224+E227+E226+E228+E225</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230" s="6">
+        <f>IF(B$229=0, 0, (B$224+B$225)/B$229)</f>
+        <v>1</v>
+      </c>
+      <c r="C230" s="6">
+        <f>IF(C$229=0, 0, (C$224+C$225)/C$229)</f>
+        <v>1</v>
+      </c>
+      <c r="D230" s="6">
+        <f>IF(D$229=0, 0, (D$224+D$225)/D$229)</f>
+        <v>0</v>
+      </c>
+      <c r="E230" s="6">
+        <f>IF(E$229=0, 0, (E$224+E$225)/E$229)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="13"/>
+      <c r="B231" s="13"/>
+      <c r="C231" s="13"/>
+      <c r="D231" s="13"/>
+      <c r="E231" s="13"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" s="15"/>
+      <c r="C232" s="15"/>
+      <c r="D232" s="15"/>
+      <c r="E232" s="15"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B233" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233" s="28"/>
+      <c r="D233" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E233" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" s="10">
+        <f>COUNTIF(B233,"pass")</f>
+        <v>1</v>
+      </c>
+      <c r="C234" s="10">
+        <f>COUNTIF(C233,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="D234" s="10">
+        <f>COUNTIF(D233,"pass")</f>
+        <v>1</v>
+      </c>
+      <c r="E234" s="10">
+        <f>COUNTIF(E233,"pass")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B235" s="5">
+        <f>COUNTIF(B233,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C235" s="5">
+        <f>COUNTIF(C233,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D235" s="5">
+        <f>COUNTIF(D233,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E235" s="5">
+        <f>COUNTIF(E233,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B236" s="11">
+        <f>COUNTIF(B233,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C236" s="11">
+        <f>COUNTIF(C233,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D236" s="11">
+        <f>COUNTIF(D233,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E236" s="11">
+        <f>COUNTIF(E233,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237" s="12">
+        <f>COUNTIF(B233,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C237" s="12">
+        <f>COUNTIF(C233,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D237" s="12">
+        <f>COUNTIF(D233,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E237" s="12">
+        <f>COUNTIF(E233,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B238" s="2">
+        <f>COUNT(B233,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C238" s="2">
+        <f>COUNT(C233,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D238" s="2">
+        <f>COUNT(D233,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E238" s="2">
+        <f>COUNT(E233,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B239" s="2">
+        <f>B234+B237+B236+B238+B235</f>
+        <v>1</v>
+      </c>
+      <c r="C239" s="2">
+        <f>C234+C237+C236+C238+C235</f>
+        <v>0</v>
+      </c>
+      <c r="D239" s="2">
+        <f>D234+D237+D236+D238+D235</f>
+        <v>1</v>
+      </c>
+      <c r="E239" s="2">
+        <f>E234+E237+E236+E238+E235</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B240" s="6">
+        <f>IF(B$239=0, 0, (B$234+B$235)/B$239)</f>
+        <v>1</v>
+      </c>
+      <c r="C240" s="6">
+        <f>IF(C$239=0, 0, (C$234+C$235)/C$239)</f>
+        <v>0</v>
+      </c>
+      <c r="D240" s="6">
+        <f>IF(D$239=0, 0, (D$234+D$235)/D$239)</f>
+        <v>1</v>
+      </c>
+      <c r="E240" s="6">
+        <f>IF(E$239=0, 0, (E$234+E$235)/E$239)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+    </row>
+    <row r="242" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="20"/>
+      <c r="C242" s="20"/>
+      <c r="D242" s="20"/>
+      <c r="E242" s="20"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="2"/>
+      <c r="B243" s="20"/>
+      <c r="C243" s="20"/>
+      <c r="D243" s="20"/>
+      <c r="E243" s="20"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://www.g-truc.net"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E244"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -5502,22 +10573,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -9482,7 +14553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G248"/>
   <sheetViews>
@@ -9502,26 +14573,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -9536,18 +14607,18 @@
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="44"/>
+      <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -14829,7 +19900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G231"/>
   <sheetViews>
@@ -14849,26 +19920,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -14883,18 +19954,18 @@
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="44" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="44"/>
+      <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -19535,7 +24606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E197"/>
   <sheetViews>
@@ -19555,14 +24626,14 @@
       <c r="A1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="46"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/doc/OpenGL status.xlsx
+++ b/doc/OpenGL status.xlsx
@@ -7,17 +7,644 @@
     <workbookView xWindow="45" yWindow="-60" windowWidth="13230" windowHeight="15270"/>
   </bookViews>
   <sheets>
-    <sheet name="2013-03" sheetId="6" r:id="rId1"/>
-    <sheet name="2013-02" sheetId="5" r:id="rId2"/>
-    <sheet name="2013-01" sheetId="4" r:id="rId3"/>
-    <sheet name="2012-12" sheetId="3" r:id="rId4"/>
-    <sheet name="2012-11" sheetId="1" r:id="rId5"/>
+    <sheet name="2013-04" sheetId="7" r:id="rId1"/>
+    <sheet name="2013-03" sheetId="6" r:id="rId2"/>
+    <sheet name="2013-02" sheetId="5" r:id="rId3"/>
+    <sheet name="2013-01" sheetId="4" r:id="rId4"/>
+    <sheet name="2012-12" sheetId="3" r:id="rId5"/>
+    <sheet name="2012-11" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Groove</author>
+  </authors>
+  <commentList>
+    <comment ref="B37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Object labels not used in the debug output log.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Generate a Syntax error: "layout" parse error</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The rendering is not correct. Normalization issue?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B69" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Structure for vertex inputs supported</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C76" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">BPTC online conversions is not/won't be supported
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C80" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Allows an implicit cast on texture coordinates parameter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C118" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Crash
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B125" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EXT_transform_feedback extension string missing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B126" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">layout(triangles) in; declaration is required by the specification but the implementation doesn't requires it.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C126" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">layout(triangles) in; declaration is required by the specification but the implementation doesn't requires it.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D137" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fixed with the new drivers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B138" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Doesn't support GL_INT_2_10_10_10_REV correctly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C138" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Doesn't support GL_INT_2_10_10_10_REV correctly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D138" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Doesn't support GL_INT_2_10_10_10_REV correctly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C158" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fixed in this drivers</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D158" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">The implementation is confusing block name and instance name when enumerating uniforms
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E159" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E160" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D161" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">The depth test can't be enable
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E161" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">The depth test can't be enable
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E164" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E167" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Clearing a FBO failed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C168" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Generates a GL_FRAMEBUFFER_INCOMPLETE_DRAW_BUFFER error
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C169" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Generates a GL_FRAMEBUFFER_INCOMPLETE_DRAW_BUFFER error
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D169" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Fixed with this new driver</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E170" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E171" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Blit of integer multisample texture with even a single sample per texel doesn't work.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Blit of integer multisample texture with even a single sample per texel doesn't work.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E173" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Render a black screen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E174" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E175" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E177" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Clearing a FBO bigger than the window dimentions generate unclear bands</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B183" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pop free clipping</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C185" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">glClearBufferfv is always performed, even is the condition fails.
+OpenGL 4.3 - 10.10 Conditional Rendering:
+all drawing commands (see section 10.5), as well as Clear and ClearBuffer* (see section 17.4.3), and compute dispatch through DispatchCompute*
+(see section 19), have no effect.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E187" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E188" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B195" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EXT_texture_snorm string missing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E196" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>"The internal format of the texture arrays is integer (see table 3.12), and either the magniﬁcation ﬁlter is not NEAREST, or the miniﬁcation ﬁlter is neither NEAREST nor NEAREST_MIPMAP_NEAREST."
+Other implementation doesn't have this requirement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E200" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C212" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GL_NV_gpu_shader5 not supported</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D212" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GL_NV_gpu_shader5 not supported</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E212" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>GL_NV_gpu_shader5 not supported</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Groove</author>
@@ -630,7 +1257,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Groove</author>
@@ -1286,7 +1913,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Groove</author>
@@ -1917,7 +2544,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Groove</author>
@@ -2576,7 +3203,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Groove</author>
@@ -3001,7 +3628,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4714" uniqueCount="331">
   <si>
     <t>gl-430-texture-view</t>
   </si>
@@ -3980,6 +4607,21 @@
   <si>
     <t>NVIDIA 314.21 beta</t>
   </si>
+  <si>
+    <t>NVIDIA 320.00 beta</t>
+  </si>
+  <si>
+    <t>320.00 beta</t>
+  </si>
+  <si>
+    <t>13.4</t>
+  </si>
+  <si>
+    <t>AMD 13.4</t>
+  </si>
+  <si>
+    <t>OpenGL Status - April 2013</t>
+  </si>
 </sst>
 </file>
 
@@ -4170,7 +4812,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -4256,6 +4898,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4306,6 +4957,395 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2013-04'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NVIDIA 320.00 beta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2013-04'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3 support</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2 support</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1 support</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0 support</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3 support</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenGL 3.2 support</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2013-04'!$B$10:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.9285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92307692307692313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97727272727272729</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2013-04'!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AMD 13.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2013-04'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3 support</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2 support</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1 support</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0 support</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3 support</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenGL 3.2 support</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2013-04'!$C$10:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92307692307692313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90909090909090906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2013-04'!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel 9.18.10.3006</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2013-04'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3 support</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2 support</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1 support</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0 support</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3 support</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenGL 3.2 support</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2013-04'!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92307692307692313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95454545454545459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2013-04'!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MacOS X 10.8.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2013-04'!$A$10:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>OpenGL 4.3 support</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OpenGL 4.2 support</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OpenGL 4.1 support</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OpenGL 4.0 support</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>OpenGL 3.3 support</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OpenGL 3.2 support</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2013-04'!$E$10:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68181818181818177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="97577216"/>
+        <c:axId val="99745792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="97577216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99745792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99745792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97577216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -4639,11 +5679,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="38730752"/>
-        <c:axId val="38861440"/>
+        <c:axId val="99993856"/>
+        <c:axId val="99999744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38730752"/>
+        <c:axId val="99993856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4652,7 +5692,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38861440"/>
+        <c:crossAx val="99999744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4660,7 +5700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38861440"/>
+        <c:axId val="99999744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4672,14 +5712,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38730752"/>
+        <c:crossAx val="99993856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4694,7 +5733,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -5028,11 +6067,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="40925440"/>
-        <c:axId val="41361408"/>
+        <c:axId val="99932416"/>
+        <c:axId val="101515264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="40925440"/>
+        <c:axId val="99932416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5041,7 +6080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41361408"/>
+        <c:crossAx val="101515264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5049,7 +6088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41361408"/>
+        <c:axId val="101515264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5061,7 +6100,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40925440"/>
+        <c:crossAx val="99932416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5082,7 +6121,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -5568,11 +6607,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="154161152"/>
-        <c:axId val="154173824"/>
+        <c:axId val="101752832"/>
+        <c:axId val="101754368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154161152"/>
+        <c:axId val="101752832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5581,7 +6620,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154173824"/>
+        <c:crossAx val="101754368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5589,7 +6628,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154173824"/>
+        <c:axId val="101754368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5601,7 +6640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154161152"/>
+        <c:crossAx val="101752832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5622,7 +6661,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -6072,11 +7111,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159900416"/>
-        <c:axId val="159901952"/>
+        <c:axId val="102233600"/>
+        <c:axId val="102235136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159900416"/>
+        <c:axId val="102233600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6085,7 +7124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159901952"/>
+        <c:crossAx val="102235136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6093,7 +7132,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159901952"/>
+        <c:axId val="102235136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6105,7 +7144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159900416"/>
+        <c:crossAx val="102233600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6168,6 +7207,43 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>138111</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>404811</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
@@ -6198,7 +7274,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6235,7 +7311,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6559,8 +7635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="E189" sqref="E189"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6574,22 +7650,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
-        <v>318</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="A1" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -6602,13 +7678,13 @@
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="44" t="s">
         <v>190</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -6620,10 +7696,10 @@
         <v>149</v>
       </c>
       <c r="B5" s="17">
-        <v>41349</v>
+        <v>41387</v>
       </c>
       <c r="C5" s="17">
-        <v>41347</v>
+        <v>41388</v>
       </c>
       <c r="D5" s="39">
         <v>41353</v>
@@ -6637,12 +7713,12 @@
         <v>148</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D6" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" s="45" t="s">
         <v>322</v>
       </c>
       <c r="E6" s="23" t="s">
@@ -6678,10 +7754,10 @@
         <v>161</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>321</v>
@@ -6700,7 +7776,7 @@
       </c>
       <c r="C10" s="20">
         <f>IF(C$55=0, 0,(C$50+C$51)/C$55)</f>
-        <v>0.14285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="D10" s="20">
         <f>IF(D$55=0, 0,(D$50+D$51)/D$55)</f>
@@ -6801,11 +7877,11 @@
       </c>
       <c r="B15" s="25">
         <f>IF(B$207=0, 0, (B$202+B$203)/B$207)</f>
-        <v>0.95454545454545459</v>
+        <v>0.97727272727272729</v>
       </c>
       <c r="C15" s="25">
         <f>IF(C$207=0, 0, (C$202+C$203)/C$207)</f>
-        <v>0.88636363636363635</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="D15" s="25">
         <f>IF(D$207=0, 0, (D$202+D$203)/D$207)</f>
@@ -6951,13 +8027,13 @@
       <c r="A35" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="44" t="s">
         <v>190</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -6971,13 +8047,13 @@
       <c r="B36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E36" s="42" t="s">
+      <c r="C36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6988,13 +8064,13 @@
       <c r="B37" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E37" s="42" t="s">
+      <c r="C37" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7005,13 +8081,13 @@
       <c r="B38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E38" s="42" t="s">
+      <c r="C38" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7022,13 +8098,13 @@
       <c r="B39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="D39" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E39" s="42" t="s">
+      <c r="C39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7039,13 +8115,13 @@
       <c r="B40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E40" s="42" t="s">
+      <c r="C40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7056,13 +8132,13 @@
       <c r="B41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E41" s="42" t="s">
+      <c r="C41" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7076,10 +8152,10 @@
       <c r="C42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E42" s="42" t="s">
+      <c r="D42" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7090,13 +8166,13 @@
       <c r="B43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="D43" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E43" s="42" t="s">
+      <c r="C43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7107,13 +8183,13 @@
       <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="D44" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E44" s="42" t="s">
+      <c r="C44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7124,13 +8200,13 @@
       <c r="B45" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="D45" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E45" s="42" t="s">
+      <c r="C45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7144,10 +8220,10 @@
       <c r="C46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E46" s="42" t="s">
+      <c r="D46" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7158,13 +8234,13 @@
       <c r="B47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="D47" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E47" s="42" t="s">
+      <c r="C47" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7175,13 +8251,13 @@
       <c r="B48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="D48" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E48" s="42" t="s">
+      <c r="C48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7212,7 +8288,7 @@
       </c>
       <c r="C50" s="10">
         <f>COUNTIF(C36:C49,"pass")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D50" s="10">
         <f>COUNTIF(D36:D49,"pass")</f>
@@ -7275,7 +8351,7 @@
       </c>
       <c r="C53" s="12">
         <f>COUNTIF(C36:C49,"Fail")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D53" s="12">
         <f>COUNTIF(D36:D49,"Fail")</f>
@@ -7296,7 +8372,7 @@
       </c>
       <c r="C54" s="2">
         <f>COUNTIF(C36:C49,"unsupported")</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D54" s="2">
         <f>COUNT(D36:D49,"Untested")</f>
@@ -7338,7 +8414,7 @@
       </c>
       <c r="C56" s="6">
         <f>IF(C$55=0, 0,(C$50+C$51)/C$55)</f>
-        <v>0.14285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="D56" s="6">
         <f>IF(D$55=0, 0,(D$50+D$51)/D$55)</f>
@@ -7360,13 +8436,13 @@
       <c r="A58" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="41" t="s">
+      <c r="C58" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="D58" s="41" t="s">
+      <c r="D58" s="44" t="s">
         <v>190</v>
       </c>
       <c r="E58" s="3" t="s">
@@ -7383,10 +8459,10 @@
       <c r="C59" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E59" s="42" t="s">
+      <c r="D59" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7400,10 +8476,10 @@
       <c r="C60" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E60" s="42" t="s">
+      <c r="D60" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7417,10 +8493,10 @@
       <c r="C61" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E61" s="42" t="s">
+      <c r="D61" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7434,10 +8510,10 @@
       <c r="C62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E62" s="42" t="s">
+      <c r="D62" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7451,10 +8527,10 @@
       <c r="C63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E63" s="42" t="s">
+      <c r="D63" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7468,10 +8544,10 @@
       <c r="C64" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E64" s="42" t="s">
+      <c r="D64" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E64" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7485,10 +8561,10 @@
       <c r="C65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E65" s="42" t="s">
+      <c r="D65" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7502,10 +8578,10 @@
       <c r="C66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E66" s="42" t="s">
+      <c r="D66" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7519,10 +8595,10 @@
       <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E67" s="42" t="s">
+      <c r="D67" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E67" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7536,10 +8612,10 @@
       <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E68" s="42" t="s">
+      <c r="D68" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7553,10 +8629,10 @@
       <c r="C69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E69" s="42" t="s">
+      <c r="D69" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7570,10 +8646,10 @@
       <c r="C70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E70" s="42" t="s">
+      <c r="D70" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E70" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7587,10 +8663,10 @@
       <c r="C71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E71" s="42" t="s">
+      <c r="D71" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7604,10 +8680,10 @@
       <c r="C72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E72" s="42" t="s">
+      <c r="D72" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7621,10 +8697,10 @@
       <c r="C73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E73" s="42" t="s">
+      <c r="D73" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7638,10 +8714,10 @@
       <c r="C74" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E74" s="42" t="s">
+      <c r="D74" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E74" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7655,10 +8731,10 @@
       <c r="C75" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E75" s="42" t="s">
+      <c r="D75" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7672,10 +8748,10 @@
       <c r="C76" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D76" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E76" s="42" t="s">
+      <c r="D76" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E76" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7689,10 +8765,10 @@
       <c r="C77" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E77" s="42" t="s">
+      <c r="D77" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E77" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7706,10 +8782,10 @@
       <c r="C78" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E78" s="42" t="s">
+      <c r="D78" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7723,10 +8799,10 @@
       <c r="C79" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E79" s="42" t="s">
+      <c r="D79" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E79" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7740,10 +8816,10 @@
       <c r="C80" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D80" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E80" s="42" t="s">
+      <c r="D80" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E80" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7922,13 +8998,13 @@
       <c r="A90" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B90" s="40" t="s">
+      <c r="B90" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="41" t="s">
+      <c r="C90" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="D90" s="41" t="s">
+      <c r="D90" s="44" t="s">
         <v>190</v>
       </c>
       <c r="E90" s="3" t="s">
@@ -7945,10 +9021,10 @@
       <c r="C91" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D91" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E91" s="42" t="s">
+      <c r="D91" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E91" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7962,10 +9038,10 @@
       <c r="C92" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E92" s="42" t="s">
+      <c r="D92" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E92" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7979,10 +9055,10 @@
       <c r="C93" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E93" s="42" t="s">
+      <c r="D93" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E93" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7996,10 +9072,10 @@
       <c r="C94" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E94" s="42" t="s">
+      <c r="D94" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E94" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8013,10 +9089,10 @@
       <c r="C95" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E95" s="42" t="s">
+      <c r="D95" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E95" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8030,10 +9106,10 @@
       <c r="C96" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="E96" s="42" t="s">
+      <c r="D96" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E96" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8212,13 +9288,13 @@
       <c r="A106" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B106" s="40" t="s">
+      <c r="B106" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C106" s="41" t="s">
+      <c r="C106" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="D106" s="41" t="s">
+      <c r="D106" s="44" t="s">
         <v>190</v>
       </c>
       <c r="E106" s="3" t="s">
@@ -8238,7 +9314,7 @@
       <c r="D107" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E107" s="42" t="s">
+      <c r="E107" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8255,7 +9331,7 @@
       <c r="D108" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E108" s="42" t="s">
+      <c r="E108" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8272,7 +9348,7 @@
       <c r="D109" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E109" s="42" t="s">
+      <c r="E109" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8289,7 +9365,7 @@
       <c r="D110" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E110" s="42" t="s">
+      <c r="E110" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8306,7 +9382,7 @@
       <c r="D111" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E111" s="42" t="s">
+      <c r="E111" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8323,7 +9399,7 @@
       <c r="D112" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E112" s="42" t="s">
+      <c r="E112" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8340,7 +9416,7 @@
       <c r="D113" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E113" s="42" t="s">
+      <c r="E113" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8357,7 +9433,7 @@
       <c r="D114" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="42" t="s">
+      <c r="E114" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8374,7 +9450,7 @@
       <c r="D115" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="42" t="s">
+      <c r="E115" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8391,7 +9467,7 @@
       <c r="D116" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E116" s="42" t="s">
+      <c r="E116" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8408,7 +9484,7 @@
       <c r="D117" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E117" s="42" t="s">
+      <c r="E117" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8425,7 +9501,7 @@
       <c r="D118" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E118" s="42" t="s">
+      <c r="E118" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8442,7 +9518,7 @@
       <c r="D119" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E119" s="42" t="s">
+      <c r="E119" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8459,7 +9535,7 @@
       <c r="D120" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E120" s="42" t="s">
+      <c r="E120" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8476,7 +9552,7 @@
       <c r="D121" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E121" s="42" t="s">
+      <c r="E121" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8493,7 +9569,7 @@
       <c r="D122" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E122" s="42" t="s">
+      <c r="E122" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8510,7 +9586,7 @@
       <c r="D123" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E123" s="42" t="s">
+      <c r="E123" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8527,7 +9603,7 @@
       <c r="D124" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E124" s="42" t="s">
+      <c r="E124" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8544,7 +9620,7 @@
       <c r="D125" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E125" s="42" t="s">
+      <c r="E125" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8723,13 +9799,13 @@
       <c r="A135" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B135" s="40" t="s">
+      <c r="B135" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C135" s="41" t="s">
+      <c r="C135" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="D135" s="41" t="s">
+      <c r="D135" s="44" t="s">
         <v>190</v>
       </c>
       <c r="E135" s="3" t="s">
@@ -8749,7 +9825,7 @@
       <c r="D136" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E136" s="42" t="s">
+      <c r="E136" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8766,7 +9842,7 @@
       <c r="D137" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E137" s="42" t="s">
+      <c r="E137" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8783,7 +9859,7 @@
       <c r="D138" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E138" s="42" t="s">
+      <c r="E138" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8800,7 +9876,7 @@
       <c r="D139" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E139" s="42" t="s">
+      <c r="E139" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8817,7 +9893,7 @@
       <c r="D140" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E140" s="42" t="s">
+      <c r="E140" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8834,7 +9910,7 @@
       <c r="D141" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E141" s="42" t="s">
+      <c r="E141" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8851,7 +9927,7 @@
       <c r="D142" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E142" s="42" t="s">
+      <c r="E142" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8868,7 +9944,7 @@
       <c r="D143" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E143" s="42" t="s">
+      <c r="E143" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8885,7 +9961,7 @@
       <c r="D144" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E144" s="42" t="s">
+      <c r="E144" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8902,7 +9978,7 @@
       <c r="D145" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E145" s="42" t="s">
+      <c r="E145" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8919,7 +9995,7 @@
       <c r="D146" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E146" s="42" t="s">
+      <c r="E146" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8936,7 +10012,7 @@
       <c r="D147" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E147" s="42" t="s">
+      <c r="E147" s="45" t="s">
         <v>177</v>
       </c>
     </row>
@@ -9115,13 +10191,13 @@
       <c r="A157" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B157" s="40" t="s">
+      <c r="B157" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C157" s="41" t="s">
+      <c r="C157" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="D157" s="41" t="s">
+      <c r="D157" s="44" t="s">
         <v>190</v>
       </c>
       <c r="E157" s="3" t="s">
@@ -9135,8 +10211,8 @@
       <c r="B158" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C158" s="8" t="s">
-        <v>7</v>
+      <c r="C158" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>7</v>
@@ -9506,8 +10582,8 @@
       <c r="A180" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="B180" s="8" t="s">
-        <v>7</v>
+      <c r="B180" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>6</v>
@@ -9882,11 +10958,11 @@
       </c>
       <c r="B202" s="10">
         <f>COUNTIF(B$158:B$201,"pass")</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C202" s="10">
         <f>COUNTIF(C$158:C$201,"pass")</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D202" s="10">
         <f>COUNTIF(D$158:D$201,"pass")</f>
@@ -9945,11 +11021,11 @@
       </c>
       <c r="B205" s="12">
         <f>COUNTIF(B158:B201,"Fail")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C205" s="12">
         <f>COUNTIF(C158:C201,"Fail")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D205" s="12">
         <f>COUNTIF(D158:D201,"Fail")</f>
@@ -10008,11 +11084,11 @@
       </c>
       <c r="B208" s="6">
         <f>IF(B$207=0, 0, (B$202+B$203)/B$207)</f>
-        <v>0.95454545454545459</v>
+        <v>0.97727272727272729</v>
       </c>
       <c r="C208" s="6">
         <f>IF(C$207=0, 0, (C$202+C$203)/C$207)</f>
-        <v>0.88636363636363635</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="D208" s="6">
         <f>IF(D$207=0, 0, (D$202+D$203)/D$207)</f>
@@ -10558,6 +11634,4005 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E244"/>
   <sheetViews>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="E189" sqref="E189"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="17">
+        <v>41349</v>
+      </c>
+      <c r="C5" s="17">
+        <v>41347</v>
+      </c>
+      <c r="D5" s="39">
+        <v>41353</v>
+      </c>
+      <c r="E5" s="17">
+        <v>41347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="20">
+        <f>IF(B$55=0, 0,(B$50+B$51)/B$55)</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="C10" s="20">
+        <f>IF(C$55=0, 0,(C$50+C$51)/C$55)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D10" s="20">
+        <f>IF(D$55=0, 0,(D$50+D$51)/D$55)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="20">
+        <f>IF(E$55=0, 0,(E$50+E$51)/E$55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="20">
+        <f>IF(B$87=0,0,(B$82+B$83)/B$87)</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="20">
+        <f>IF(C$87=0,0,(C$82+C$83)/C$87)</f>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="D11" s="20">
+        <f>IF(D$87=0,0,(D$82+D$83)/D$87)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="20">
+        <f>IF(E$87=0,0,(E$82+E$83)/E$87)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="20">
+        <f>IF(B$103=0, 0, (B$98+B$99)/B$103)</f>
+        <v>0.875</v>
+      </c>
+      <c r="C12" s="20">
+        <f>IF(C$103=0, 0, (C$98+C$99)/C$103)</f>
+        <v>0.875</v>
+      </c>
+      <c r="D12" s="20">
+        <f>IF(D$103=0, 0, (D$98+D$99)/D$103)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="20">
+        <f>IF(E$103=0, 0, (E$98+E$99)/E$103)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="20">
+        <f>IF(B$132=0, 0, (B$127+B$128)/B$132)</f>
+        <v>0.95</v>
+      </c>
+      <c r="C13" s="20">
+        <f>IF(C$132=0, 0, (C$127+C$128)/C$132)</f>
+        <v>0.9</v>
+      </c>
+      <c r="D13" s="20">
+        <f>IF(D$132=0, 0, (D$127+D$128)/D$132)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="20">
+        <f>IF(E$132=0, 0, (E$127+E$128)/E$132)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="20">
+        <f>IF(B$154=0, 0, (B$149+B$150)/B$154)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="C14" s="20">
+        <f>IF(C$154=0, 0, (C$149+C$150)/C$154)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="D14" s="20">
+        <f>IF(D$154=0, 0, (D$149+D$150)/D$154)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="E14" s="20">
+        <f>IF(E$154=0, 0, (E$149+E$150)/E$154)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="25">
+        <f>IF(B$207=0, 0, (B$202+B$203)/B$207)</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="C15" s="25">
+        <f>IF(C$207=0, 0, (C$202+C$203)/C$207)</f>
+        <v>0.88636363636363635</v>
+      </c>
+      <c r="D15" s="25">
+        <f>IF(D$207=0, 0, (D$202+D$203)/D$207)</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="E15" s="25">
+        <f>IF(E$207=0, 0, (E$202+E$203)/E$207)</f>
+        <v>0.68181818181818177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="10">
+        <f>COUNTIF(B36:B49,"pass")</f>
+        <v>13</v>
+      </c>
+      <c r="C50" s="10">
+        <f>COUNTIF(C36:C49,"pass")</f>
+        <v>2</v>
+      </c>
+      <c r="D50" s="10">
+        <f>COUNTIF(D36:D49,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="10">
+        <f>COUNTIF(E36:E49,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="5">
+        <f>COUNTIF(B36:B49,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="5">
+        <f>COUNTIF(C36:C49,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="5">
+        <f>COUNTIF(D36:D49,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <f>COUNTIF(E36:E49,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="11">
+        <f>COUNTIF(B36:B49,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="C52" s="11">
+        <f>COUNTIF(C36:C49,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="11">
+        <f>COUNTIF(D36:D49,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
+        <f>COUNTIF(E36:E49,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="12">
+        <f>COUNTIF(B36:B49,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="12">
+        <f>COUNTIF(C36:C49,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="12">
+        <f>COUNTIF(D36:D49,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="12">
+        <f>COUNTIF(E36:E49,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" s="2">
+        <f>COUNT(B36:B49,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="2">
+        <f>COUNTIF(C36:C49,"unsupported")</f>
+        <v>12</v>
+      </c>
+      <c r="D54" s="2">
+        <f>COUNT(D36:D49,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
+        <f>COUNT(E36:E49,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="2">
+        <f>B50+B53+B52+B54+B51</f>
+        <v>14</v>
+      </c>
+      <c r="C55" s="2">
+        <f>C50+C53+C52+C54+C51</f>
+        <v>14</v>
+      </c>
+      <c r="D55" s="2">
+        <f>D50+D53+D52+D54+D51</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <f>E50+E53+E52+E54+E51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="6">
+        <f>IF(B$55=0, 0,(B$50+B$51)/B$55)</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="C56" s="6">
+        <f>IF(C$55=0, 0,(C$50+C$51)/C$55)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D56" s="6">
+        <f>IF(D$55=0, 0,(D$50+D$51)/D$55)</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <f>IF(E$55=0, 0,(E$50+E$51)/E$55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E64" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E67" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E68" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E70" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E74" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E76" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E77" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E78" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E79" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E80" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="10">
+        <f>COUNTIF(B59:B81,"pass")</f>
+        <v>22</v>
+      </c>
+      <c r="C82" s="10">
+        <f>COUNTIF(C59:C81,"pass")</f>
+        <v>21</v>
+      </c>
+      <c r="D82" s="10">
+        <f>COUNTIF(D59:D81,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="10">
+        <f>COUNTIF(E59:E81,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" s="5">
+        <f>COUNTIF(B59:B81,"Ok")</f>
+        <v>1</v>
+      </c>
+      <c r="C83" s="5">
+        <f>COUNTIF(C59:C81,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D83" s="5">
+        <f>COUNTIF(D59:D81,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="5">
+        <f>COUNTIF(E59:E81,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B84" s="11">
+        <f>COUNTIF(B59:B81,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C84" s="11">
+        <f>COUNTIF(C59:C81,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="D84" s="11">
+        <f>COUNTIF(D59:D81,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
+        <f>COUNTIF(E59:E81,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="12">
+        <f>COUNTIF(B59:B81,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C85" s="12">
+        <f>COUNTIF(C59:C81,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="D85" s="12">
+        <f>COUNTIF(D59:D81,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="12">
+        <f>COUNTIF(E59:E81,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="2">
+        <f>COUNT(B59:B81,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C86" s="2">
+        <f>COUNT(C59:C81,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <f>COUNT(D59:D81,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <f>COUNT(E59:E81,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B87" s="2">
+        <f>B82+B85+B84+B86+B83</f>
+        <v>23</v>
+      </c>
+      <c r="C87" s="2">
+        <f>C82+C85+C84+C86+C83</f>
+        <v>23</v>
+      </c>
+      <c r="D87" s="2">
+        <f>D82+D85+D84+D86+D83</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <f>E82+E85+E84+E86+E83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="6">
+        <f>IF(B$87=0,0,(B$82+B$83)/B$87)</f>
+        <v>1</v>
+      </c>
+      <c r="C88" s="6">
+        <f>IF(C$87=0,0,(C$82+C$83)/C$87)</f>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="D88" s="6">
+        <f>IF(D$87=0,0,(D$82+D$83)/D$87)</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="6">
+        <f>IF(E$87=0,0,(E$82+E$83)/E$87)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B90" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D90" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E91" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E92" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E93" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E94" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E95" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="E96" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E97" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="10">
+        <f>COUNTIF(B91:B97,"pass")</f>
+        <v>7</v>
+      </c>
+      <c r="C98" s="10">
+        <f>COUNTIF(C91:C97,"pass")</f>
+        <v>7</v>
+      </c>
+      <c r="D98" s="10">
+        <f>COUNTIF(D91:D97,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="10">
+        <f>COUNTIF(E91:E97,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B99" s="5">
+        <f>COUNTIF(B91:B97,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C99" s="5">
+        <f>COUNTIF(C91:C97,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D99" s="5">
+        <f>COUNTIF(D91:D97,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="5">
+        <f>COUNTIF(E91:E97,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B100" s="11">
+        <f>COUNTIF(B122:B155,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="C100" s="11">
+        <f>COUNTIF(C122:C155,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="D100" s="11">
+        <f>COUNTIF(D122:D155,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="11">
+        <f>COUNTIF(E122:E155,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="12">
+        <f>COUNTIF(B91:B97,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C101" s="12">
+        <f>COUNTIF(C91:C97,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D101" s="12">
+        <f>COUNTIF(D91:D97,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="12">
+        <f>COUNTIF(E91:E97,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B102" s="2">
+        <f>COUNT(B91:B97,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C102" s="2">
+        <f>COUNT(C91:C97,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="2">
+        <f>COUNT(D91:D97,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E102" s="2">
+        <f>COUNT(E91:E97,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B103" s="2">
+        <f>B98+B101+B100+B102+B99</f>
+        <v>8</v>
+      </c>
+      <c r="C103" s="2">
+        <f>C98+C101+C100+C102+C99</f>
+        <v>8</v>
+      </c>
+      <c r="D103" s="2">
+        <f>D98+D101+D100+D102+D99</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="2">
+        <f>E98+E101+E100+E102+E99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="6">
+        <f>IF(B$103=0, 0, (B$98+B$99)/B$103)</f>
+        <v>0.875</v>
+      </c>
+      <c r="C104" s="6">
+        <f>IF(C$103=0, 0, (C$98+C$99)/C$103)</f>
+        <v>0.875</v>
+      </c>
+      <c r="D104" s="6">
+        <f>IF(D$103=0, 0, (D$98+D$99)/D$103)</f>
+        <v>0</v>
+      </c>
+      <c r="E104" s="6">
+        <f>IF(E$103=0, 0, (E$98+E$99)/E$103)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="13"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B106" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D106" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="10">
+        <f>COUNTIF(B107:B126,"pass")</f>
+        <v>19</v>
+      </c>
+      <c r="C127" s="10">
+        <f>COUNTIF(C107:C126,"pass")</f>
+        <v>18</v>
+      </c>
+      <c r="D127" s="10">
+        <f>COUNTIF(D107:D126,"pass")</f>
+        <v>20</v>
+      </c>
+      <c r="E127" s="10">
+        <f>COUNTIF(E107:E126,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B128" s="5">
+        <f>COUNTIF(B107:B126,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C128" s="5">
+        <f>COUNTIF(C107:C126,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D128" s="5">
+        <f>COUNTIF(D107:D126,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E128" s="5">
+        <f>COUNTIF(E107:E126,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B129" s="11">
+        <f>COUNTIF(B107:B126,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="C129" s="11">
+        <f>COUNTIF(C107:C126,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="D129" s="11">
+        <f>COUNTIF(D107:D126,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E129" s="11">
+        <f>COUNTIF(E107:E126,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" s="12">
+        <f>COUNTIF(B107:B126,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C130" s="12">
+        <f>COUNTIF(C107:C126,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="D130" s="12">
+        <f>COUNTIF(D107:D126,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E130" s="12">
+        <f>COUNTIF(E107:E126,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B131" s="2">
+        <f>COUNT(B107:B126,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C131" s="2">
+        <f>COUNT(C107:C126,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D131" s="2">
+        <f>COUNT(D107:D126,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E131" s="2">
+        <f>COUNT(E107:E126,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B132" s="2">
+        <f>B127+B130+B129+B131+B128</f>
+        <v>20</v>
+      </c>
+      <c r="C132" s="2">
+        <f>C127+C130+C129+C131+C128</f>
+        <v>20</v>
+      </c>
+      <c r="D132" s="2">
+        <f>D127+D130+D129+D131+D128</f>
+        <v>20</v>
+      </c>
+      <c r="E132" s="2">
+        <f>E127+E130+E129+E131+E128</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="6">
+        <f>IF(B$132=0, 0, (B$127+B$128)/B$132)</f>
+        <v>0.95</v>
+      </c>
+      <c r="C133" s="6">
+        <f>IF(C$132=0, 0, (C$127+C$128)/C$132)</f>
+        <v>0.9</v>
+      </c>
+      <c r="D133" s="6">
+        <f>IF(D$132=0, 0, (D$127+D$128)/D$132)</f>
+        <v>1</v>
+      </c>
+      <c r="E133" s="6">
+        <f>IF(E$132=0, 0, (E$127+E$128)/E$132)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="14"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D135" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="10">
+        <f>COUNTIF(B136:B148,"pass")</f>
+        <v>12</v>
+      </c>
+      <c r="C149" s="10">
+        <f>COUNTIF(C136:C148,"pass")</f>
+        <v>12</v>
+      </c>
+      <c r="D149" s="10">
+        <f>COUNTIF(D136:D148,"pass")</f>
+        <v>12</v>
+      </c>
+      <c r="E149" s="10">
+        <f>COUNTIF(E136:E148,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B150" s="5">
+        <f>COUNTIF(B136:B148,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C150" s="5">
+        <f>COUNTIF(C136:C148,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D150" s="5">
+        <f>COUNTIF(D136:D148,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E150" s="5">
+        <f>COUNTIF(E136:E148,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B151" s="11">
+        <f>COUNTIF(B136:B148,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C151" s="11">
+        <f>COUNTIF(C136:C148,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D151" s="11">
+        <f>COUNTIF(D136:D148,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E151" s="11">
+        <f>COUNTIF(E136:E148,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" s="12">
+        <f>COUNTIF(B136:B148,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="C152" s="12">
+        <f>COUNTIF(C136:C148,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="D152" s="12">
+        <f>COUNTIF(D136:D148,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="E152" s="12">
+        <f>COUNTIF(E136:E148,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B153" s="2">
+        <f>COUNT(B136:B148,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C153" s="2">
+        <f>COUNT(C136:C148,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D153" s="2">
+        <f>COUNT(D136:D148,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E153" s="2">
+        <f>COUNT(E136:E148,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B154" s="2">
+        <f>B149+B152+B151+B153+B150</f>
+        <v>13</v>
+      </c>
+      <c r="C154" s="2">
+        <f>C149+C152+C151+C153+C150</f>
+        <v>13</v>
+      </c>
+      <c r="D154" s="2">
+        <f>D149+D152+D151+D153+D150</f>
+        <v>13</v>
+      </c>
+      <c r="E154" s="2">
+        <f>E149+E152+E151+E153+E150</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" s="6">
+        <f>IF(B$154=0, 0, (B$149+B$150)/B$154)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="C155" s="6">
+        <f>IF(C$154=0, 0, (C$149+C$150)/C$154)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="D155" s="6">
+        <f>IF(D$154=0, 0, (D$149+D$150)/D$154)</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="E155" s="6">
+        <f>IF(E$154=0, 0, (E$149+E$150)/E$154)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="13"/>
+      <c r="B156" s="16"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B157" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D157" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B183" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E187" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E188" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200" s="38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="B201" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E201" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" s="10">
+        <f>COUNTIF(B$158:B$201,"pass")</f>
+        <v>41</v>
+      </c>
+      <c r="C202" s="10">
+        <f>COUNTIF(C$158:C$201,"pass")</f>
+        <v>39</v>
+      </c>
+      <c r="D202" s="10">
+        <f>COUNTIF(D$158:D$201,"pass")</f>
+        <v>42</v>
+      </c>
+      <c r="E202" s="10">
+        <f>COUNTIF(E$158:E$201,"pass")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B203" s="5">
+        <f>COUNTIF(B$158:B$201,"Ok")</f>
+        <v>1</v>
+      </c>
+      <c r="C203" s="5">
+        <f>COUNTIF(C$158:C$201,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D203" s="5">
+        <f>COUNTIF(D$158:D$201,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E203" s="5">
+        <f>COUNTIF(E$158:E$201,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B204" s="11">
+        <f>COUNTIF(B$158:B$201,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C204" s="11">
+        <f>COUNTIF(C$158:C$201,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D204" s="11">
+        <f>COUNTIF(D$158:D$201,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E204" s="11">
+        <f>COUNTIF(E$158:E$201,"workaround")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" s="12">
+        <f>COUNTIF(B158:B201,"Fail")</f>
+        <v>2</v>
+      </c>
+      <c r="C205" s="12">
+        <f>COUNTIF(C158:C201,"Fail")</f>
+        <v>5</v>
+      </c>
+      <c r="D205" s="12">
+        <f>COUNTIF(D158:D201,"Fail")</f>
+        <v>2</v>
+      </c>
+      <c r="E205" s="12">
+        <f>COUNTIF(E158:E201,"Fail")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B206" s="2">
+        <f>COUNT(B$162:B$189,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C206" s="2">
+        <f>COUNT(C$162:C$189,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D206" s="2">
+        <f>COUNT(D$162:D$189,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E206" s="2">
+        <f>COUNT(E$162:E$189,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B207" s="2">
+        <f>B$202+B$205+B$204+B$206+B$203</f>
+        <v>44</v>
+      </c>
+      <c r="C207" s="2">
+        <f>C$202+C$205+C$204+C$206+C$203</f>
+        <v>44</v>
+      </c>
+      <c r="D207" s="2">
+        <f>D$202+D$205+D$204+D$206+D$203</f>
+        <v>44</v>
+      </c>
+      <c r="E207" s="2">
+        <f>E$202+E$205+E$204+E$206+E$203</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B208" s="6">
+        <f>IF(B$207=0, 0, (B$202+B$203)/B$207)</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="C208" s="6">
+        <f>IF(C$207=0, 0, (C$202+C$203)/C$207)</f>
+        <v>0.88636363636363635</v>
+      </c>
+      <c r="D208" s="6">
+        <f>IF(D$207=0, 0, (D$202+D$203)/D$207)</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="E208" s="6">
+        <f>IF(E$207=0, 0, (E$202+E$203)/E$207)</f>
+        <v>0.68181818181818177</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="15"/>
+      <c r="B209" s="15"/>
+      <c r="C209" s="15"/>
+      <c r="D209" s="15"/>
+      <c r="E209" s="15"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B210" s="15"/>
+      <c r="C210" s="15"/>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B213" s="2"/>
+      <c r="C213" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B214" s="2"/>
+      <c r="C214" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B215" s="2"/>
+      <c r="C215" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B217" s="2"/>
+      <c r="C217" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B220" s="2"/>
+      <c r="C220" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B222" s="2"/>
+      <c r="C222" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B223" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223" s="15"/>
+      <c r="D223" s="15"/>
+      <c r="E223" s="15"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224" s="10">
+        <f>COUNTIF(B211:B223,"pass")</f>
+        <v>7</v>
+      </c>
+      <c r="C224" s="10">
+        <f>COUNTIF(C211:C223,"pass")</f>
+        <v>8</v>
+      </c>
+      <c r="D224" s="10">
+        <f>COUNTIF(D211:D223,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="E224" s="10">
+        <f>COUNTIF(E211:E223,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B225" s="5">
+        <f>COUNTIF(B211:B223,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C225" s="5">
+        <f>COUNTIF(C211:C223,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D225" s="5">
+        <f>COUNTIF(D211:D223,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E225" s="5">
+        <f>COUNTIF(E211:E223,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B226" s="11">
+        <f>COUNTIF(B211:B223,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C226" s="11">
+        <f>COUNTIF(C211:C223,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D226" s="11">
+        <f>COUNTIF(D211:D223,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E226" s="11">
+        <f>COUNTIF(E211:E223,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B227" s="12">
+        <f>COUNTIF(B211:B223,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C227" s="12">
+        <f>COUNTIF(C211:C223,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D227" s="12">
+        <f>COUNTIF(D211:D223,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E227" s="12">
+        <f>COUNTIF(E211:E223,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B228" s="2">
+        <f>COUNT(B211:B223,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C228" s="2">
+        <f>COUNT(C211:C223,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D228" s="2">
+        <f>COUNT(D211:D223,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E228" s="2">
+        <f>COUNT(E211:E223,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B229" s="2">
+        <f>B224+B227+B226+B228+B225</f>
+        <v>7</v>
+      </c>
+      <c r="C229" s="2">
+        <f>C224+C227+C226+C228+C225</f>
+        <v>8</v>
+      </c>
+      <c r="D229" s="2">
+        <f>D224+D227+D226+D228+D225</f>
+        <v>0</v>
+      </c>
+      <c r="E229" s="2">
+        <f>E224+E227+E226+E228+E225</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B230" s="6">
+        <f>IF(B$229=0, 0, (B$224+B$225)/B$229)</f>
+        <v>1</v>
+      </c>
+      <c r="C230" s="6">
+        <f>IF(C$229=0, 0, (C$224+C$225)/C$229)</f>
+        <v>1</v>
+      </c>
+      <c r="D230" s="6">
+        <f>IF(D$229=0, 0, (D$224+D$225)/D$229)</f>
+        <v>0</v>
+      </c>
+      <c r="E230" s="6">
+        <f>IF(E$229=0, 0, (E$224+E$225)/E$229)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="13"/>
+      <c r="B231" s="13"/>
+      <c r="C231" s="13"/>
+      <c r="D231" s="13"/>
+      <c r="E231" s="13"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" s="15"/>
+      <c r="C232" s="15"/>
+      <c r="D232" s="15"/>
+      <c r="E232" s="15"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B233" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233" s="28"/>
+      <c r="D233" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E233" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" s="10">
+        <f>COUNTIF(B233,"pass")</f>
+        <v>1</v>
+      </c>
+      <c r="C234" s="10">
+        <f>COUNTIF(C233,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="D234" s="10">
+        <f>COUNTIF(D233,"pass")</f>
+        <v>1</v>
+      </c>
+      <c r="E234" s="10">
+        <f>COUNTIF(E233,"pass")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B235" s="5">
+        <f>COUNTIF(B233,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C235" s="5">
+        <f>COUNTIF(C233,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D235" s="5">
+        <f>COUNTIF(D233,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E235" s="5">
+        <f>COUNTIF(E233,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B236" s="11">
+        <f>COUNTIF(B233,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C236" s="11">
+        <f>COUNTIF(C233,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D236" s="11">
+        <f>COUNTIF(D233,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E236" s="11">
+        <f>COUNTIF(E233,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237" s="12">
+        <f>COUNTIF(B233,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C237" s="12">
+        <f>COUNTIF(C233,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D237" s="12">
+        <f>COUNTIF(D233,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E237" s="12">
+        <f>COUNTIF(E233,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B238" s="2">
+        <f>COUNT(B233,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C238" s="2">
+        <f>COUNT(C233,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D238" s="2">
+        <f>COUNT(D233,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E238" s="2">
+        <f>COUNT(E233,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B239" s="2">
+        <f>B234+B237+B236+B238+B235</f>
+        <v>1</v>
+      </c>
+      <c r="C239" s="2">
+        <f>C234+C237+C236+C238+C235</f>
+        <v>0</v>
+      </c>
+      <c r="D239" s="2">
+        <f>D234+D237+D236+D238+D235</f>
+        <v>1</v>
+      </c>
+      <c r="E239" s="2">
+        <f>E234+E237+E236+E238+E235</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B240" s="6">
+        <f>IF(B$239=0, 0, (B$234+B$235)/B$239)</f>
+        <v>1</v>
+      </c>
+      <c r="C240" s="6">
+        <f>IF(C$239=0, 0, (C$234+C$235)/C$239)</f>
+        <v>0</v>
+      </c>
+      <c r="D240" s="6">
+        <f>IF(D$239=0, 0, (D$234+D$235)/D$239)</f>
+        <v>1</v>
+      </c>
+      <c r="E240" s="6">
+        <f>IF(E$239=0, 0, (E$234+E$235)/E$239)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+    </row>
+    <row r="242" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="20"/>
+      <c r="C242" s="20"/>
+      <c r="D242" s="20"/>
+      <c r="E242" s="20"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="2"/>
+      <c r="B243" s="20"/>
+      <c r="C243" s="20"/>
+      <c r="D243" s="20"/>
+      <c r="E243" s="20"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://www.g-truc.net"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E244"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
@@ -10573,22 +15648,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -14553,7 +19628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G248"/>
   <sheetViews>
@@ -14573,26 +19648,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -14607,18 +19682,18 @@
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47" t="s">
+      <c r="E4" s="50"/>
+      <c r="F4" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="47"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -19900,7 +24975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G231"/>
   <sheetViews>
@@ -19920,26 +24995,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -19954,18 +25029,18 @@
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47" t="s">
+      <c r="E4" s="50"/>
+      <c r="F4" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="47"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -24606,7 +29681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E197"/>
   <sheetViews>
@@ -24626,14 +29701,14 @@
       <c r="A1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/doc/OpenGL status.xlsx
+++ b/doc/OpenGL status.xlsx
@@ -25,6 +25,20 @@
     <author>Groove</author>
   </authors>
   <commentList>
+    <comment ref="B39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Doesn't support const expression arithmetic: C1154: non constant expression in layout value</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B52" authorId="0">
       <text>
         <r>
@@ -5682,6 +5696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5703,7 +5718,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="3"/>
@@ -5811,7 +5825,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.35714285714285715</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.9285714285714286</c:v>
@@ -6090,11 +6104,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="109782016"/>
-        <c:axId val="108505344"/>
+        <c:axId val="100925440"/>
+        <c:axId val="95673088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109782016"/>
+        <c:axId val="100925440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6103,7 +6117,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108505344"/>
+        <c:crossAx val="95673088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6111,7 +6125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108505344"/>
+        <c:axId val="95673088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6123,7 +6137,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109782016"/>
+        <c:crossAx val="100925440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6479,11 +6493,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="4076032"/>
-        <c:axId val="95673664"/>
+        <c:axId val="100493312"/>
+        <c:axId val="108504192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="4076032"/>
+        <c:axId val="100493312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6492,7 +6506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95673664"/>
+        <c:crossAx val="108504192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6500,7 +6514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95673664"/>
+        <c:axId val="108504192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6512,7 +6526,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4076032"/>
+        <c:crossAx val="100493312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6867,11 +6881,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="133890048"/>
-        <c:axId val="105631104"/>
+        <c:axId val="104706048"/>
+        <c:axId val="108508224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133890048"/>
+        <c:axId val="104706048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6880,7 +6894,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105631104"/>
+        <c:crossAx val="108508224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6888,7 +6902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105631104"/>
+        <c:axId val="108508224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6900,7 +6914,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133890048"/>
+        <c:crossAx val="104706048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7255,11 +7269,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="100491264"/>
-        <c:axId val="105633984"/>
+        <c:axId val="101021184"/>
+        <c:axId val="109209856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100491264"/>
+        <c:axId val="101021184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7268,7 +7282,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105633984"/>
+        <c:crossAx val="109209856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7276,7 +7290,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105633984"/>
+        <c:axId val="109209856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7288,7 +7302,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100491264"/>
+        <c:crossAx val="101021184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7795,11 +7809,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="100494848"/>
-        <c:axId val="114820224"/>
+        <c:axId val="120729088"/>
+        <c:axId val="109213312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100494848"/>
+        <c:axId val="120729088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7808,7 +7822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114820224"/>
+        <c:crossAx val="109213312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7816,7 +7830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114820224"/>
+        <c:axId val="109213312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7828,7 +7842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100494848"/>
+        <c:crossAx val="120729088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8299,11 +8313,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="101019648"/>
-        <c:axId val="114821952"/>
+        <c:axId val="130683904"/>
+        <c:axId val="104284160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101019648"/>
+        <c:axId val="130683904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8312,7 +8326,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114821952"/>
+        <c:crossAx val="104284160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8320,7 +8334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114821952"/>
+        <c:axId val="104284160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8332,14 +8346,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101019648"/>
+        <c:crossAx val="130683904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8861,8 +8874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8876,22 +8889,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -8996,19 +9009,19 @@
       <c r="A10" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B10" s="56">
-        <f>IF(B$47=0, 0,(B$42+B$43)/B$70)</f>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="C10" s="56">
-        <f t="shared" ref="C10:E10" si="0">IF(C$47=0, 0,(C$42+C$43)/C$70)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="56">
+      <c r="B10" s="49">
+        <f>IF(B$47=0, 0,(B$42+B$43)/B$47)</f>
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="49">
+        <f t="shared" ref="C10:E10" si="0">IF(C$47=0, 0,(C$42+C$43)/C$47)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9325,8 +9338,8 @@
       <c r="A39" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>6</v>
+      <c r="B39" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C39" s="48" t="s">
         <v>177</v>
@@ -9378,7 +9391,7 @@
       </c>
       <c r="B42" s="10">
         <f>COUNTIF(B37:B41,"pass")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" s="10">
         <f>COUNTIF(C37:C41,"pass")</f>
@@ -9441,7 +9454,7 @@
       </c>
       <c r="B45" s="12">
         <f>COUNTIF(B37:B41,"Fail")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="12">
         <f>COUNTIF(C37:C41,"Fail")</f>
@@ -9503,11 +9516,11 @@
         <v>8</v>
       </c>
       <c r="B48" s="6">
-        <f>IF(B$47=0, 0,(B$42+B$43)/B$70)</f>
-        <v>0.35714285714285715</v>
+        <f>IF(B$47=0, 0,(B$42+B$43)/B$47)</f>
+        <v>0.8</v>
       </c>
       <c r="C48" s="6">
-        <f t="shared" ref="C48:E48" si="1">IF(C$47=0, 0,(C$42+C$43)/C$70)</f>
+        <f t="shared" ref="C48:E48" si="1">IF(C$47=0, 0,(C$42+C$43)/C$47)</f>
         <v>0</v>
       </c>
       <c r="D48" s="6">
@@ -13152,22 +13165,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -17151,22 +17164,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -21150,22 +21163,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -25150,26 +25163,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -25184,18 +25197,18 @@
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53" t="s">
+      <c r="E4" s="54"/>
+      <c r="F4" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -30497,26 +30510,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -30531,18 +30544,18 @@
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53" t="s">
+      <c r="E4" s="54"/>
+      <c r="F4" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -35203,14 +35216,14 @@
       <c r="A1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="55"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/doc/OpenGL status.xlsx
+++ b/doc/OpenGL status.xlsx
@@ -50,6 +50,20 @@
             <family val="2"/>
           </rPr>
           <t>Object labels not used in the debug output log.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Doesn't support overloading of glDebugMessageControlARB(GL_DONT_CARE, GL_DONT_CARE, GL_DONT_CARE, 0, NULL, GL_FALSE)</t>
         </r>
       </text>
     </comment>
@@ -119,7 +133,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Not directly link to the ARB_debug extension but the sample generates rendering artifacts</t>
+          <t>Doesn't support overloading of glDebugMessageControlARB(GL_DONT_CARE, GL_DONT_CARE, GL_DONT_CARE, 0, NULL, GL_FALSE)</t>
         </r>
       </text>
     </comment>
@@ -269,49 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D152" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Fixed with the new drivers</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B153" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Doesn't support GL_INT_2_10_10_10_REV correctly</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C153" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Doesn't support GL_INT_2_10_10_10_REV correctly</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D153" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,21 +308,6 @@
             <charset val="1"/>
           </rPr>
           <t>Fixed in this drivers</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D173" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">The implementation is confusing block name and instance name when enumerating uniforms
-</t>
         </r>
       </text>
     </comment>
@@ -379,21 +336,6 @@
             <family val="2"/>
           </rPr>
           <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D176" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">The depth test can't be enable
-</t>
         </r>
       </text>
     </comment>
@@ -467,20 +409,6 @@
           </rPr>
           <t xml:space="preserve">Generates a GL_FRAMEBUFFER_INCOMPLETE_DRAW_BUFFER error
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D184" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Fixed with this new driver</t>
         </r>
       </text>
     </comment>
@@ -5834,13 +5762,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.875</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92307692307692313</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.97727272727272729</c:v>
@@ -5916,7 +5844,7 @@
                   <c:v>0.86956521739130432</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.875</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.9</c:v>
@@ -5992,7 +5920,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.86956521739130432</c:v>
@@ -6004,10 +5932,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92307692307692313</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95454545454545459</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6104,11 +6032,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="100925440"/>
-        <c:axId val="95673088"/>
+        <c:axId val="132980224"/>
+        <c:axId val="107453184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100925440"/>
+        <c:axId val="132980224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6117,7 +6045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95673088"/>
+        <c:crossAx val="107453184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6125,7 +6053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95673088"/>
+        <c:axId val="107453184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6137,7 +6065,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100925440"/>
+        <c:crossAx val="132980224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6493,11 +6421,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="100493312"/>
-        <c:axId val="108504192"/>
+        <c:axId val="41988096"/>
+        <c:axId val="133040384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100493312"/>
+        <c:axId val="41988096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6506,7 +6434,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108504192"/>
+        <c:crossAx val="133040384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6514,7 +6442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108504192"/>
+        <c:axId val="133040384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6526,7 +6454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100493312"/>
+        <c:crossAx val="41988096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6881,11 +6809,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="104706048"/>
-        <c:axId val="108508224"/>
+        <c:axId val="41783296"/>
+        <c:axId val="133042688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="104706048"/>
+        <c:axId val="41783296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6894,7 +6822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108508224"/>
+        <c:crossAx val="133042688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6902,7 +6830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108508224"/>
+        <c:axId val="133042688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6914,7 +6842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104706048"/>
+        <c:crossAx val="41783296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7269,11 +7197,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="101021184"/>
-        <c:axId val="109209856"/>
+        <c:axId val="41785344"/>
+        <c:axId val="133045568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101021184"/>
+        <c:axId val="41785344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7282,7 +7210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109209856"/>
+        <c:crossAx val="133045568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7290,7 +7218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109209856"/>
+        <c:axId val="133045568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7302,7 +7230,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101021184"/>
+        <c:crossAx val="41785344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7809,11 +7737,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="120729088"/>
-        <c:axId val="109213312"/>
+        <c:axId val="42587648"/>
+        <c:axId val="41862848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="120729088"/>
+        <c:axId val="42587648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7822,7 +7750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109213312"/>
+        <c:crossAx val="41862848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7830,7 +7758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109213312"/>
+        <c:axId val="41862848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7842,7 +7770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120729088"/>
+        <c:crossAx val="42587648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8313,11 +8241,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="130683904"/>
-        <c:axId val="104284160"/>
+        <c:axId val="42586624"/>
+        <c:axId val="41865152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="130683904"/>
+        <c:axId val="42586624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8326,7 +8254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104284160"/>
+        <c:crossAx val="41865152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8334,7 +8262,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104284160"/>
+        <c:axId val="41865152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8346,7 +8274,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130683904"/>
+        <c:crossAx val="42586624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8874,8 +8802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9040,7 +8968,7 @@
       </c>
       <c r="D11" s="20">
         <f>IF(D$70=0, 0,(D$65+D$66)/D$70)</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E11" s="20">
         <f>IF(E$70=0, 0,(E$65+E$66)/E$70)</f>
@@ -9074,11 +9002,11 @@
       </c>
       <c r="B13" s="20">
         <f>IF(B$118=0, 0, (B$113+B$114)/B$118)</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="C13" s="20">
         <f>IF(C$118=0, 0, (C$113+C$114)/C$118)</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="D13" s="20">
         <f>IF(D$118=0, 0, (D$113+D$114)/D$118)</f>
@@ -9116,7 +9044,7 @@
       </c>
       <c r="B15" s="20">
         <f>IF(B$169=0, 0, (B$164+B$165)/B$169)</f>
-        <v>0.92307692307692313</v>
+        <v>1</v>
       </c>
       <c r="C15" s="20">
         <f>IF(C$169=0, 0, (C$164+C$165)/C$169)</f>
@@ -9124,7 +9052,7 @@
       </c>
       <c r="D15" s="20">
         <f>IF(D$169=0, 0, (D$164+D$165)/D$169)</f>
-        <v>0.92307692307692313</v>
+        <v>1</v>
       </c>
       <c r="E15" s="20">
         <f>IF(E$169=0, 0, (E$164+E$165)/E$169)</f>
@@ -9145,7 +9073,7 @@
       </c>
       <c r="D16" s="25">
         <f>IF(D$222=0, 0, (D$217+D$218)/D$222)</f>
-        <v>0.95454545454545459</v>
+        <v>1</v>
       </c>
       <c r="E16" s="25">
         <f>IF(E$222=0, 0, (E$217+E$218)/E$222)</f>
@@ -9581,8 +9509,8 @@
       <c r="C52" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="D52" s="48" t="s">
-        <v>177</v>
+      <c r="D52" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="E52" s="48" t="s">
         <v>177</v>
@@ -9869,7 +9797,7 @@
       </c>
       <c r="D68" s="12">
         <f>COUNTIF(D51:D64,"Fail")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68" s="12">
         <f>COUNTIF(E51:E64,"Fail")</f>
@@ -9911,7 +9839,7 @@
       </c>
       <c r="D70" s="2">
         <f>D65+D68+D67+D69+D66</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E70" s="2">
         <f>E65+E68+E67+E69+E66</f>
@@ -9932,7 +9860,7 @@
       </c>
       <c r="D71" s="6">
         <f>IF(D$70=0, 0,(D$65+D$66)/D$70)</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E71" s="6">
         <f>IF(E$70=0, 0,(E$65+E$66)/E$70)</f>
@@ -10137,7 +10065,7 @@
       <c r="A84" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="35" t="s">
         <v>144</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -10691,15 +10619,15 @@
         <v>140</v>
       </c>
       <c r="B115" s="11">
-        <f>COUNTIF(B137:B170,"workaround")</f>
-        <v>1</v>
+        <f>COUNTIF(B106:B112,"workaround")</f>
+        <v>0</v>
       </c>
       <c r="C115" s="11">
-        <f>COUNTIF(C137:C170,"workaround")</f>
-        <v>1</v>
+        <f t="shared" ref="C115:D115" si="2">COUNTIF(C106:C112,"workaround")</f>
+        <v>0</v>
       </c>
       <c r="D115" s="11">
-        <f>COUNTIF(D137:D170,"workaround")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E115" s="11">
@@ -10755,11 +10683,11 @@
       </c>
       <c r="B118" s="2">
         <f>B113+B116+B115+B117+B114</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" s="2">
         <f>C113+C116+C115+C117+C114</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D118" s="2">
         <f>D113+D116+D115+D117+D114</f>
@@ -10776,11 +10704,11 @@
       </c>
       <c r="B119" s="6">
         <f>IF(B$118=0, 0, (B$113+B$114)/B$118)</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="C119" s="6">
         <f>IF(C$118=0, 0, (C$113+C$114)/C$118)</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="D119" s="6">
         <f>IF(D$118=0, 0, (D$113+D$114)/D$118)</f>
@@ -11364,14 +11292,14 @@
       <c r="A153" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>7</v>
+      <c r="B153" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D153" s="8" t="s">
-        <v>7</v>
+      <c r="D153" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E153" s="48" t="s">
         <v>177</v>
@@ -11553,7 +11481,7 @@
       </c>
       <c r="B164" s="10">
         <f>COUNTIF(B151:B163,"pass")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C164" s="10">
         <f>COUNTIF(C151:C163,"pass")</f>
@@ -11561,7 +11489,7 @@
       </c>
       <c r="D164" s="10">
         <f>COUNTIF(D151:D163,"pass")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E164" s="10">
         <f>COUNTIF(E151:E163,"pass")</f>
@@ -11616,7 +11544,7 @@
       </c>
       <c r="B167" s="12">
         <f>COUNTIF(B151:B163,"Fail")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" s="12">
         <f>COUNTIF(C151:C163,"Fail")</f>
@@ -11624,7 +11552,7 @@
       </c>
       <c r="D167" s="12">
         <f>COUNTIF(D151:D163,"Fail")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E167" s="12">
         <f>COUNTIF(E151:E163,"Fail")</f>
@@ -11679,7 +11607,7 @@
       </c>
       <c r="B170" s="6">
         <f>IF(B$169=0, 0, (B$164+B$165)/B$169)</f>
-        <v>0.92307692307692313</v>
+        <v>1</v>
       </c>
       <c r="C170" s="6">
         <f>IF(C$169=0, 0, (C$164+C$165)/C$169)</f>
@@ -11687,7 +11615,7 @@
       </c>
       <c r="D170" s="6">
         <f>IF(D$169=0, 0, (D$164+D$165)/D$169)</f>
-        <v>0.92307692307692313</v>
+        <v>1</v>
       </c>
       <c r="E170" s="6">
         <f>IF(E$169=0, 0, (E$164+E$165)/E$169)</f>
@@ -11728,8 +11656,8 @@
       <c r="C173" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D173" s="8" t="s">
-        <v>7</v>
+      <c r="D173" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>6</v>
@@ -11779,8 +11707,8 @@
       <c r="C176" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D176" s="8" t="s">
-        <v>7</v>
+      <c r="D176" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>7</v>
@@ -12480,7 +12408,7 @@
       </c>
       <c r="D217" s="10">
         <f>COUNTIF(D$173:D$216,"pass")</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E217" s="10">
         <f>COUNTIF(E$173:E$216,"pass")</f>
@@ -12543,7 +12471,7 @@
       </c>
       <c r="D220" s="12">
         <f>COUNTIF(D173:D216,"Fail")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E220" s="12">
         <f>COUNTIF(E173:E216,"Fail")</f>
@@ -12606,7 +12534,7 @@
       </c>
       <c r="D223" s="6">
         <f>IF(D$222=0, 0, (D$217+D$218)/D$222)</f>
-        <v>0.95454545454545459</v>
+        <v>1</v>
       </c>
       <c r="E223" s="6">
         <f>IF(E$222=0, 0, (E$217+E$218)/E$222)</f>

--- a/doc/OpenGL status.xlsx
+++ b/doc/OpenGL status.xlsx
@@ -8802,7 +8802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>

--- a/doc/OpenGL status.xlsx
+++ b/doc/OpenGL status.xlsx
@@ -354,6 +354,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="C128" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Require glDrawBuffer(GL_NONE) before glCheckFramebuffer otherwise the implementation generates an OpenGL error
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E128" authorId="0">
       <text>
         <r>
@@ -650,6 +665,21 @@
             <charset val="1"/>
           </rPr>
           <t>Render a black screen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C191" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Require glDrawBuffer(GL_NONE) before glCheckFramebuffer otherwise the implementation generates an OpenGL error
+</t>
         </r>
       </text>
     </comment>
@@ -6684,13 +6714,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95238095238095233</c:v>
+                  <c:v>0.90476190476190477</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91111111111111109</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6869,11 +6899,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="158217728"/>
-        <c:axId val="111907904"/>
+        <c:axId val="146048512"/>
+        <c:axId val="146292736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158217728"/>
+        <c:axId val="146048512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6882,7 +6912,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111907904"/>
+        <c:crossAx val="146292736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6890,7 +6920,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111907904"/>
+        <c:axId val="146292736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6902,7 +6932,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158217728"/>
+        <c:crossAx val="146048512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7282,11 +7312,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="61894656"/>
-        <c:axId val="114634112"/>
+        <c:axId val="84035072"/>
+        <c:axId val="146295040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61894656"/>
+        <c:axId val="84035072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7295,7 +7325,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114634112"/>
+        <c:crossAx val="146295040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7303,7 +7333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114634112"/>
+        <c:axId val="146295040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7315,7 +7345,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61894656"/>
+        <c:crossAx val="84035072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7670,11 +7700,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="61896704"/>
-        <c:axId val="151330816"/>
+        <c:axId val="146974720"/>
+        <c:axId val="146297920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61896704"/>
+        <c:axId val="146974720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7683,7 +7713,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151330816"/>
+        <c:crossAx val="146297920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7691,7 +7721,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151330816"/>
+        <c:axId val="146297920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7703,7 +7733,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61896704"/>
+        <c:crossAx val="146974720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8058,11 +8088,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="61895168"/>
-        <c:axId val="151332544"/>
+        <c:axId val="146972672"/>
+        <c:axId val="147177472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61895168"/>
+        <c:axId val="146972672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8071,7 +8101,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151332544"/>
+        <c:crossAx val="147177472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8079,7 +8109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151332544"/>
+        <c:axId val="147177472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8091,7 +8121,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61895168"/>
+        <c:crossAx val="146972672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8446,11 +8476,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="144461312"/>
-        <c:axId val="62122240"/>
+        <c:axId val="148200960"/>
+        <c:axId val="147180928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144461312"/>
+        <c:axId val="148200960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8459,7 +8489,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62122240"/>
+        <c:crossAx val="147180928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8467,7 +8497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62122240"/>
+        <c:axId val="147180928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8479,7 +8509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144461312"/>
+        <c:crossAx val="148200960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8986,11 +9016,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145143296"/>
-        <c:axId val="62124544"/>
+        <c:axId val="148522496"/>
+        <c:axId val="147182656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145143296"/>
+        <c:axId val="148522496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8999,7 +9029,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62124544"/>
+        <c:crossAx val="147182656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9007,7 +9037,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62124544"/>
+        <c:axId val="147182656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9019,7 +9049,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145143296"/>
+        <c:crossAx val="148522496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9490,11 +9520,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145144832"/>
-        <c:axId val="62126848"/>
+        <c:axId val="148524032"/>
+        <c:axId val="147184960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145144832"/>
+        <c:axId val="148524032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9503,7 +9533,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62126848"/>
+        <c:crossAx val="147184960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9511,7 +9541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62126848"/>
+        <c:axId val="147184960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9523,7 +9553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145144832"/>
+        <c:crossAx val="148524032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10088,8 +10118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10313,7 +10343,7 @@
       </c>
       <c r="C14" s="20">
         <f>IF(C$148=0, 0, (C$143+C$144)/C$148)</f>
-        <v>0.95238095238095233</v>
+        <v>0.90476190476190477</v>
       </c>
       <c r="D14" s="20">
         <f>IF(D$148=0, 0, (D$143+D$144)/D$148)</f>
@@ -10355,7 +10385,7 @@
       </c>
       <c r="C16" s="25">
         <f>IF(C$223=0, 0, (C$218+C$219)/C$223)</f>
-        <v>0.91111111111111109</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="D16" s="25">
         <f>IF(D$223=0, 0, (D$218+D$219)/D$223)</f>
@@ -12138,8 +12168,8 @@
       <c r="B128" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>6</v>
+      <c r="C128" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>6</v>
@@ -12396,7 +12426,7 @@
       </c>
       <c r="C143" s="10">
         <f>COUNTIF(C122:C142,"pass")</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D143" s="10">
         <f>COUNTIF(D122:D142,"pass")</f>
@@ -12459,7 +12489,7 @@
       </c>
       <c r="C146" s="12">
         <f>COUNTIF(C122:C142,"Fail")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" s="12">
         <f>COUNTIF(D122:D142,"Fail")</f>
@@ -12522,7 +12552,7 @@
       </c>
       <c r="C149" s="6">
         <f>IF(C$148=0, 0, (C$143+C$144)/C$148)</f>
-        <v>0.95238095238095233</v>
+        <v>0.90476190476190477</v>
       </c>
       <c r="D149" s="6">
         <f>IF(D$148=0, 0, (D$143+D$144)/D$148)</f>
@@ -13245,8 +13275,8 @@
       <c r="B191" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C191" s="4" t="s">
-        <v>6</v>
+      <c r="C191" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>6</v>
@@ -13707,7 +13737,7 @@
       </c>
       <c r="C218" s="10">
         <f>COUNTIF(C$173:C$217,"pass")</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D218" s="10">
         <f>COUNTIF(D$173:D$217,"pass")</f>
@@ -13770,7 +13800,7 @@
       </c>
       <c r="C221" s="12">
         <f>COUNTIF(C173:C217,"Fail")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D221" s="12">
         <f>COUNTIF(D173:D217,"Fail")</f>
@@ -13833,7 +13863,7 @@
       </c>
       <c r="C224" s="6">
         <f>IF(C$223=0, 0, (C$218+C$219)/C$223)</f>
-        <v>0.91111111111111109</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="D224" s="6">
         <f>IF(D$223=0, 0, (D$218+D$219)/D$223)</f>

--- a/doc/OpenGL status.xlsx
+++ b/doc/OpenGL status.xlsx
@@ -127,6 +127,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="C59" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>OpenGL drivers crashes</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D59" authorId="0">
       <text>
         <r>
@@ -179,8 +193,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Driver hang
-</t>
+          <t>OpenGL drivers hang</t>
         </r>
       </text>
     </comment>
@@ -236,7 +249,22 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Quality is really bad
+          <t xml:space="preserve">Quality is unacceptable
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D92" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Produce rendering artifacts
 </t>
         </r>
       </text>
@@ -266,8 +294,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Offset and stride kind of problem when fetching the texture
-</t>
+          <t>Compressed tile copy is not correct</t>
         </r>
       </text>
     </comment>
@@ -555,20 +582,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="C175" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Fixed in this drivers</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="E186" authorId="0">
       <text>
         <r>
@@ -635,7 +648,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>The driver doesn't output vec4(0, 0, 0, 1) when the resolved interger color buffer is incomplete</t>
         </r>
@@ -670,6 +683,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="E195" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Generate an invalid operation error when on shadow rendering draw call.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E196" authorId="0">
       <text>
         <r>
@@ -694,8 +721,39 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>"lowp int Count = lowp int(COUNT);" should generate an error.
+The valid form is:
+"lowp int Count = int(COUNT);"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D198" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>"lowp int Count = lowp int(COUNT);" should generate an error.
+The valid form is:
+"lowp int Count = int(COUNT);"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B201" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>NVIDIA compiler aspects a structure for the vertex input interface, This is not allowed, it would be nice to have an extension for it.</t>
         </r>
       </text>
     </comment>
@@ -707,13 +765,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
-          <t>Pop free clipping</t>
+          <t xml:space="preserve">glClearBufferfv is always performed, even is the condition fails.
+OpenGL 4.3 - 10.10 Conditional Rendering:
+Doesn't generate an GLSL compiler error when geometry shader input layout qualifier is missing
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="E207" authorId="0">
+    <comment ref="C205" authorId="0">
       <text>
         <r>
           <rPr>
@@ -723,7 +784,24 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
+          <t xml:space="preserve">glClearBufferfv is always performed, even is the condition fails.
+OpenGL 4.3 - 10.10 Conditional Rendering:
+Doesn't generate an GLSL compiler error when geometry shader input layout qualifier is missing
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B206" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Pop free clipping</t>
         </r>
       </text>
     </comment>
@@ -741,7 +819,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C209" authorId="0">
+    <comment ref="C210" authorId="0">
       <text>
         <r>
           <rPr>
@@ -759,7 +837,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B220" authorId="0">
+    <comment ref="B221" authorId="0">
       <text>
         <r>
           <rPr>
@@ -773,7 +851,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E221" authorId="0">
+    <comment ref="E222" authorId="0">
       <text>
         <r>
           <rPr>
@@ -788,7 +866,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="C237" authorId="0">
+    <comment ref="D244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Affect the clearing of the framebuffer with an unexpected manner.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C251" authorId="0">
       <text>
         <r>
           <rPr>
@@ -802,7 +894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D237" authorId="0">
+    <comment ref="D251" authorId="0">
       <text>
         <r>
           <rPr>
@@ -816,7 +908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E237" authorId="0">
+    <comment ref="E251" authorId="0">
       <text>
         <r>
           <rPr>
@@ -827,20 +919,6 @@
             <family val="2"/>
           </rPr>
           <t>GL_NV_gpu_shader5 not supported</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D243" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Affect the clearing of the framebuffer with an unexpected manner.</t>
         </r>
       </text>
     </comment>
@@ -5938,7 +6016,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7155" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7181" uniqueCount="367">
   <si>
     <t>gl-430-texture-view</t>
   </si>
@@ -7017,7 +7095,28 @@
     <t>program-uniform</t>
   </si>
   <si>
-    <t>glsl-precision-cast</t>
+    <t>glsl-cast-fail</t>
+  </si>
+  <si>
+    <t>glsl-input-struct</t>
+  </si>
+  <si>
+    <t>320-texture-compressed-ext</t>
+  </si>
+  <si>
+    <t>330-sampler-anisotropic-ext</t>
+  </si>
+  <si>
+    <t>430-perf-monitor-amd</t>
+  </si>
+  <si>
+    <t>02/18/2013</t>
+  </si>
+  <si>
+    <t>334.89</t>
+  </si>
+  <si>
+    <t>NVIDIA 334.89</t>
   </si>
 </sst>
 </file>
@@ -7224,7 +7323,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -7353,6 +7452,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7373,6 +7474,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -7432,7 +7536,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NVIDIA 331.10 beta</c:v>
+                  <c:v>NVIDIA 334.89</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7499,7 +7603,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98</c:v>
+                  <c:v>0.94339622641509435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7566,7 +7670,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.875</c:v>
@@ -7578,10 +7682,10 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.91666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9</c:v>
+                  <c:v>0.86792452830188682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7651,10 +7755,10 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.875</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.8571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.95</c:v>
@@ -7663,7 +7767,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98</c:v>
+                  <c:v>0.96226415094339623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7745,7 +7849,7 @@
                   <c:v>0.91666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9</c:v>
+                  <c:v>0.90196078431372551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7760,11 +7864,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="66124288"/>
-        <c:axId val="69837952"/>
+        <c:axId val="148280832"/>
+        <c:axId val="148128320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66124288"/>
+        <c:axId val="148280832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7773,7 +7877,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69837952"/>
+        <c:crossAx val="148128320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7781,7 +7885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69837952"/>
+        <c:axId val="148128320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7793,7 +7897,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66124288"/>
+        <c:crossAx val="148280832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8173,11 +8277,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145814016"/>
-        <c:axId val="146210816"/>
+        <c:axId val="143762944"/>
+        <c:axId val="148131200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145814016"/>
+        <c:axId val="143762944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8186,7 +8290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146210816"/>
+        <c:crossAx val="148131200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8194,7 +8298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146210816"/>
+        <c:axId val="148131200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8206,7 +8310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145814016"/>
+        <c:crossAx val="143762944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8585,11 +8689,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145815552"/>
-        <c:axId val="146213120"/>
+        <c:axId val="149567488"/>
+        <c:axId val="148134656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145815552"/>
+        <c:axId val="149567488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8598,7 +8702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146213120"/>
+        <c:crossAx val="148134656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8606,7 +8710,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146213120"/>
+        <c:axId val="148134656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8618,7 +8722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145815552"/>
+        <c:crossAx val="149567488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8973,11 +9077,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="141268480"/>
-        <c:axId val="146216000"/>
+        <c:axId val="149565440"/>
+        <c:axId val="149734528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="141268480"/>
+        <c:axId val="149565440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8986,7 +9090,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146216000"/>
+        <c:crossAx val="149734528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8994,7 +9098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146216000"/>
+        <c:axId val="149734528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9006,7 +9110,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141268480"/>
+        <c:crossAx val="149565440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9361,11 +9465,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="147775488"/>
-        <c:axId val="147243008"/>
+        <c:axId val="150687232"/>
+        <c:axId val="149737408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147775488"/>
+        <c:axId val="150687232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9374,7 +9478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147243008"/>
+        <c:crossAx val="149737408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9382,7 +9486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147243008"/>
+        <c:axId val="149737408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9394,7 +9498,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147775488"/>
+        <c:crossAx val="150687232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9749,11 +9853,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="147994624"/>
-        <c:axId val="147246464"/>
+        <c:axId val="151726080"/>
+        <c:axId val="149740288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147994624"/>
+        <c:axId val="151726080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9762,7 +9866,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147246464"/>
+        <c:crossAx val="149740288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9770,7 +9874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147246464"/>
+        <c:axId val="149740288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9782,7 +9886,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147994624"/>
+        <c:crossAx val="151726080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10289,11 +10393,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="147996160"/>
-        <c:axId val="147248192"/>
+        <c:axId val="143761920"/>
+        <c:axId val="150906560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147996160"/>
+        <c:axId val="143761920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10302,7 +10406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147248192"/>
+        <c:crossAx val="150906560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10310,7 +10414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147248192"/>
+        <c:axId val="150906560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10322,7 +10426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147996160"/>
+        <c:crossAx val="143761920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10793,11 +10897,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="148715008"/>
-        <c:axId val="147250496"/>
+        <c:axId val="150582784"/>
+        <c:axId val="150908864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148715008"/>
+        <c:axId val="150582784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10806,7 +10910,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147250496"/>
+        <c:crossAx val="150908864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10814,7 +10918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147250496"/>
+        <c:axId val="150908864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10826,7 +10930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148715008"/>
+        <c:crossAx val="150582784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11426,10 +11530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E279"/>
+  <dimension ref="A1:E285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="J261" sqref="J261"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="F213" sqref="F213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11443,22 +11547,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -11488,8 +11592,8 @@
       <c r="A5" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="17">
-        <v>41549</v>
+      <c r="B5" s="17" t="s">
+        <v>364</v>
       </c>
       <c r="C5" s="17">
         <v>41586</v>
@@ -11506,7 +11610,7 @@
         <v>148</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>350</v>
@@ -11547,7 +11651,7 @@
         <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>351</v>
@@ -11590,7 +11694,7 @@
       </c>
       <c r="C11" s="20">
         <f>IF(C$72=0, 0,(C$67+C$68)/C$72)</f>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="D11" s="20">
         <f>IF(D$72=0, 0,(D$67+D$68)/D$72)</f>
@@ -11615,7 +11719,7 @@
       </c>
       <c r="D12" s="20">
         <f>IF(D$105=0,0,(D$100+D$101)/D$105)</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E12" s="20">
         <f>IF(E$105=0,0,(E$100+E$101)/E$105)</f>
@@ -11636,7 +11740,7 @@
       </c>
       <c r="D13" s="20">
         <f>IF(D$121=0, 0, (D$116+D$117)/D$121)</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E13" s="20">
         <f>IF(E$121=0, 0, (E$116+E$117)/E$121)</f>
@@ -11674,7 +11778,7 @@
       </c>
       <c r="C15" s="20">
         <f>IF(C$171=0, 0, (C$166+C$167)/C$171)</f>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D15" s="20">
         <f>IF(D$171=0, 0, (D$166+D$167)/D$171)</f>
@@ -11690,20 +11794,20 @@
         <v>196</v>
       </c>
       <c r="B16" s="25">
-        <f>IF(B$232=0, 0, (B$227+B$228)/B$232)</f>
-        <v>0.98</v>
+        <f>IF(B$233=0, 0, (B$228+B$229)/B$233)</f>
+        <v>0.94339622641509435</v>
       </c>
       <c r="C16" s="25">
-        <f>IF(C$232=0, 0, (C$227+C$228)/C$232)</f>
-        <v>0.9</v>
+        <f>IF(C$233=0, 0, (C$228+C$229)/C$233)</f>
+        <v>0.86792452830188682</v>
       </c>
       <c r="D16" s="25">
-        <f>IF(D$232=0, 0, (D$227+D$228)/D$232)</f>
-        <v>0.98</v>
+        <f>IF(D$233=0, 0, (D$228+D$229)/D$233)</f>
+        <v>0.96226415094339623</v>
       </c>
       <c r="E16" s="25">
-        <f>IF(E$232=0, 0, (E$227+E$228)/E$232)</f>
-        <v>0.9</v>
+        <f>IF(E$233=0, 0, (E$228+E$229)/E$233)</f>
+        <v>0.90196078431372551</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -12251,8 +12355,8 @@
       <c r="B59" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>6</v>
+      <c r="C59" s="53" t="s">
+        <v>7</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>7</v>
@@ -12370,7 +12474,7 @@
       <c r="B66" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="54" t="s">
+      <c r="C66" s="67" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="31" t="s">
@@ -12390,7 +12494,7 @@
       </c>
       <c r="C67" s="10">
         <f>COUNTIF(C52:C66,"pass")</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67" s="10">
         <f>COUNTIF(D52:D66,"pass")</f>
@@ -12453,7 +12557,7 @@
       </c>
       <c r="C70" s="12">
         <f>COUNTIF(C52:C66,"Fail")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D70" s="12">
         <f>COUNTIF(D52:D66,"Fail")</f>
@@ -12516,7 +12620,7 @@
       </c>
       <c r="C73" s="6">
         <f>IF(C$72=0, 0,(C$67+C$68)/C$72)</f>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="D73" s="6">
         <f>IF(D$72=0, 0,(D$67+D$68)/D$72)</f>
@@ -12833,8 +12937,8 @@
       <c r="C92" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>6</v>
+      <c r="D92" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="E92" s="57" t="s">
         <v>177</v>
@@ -12973,7 +13077,7 @@
       </c>
       <c r="D100" s="10">
         <f>COUNTIF(D76:D99,"pass")</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E100" s="10">
         <f>COUNTIF(E76:E99,"pass")</f>
@@ -13036,7 +13140,7 @@
       </c>
       <c r="D103" s="12">
         <f>COUNTIF(D76:D99,"Fail")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E103" s="12">
         <f>COUNTIF(E76:E99,"Fail")</f>
@@ -13099,7 +13203,7 @@
       </c>
       <c r="D106" s="6">
         <f>IF(D$105=0,0,(D$100+D$101)/D$105)</f>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E106" s="6">
         <f>IF(E$105=0,0,(E$100+E$101)/E$105)</f>
@@ -13225,8 +13329,8 @@
       <c r="C114" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>6</v>
+      <c r="D114" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>6</v>
@@ -13263,7 +13367,7 @@
       </c>
       <c r="D116" s="10">
         <f>COUNTIF(D109:D115,"pass")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E116" s="10">
         <f>COUNTIF(E109:E115,"pass")</f>
@@ -13326,7 +13430,7 @@
       </c>
       <c r="D119" s="12">
         <f>COUNTIF(D109:D115,"Fail")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" s="12">
         <f>COUNTIF(E109:E115,"Fail")</f>
@@ -13389,7 +13493,7 @@
       </c>
       <c r="D122" s="6">
         <f>IF(D$121=0, 0, (D$116+D$117)/D$121)</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E122" s="6">
         <f>IF(E$121=0, 0, (E$116+E$117)/E$121)</f>
@@ -13955,8 +14059,8 @@
       <c r="B155" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C155" s="4" t="s">
-        <v>6</v>
+      <c r="C155" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>6</v>
@@ -14145,7 +14249,7 @@
       </c>
       <c r="C166" s="10">
         <f>COUNTIF(C154:C165,"pass")</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D166" s="10">
         <f>COUNTIF(D154:D165,"pass")</f>
@@ -14208,7 +14312,7 @@
       </c>
       <c r="C169" s="12">
         <f>COUNTIF(C154:C165,"Fail")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169" s="12">
         <f>COUNTIF(D154:D165,"Fail")</f>
@@ -14271,7 +14375,7 @@
       </c>
       <c r="C172" s="6">
         <f>IF(C$171=0, 0, (C$166+C$167)/C$171)</f>
-        <v>1</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="D172" s="6">
         <f>IF(D$171=0, 0, (D$166+D$167)/D$171)</f>
@@ -14364,8 +14468,8 @@
       <c r="B178" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C178" s="4" t="s">
-        <v>6</v>
+      <c r="C178" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>6</v>
@@ -14605,8 +14709,8 @@
       <c r="C192" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D192" s="38" t="s">
-        <v>140</v>
+      <c r="D192" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>7</v>
@@ -14659,8 +14763,8 @@
       <c r="D195" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E195" s="4" t="s">
-        <v>6</v>
+      <c r="E195" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -14707,8 +14811,8 @@
       <c r="C198" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D198" s="4" t="s">
-        <v>6</v>
+      <c r="D198" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>6</v>
@@ -14749,25 +14853,25 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="23" t="s">
+      <c r="A201" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="23" t="s">
         <v>255</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>6</v>
@@ -14784,7 +14888,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>6</v>
@@ -14801,32 +14905,41 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B205" s="35" t="s">
+      <c r="B206" s="35" t="s">
         <v>144</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E205" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>6</v>
@@ -14840,7 +14953,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="23" t="s">
-        <v>343</v>
+        <v>251</v>
       </c>
       <c r="B207" s="4" t="s">
         <v>6</v>
@@ -14851,27 +14964,36 @@
       <c r="D207" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E207" s="53" t="s">
-        <v>7</v>
+      <c r="E207" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="23" t="s">
-        <v>358</v>
+        <v>343</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E208" s="53" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>250</v>
+      <c r="A209" s="23" t="s">
+        <v>358</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C209" s="8" t="s">
-        <v>7</v>
+      <c r="C209" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D209" s="4" t="s">
         <v>6</v>
@@ -14882,13 +15004,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C210" s="4" t="s">
-        <v>6</v>
+      <c r="C210" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>6</v>
@@ -14899,7 +15021,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>6</v>
@@ -14916,41 +15038,41 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B212" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D212" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="23" t="s">
+      <c r="B213" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="23" t="s">
         <v>248</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>6</v>
@@ -14967,7 +15089,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>6</v>
@@ -14984,7 +15106,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>6</v>
@@ -15001,7 +15123,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>6</v>
@@ -15018,7 +15140,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>349</v>
+        <v>237</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>6</v>
@@ -15035,7 +15157,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>6</v>
@@ -15052,7 +15174,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>6</v>
@@ -15069,7 +15191,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>6</v>
@@ -15086,7 +15208,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>313</v>
+        <v>244</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>6</v>
@@ -15103,7 +15225,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>238</v>
+        <v>313</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>6</v>
@@ -15120,7 +15242,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>6</v>
@@ -15137,247 +15259,251 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B225" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D225" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="15" t="s">
+      <c r="B226" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="B226" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C226" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D226" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E226" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B227" s="10">
-        <f>COUNTIF(B$175:B$226,"pass")</f>
-        <v>48</v>
-      </c>
-      <c r="C227" s="10">
-        <f>COUNTIF(C$175:C$226,"pass")</f>
-        <v>45</v>
-      </c>
-      <c r="D227" s="10">
-        <f>COUNTIF(D$175:D$226,"pass")</f>
-        <v>49</v>
-      </c>
-      <c r="E227" s="10">
-        <f>COUNTIF(E$176:E$226,"pass")</f>
-        <v>45</v>
+      <c r="B227" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E227" s="21" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B228" s="5">
-        <f>COUNTIF(B$175:B$226,"Ok")</f>
-        <v>1</v>
-      </c>
-      <c r="C228" s="5">
-        <f>COUNTIF(C$175:C$226,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="D228" s="5">
-        <f>COUNTIF(D$175:D$226,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="E228" s="5">
-        <f>COUNTIF(E$176:E$226,"Ok")</f>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B228" s="10">
+        <f>COUNTIF(B$175:B$227,"pass")</f>
+        <v>49</v>
+      </c>
+      <c r="C228" s="10">
+        <f>COUNTIF(C$175:C$227,"pass")</f>
+        <v>46</v>
+      </c>
+      <c r="D228" s="10">
+        <f>COUNTIF(D$175:D$227,"pass")</f>
+        <v>51</v>
+      </c>
+      <c r="E228" s="10">
+        <f>COUNTIF(E$176:E$227,"pass")</f>
+        <v>46</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B229" s="11">
-        <f>COUNTIF(B$175:B$226,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="C229" s="11">
-        <f>COUNTIF(C$175:C$226,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="D229" s="11">
-        <f>COUNTIF(D$175:D$226,"workaround")</f>
+        <v>143</v>
+      </c>
+      <c r="B229" s="5">
+        <f>COUNTIF(B$175:B$227,"Ok")</f>
         <v>1</v>
       </c>
-      <c r="E229" s="11">
-        <f>COUNTIF(E$176:E$226,"workaround")</f>
+      <c r="C229" s="5">
+        <f>COUNTIF(C$175:C$227,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D229" s="5">
+        <f>COUNTIF(D$175:D$227,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E229" s="5">
+        <f>COUNTIF(E$176:E$227,"Ok")</f>
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B230" s="12">
-        <f>COUNTIF(B175:B226,"Fail")</f>
-        <v>1</v>
-      </c>
-      <c r="C230" s="12">
-        <f>COUNTIF(C175:C226,"Fail")</f>
-        <v>5</v>
-      </c>
-      <c r="D230" s="12">
-        <f>COUNTIF(D175:D226,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="E230" s="12">
-        <f>COUNTIF(E176:E226,"Fail")</f>
-        <v>5</v>
+        <v>140</v>
+      </c>
+      <c r="B230" s="11">
+        <f>COUNTIF(B$175:B$227,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C230" s="11">
+        <f>COUNTIF(C$175:C$227,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D230" s="11">
+        <f>COUNTIF(D$175:D$227,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E230" s="11">
+        <f>COUNTIF(E$176:E$227,"workaround")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B231" s="2">
-        <f>COUNT(B$179:B$213,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C231" s="2">
-        <f>COUNT(C$179:C$213,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D231" s="2">
-        <f>COUNT(D$179:D$213,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E231" s="2">
-        <f>COUNT(E$179:E$213,"Untested")</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B231" s="12">
+        <f>COUNTIF(B175:B227,"Fail")</f>
+        <v>3</v>
+      </c>
+      <c r="C231" s="12">
+        <f>COUNTIF(C175:C227,"Fail")</f>
+        <v>7</v>
+      </c>
+      <c r="D231" s="12">
+        <f>COUNTIF(D175:D227,"Fail")</f>
+        <v>2</v>
+      </c>
+      <c r="E231" s="12">
+        <f>COUNTIF(E176:E227,"Fail")</f>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B232" s="2">
+        <f>COUNT(B$179:B$214,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C232" s="2">
+        <f>COUNT(C$179:C$214,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D232" s="2">
+        <f>COUNT(D$179:D$214,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E232" s="2">
+        <f>COUNT(E$179:E$214,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B232" s="2">
-        <f>B$227+B$230+B$229+B$231+B$228</f>
-        <v>50</v>
-      </c>
-      <c r="C232" s="2">
-        <f>C$227+C$230+C$229+C$231+C$228</f>
-        <v>50</v>
-      </c>
-      <c r="D232" s="2">
-        <f>D$227+D$230+D$229+D$231+D$228</f>
-        <v>50</v>
-      </c>
-      <c r="E232" s="2">
-        <f>E$227+E$230+E$229+E$231+E$228</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="18" t="s">
+      <c r="B233" s="2">
+        <f>B$228+B$231+B$230+B$232+B$229</f>
+        <v>53</v>
+      </c>
+      <c r="C233" s="2">
+        <f>C$228+C$231+C$230+C$232+C$229</f>
+        <v>53</v>
+      </c>
+      <c r="D233" s="2">
+        <f>D$228+D$231+D$230+D$232+D$229</f>
+        <v>53</v>
+      </c>
+      <c r="E233" s="2">
+        <f>E$228+E$231+E$230+E$232+E$229</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B233" s="6">
-        <f>IF(B$232=0, 0, (B$227+B$228)/B$232)</f>
-        <v>0.98</v>
-      </c>
-      <c r="C233" s="6">
-        <f>IF(C$232=0, 0, (C$227+C$228)/C$232)</f>
-        <v>0.9</v>
-      </c>
-      <c r="D233" s="6">
-        <f>IF(D$232=0, 0, (D$227+D$228)/D$232)</f>
-        <v>0.98</v>
-      </c>
-      <c r="E233" s="6">
-        <f>IF(E$232=0, 0, (E$227+E$228)/E$232)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="13"/>
-      <c r="B234" s="16"/>
-      <c r="C234" s="13"/>
-      <c r="D234" s="13"/>
-      <c r="E234" s="13"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="19" t="s">
+      <c r="B234" s="6">
+        <f>IF(B$233=0, 0, (B$228+B$229)/B$233)</f>
+        <v>0.94339622641509435</v>
+      </c>
+      <c r="C234" s="6">
+        <f>IF(C$233=0, 0, (C$228+C$229)/C$233)</f>
+        <v>0.86792452830188682</v>
+      </c>
+      <c r="D234" s="6">
+        <f>IF(D$233=0, 0, (D$228+D$229)/D$233)</f>
+        <v>0.96226415094339623</v>
+      </c>
+      <c r="E234" s="6">
+        <f>IF(E$233=0, 0, (E$228+E$229)/E$233)</f>
+        <v>0.90196078431372551</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="13"/>
+      <c r="B235" s="16"/>
+      <c r="C235" s="13"/>
+      <c r="D235" s="13"/>
+      <c r="E235" s="13"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="B235" s="55" t="s">
+      <c r="B236" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C235" s="56" t="s">
+      <c r="C236" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="D235" s="56" t="s">
+      <c r="D236" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="E235" s="3" t="s">
+      <c r="E236" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-    </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C237" s="2"/>
+      <c r="A237" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B237" s="2"/>
+      <c r="C237" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B238" s="2"/>
-      <c r="C238" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" s="4" t="s">
@@ -15388,7 +15514,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" s="4" t="s">
@@ -15399,621 +15525,697 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C241" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="B241" s="2"/>
+      <c r="C241" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B242" s="2"/>
-      <c r="C242" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B243" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="B243" s="2"/>
       <c r="C243" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D243" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="D243" s="2"/>
       <c r="E243" s="2"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
+      <c r="C244" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E244" s="2"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B245" s="2"/>
-      <c r="C245" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C246" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="B246" s="2"/>
+      <c r="C246" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B247" s="2"/>
-      <c r="C247" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B248" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C248" s="15"/>
-      <c r="D248" s="15"/>
-      <c r="E248" s="15"/>
+      <c r="A248" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B248" s="2"/>
+      <c r="C248" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B249" s="10">
-        <f>COUNTIF(B236:B248,"pass")</f>
-        <v>7</v>
-      </c>
-      <c r="C249" s="10">
-        <f>COUNTIF(C236:C248,"pass")</f>
-        <v>8</v>
-      </c>
-      <c r="D249" s="10">
-        <f>COUNTIF(D236:D248,"pass")</f>
-        <v>0</v>
-      </c>
-      <c r="E249" s="10">
-        <f>COUNTIF(E236:E248,"pass")</f>
-        <v>0</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B249" s="2"/>
+      <c r="C249" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B250" s="5">
-        <f>COUNTIF(B236:B248,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="C250" s="5">
-        <f>COUNTIF(C236:C248,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="D250" s="5">
-        <f>COUNTIF(D236:D248,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="E250" s="5">
-        <f>COUNTIF(E236:E248,"Ok")</f>
-        <v>0</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B250" s="2"/>
+      <c r="C250" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B251" s="11">
-        <f>COUNTIF(B236:B248,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="C251" s="11">
-        <f>COUNTIF(C236:C248,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="D251" s="11">
-        <f>COUNTIF(D236:D248,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="E251" s="11">
-        <f>COUNTIF(E236:E248,"workaround")</f>
-        <v>0</v>
-      </c>
+      <c r="A251" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B252" s="12">
-        <f>COUNTIF(B236:B248,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C252" s="12">
-        <f>COUNTIF(C236:C248,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="D252" s="12">
-        <f>COUNTIF(D236:D248,"Fail")</f>
-        <v>1</v>
-      </c>
-      <c r="E252" s="12">
-        <f>COUNTIF(E236:E248,"Fail")</f>
-        <v>0</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E252" s="2"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B253" s="2">
-        <f>COUNT(B236:B248,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C253" s="2">
-        <f>COUNT(C236:C248,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D253" s="2">
-        <f>COUNT(D236:D248,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E253" s="2">
-        <f>COUNT(E236:E248,"Untested")</f>
-        <v>0</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B254" s="2">
-        <f>B249+B252+B251+B253+B250</f>
+        <v>361</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E254" s="2"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B255" s="59">
+        <f>COUNTIF(B237:B254,"pass")</f>
+        <v>9</v>
+      </c>
+      <c r="C255" s="59">
+        <f t="shared" ref="C255:E255" si="3">COUNTIF(C237:C254,"pass")</f>
+        <v>13</v>
+      </c>
+      <c r="D255" s="59">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E255" s="59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B256" s="5">
+        <f>COUNTIF(B237:B254,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C256" s="5">
+        <f t="shared" ref="C256:E256" si="4">COUNTIF(C237:C254,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D256" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E256" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B257" s="11">
+        <f>COUNTIF(B237:B254,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C257" s="11">
+        <f>COUNTIF(C239:C253,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D257" s="11">
+        <f>COUNTIF(D239:D253,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E257" s="11">
+        <f>COUNTIF(E239:E253,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C254" s="2">
-        <f>C249+C252+C251+C253+C250</f>
-        <v>8</v>
-      </c>
-      <c r="D254" s="2">
-        <f>D249+D252+D251+D253+D250</f>
+      <c r="B258" s="12">
+        <f>COUNTIF(B237:B254,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C258" s="12">
+        <f t="shared" ref="C258:E258" si="5">COUNTIF(C237:C254,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D258" s="12">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E254" s="2">
-        <f>E249+E252+E251+E253+E250</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B255" s="6">
-        <f>IF(B$254=0, 0, (B$249+B$250)/B$254)</f>
-        <v>1</v>
-      </c>
-      <c r="C255" s="6">
-        <f>IF(C$254=0, 0, (C$249+C$250)/C$254)</f>
-        <v>1</v>
-      </c>
-      <c r="D255" s="6">
-        <f>IF(D$254=0, 0, (D$249+D$250)/D$254)</f>
-        <v>0</v>
-      </c>
-      <c r="E255" s="6">
-        <f>IF(E$254=0, 0, (E$249+E$250)/E$254)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="13"/>
-      <c r="B256" s="13"/>
-      <c r="C256" s="13"/>
-      <c r="D256" s="13"/>
-      <c r="E256" s="13"/>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="B257" s="15"/>
-      <c r="C257" s="15"/>
-      <c r="D257" s="15"/>
-      <c r="E257" s="15"/>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="B258" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C258" s="28"/>
-      <c r="D258" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E258" s="28"/>
+      <c r="E258" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B259" s="10">
-        <f>COUNTIF(B258,"pass")</f>
-        <v>1</v>
-      </c>
-      <c r="C259" s="10">
-        <f>COUNTIF(C258,"pass")</f>
-        <v>0</v>
-      </c>
-      <c r="D259" s="10">
-        <f>COUNTIF(D258,"pass")</f>
-        <v>1</v>
-      </c>
-      <c r="E259" s="10">
-        <f>COUNTIF(E258,"pass")</f>
+        <v>145</v>
+      </c>
+      <c r="B259" s="2">
+        <f>COUNT(B237:B254,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C259" s="2">
+        <f t="shared" ref="C259:E259" si="6">COUNT(C237:C254,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D259" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E259" s="2">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B260" s="2">
+        <f>B255+B258+B257+B259+B256</f>
+        <v>9</v>
+      </c>
+      <c r="C260" s="2">
+        <f>C255+C258+C257+C259+C256</f>
+        <v>13</v>
+      </c>
+      <c r="D260" s="2">
+        <f>D255+D258+D257+D259+D256</f>
+        <v>3</v>
+      </c>
+      <c r="E260" s="2">
+        <f>E255+E258+E257+E259+E256</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B261" s="6">
+        <f>IF(B$260=0, 0, (B$255+B$256)/B$260)</f>
+        <v>1</v>
+      </c>
+      <c r="C261" s="6">
+        <f>IF(C$260=0, 0, (C$255+C$256)/C$260)</f>
+        <v>1</v>
+      </c>
+      <c r="D261" s="6">
+        <f>IF(D$260=0, 0, (D$255+D$256)/D$260)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E261" s="6">
+        <f>IF(E$260=0, 0, (E$255+E$256)/E$260)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="13"/>
+      <c r="B262" s="13"/>
+      <c r="C262" s="13"/>
+      <c r="D262" s="13"/>
+      <c r="E262" s="13"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B263" s="15"/>
+      <c r="C263" s="15"/>
+      <c r="D263" s="15"/>
+      <c r="E263" s="15"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="B264" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C264" s="28"/>
+      <c r="D264" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E264" s="28"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B265" s="10">
+        <f>COUNTIF(B264,"pass")</f>
+        <v>1</v>
+      </c>
+      <c r="C265" s="10">
+        <f>COUNTIF(C264,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="D265" s="10">
+        <f>COUNTIF(D264,"pass")</f>
+        <v>1</v>
+      </c>
+      <c r="E265" s="10">
+        <f>COUNTIF(E264,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B260" s="5">
-        <f>COUNTIF(B258,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="C260" s="5">
-        <f>COUNTIF(C258,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="D260" s="5">
-        <f>COUNTIF(D258,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="E260" s="5">
-        <f>COUNTIF(E258,"Ok")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="2" t="s">
+      <c r="B266" s="5">
+        <f>COUNTIF(B264,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C266" s="5">
+        <f>COUNTIF(C264,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D266" s="5">
+        <f>COUNTIF(D264,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E266" s="5">
+        <f>COUNTIF(E264,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B261" s="11">
-        <f>COUNTIF(B258,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="C261" s="11">
-        <f>COUNTIF(C258,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="D261" s="11">
-        <f>COUNTIF(D258,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="E261" s="11">
-        <f>COUNTIF(E258,"workaround")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="2" t="s">
+      <c r="B267" s="11">
+        <f>COUNTIF(B264,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C267" s="11">
+        <f>COUNTIF(C264,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D267" s="11">
+        <f>COUNTIF(D264,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E267" s="11">
+        <f>COUNTIF(E264,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B262" s="12">
-        <f>COUNTIF(B258,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C262" s="12">
-        <f>COUNTIF(C258,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="D262" s="12">
-        <f>COUNTIF(D258,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="E262" s="12">
-        <f>COUNTIF(E258,"Fail")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B263" s="2">
-        <f>COUNT(B258,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C263" s="2">
-        <f>COUNT(C258,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D263" s="2">
-        <f>COUNT(D258,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E263" s="2">
-        <f>COUNT(E258,"Untested")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B264" s="2">
-        <f>B259+B262+B261+B263+B260</f>
-        <v>1</v>
-      </c>
-      <c r="C264" s="2">
-        <f>C259+C262+C261+C263+C260</f>
-        <v>0</v>
-      </c>
-      <c r="D264" s="2">
-        <f>D259+D262+D261+D263+D260</f>
-        <v>1</v>
-      </c>
-      <c r="E264" s="2">
-        <f>E259+E262+E261+E263+E260</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B265" s="6">
-        <f>IF(B$274=0, 0, (B$269+B$270)/B$274)</f>
-        <v>1</v>
-      </c>
-      <c r="C265" s="6">
-        <f>IF(C$274=0, 0, (C$269+C$270)/C$274)</f>
-        <v>0</v>
-      </c>
-      <c r="D265" s="6">
-        <f>IF(D$274=0, 0, (D$269+D$270)/D$274)</f>
-        <v>1</v>
-      </c>
-      <c r="E265" s="6">
-        <f>IF(E$274=0, 0, (E$269+E$270)/E$274)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="13"/>
-      <c r="B266" s="13"/>
-      <c r="C266" s="13"/>
-      <c r="D266" s="13"/>
-      <c r="E266" s="13"/>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B267" s="15"/>
-      <c r="C267" s="15"/>
-      <c r="D267" s="15"/>
-      <c r="E267" s="15"/>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B268" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C268" s="28"/>
-      <c r="D268" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E268" s="28"/>
+      <c r="B268" s="12">
+        <f>COUNTIF(B264,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C268" s="12">
+        <f>COUNTIF(C264,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D268" s="12">
+        <f>COUNTIF(D264,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E268" s="12">
+        <f>COUNTIF(E264,"Fail")</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B269" s="10">
-        <f>COUNTIF(B268,"pass")</f>
-        <v>1</v>
-      </c>
-      <c r="C269" s="10">
-        <f>COUNTIF(C268,"pass")</f>
-        <v>0</v>
-      </c>
-      <c r="D269" s="10">
-        <f>COUNTIF(D268,"pass")</f>
-        <v>1</v>
-      </c>
-      <c r="E269" s="10">
-        <f>COUNTIF(E268,"pass")</f>
+        <v>145</v>
+      </c>
+      <c r="B269" s="2">
+        <f>COUNT(B264,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C269" s="2">
+        <f>COUNT(C264,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D269" s="2">
+        <f>COUNT(D264,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E269" s="2">
+        <f>COUNT(E264,"Untested")</f>
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B270" s="2">
+        <f>B265+B268+B267+B269+B266</f>
+        <v>1</v>
+      </c>
+      <c r="C270" s="2">
+        <f>C265+C268+C267+C269+C266</f>
+        <v>0</v>
+      </c>
+      <c r="D270" s="2">
+        <f>D265+D268+D267+D269+D266</f>
+        <v>1</v>
+      </c>
+      <c r="E270" s="2">
+        <f>E265+E268+E267+E269+E266</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B271" s="6">
+        <f>IF(B$280=0, 0, (B$275+B$276)/B$280)</f>
+        <v>1</v>
+      </c>
+      <c r="C271" s="6">
+        <f>IF(C$280=0, 0, (C$275+C$276)/C$280)</f>
+        <v>0</v>
+      </c>
+      <c r="D271" s="6">
+        <f>IF(D$280=0, 0, (D$275+D$276)/D$280)</f>
+        <v>1</v>
+      </c>
+      <c r="E271" s="6">
+        <f>IF(E$280=0, 0, (E$275+E$276)/E$280)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="13"/>
+      <c r="B272" s="13"/>
+      <c r="C272" s="13"/>
+      <c r="D272" s="13"/>
+      <c r="E272" s="13"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B273" s="15"/>
+      <c r="C273" s="15"/>
+      <c r="D273" s="15"/>
+      <c r="E273" s="15"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B274" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C274" s="28"/>
+      <c r="D274" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E274" s="28"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B275" s="10">
+        <f>COUNTIF(B274,"pass")</f>
+        <v>1</v>
+      </c>
+      <c r="C275" s="10">
+        <f>COUNTIF(C274,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="D275" s="10">
+        <f>COUNTIF(D274,"pass")</f>
+        <v>1</v>
+      </c>
+      <c r="E275" s="10">
+        <f>COUNTIF(E274,"pass")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B270" s="5">
-        <f>COUNTIF(B268,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="C270" s="5">
-        <f>COUNTIF(C268,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="D270" s="5">
-        <f>COUNTIF(D268,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="E270" s="5">
-        <f>COUNTIF(E268,"Ok")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
+      <c r="B276" s="5">
+        <f>COUNTIF(B274,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C276" s="5">
+        <f>COUNTIF(C274,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D276" s="5">
+        <f>COUNTIF(D274,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E276" s="5">
+        <f>COUNTIF(E274,"Ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B271" s="11">
-        <f>COUNTIF(B268,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="C271" s="11">
-        <f>COUNTIF(C268,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="D271" s="11">
-        <f>COUNTIF(D268,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="E271" s="11">
-        <f>COUNTIF(E268,"workaround")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="2" t="s">
+      <c r="B277" s="11">
+        <f>COUNTIF(B274,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C277" s="11">
+        <f>COUNTIF(C274,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D277" s="11">
+        <f>COUNTIF(D274,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E277" s="11">
+        <f>COUNTIF(E274,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B272" s="12">
-        <f>COUNTIF(B268,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C272" s="12">
-        <f>COUNTIF(C268,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="D272" s="12">
-        <f>COUNTIF(D268,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="E272" s="12">
-        <f>COUNTIF(E268,"Fail")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="2" t="s">
+      <c r="B278" s="12">
+        <f>COUNTIF(B274,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C278" s="12">
+        <f>COUNTIF(C274,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D278" s="12">
+        <f>COUNTIF(D274,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E278" s="12">
+        <f>COUNTIF(E274,"Fail")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B273" s="2">
-        <f>COUNT(B268,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C273" s="2">
-        <f>COUNT(C268,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D273" s="2">
-        <f>COUNT(D268,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E273" s="2">
-        <f>COUNT(E268,"Untested")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="2" t="s">
+      <c r="B279" s="2">
+        <f>COUNT(B274,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C279" s="2">
+        <f>COUNT(C274,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D279" s="2">
+        <f>COUNT(D274,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E279" s="2">
+        <f>COUNT(E274,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B274" s="2">
-        <f>B269+B272+B271+B273+B270</f>
+      <c r="B280" s="2">
+        <f>B275+B278+B277+B279+B276</f>
         <v>1</v>
       </c>
-      <c r="C274" s="2">
-        <f>C269+C272+C271+C273+C270</f>
-        <v>0</v>
-      </c>
-      <c r="D274" s="2">
-        <f>D269+D272+D271+D273+D270</f>
+      <c r="C280" s="2">
+        <f>C275+C278+C277+C279+C276</f>
+        <v>0</v>
+      </c>
+      <c r="D280" s="2">
+        <f>D275+D278+D277+D279+D276</f>
         <v>1</v>
       </c>
-      <c r="E274" s="2">
-        <f>E269+E272+E271+E273+E270</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="18" t="s">
+      <c r="E280" s="2">
+        <f>E275+E278+E277+E279+E276</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B275" s="6">
-        <f>IF(B$274=0, 0, (B$269+B$270)/B$274)</f>
+      <c r="B281" s="6">
+        <f>IF(B$280=0, 0, (B$275+B$276)/B$280)</f>
         <v>1</v>
       </c>
-      <c r="C275" s="6">
-        <f>IF(C$274=0, 0, (C$269+C$270)/C$274)</f>
-        <v>0</v>
-      </c>
-      <c r="D275" s="6">
-        <f>IF(D$274=0, 0, (D$269+D$270)/D$274)</f>
+      <c r="C281" s="6">
+        <f>IF(C$280=0, 0, (C$275+C$276)/C$280)</f>
+        <v>0</v>
+      </c>
+      <c r="D281" s="6">
+        <f>IF(D$280=0, 0, (D$275+D$276)/D$280)</f>
         <v>1</v>
       </c>
-      <c r="E275" s="6">
-        <f>IF(E$274=0, 0, (E$269+E$270)/E$274)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="1"/>
-      <c r="B276" s="1"/>
-      <c r="C276" s="1"/>
-      <c r="D276" s="1"/>
-      <c r="E276" s="1"/>
-    </row>
-    <row r="277" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="20"/>
-      <c r="C277" s="20"/>
-      <c r="D277" s="20"/>
-      <c r="E277" s="20"/>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="2"/>
-      <c r="B278" s="20"/>
-      <c r="C278" s="20"/>
-      <c r="D278" s="20"/>
-      <c r="E278" s="20"/>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
-      <c r="D279" s="2"/>
-      <c r="E279" s="2"/>
+      <c r="E281" s="6">
+        <f>IF(E$280=0, 0, (E$275+E$276)/E$280)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+    </row>
+    <row r="283" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="20"/>
+      <c r="C283" s="20"/>
+      <c r="D283" s="20"/>
+      <c r="E283" s="20"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="2"/>
+      <c r="B284" s="20"/>
+      <c r="C284" s="20"/>
+      <c r="D284" s="20"/>
+      <c r="E284" s="20"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="2"/>
+      <c r="B285" s="2"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="2"/>
+      <c r="E285" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16050,22 +16252,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -20343,22 +20545,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -24619,22 +24821,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -28618,22 +28820,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -32617,22 +32819,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -36617,26 +36819,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -36651,18 +36853,18 @@
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="62"/>
+      <c r="G4" s="64"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -41964,26 +42166,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -41998,18 +42200,18 @@
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="62"/>
+      <c r="G4" s="64"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -46670,14 +46872,14 @@
       <c r="A1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="64"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/doc/OpenGL status.xlsx
+++ b/doc/OpenGL status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="0" windowWidth="12480" windowHeight="15210"/>
+    <workbookView xWindow="45" yWindow="0" windowWidth="13350" windowHeight="18480"/>
   </bookViews>
   <sheets>
     <sheet name="2014-02" sheetId="10" r:id="rId1"/>
@@ -27,34 +27,6 @@
     <author>Groove</author>
   </authors>
   <commentList>
-    <comment ref="B39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Doesn't support const expression arithmetic: C1154: non constant expression in layout value</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B53" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Object labels not used in the debug output log.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C53" authorId="0">
       <text>
         <r>
@@ -110,20 +82,6 @@
             <family val="2"/>
           </rPr>
           <t>Generate a Syntax error: "layout" parse error</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B58" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Allows cast with precision qualifiers</t>
         </r>
       </text>
     </comment>
@@ -225,20 +183,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B86" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Structure for vertex inputs supported</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C89" authorId="0">
       <text>
         <r>
@@ -312,20 +256,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="E110" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>GLSL error: "'flat': syntax error syntax error"</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="E111" authorId="0">
       <text>
         <r>
@@ -390,7 +320,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Require glDrawBuffer(GL_NONE) before glCheckFramebuffer otherwise the implementation generates an OpenGL error
 </t>
@@ -408,20 +338,6 @@
             <family val="2"/>
           </rPr>
           <t>Doesn't render the shadow</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E132" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Return the GLSL error: "Invalid use of layout 'stream'.</t>
         </r>
       </text>
     </comment>
@@ -453,20 +369,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="E140" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>LOD query doesn't work</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B142" authorId="0">
       <text>
         <r>
@@ -495,20 +397,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="E142" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Allows to pass a copy of a varying to interpolateAtOffset</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B143" authorId="0">
       <text>
         <r>
@@ -520,36 +408,6 @@
             <family val="2"/>
           </rPr>
           <t>EXT_transform_feedback extension string missing</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B144" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">layout(triangles) in; declaration is required by the specification but the implementation doesn't requires it.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C144" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">layout(triangles) in; declaration is required by the specification but the implementation doesn't requires it.
-</t>
         </r>
       </text>
     </comment>
@@ -567,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E163" authorId="0">
+    <comment ref="E186" authorId="0">
       <text>
         <r>
           <rPr>
@@ -576,21 +434,6 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Doesn't support RGB10A2 texture format correctly. Nothing rendered.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E186" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t>Doesn't display the quad</t>
         </r>
@@ -604,7 +447,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Generates a GL_FRAMEBUFFER_INCOMPLETE_DRAW_BUFFER error
 </t>
@@ -619,7 +462,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Generates a GL_FRAMEBUFFER_INCOMPLETE_DRAW_BUFFER error
 </t>
@@ -634,7 +477,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Blit of integer multisample texture with even a single sample per texel doesn't work.</t>
         </r>
@@ -648,7 +491,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>The driver doesn't output vec4(0, 0, 0, 1) when the resolved interger color buffer is incomplete</t>
         </r>
@@ -662,7 +505,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Render a black screen</t>
         </r>
@@ -676,7 +519,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Require glDrawBuffer(GL_NONE) before glCheckFramebuffer otherwise the implementation generates an OpenGL error
 </t>
@@ -691,23 +534,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Generate an invalid operation error when on shadow rendering draw call.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E196" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Clearing a FBO bigger than the window dimentions generate unclear bands</t>
         </r>
       </text>
     </comment>
@@ -719,7 +548,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>"lowp int Count = lowp int(COUNT);" should generate an error.
 The valid form is:
@@ -735,7 +564,23 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>"lowp int Count = lowp int(COUNT);" should generate an error.
+The valid form is:
+"lowp int Count = int(COUNT);"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E198" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>"lowp int Count = lowp int(COUNT);" should generate an error.
 The valid form is:
@@ -751,7 +596,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>NVIDIA compiler aspects a structure for the vertex input interface, This is not allowed, it would be nice to have an extension for it.</t>
         </r>
@@ -765,11 +610,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t xml:space="preserve">glClearBufferfv is always performed, even is the condition fails.
-OpenGL 4.3 - 10.10 Conditional Rendering:
-Doesn't generate an GLSL compiler error when geometry shader input layout qualifier is missing
+          <t xml:space="preserve">layout(triangles) in; declaration is required by the specification but the implementation doesn't requires it.
 </t>
         </r>
       </text>
@@ -782,11 +625,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t xml:space="preserve">glClearBufferfv is always performed, even is the condition fails.
-OpenGL 4.3 - 10.10 Conditional Rendering:
-Doesn't generate an GLSL compiler error when geometry shader input layout qualifier is missing
+          <t xml:space="preserve">layout(triangles) in; declaration is required by the specification but the implementation doesn't requires it.
 </t>
         </r>
       </text>
@@ -805,20 +646,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="E208" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C210" authorId="0">
       <text>
         <r>
@@ -827,7 +654,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">glClearBufferfv is always performed, even is the condition fails.
 OpenGL 4.3 - 10.10 Conditional Rendering:
@@ -859,7 +686,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>"The internal format of the texture arrays is integer (see table 3.12), and either the magniﬁcation ﬁlter is not NEAREST, or the miniﬁcation ﬁlter is neither NEAREST nor NEAREST_MIPMAP_NEAREST."
 Other implementation doesn't have this requirement</t>
@@ -1268,7 +1095,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Require glDrawBuffer(GL_NONE) before glCheckFramebuffer otherwise the implementation generates an OpenGL error
 </t>
@@ -1482,7 +1309,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Fixed in this drivers</t>
         </r>
@@ -1496,7 +1323,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Doesn't display the quad</t>
         </r>
@@ -1510,7 +1337,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Generates a GL_FRAMEBUFFER_INCOMPLETE_DRAW_BUFFER error
 </t>
@@ -1525,7 +1352,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Generates a GL_FRAMEBUFFER_INCOMPLETE_DRAW_BUFFER error
 </t>
@@ -1540,7 +1367,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Blit of integer multisample texture with even a single sample per texel doesn't work.</t>
         </r>
@@ -1568,7 +1395,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Render a black screen</t>
         </r>
@@ -1582,7 +1409,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Require glDrawBuffer(GL_NONE) before glCheckFramebuffer otherwise the implementation generates an OpenGL error
 </t>
@@ -1597,7 +1424,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Clearing a FBO bigger than the window dimentions generate unclear bands</t>
         </r>
@@ -1625,7 +1452,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
         </r>
@@ -1639,7 +1466,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">glClearBufferfv is always performed, even is the condition fails.
 OpenGL 4.3 - 10.10 Conditional Rendering:
@@ -1671,7 +1498,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>"The internal format of the texture arrays is integer (see table 3.12), and either the magniﬁcation ﬁlter is not NEAREST, or the miniﬁcation ﬁlter is neither NEAREST nor NEAREST_MIPMAP_NEAREST."
 Other implementation doesn't have this requirement</t>
@@ -2024,7 +1851,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Fixed in this drivers</t>
         </r>
@@ -2066,7 +1893,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The depth test can't be enable
 </t>
@@ -2095,7 +1922,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Clearing a FBO failed</t>
         </r>
@@ -2109,7 +1936,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Generates a GL_FRAMEBUFFER_INCOMPLETE_DRAW_BUFFER error
 </t>
@@ -2124,7 +1951,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Generates a GL_FRAMEBUFFER_INCOMPLETE_DRAW_BUFFER error
 </t>
@@ -2167,7 +1994,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Blit of integer multisample texture with even a single sample per texel doesn't work.</t>
         </r>
@@ -2181,7 +2008,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Blit of integer multisample texture with even a single sample per texel doesn't work.</t>
         </r>
@@ -2195,7 +2022,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Render a black screen</t>
         </r>
@@ -2237,7 +2064,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Clearing a FBO bigger than the window dimentions generate unclear bands</t>
         </r>
@@ -2265,7 +2092,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">glClearBufferfv is always performed, even is the condition fails.
 OpenGL 4.3 - 10.10 Conditional Rendering:
@@ -2325,7 +2152,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>"The internal format of the texture arrays is integer (see table 3.12), and either the magniﬁcation ﬁlter is not NEAREST, or the miniﬁcation ﬁlter is neither NEAREST nor NEAREST_MIPMAP_NEAREST."
 Other implementation doesn't have this requirement</t>
@@ -2564,7 +2391,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Fixed with the new drivers</t>
         </r>
@@ -2620,7 +2447,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Fixed in this drivers</t>
         </r>
@@ -2634,7 +2461,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The implementation is confusing block name and instance name when enumerating uniforms
 </t>
@@ -2677,7 +2504,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The depth test can't be enable
 </t>
@@ -2692,7 +2519,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The depth test can't be enable
 </t>
@@ -2721,7 +2548,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Clearing a FBO failed</t>
         </r>
@@ -2735,7 +2562,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Generates a GL_FRAMEBUFFER_INCOMPLETE_DRAW_BUFFER error
 </t>
@@ -2750,7 +2577,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Generates a GL_FRAMEBUFFER_INCOMPLETE_DRAW_BUFFER error
 </t>
@@ -2765,7 +2592,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Fixed with this new driver</t>
         </r>
@@ -2807,7 +2634,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Blit of integer multisample texture with even a single sample per texel doesn't work.</t>
         </r>
@@ -2821,7 +2648,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Blit of integer multisample texture with even a single sample per texel doesn't work.</t>
         </r>
@@ -2835,7 +2662,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Render a black screen</t>
         </r>
@@ -2877,7 +2704,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Clearing a FBO bigger than the window dimentions generate unclear bands</t>
         </r>
@@ -2905,7 +2732,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">glClearBufferfv is always performed, even is the condition fails.
 OpenGL 4.3 - 10.10 Conditional Rendering:
@@ -2965,7 +2792,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>"The internal format of the texture arrays is integer (see table 3.12), and either the magniﬁcation ﬁlter is not NEAREST, or the miniﬁcation ﬁlter is neither NEAREST nor NEAREST_MIPMAP_NEAREST."
 Other implementation doesn't have this requirement</t>
@@ -3162,7 +2989,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Fixed with the new drivers</t>
         </r>
@@ -3218,7 +3045,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The implementation is confusing block name and instance name when enumerating uniforms
 </t>
@@ -3233,7 +3060,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The implementation is confusing block name and instance name when enumerating uniforms
 </t>
@@ -3276,7 +3103,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The depth test can't be enable
 </t>
@@ -3291,7 +3118,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The depth test can't be enable
 </t>
@@ -3320,7 +3147,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Clearing a FBO failed</t>
         </r>
@@ -3334,7 +3161,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Crash when there is only a depth attachment
 </t>
@@ -3349,7 +3176,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Generates a GL_FRAMEBUFFER_INCOMPLETE_DRAW_BUFFER error
 </t>
@@ -3364,7 +3191,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Fixed with this new driver</t>
         </r>
@@ -3406,7 +3233,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Blit of integer multisample texture with even a single sample per texel doesn't work.</t>
         </r>
@@ -3420,7 +3247,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Blit of integer multisample texture with even a single sample per texel doesn't work.</t>
         </r>
@@ -3434,7 +3261,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Render a black screen</t>
         </r>
@@ -3476,7 +3303,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Clearing a FBO bigger than the window dimentions generate unclear bands</t>
         </r>
@@ -3490,7 +3317,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>No error but doesn't render anything</t>
         </r>
@@ -3518,7 +3345,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">glClearBufferfv is always performed, even is the condition fails.
 OpenGL 4.3 - 10.10 Conditional Rendering:
@@ -3578,7 +3405,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>"The internal format of the texture arrays is integer (see table 3.12), and either the magniﬁcation ﬁlter is not NEAREST, or the miniﬁcation ﬁlter is neither NEAREST nor NEAREST_MIPMAP_NEAREST."
 Other implementation doesn't have this requirement</t>
@@ -3775,7 +3602,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Fixed with the new drivers</t>
         </r>
@@ -3831,7 +3658,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The implementation is confusing block name and instance name when enumerating uniforms
 </t>
@@ -3846,7 +3673,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The implementation is confusing block name and instance name when enumerating uniforms
 </t>
@@ -3861,7 +3688,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Can't use the layout qualifier at a glocal scope on uniforms. Generate a GLSL compiler error.</t>
         </r>
@@ -3889,7 +3716,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The depth test can't be enable
 </t>
@@ -3904,7 +3731,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">The depth test can't be enable
 </t>
@@ -3933,7 +3760,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Clearing a FBO failed</t>
         </r>
@@ -3947,7 +3774,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Crash when there is only a depth attachment
 </t>
@@ -3962,7 +3789,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Generates a GL_FRAMEBUFFER_INCOMPLETE_DRAW_BUFFER error
 </t>
@@ -3977,7 +3804,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Fixed with this new driver</t>
         </r>
@@ -4019,7 +3846,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Blit of integer multisample texture with even a single sample per texel doesn't work.</t>
         </r>
@@ -4033,7 +3860,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Blit of integer multisample texture with even a single sample per texel doesn't work.</t>
         </r>
@@ -4047,7 +3874,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Render a black screen</t>
         </r>
@@ -4089,7 +3916,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Clearing a FBO bigger than the window dimentions generate unclear bands</t>
         </r>
@@ -4103,7 +3930,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Doesn't allow to redeclare any built-in blocks in any shader stage</t>
         </r>
@@ -4117,7 +3944,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Generates a GLSL error: unknown opcode modifier
 </t>
@@ -4132,7 +3959,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Compiler crash</t>
         </r>
@@ -4160,7 +3987,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">glClearBufferfv is always performed, even is the condition fails.
 OpenGL 4.3 - 10.10 Conditional Rendering:
@@ -4206,7 +4033,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Deleting shader object after being attached lead to invalid operations error generated when the program pop the stack</t>
         </r>
@@ -4234,7 +4061,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>"The internal format of the texture arrays is integer (see table 3.12), and either the magniﬁcation ﬁlter is not NEAREST, or the miniﬁcation ﬁlter is neither NEAREST nor NEAREST_MIPMAP_NEAREST."
 Other implementation doesn't have this requirement</t>
@@ -4835,7 +4662,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Crash when there is only a depth attachment
 </t>
@@ -4850,7 +4677,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Generates a GL_FRAMEBUFFER_INCOMPLETE_DRAW_BUFFER error
 </t>
@@ -4865,7 +4692,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Crash
 </t>
@@ -6016,7 +5843,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7181" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7183" uniqueCount="371">
   <si>
     <t>gl-430-texture-view</t>
   </si>
@@ -7077,9 +6904,6 @@
     <t>OpenGL Status - February 2014</t>
   </si>
   <si>
-    <t>4.4.1.2</t>
-  </si>
-  <si>
     <t>OpenGL ES 3.0</t>
   </si>
   <si>
@@ -7110,13 +6934,28 @@
     <t>430-perf-monitor-amd</t>
   </si>
   <si>
-    <t>02/18/2013</t>
-  </si>
-  <si>
     <t>334.89</t>
   </si>
   <si>
     <t>NVIDIA 334.89</t>
+  </si>
+  <si>
+    <t>10.18.10.3380</t>
+  </si>
+  <si>
+    <t>Intel 10.18.10.3380</t>
+  </si>
+  <si>
+    <t>14.1 beta 1</t>
+  </si>
+  <si>
+    <t>AMD 14.1 beta 1</t>
+  </si>
+  <si>
+    <t>10/22/2013</t>
+  </si>
+  <si>
+    <t>4.4.1.3</t>
   </si>
 </sst>
 </file>
@@ -7126,7 +6965,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7189,13 +7028,6 @@
       <name val="Cambria"/>
       <family val="1"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -7454,6 +7286,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7474,9 +7309,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -7585,10 +7417,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8666666666666667</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -7597,7 +7429,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -7618,7 +7450,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AMD 13.11 b9.2</c:v>
+                  <c:v>AMD 14.1 beta 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7679,7 +7511,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.91666666666666663</c:v>
@@ -7700,7 +7532,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Intel 10.18.10.3325</c:v>
+                  <c:v>Intel 10.18.10.3380</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7758,7 +7590,7 @@
                   <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8571428571428571</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.95</c:v>
@@ -7840,16 +7672,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.91666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90196078431372551</c:v>
+                  <c:v>0.92307692307692313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7864,11 +7696,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="148280832"/>
-        <c:axId val="148128320"/>
+        <c:axId val="148780032"/>
+        <c:axId val="148660224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148280832"/>
+        <c:axId val="148780032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7877,7 +7709,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148128320"/>
+        <c:crossAx val="148660224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7885,7 +7717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148128320"/>
+        <c:axId val="148660224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7897,7 +7729,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148280832"/>
+        <c:crossAx val="148780032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8277,11 +8109,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="143762944"/>
-        <c:axId val="148131200"/>
+        <c:axId val="151285760"/>
+        <c:axId val="148663104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143762944"/>
+        <c:axId val="151285760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8290,7 +8122,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148131200"/>
+        <c:crossAx val="148663104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8298,7 +8130,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148131200"/>
+        <c:axId val="148663104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8310,13 +8142,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143762944"/>
+        <c:crossAx val="151285760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8689,11 +8522,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149567488"/>
-        <c:axId val="148134656"/>
+        <c:axId val="151289344"/>
+        <c:axId val="148665984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149567488"/>
+        <c:axId val="151289344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8702,7 +8535,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148134656"/>
+        <c:crossAx val="148665984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8710,7 +8543,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148134656"/>
+        <c:axId val="148665984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8722,7 +8555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149567488"/>
+        <c:crossAx val="151289344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9077,11 +8910,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149565440"/>
-        <c:axId val="149734528"/>
+        <c:axId val="151693312"/>
+        <c:axId val="151176320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149565440"/>
+        <c:axId val="151693312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9090,7 +8923,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149734528"/>
+        <c:crossAx val="151176320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9098,7 +8931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149734528"/>
+        <c:axId val="151176320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9110,7 +8943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149565440"/>
+        <c:crossAx val="151693312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9465,11 +9298,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="150687232"/>
-        <c:axId val="149737408"/>
+        <c:axId val="151955968"/>
+        <c:axId val="151178624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="150687232"/>
+        <c:axId val="151955968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9478,7 +9311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149737408"/>
+        <c:crossAx val="151178624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9486,7 +9319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149737408"/>
+        <c:axId val="151178624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9498,7 +9331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150687232"/>
+        <c:crossAx val="151955968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9853,11 +9686,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151726080"/>
-        <c:axId val="149740288"/>
+        <c:axId val="152207360"/>
+        <c:axId val="151181504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151726080"/>
+        <c:axId val="152207360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9866,7 +9699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149740288"/>
+        <c:crossAx val="151181504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9874,7 +9707,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149740288"/>
+        <c:axId val="151181504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9886,7 +9719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151726080"/>
+        <c:crossAx val="152207360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10393,11 +10226,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="143761920"/>
-        <c:axId val="150906560"/>
+        <c:axId val="152162304"/>
+        <c:axId val="151839296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143761920"/>
+        <c:axId val="152162304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10406,7 +10239,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150906560"/>
+        <c:crossAx val="151839296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10414,7 +10247,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150906560"/>
+        <c:axId val="151839296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10426,7 +10259,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143761920"/>
+        <c:crossAx val="152162304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10897,11 +10730,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="150582784"/>
-        <c:axId val="150908864"/>
+        <c:axId val="143360512"/>
+        <c:axId val="151841600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="150582784"/>
+        <c:axId val="143360512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10910,7 +10743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150908864"/>
+        <c:crossAx val="151841600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10918,7 +10751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150908864"/>
+        <c:axId val="151841600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10930,7 +10763,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150582784"/>
+        <c:crossAx val="143360512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10956,15 +10789,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>138111</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>176211</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11532,8 +11365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="F213" sqref="F213"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11547,22 +11380,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -11592,17 +11425,17 @@
       <c r="A5" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>364</v>
+      <c r="B5" s="17">
+        <v>41688</v>
       </c>
       <c r="C5" s="17">
-        <v>41586</v>
+        <v>41671</v>
       </c>
       <c r="D5" s="39">
-        <v>41516</v>
-      </c>
-      <c r="E5" s="17">
-        <v>41569</v>
+        <v>41683</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -11610,13 +11443,13 @@
         <v>148</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6" s="57" t="s">
         <v>365</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>348</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>341</v>
@@ -11627,16 +11460,16 @@
         <v>157</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11651,13 +11484,13 @@
         <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>341</v>
@@ -11669,7 +11502,7 @@
       </c>
       <c r="B10" s="49">
         <f>IF(B$48=0, 0,(B$43+B$44)/B$48)</f>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="C10" s="49">
         <f t="shared" ref="C10:E10" si="0">IF(C$48=0, 0,(C$43+C$44)/C$48)</f>
@@ -11690,7 +11523,7 @@
       </c>
       <c r="B11" s="20">
         <f>IF(B$72=0, 0,(B$67+B$68)/B$72)</f>
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C11" s="20">
         <f>IF(C$72=0, 0,(C$67+C$68)/C$72)</f>
@@ -11740,11 +11573,11 @@
       </c>
       <c r="D13" s="20">
         <f>IF(D$121=0, 0, (D$116+D$117)/D$121)</f>
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="E13" s="20">
         <f>IF(E$121=0, 0, (E$116+E$117)/E$121)</f>
-        <v>0.42857142857142855</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -11753,11 +11586,11 @@
       </c>
       <c r="B14" s="20">
         <f>IF(B$150=0, 0, (B$145+B$146)/B$150)</f>
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C14" s="20">
         <f>IF(C$150=0, 0, (C$145+C$146)/C$150)</f>
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="D14" s="20">
         <f>IF(D$150=0, 0, (D$145+D$146)/D$150)</f>
@@ -11765,7 +11598,7 @@
       </c>
       <c r="E14" s="20">
         <f>IF(E$150=0, 0, (E$145+E$146)/E$150)</f>
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -11807,7 +11640,7 @@
       </c>
       <c r="E16" s="25">
         <f>IF(E$233=0, 0, (E$228+E$229)/E$233)</f>
-        <v>0.90196078431372551</v>
+        <v>0.92307692307692313</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -11996,8 +11829,8 @@
       <c r="A39" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>7</v>
+      <c r="B39" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C39" s="57" t="s">
         <v>177</v>
@@ -12066,7 +11899,7 @@
       </c>
       <c r="B43" s="10">
         <f>COUNTIF(B37:B42,"pass")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" s="10">
         <f>COUNTIF(C37:C42,"pass")</f>
@@ -12129,7 +11962,7 @@
       </c>
       <c r="B46" s="12">
         <f>COUNTIF(B37:B42,"Fail")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" s="12">
         <f>COUNTIF(C37:C42,"Fail")</f>
@@ -12192,7 +12025,7 @@
       </c>
       <c r="B49" s="6">
         <f>IF(B$48=0, 0,(B$43+B$44)/B$48)</f>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="C49" s="6">
         <f t="shared" ref="C49:E49" si="1">IF(C$48=0, 0,(C$43+C$44)/C$48)</f>
@@ -12250,8 +12083,8 @@
       <c r="A53" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>140</v>
+      <c r="B53" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>7</v>
@@ -12335,8 +12168,8 @@
       <c r="A58" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>140</v>
+      <c r="B58" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>6</v>
@@ -12474,7 +12307,7 @@
       <c r="B66" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="67" t="s">
+      <c r="C66" s="60" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="31" t="s">
@@ -12490,7 +12323,7 @@
       </c>
       <c r="B67" s="10">
         <f>COUNTIF(B52:B66,"pass")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C67" s="10">
         <f>COUNTIF(C52:C66,"pass")</f>
@@ -12532,7 +12365,7 @@
       </c>
       <c r="B69" s="11">
         <f>COUNTIF(B52:B66,"workaround")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C69" s="11">
         <f>COUNTIF(C52:C66,"workaround")</f>
@@ -12616,7 +12449,7 @@
       </c>
       <c r="B73" s="6">
         <f>IF(B$72=0, 0,(B$67+B$68)/B$72)</f>
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C73" s="6">
         <f>IF(C$72=0, 0,(C$67+C$68)/C$72)</f>
@@ -12829,8 +12662,8 @@
       <c r="A86" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B86" s="35" t="s">
-        <v>144</v>
+      <c r="B86" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>6</v>
@@ -13069,7 +12902,7 @@
       </c>
       <c r="B100" s="10">
         <f>COUNTIF(B76:B99,"pass")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C100" s="10">
         <f>COUNTIF(C76:C99,"pass")</f>
@@ -13090,7 +12923,7 @@
       </c>
       <c r="B101" s="5">
         <f>COUNTIF(B76:B99,"Ok")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" s="5">
         <f>COUNTIF(C76:C99,"Ok")</f>
@@ -13264,8 +13097,8 @@
       <c r="D110" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E110" s="8" t="s">
-        <v>7</v>
+      <c r="E110" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -13329,11 +13162,11 @@
       <c r="C114" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D114" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>6</v>
+      <c r="D114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="35" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -13367,7 +13200,7 @@
       </c>
       <c r="D116" s="10">
         <f>COUNTIF(D109:D115,"pass")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E116" s="10">
         <f>COUNTIF(E109:E115,"pass")</f>
@@ -13392,7 +13225,7 @@
       </c>
       <c r="E117" s="5">
         <f>COUNTIF(E109:E115,"Ok")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -13430,11 +13263,11 @@
       </c>
       <c r="D119" s="12">
         <f>COUNTIF(D109:D115,"Fail")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" s="12">
         <f>COUNTIF(E109:E115,"Fail")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -13493,11 +13326,11 @@
       </c>
       <c r="D122" s="6">
         <f>IF(D$121=0, 0, (D$116+D$117)/D$121)</f>
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="E122" s="6">
         <f>IF(E$121=0, 0, (E$116+E$117)/E$121)</f>
-        <v>0.42857142857142855</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13537,8 +13370,8 @@
       <c r="D125" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E125" s="4" t="s">
-        <v>6</v>
+      <c r="E125" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -13656,8 +13489,8 @@
       <c r="D132" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="8" t="s">
-        <v>7</v>
+      <c r="E132" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -13792,8 +13625,8 @@
       <c r="D140" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E140" s="8" t="s">
-        <v>7</v>
+      <c r="E140" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -13826,8 +13659,8 @@
       <c r="D142" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E142" s="35" t="s">
-        <v>144</v>
+      <c r="E142" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -13851,11 +13684,11 @@
       <c r="A144" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B144" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C144" s="22" t="s">
-        <v>140</v>
+      <c r="B144" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>6</v>
       </c>
       <c r="D144" s="21" t="s">
         <v>6</v>
@@ -13870,11 +13703,11 @@
       </c>
       <c r="B145" s="10">
         <f>COUNTIF(B125:B144,"pass")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C145" s="10">
         <f>COUNTIF(C125:C144,"pass")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D145" s="10">
         <f>COUNTIF(D125:D144,"pass")</f>
@@ -13882,7 +13715,7 @@
       </c>
       <c r="E145" s="10">
         <f>COUNTIF(E125:E144,"pass")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -13903,7 +13736,7 @@
       </c>
       <c r="E146" s="5">
         <f>COUNTIF(E125:E144,"Ok")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -13912,11 +13745,11 @@
       </c>
       <c r="B147" s="11">
         <f>COUNTIF(B125:B144,"workaround")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" s="11">
         <f>COUNTIF(C125:C144,"workaround")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D147" s="11">
         <f>COUNTIF(D125:D144,"workaround")</f>
@@ -13945,7 +13778,7 @@
       </c>
       <c r="E148" s="12">
         <f>COUNTIF(E125:E144,"Fail")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -13996,11 +13829,11 @@
       </c>
       <c r="B151" s="6">
         <f>IF(B$150=0, 0, (B$145+B$146)/B$150)</f>
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="C151" s="6">
         <f>IF(C$150=0, 0, (C$145+C$146)/C$150)</f>
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="D151" s="6">
         <f>IF(D$150=0, 0, (D$145+D$146)/D$150)</f>
@@ -14008,7 +13841,7 @@
       </c>
       <c r="E151" s="6">
         <f>IF(E$150=0, 0, (E$145+E$146)/E$150)</f>
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14065,8 +13898,8 @@
       <c r="D155" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E155" s="4" t="s">
-        <v>6</v>
+      <c r="E155" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -14201,8 +14034,8 @@
       <c r="D163" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E163" s="8" t="s">
-        <v>7</v>
+      <c r="E163" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -14531,7 +14364,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>6</v>
@@ -14548,7 +14381,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>6</v>
@@ -14780,8 +14613,8 @@
       <c r="D196" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E196" s="53" t="s">
-        <v>7</v>
+      <c r="E196" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -14803,7 +14636,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>7</v>
@@ -14814,8 +14647,8 @@
       <c r="D198" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E198" s="4" t="s">
-        <v>6</v>
+      <c r="E198" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -14854,7 +14687,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>7</v>
@@ -14933,6 +14766,9 @@
       <c r="D205" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="E205" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
@@ -14981,13 +14817,13 @@
       <c r="D208" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E208" s="53" t="s">
-        <v>7</v>
+      <c r="E208" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>6</v>
@@ -15326,7 +15162,7 @@
       </c>
       <c r="E228" s="10">
         <f>COUNTIF(E$176:E$227,"pass")</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -15389,7 +15225,7 @@
       </c>
       <c r="E231" s="12">
         <f>COUNTIF(E176:E227,"Fail")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -15431,7 +15267,7 @@
       </c>
       <c r="E233" s="2">
         <f>E$228+E$231+E$230+E$232+E$229</f>
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15452,7 +15288,7 @@
       </c>
       <c r="E234" s="6">
         <f>IF(E$233=0, 0, (E$228+E$229)/E$233)</f>
-        <v>0.90196078431372551</v>
+        <v>0.92307692307692313</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15481,7 +15317,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" s="4" t="s">
@@ -15497,7 +15333,9 @@
       <c r="B238" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C238" s="2"/>
+      <c r="C238" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
     </row>
@@ -15650,7 +15488,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>6</v>
@@ -15678,7 +15516,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>6</v>
@@ -15764,7 +15602,7 @@
       </c>
       <c r="C258" s="12">
         <f t="shared" ref="C258:E258" si="5">COUNTIF(C237:C254,"Fail")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D258" s="12">
         <f t="shared" si="5"/>
@@ -15806,7 +15644,7 @@
       </c>
       <c r="C260" s="2">
         <f>C255+C258+C257+C259+C256</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D260" s="2">
         <f>D255+D258+D257+D259+D256</f>
@@ -15827,7 +15665,7 @@
       </c>
       <c r="C261" s="6">
         <f>IF(C$260=0, 0, (C$255+C$256)/C$260)</f>
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="D261" s="6">
         <f>IF(D$260=0, 0, (D$255+D$256)/D$260)</f>
@@ -15847,7 +15685,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B263" s="15"/>
       <c r="C263" s="15"/>
@@ -15856,7 +15694,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B264" s="29" t="s">
         <v>6</v>
@@ -16237,7 +16075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A172" workbookViewId="0">
       <selection activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
@@ -16252,22 +16090,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -20545,22 +20383,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -24821,22 +24659,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -28820,22 +28658,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -32819,22 +32657,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -36819,26 +36657,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -36853,18 +36691,18 @@
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64" t="s">
+      <c r="E4" s="65"/>
+      <c r="F4" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="64"/>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -42166,26 +42004,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -42200,18 +42038,18 @@
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64" t="s">
+      <c r="E4" s="65"/>
+      <c r="F4" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="64"/>
+      <c r="G4" s="65"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -46872,14 +46710,14 @@
       <c r="A1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="66" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="66"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/doc/OpenGL status.xlsx
+++ b/doc/OpenGL status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="0" windowWidth="13350" windowHeight="18480"/>
+    <workbookView xWindow="45" yWindow="0" windowWidth="13350" windowHeight="15210"/>
   </bookViews>
   <sheets>
     <sheet name="2014-02" sheetId="10" r:id="rId1"/>
@@ -52,11 +52,25 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Doesn't support overloading of glDebugMessageControlARB(GL_DONT_CARE, GL_DONT_CARE, GL_DONT_CARE, 0, NULL, GL_FALSE)</t>
+          <t>Returns an invalid operation error when it should be an invliad enum error.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="0">
+    <comment ref="D54" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Generated an invalid operation error on glBindVertexBuffer</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0">
+    <comment ref="C57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C59" authorId="0">
+    <comment ref="C60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D59" authorId="0">
+    <comment ref="D60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -113,21 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D60" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Don't perform the transformation correctly</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C61" authorId="0">
+    <comment ref="C62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C66" authorId="0">
+    <comment ref="C67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -155,35 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D79" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Doesn't support overloading of glDebugMessageControlARB(GL_DONT_CARE, GL_DONT_CARE, GL_DONT_CARE, 0, NULL, GL_FALSE)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D84" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Generates invalid warnings: "Only GLSL version &gt; 110 allows postfix "F" or "f" for float." I am running 420.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C89" authorId="0">
+    <comment ref="C90" authorId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D92" authorId="0">
+    <comment ref="D93" authorId="0">
       <text>
         <r>
           <rPr>
@@ -208,12 +180,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Produce rendering artifacts
-</t>
+          <t>OpenGL drivers crashes</t>
         </r>
       </text>
     </comment>
-    <comment ref="C95" authorId="0">
+    <comment ref="C96" authorId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D97" authorId="0">
+    <comment ref="D98" authorId="0">
       <text>
         <r>
           <rPr>
@@ -242,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C98" authorId="0">
+    <comment ref="C99" authorId="0">
       <text>
         <r>
           <rPr>
@@ -253,20 +224,6 @@
             <family val="2"/>
           </rPr>
           <t>Allows an implicit cast on texture coordinates parameter</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E111" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Lot of GLSL errors</t>
         </r>
       </text>
     </comment>
@@ -284,7 +241,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="E114" authorId="0">
+    <comment ref="E113" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lot of GLSL errors</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E115" authorId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E115" authorId="0">
+    <comment ref="E116" authorId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C131" authorId="0">
+    <comment ref="C132" authorId="0">
       <text>
         <r>
           <rPr>
@@ -327,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E131" authorId="0">
+    <comment ref="E132" authorId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E136" authorId="0">
+    <comment ref="E137" authorId="0">
       <text>
         <r>
           <rPr>
@@ -355,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E138" authorId="0">
+    <comment ref="E139" authorId="0">
       <text>
         <r>
           <rPr>
@@ -369,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B142" authorId="0">
+    <comment ref="B143" authorId="0">
       <text>
         <r>
           <rPr>
@@ -383,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D142" authorId="0">
+    <comment ref="D143" authorId="0">
       <text>
         <r>
           <rPr>
@@ -397,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B143" authorId="0">
+    <comment ref="B144" authorId="0">
       <text>
         <r>
           <rPr>
@@ -411,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E144" authorId="0">
+    <comment ref="E145" authorId="0">
       <text>
         <r>
           <rPr>
@@ -425,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E186" authorId="0">
+    <comment ref="E187" authorId="0">
       <text>
         <r>
           <rPr>
@@ -436,21 +407,6 @@
             <family val="2"/>
           </rPr>
           <t>Doesn't display the quad</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C187" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Generates a GL_FRAMEBUFFER_INCOMPLETE_DRAW_BUFFER error
-</t>
         </r>
       </text>
     </comment>
@@ -469,7 +425,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="C192" authorId="0">
+    <comment ref="C189" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Generates a GL_FRAMEBUFFER_INCOMPLETE_DRAW_BUFFER error
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C193" authorId="0">
       <text>
         <r>
           <rPr>
@@ -483,7 +454,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D192" authorId="0">
+    <comment ref="D193" authorId="0">
       <text>
         <r>
           <rPr>
@@ -497,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E192" authorId="0">
+    <comment ref="E193" authorId="0">
       <text>
         <r>
           <rPr>
@@ -511,7 +482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C195" authorId="0">
+    <comment ref="C196" authorId="0">
       <text>
         <r>
           <rPr>
@@ -526,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E195" authorId="0">
+    <comment ref="E196" authorId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B198" authorId="0">
+    <comment ref="B199" authorId="0">
       <text>
         <r>
           <rPr>
@@ -556,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D198" authorId="0">
+    <comment ref="D199" authorId="0">
       <text>
         <r>
           <rPr>
@@ -572,7 +543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E198" authorId="0">
+    <comment ref="E199" authorId="0">
       <text>
         <r>
           <rPr>
@@ -588,7 +559,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B201" authorId="0">
+    <comment ref="B202" authorId="0">
       <text>
         <r>
           <rPr>
@@ -602,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B205" authorId="0">
+    <comment ref="B206" authorId="0">
       <text>
         <r>
           <rPr>
@@ -617,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C205" authorId="0">
+    <comment ref="C206" authorId="0">
       <text>
         <r>
           <rPr>
@@ -632,7 +603,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B206" authorId="0">
+    <comment ref="B207" authorId="0">
       <text>
         <r>
           <rPr>
@@ -646,7 +617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C210" authorId="0">
+    <comment ref="C211" authorId="0">
       <text>
         <r>
           <rPr>
@@ -664,7 +635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B221" authorId="0">
+    <comment ref="B222" authorId="0">
       <text>
         <r>
           <rPr>
@@ -678,7 +649,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E222" authorId="0">
+    <comment ref="E223" authorId="0">
       <text>
         <r>
           <rPr>
@@ -693,7 +664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D244" authorId="0">
+    <comment ref="D245" authorId="0">
       <text>
         <r>
           <rPr>
@@ -707,7 +678,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C251" authorId="0">
+    <comment ref="C252" authorId="0">
       <text>
         <r>
           <rPr>
@@ -721,7 +692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D251" authorId="0">
+    <comment ref="D252" authorId="0">
       <text>
         <r>
           <rPr>
@@ -735,7 +706,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E251" authorId="0">
+    <comment ref="E252" authorId="0">
       <text>
         <r>
           <rPr>
@@ -5843,7 +5814,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7183" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7188" uniqueCount="372">
   <si>
     <t>gl-430-texture-view</t>
   </si>
@@ -6940,12 +6911,6 @@
     <t>NVIDIA 334.89</t>
   </si>
   <si>
-    <t>10.18.10.3380</t>
-  </si>
-  <si>
-    <t>Intel 10.18.10.3380</t>
-  </si>
-  <si>
     <t>14.1 beta 1</t>
   </si>
   <si>
@@ -6956,6 +6921,15 @@
   </si>
   <si>
     <t>4.4.1.3</t>
+  </si>
+  <si>
+    <t>draw-vertex-attrib-binding</t>
+  </si>
+  <si>
+    <t>10.18.10.3412</t>
+  </si>
+  <si>
+    <t>Intel 10.18.10.3412</t>
   </si>
 </sst>
 </file>
@@ -7155,7 +7129,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -7288,6 +7262,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7502,7 +7479,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.875</c:v>
@@ -7532,7 +7509,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Intel 10.18.10.3380</c:v>
+                  <c:v>Intel 10.18.10.3412</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7584,10 +7561,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.91666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -7696,11 +7673,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="148780032"/>
-        <c:axId val="148660224"/>
+        <c:axId val="147018240"/>
+        <c:axId val="144728064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148780032"/>
+        <c:axId val="147018240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7709,7 +7686,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148660224"/>
+        <c:crossAx val="144728064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7717,7 +7694,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148660224"/>
+        <c:axId val="144728064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7729,7 +7706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148780032"/>
+        <c:crossAx val="147018240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8109,11 +8086,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151285760"/>
-        <c:axId val="148663104"/>
+        <c:axId val="147019776"/>
+        <c:axId val="144730944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151285760"/>
+        <c:axId val="147019776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8122,7 +8099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148663104"/>
+        <c:crossAx val="144730944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8130,7 +8107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148663104"/>
+        <c:axId val="144730944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8142,14 +8119,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151285760"/>
+        <c:crossAx val="147019776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8522,11 +8498,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151289344"/>
-        <c:axId val="148665984"/>
+        <c:axId val="69903872"/>
+        <c:axId val="144733824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151289344"/>
+        <c:axId val="69903872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8535,7 +8511,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148665984"/>
+        <c:crossAx val="144733824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8543,7 +8519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148665984"/>
+        <c:axId val="144733824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8555,7 +8531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151289344"/>
+        <c:crossAx val="69903872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8910,11 +8886,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151693312"/>
-        <c:axId val="151176320"/>
+        <c:axId val="148721664"/>
+        <c:axId val="148292736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151693312"/>
+        <c:axId val="148721664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8923,7 +8899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151176320"/>
+        <c:crossAx val="148292736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8931,7 +8907,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151176320"/>
+        <c:axId val="148292736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -8943,7 +8919,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151693312"/>
+        <c:crossAx val="148721664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9298,11 +9274,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151955968"/>
-        <c:axId val="151178624"/>
+        <c:axId val="149035008"/>
+        <c:axId val="148295040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151955968"/>
+        <c:axId val="149035008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9311,7 +9287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151178624"/>
+        <c:crossAx val="148295040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9319,7 +9295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151178624"/>
+        <c:axId val="148295040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9331,7 +9307,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151955968"/>
+        <c:crossAx val="149035008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9686,11 +9662,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152207360"/>
-        <c:axId val="151181504"/>
+        <c:axId val="148932096"/>
+        <c:axId val="148297920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152207360"/>
+        <c:axId val="148932096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9699,7 +9675,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151181504"/>
+        <c:crossAx val="148297920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9707,7 +9683,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151181504"/>
+        <c:axId val="148297920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9719,7 +9695,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152207360"/>
+        <c:crossAx val="148932096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10226,11 +10202,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152162304"/>
-        <c:axId val="151839296"/>
+        <c:axId val="148934144"/>
+        <c:axId val="148693568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152162304"/>
+        <c:axId val="148934144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10239,7 +10215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151839296"/>
+        <c:crossAx val="148693568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10247,7 +10223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151839296"/>
+        <c:axId val="148693568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10259,7 +10235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152162304"/>
+        <c:crossAx val="148934144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10730,11 +10706,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="143360512"/>
-        <c:axId val="151841600"/>
+        <c:axId val="150340608"/>
+        <c:axId val="148695872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="143360512"/>
+        <c:axId val="150340608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10743,7 +10719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151841600"/>
+        <c:crossAx val="148695872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10751,7 +10727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151841600"/>
+        <c:axId val="148695872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10763,7 +10739,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143360512"/>
+        <c:crossAx val="150340608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11363,10 +11339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E285"/>
+  <dimension ref="A1:E286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="C239" sqref="C239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11380,22 +11356,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -11432,10 +11408,10 @@
         <v>41671</v>
       </c>
       <c r="D5" s="39">
-        <v>41683</v>
+        <v>41668</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -11446,10 +11422,10 @@
         <v>363</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>341</v>
@@ -11460,16 +11436,16 @@
         <v>157</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11487,10 +11463,10 @@
         <v>364</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>341</v>
@@ -11522,19 +11498,19 @@
         <v>195</v>
       </c>
       <c r="B11" s="20">
-        <f>IF(B$72=0, 0,(B$67+B$68)/B$72)</f>
+        <f>IF(B$73=0, 0,(B$68+B$69)/B$73)</f>
         <v>1</v>
       </c>
       <c r="C11" s="20">
-        <f>IF(C$72=0, 0,(C$67+C$68)/C$72)</f>
-        <v>0.6</v>
+        <f>IF(C$73=0, 0,(C$68+C$69)/C$73)</f>
+        <v>0.625</v>
       </c>
       <c r="D11" s="20">
-        <f>IF(D$72=0, 0,(D$67+D$68)/D$72)</f>
-        <v>0.4</v>
+        <f>IF(D$73=0, 0,(D$68+D$69)/D$73)</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E11" s="20">
-        <f>IF(E$72=0, 0,(E$67+E$68)/E$72)</f>
+        <f>IF(E$73=0, 0,(E$68+E$69)/E$73)</f>
         <v>0</v>
       </c>
     </row>
@@ -11543,19 +11519,19 @@
         <v>194</v>
       </c>
       <c r="B12" s="20">
-        <f>IF(B$105=0,0,(B$100+B$101)/B$105)</f>
+        <f>IF(B$106=0,0,(B$101+B$102)/B$106)</f>
         <v>1</v>
       </c>
       <c r="C12" s="20">
-        <f>IF(C$105=0,0,(C$100+C$101)/C$105)</f>
+        <f>IF(C$106=0,0,(C$101+C$102)/C$106)</f>
         <v>0.875</v>
       </c>
       <c r="D12" s="20">
-        <f>IF(D$105=0,0,(D$100+D$101)/D$105)</f>
-        <v>0.83333333333333337</v>
+        <f>IF(D$106=0,0,(D$101+D$102)/D$106)</f>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E12" s="20">
-        <f>IF(E$105=0,0,(E$100+E$101)/E$105)</f>
+        <f>IF(E$106=0,0,(E$101+E$102)/E$106)</f>
         <v>0</v>
       </c>
     </row>
@@ -11564,19 +11540,19 @@
         <v>193</v>
       </c>
       <c r="B13" s="20">
-        <f>IF(B$121=0, 0, (B$116+B$117)/B$121)</f>
+        <f>IF(B$122=0, 0, (B$117+B$118)/B$122)</f>
         <v>1</v>
       </c>
       <c r="C13" s="20">
-        <f>IF(C$121=0, 0, (C$116+C$117)/C$121)</f>
+        <f>IF(C$122=0, 0, (C$117+C$118)/C$122)</f>
         <v>1</v>
       </c>
       <c r="D13" s="20">
-        <f>IF(D$121=0, 0, (D$116+D$117)/D$121)</f>
+        <f>IF(D$122=0, 0, (D$117+D$118)/D$122)</f>
         <v>1</v>
       </c>
       <c r="E13" s="20">
-        <f>IF(E$121=0, 0, (E$116+E$117)/E$121)</f>
+        <f>IF(E$122=0, 0, (E$117+E$118)/E$122)</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -11585,19 +11561,19 @@
         <v>192</v>
       </c>
       <c r="B14" s="20">
-        <f>IF(B$150=0, 0, (B$145+B$146)/B$150)</f>
+        <f>IF(B$151=0, 0, (B$146+B$147)/B$151)</f>
         <v>1</v>
       </c>
       <c r="C14" s="20">
-        <f>IF(C$150=0, 0, (C$145+C$146)/C$150)</f>
+        <f>IF(C$151=0, 0, (C$146+C$147)/C$151)</f>
         <v>0.95</v>
       </c>
       <c r="D14" s="20">
-        <f>IF(D$150=0, 0, (D$145+D$146)/D$150)</f>
+        <f>IF(D$151=0, 0, (D$146+D$147)/D$151)</f>
         <v>0.95</v>
       </c>
       <c r="E14" s="20">
-        <f>IF(E$150=0, 0, (E$145+E$146)/E$150)</f>
+        <f>IF(E$151=0, 0, (E$146+E$147)/E$151)</f>
         <v>0.75</v>
       </c>
     </row>
@@ -11606,19 +11582,19 @@
         <v>191</v>
       </c>
       <c r="B15" s="20">
-        <f>IF(B$171=0, 0, (B$166+B$167)/B$171)</f>
+        <f>IF(B$172=0, 0, (B$167+B$168)/B$172)</f>
         <v>1</v>
       </c>
       <c r="C15" s="20">
-        <f>IF(C$171=0, 0, (C$166+C$167)/C$171)</f>
+        <f>IF(C$172=0, 0, (C$167+C$168)/C$172)</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="D15" s="20">
-        <f>IF(D$171=0, 0, (D$166+D$167)/D$171)</f>
+        <f>IF(D$172=0, 0, (D$167+D$168)/D$172)</f>
         <v>1</v>
       </c>
       <c r="E15" s="20">
-        <f>IF(E$171=0, 0, (E$166+E$167)/E$171)</f>
+        <f>IF(E$172=0, 0, (E$167+E$168)/E$172)</f>
         <v>0.91666666666666663</v>
       </c>
     </row>
@@ -11627,19 +11603,19 @@
         <v>196</v>
       </c>
       <c r="B16" s="25">
-        <f>IF(B$233=0, 0, (B$228+B$229)/B$233)</f>
+        <f>IF(B$234=0, 0, (B$229+B$230)/B$234)</f>
         <v>0.94339622641509435</v>
       </c>
       <c r="C16" s="25">
-        <f>IF(C$233=0, 0, (C$228+C$229)/C$233)</f>
+        <f>IF(C$234=0, 0, (C$229+C$230)/C$234)</f>
         <v>0.86792452830188682</v>
       </c>
       <c r="D16" s="25">
-        <f>IF(D$233=0, 0, (D$228+D$229)/D$233)</f>
+        <f>IF(D$234=0, 0, (D$229+D$230)/D$234)</f>
         <v>0.96226415094339623</v>
       </c>
       <c r="E16" s="25">
-        <f>IF(E$233=0, 0, (E$228+E$229)/E$233)</f>
+        <f>IF(E$234=0, 0, (E$229+E$230)/E$234)</f>
         <v>0.92307692307692313</v>
       </c>
     </row>
@@ -12098,33 +12074,33 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>210</v>
+        <v>369</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="E54" s="57" t="s">
+      <c r="E54" s="61" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>6</v>
+      <c r="C55" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="57" t="s">
+        <v>177</v>
       </c>
       <c r="E55" s="57" t="s">
         <v>177</v>
@@ -12132,16 +12108,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="57" t="s">
-        <v>177</v>
+      <c r="C56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E56" s="57" t="s">
         <v>177</v>
@@ -12149,13 +12125,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>6</v>
+      <c r="C57" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D57" s="57" t="s">
         <v>177</v>
@@ -12166,7 +12142,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>6</v>
@@ -12183,16 +12159,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>7</v>
+      <c r="C59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="57" t="s">
+        <v>177</v>
       </c>
       <c r="E59" s="57" t="s">
         <v>177</v>
@@ -12200,13 +12176,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>6</v>
+      <c r="C60" s="53" t="s">
+        <v>7</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>7</v>
@@ -12217,13 +12193,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>7</v>
+      <c r="C61" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>6</v>
@@ -12234,16 +12210,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="57" t="s">
-        <v>177</v>
+      <c r="C62" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E62" s="57" t="s">
         <v>177</v>
@@ -12251,7 +12227,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>6</v>
@@ -12268,7 +12244,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>6</v>
@@ -12276,8 +12252,8 @@
       <c r="C64" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="57" t="s">
-        <v>177</v>
+      <c r="D64" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E64" s="57" t="s">
         <v>177</v>
@@ -12285,229 +12261,229 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" s="57" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="E65" s="57" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
+      <c r="B66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" s="57" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="B66" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="60" t="s">
+      <c r="B67" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" s="10">
-        <f>COUNTIF(B52:B66,"pass")</f>
-        <v>15</v>
-      </c>
-      <c r="C67" s="10">
-        <f>COUNTIF(C52:C66,"pass")</f>
-        <v>9</v>
-      </c>
-      <c r="D67" s="10">
-        <f>COUNTIF(D52:D66,"pass")</f>
-        <v>2</v>
-      </c>
-      <c r="E67" s="10">
-        <f>COUNTIF(E52:E66,"pass")</f>
-        <v>0</v>
+      <c r="D67" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B68" s="5">
-        <f>COUNTIF(B52:B66,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="C68" s="5">
-        <f>COUNTIF(C52:C66,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="D68" s="5">
-        <f>COUNTIF(D52:D66,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="5">
-        <f>COUNTIF(E52:E66,"Ok")</f>
+        <v>6</v>
+      </c>
+      <c r="B68" s="10">
+        <f>COUNTIF(B52:B67,"pass")</f>
+        <v>16</v>
+      </c>
+      <c r="C68" s="10">
+        <f>COUNTIF(C52:C67,"pass")</f>
+        <v>10</v>
+      </c>
+      <c r="D68" s="10">
+        <f>COUNTIF(D52:D67,"pass")</f>
+        <v>4</v>
+      </c>
+      <c r="E68" s="10">
+        <f>COUNTIF(E52:E67,"pass")</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B69" s="11">
-        <f>COUNTIF(B52:B66,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="C69" s="11">
-        <f>COUNTIF(C52:C66,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="D69" s="11">
-        <f>COUNTIF(D52:D66,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="E69" s="11">
-        <f>COUNTIF(E52:E66,"workaround")</f>
+        <v>143</v>
+      </c>
+      <c r="B69" s="5">
+        <f>COUNTIF(B52:B67,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C69" s="5">
+        <f>COUNTIF(C52:C67,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="5">
+        <f>COUNTIF(D52:D67,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="5">
+        <f>COUNTIF(E52:E67,"Ok")</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="12">
-        <f>COUNTIF(B52:B66,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C70" s="12">
-        <f>COUNTIF(C52:C66,"Fail")</f>
-        <v>6</v>
-      </c>
-      <c r="D70" s="12">
-        <f>COUNTIF(D52:D66,"Fail")</f>
-        <v>3</v>
-      </c>
-      <c r="E70" s="12">
-        <f>COUNTIF(E52:E66,"Fail")</f>
+        <v>140</v>
+      </c>
+      <c r="B70" s="11">
+        <f>COUNTIF(B52:B67,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C70" s="11">
+        <f>COUNTIF(C52:C67,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="11">
+        <f>COUNTIF(D52:D67,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
+        <f>COUNTIF(E52:E67,"workaround")</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B71" s="2">
-        <f>COUNT(B52:B66,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C71" s="2">
-        <f>COUNTIF(C52:C66,"unsupported")</f>
-        <v>0</v>
-      </c>
-      <c r="D71" s="2">
-        <f>COUNT(D52:D66,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E71" s="2">
-        <f>COUNT(E52:E66,"Untested")</f>
+        <v>7</v>
+      </c>
+      <c r="B71" s="12">
+        <f>COUNTIF(B52:B67,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C71" s="12">
+        <f>COUNTIF(C52:C67,"Fail")</f>
+        <v>6</v>
+      </c>
+      <c r="D71" s="12">
+        <f>COUNTIF(D52:D67,"Fail")</f>
+        <v>3</v>
+      </c>
+      <c r="E71" s="12">
+        <f>COUNTIF(E52:E67,"Fail")</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" s="2">
+        <f>COUNT(B52:B67,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C72" s="2">
+        <f>COUNTIF(C52:C67,"unsupported")</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="2">
+        <f>COUNT(D52:D67,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <f>COUNT(E52:E67,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B72" s="2">
-        <f>B67+B70+B69+B71+B68</f>
-        <v>15</v>
-      </c>
-      <c r="C72" s="2">
-        <f>C67+C70+C69+C71+C68</f>
-        <v>15</v>
-      </c>
-      <c r="D72" s="2">
-        <f>D67+D70+D69+D71+D68</f>
+      <c r="B73" s="2">
+        <f>B68+B71+B70+B72+B69</f>
+        <v>16</v>
+      </c>
+      <c r="C73" s="2">
+        <f>C68+C71+C70+C72+C69</f>
+        <v>16</v>
+      </c>
+      <c r="D73" s="2">
+        <f>D68+D71+D70+D72+D69</f>
+        <v>7</v>
+      </c>
+      <c r="E73" s="2">
+        <f>E68+E71+E70+E72+E69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="6">
+        <f>IF(B$73=0, 0,(B$68+B$69)/B$73)</f>
+        <v>1</v>
+      </c>
+      <c r="C74" s="6">
+        <f>IF(C$73=0, 0,(C$68+C$69)/C$73)</f>
+        <v>0.625</v>
+      </c>
+      <c r="D74" s="6">
+        <f>IF(D$73=0, 0,(D$68+D$69)/D$73)</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E74" s="6">
+        <f>IF(E$73=0, 0,(E$68+E$69)/E$73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="2">
-        <f>E67+E70+E69+E71+E68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="6">
-        <f>IF(B$72=0, 0,(B$67+B$68)/B$72)</f>
-        <v>1</v>
-      </c>
-      <c r="C73" s="6">
-        <f>IF(C$72=0, 0,(C$67+C$68)/C$72)</f>
-        <v>0.6</v>
-      </c>
-      <c r="D73" s="6">
-        <f>IF(D$72=0, 0,(D$67+D$68)/D$72)</f>
-        <v>0.4</v>
-      </c>
-      <c r="E73" s="6">
-        <f>IF(E$72=0, 0,(E$67+E$68)/E$72)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B75" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="56" t="s">
+      <c r="C76" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="D75" s="56" t="s">
+      <c r="D76" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76" s="57" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>6</v>
@@ -12524,7 +12500,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>6</v>
@@ -12541,7 +12517,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>6</v>
@@ -12549,8 +12525,8 @@
       <c r="C79" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="8" t="s">
-        <v>7</v>
+      <c r="D79" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E79" s="57" t="s">
         <v>177</v>
@@ -12558,7 +12534,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>6</v>
@@ -12575,7 +12551,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>6</v>
@@ -12592,7 +12568,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>6</v>
@@ -12609,7 +12585,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>6</v>
@@ -12626,7 +12602,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>6</v>
@@ -12634,8 +12610,8 @@
       <c r="C84" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>140</v>
+      <c r="D84" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E84" s="57" t="s">
         <v>177</v>
@@ -12643,7 +12619,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>6</v>
@@ -12660,7 +12636,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>6</v>
@@ -12677,7 +12653,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>6</v>
@@ -12694,7 +12670,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>6</v>
@@ -12711,13 +12687,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>7</v>
+      <c r="C89" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>6</v>
@@ -12728,13 +12704,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>6</v>
+      <c r="C90" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>6</v>
@@ -12745,7 +12721,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>298</v>
+        <v>233</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>6</v>
@@ -12762,7 +12738,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>234</v>
+        <v>298</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>6</v>
@@ -12770,8 +12746,8 @@
       <c r="C92" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>7</v>
+      <c r="D92" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E92" s="57" t="s">
         <v>177</v>
@@ -12779,7 +12755,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>331</v>
+        <v>234</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>6</v>
@@ -12787,8 +12763,8 @@
       <c r="C93" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>6</v>
+      <c r="D93" s="53" t="s">
+        <v>7</v>
       </c>
       <c r="E93" s="57" t="s">
         <v>177</v>
@@ -12796,7 +12772,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>235</v>
+        <v>331</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>6</v>
@@ -12813,13 +12789,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C95" s="8" t="s">
-        <v>7</v>
+      <c r="C95" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>6</v>
@@ -12830,13 +12806,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>6</v>
+      <c r="C96" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>6</v>
@@ -12847,7 +12823,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>6</v>
@@ -12855,8 +12831,8 @@
       <c r="C97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="8" t="s">
-        <v>7</v>
+      <c r="D97" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E97" s="57" t="s">
         <v>177</v>
@@ -12864,229 +12840,229 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="57" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98" s="7" t="s">
+      <c r="B99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E98" s="57" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="15" t="s">
+      <c r="D99" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="57" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B99" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E99" s="31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" s="10">
-        <f>COUNTIF(B76:B99,"pass")</f>
-        <v>24</v>
-      </c>
-      <c r="C100" s="10">
-        <f>COUNTIF(C76:C99,"pass")</f>
-        <v>21</v>
-      </c>
-      <c r="D100" s="10">
-        <f>COUNTIF(D76:D99,"pass")</f>
-        <v>20</v>
-      </c>
-      <c r="E100" s="10">
-        <f>COUNTIF(E76:E99,"pass")</f>
-        <v>0</v>
+      <c r="B100" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="31" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B101" s="5">
-        <f>COUNTIF(B76:B99,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="C101" s="5">
-        <f>COUNTIF(C76:C99,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="D101" s="5">
-        <f>COUNTIF(D76:D99,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="E101" s="5">
-        <f>COUNTIF(E76:E99,"Ok")</f>
+        <v>6</v>
+      </c>
+      <c r="B101" s="10">
+        <f>COUNTIF(B77:B100,"pass")</f>
+        <v>24</v>
+      </c>
+      <c r="C101" s="10">
+        <f>COUNTIF(C77:C100,"pass")</f>
+        <v>21</v>
+      </c>
+      <c r="D101" s="10">
+        <f>COUNTIF(D77:D100,"pass")</f>
+        <v>22</v>
+      </c>
+      <c r="E101" s="10">
+        <f>COUNTIF(E77:E100,"pass")</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B102" s="11">
-        <f>COUNTIF(B76:B99,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="C102" s="11">
-        <f>COUNTIF(C76:C99,"workaround")</f>
-        <v>1</v>
-      </c>
-      <c r="D102" s="11">
-        <f>COUNTIF(D76:D99,"workaround")</f>
-        <v>1</v>
-      </c>
-      <c r="E102" s="11">
-        <f>COUNTIF(E76:E99,"workaround")</f>
+        <v>143</v>
+      </c>
+      <c r="B102" s="5">
+        <f>COUNTIF(B77:B100,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C102" s="5">
+        <f>COUNTIF(C77:C100,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="5">
+        <f>COUNTIF(D77:D100,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E102" s="5">
+        <f>COUNTIF(E77:E100,"Ok")</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B103" s="12">
-        <f>COUNTIF(B76:B99,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C103" s="12">
-        <f>COUNTIF(C76:C99,"Fail")</f>
-        <v>2</v>
-      </c>
-      <c r="D103" s="12">
-        <f>COUNTIF(D76:D99,"Fail")</f>
-        <v>3</v>
-      </c>
-      <c r="E103" s="12">
-        <f>COUNTIF(E76:E99,"Fail")</f>
+        <v>140</v>
+      </c>
+      <c r="B103" s="11">
+        <f>COUNTIF(B77:B100,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C103" s="11">
+        <f>COUNTIF(C77:C100,"workaround")</f>
+        <v>1</v>
+      </c>
+      <c r="D103" s="11">
+        <f>COUNTIF(D77:D100,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="11">
+        <f>COUNTIF(E77:E100,"workaround")</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B104" s="2">
-        <f>COUNT(B76:B99,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C104" s="2">
-        <f>COUNT(C76:C99,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D104" s="2">
-        <f>COUNT(D76:D99,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E104" s="2">
-        <f>COUNT(E76:E99,"Untested")</f>
+        <v>7</v>
+      </c>
+      <c r="B104" s="12">
+        <f>COUNTIF(B77:B100,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C104" s="12">
+        <f>COUNTIF(C77:C100,"Fail")</f>
+        <v>2</v>
+      </c>
+      <c r="D104" s="12">
+        <f>COUNTIF(D77:D100,"Fail")</f>
+        <v>2</v>
+      </c>
+      <c r="E104" s="12">
+        <f>COUNTIF(E77:E100,"Fail")</f>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B105" s="2">
+        <f>COUNT(B77:B100,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C105" s="2">
+        <f>COUNT(C77:C100,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D105" s="2">
+        <f>COUNT(D77:D100,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E105" s="2">
+        <f>COUNT(E77:E100,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B105" s="2">
-        <f>B100+B103+B102+B104+B101</f>
+      <c r="B106" s="2">
+        <f>B101+B104+B103+B105+B102</f>
         <v>24</v>
       </c>
-      <c r="C105" s="2">
-        <f>C100+C103+C102+C104+C101</f>
+      <c r="C106" s="2">
+        <f>C101+C104+C103+C105+C102</f>
         <v>24</v>
       </c>
-      <c r="D105" s="2">
-        <f>D100+D103+D102+D104+D101</f>
+      <c r="D106" s="2">
+        <f>D101+D104+D103+D105+D102</f>
         <v>24</v>
       </c>
-      <c r="E105" s="2">
-        <f>E100+E103+E102+E104+E101</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="18" t="s">
+      <c r="E106" s="2">
+        <f>E101+E104+E103+E105+E102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="6">
-        <f>IF(B$105=0,0,(B$100+B$101)/B$105)</f>
+      <c r="B107" s="6">
+        <f>IF(B$106=0,0,(B$101+B$102)/B$106)</f>
         <v>1</v>
       </c>
-      <c r="C106" s="6">
-        <f>IF(C$105=0,0,(C$100+C$101)/C$105)</f>
+      <c r="C107" s="6">
+        <f>IF(C$106=0,0,(C$101+C$102)/C$106)</f>
         <v>0.875</v>
       </c>
-      <c r="D106" s="6">
-        <f>IF(D$105=0,0,(D$100+D$101)/D$105)</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E106" s="6">
-        <f>IF(E$105=0,0,(E$100+E$101)/E$105)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="2"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
+      <c r="D107" s="6">
+        <f>IF(D$106=0,0,(D$101+D$102)/D$106)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E107" s="6">
+        <f>IF(E$106=0,0,(E$101+E$102)/E$106)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B108" s="55" t="s">
+      <c r="B109" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C108" s="56" t="s">
+      <c r="C109" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="D108" s="56" t="s">
+      <c r="D109" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E109" s="3" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>6</v>
@@ -13103,7 +13079,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>6</v>
@@ -13114,13 +13090,13 @@
       <c r="D111" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E111" s="8" t="s">
-        <v>7</v>
+      <c r="E111" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>6</v>
@@ -13137,7 +13113,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>6</v>
@@ -13148,235 +13124,235 @@
       <c r="D113" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>6</v>
+      <c r="E113" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E114" s="35" t="s">
+      <c r="B115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="35" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="15" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="B115" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C115" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E115" s="54" t="s">
+      <c r="B116" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="54" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B116" s="10">
-        <f>COUNTIF(B109:B115,"pass")</f>
-        <v>7</v>
-      </c>
-      <c r="C116" s="10">
-        <f>COUNTIF(C109:C115,"pass")</f>
-        <v>7</v>
-      </c>
-      <c r="D116" s="10">
-        <f>COUNTIF(D109:D115,"pass")</f>
-        <v>7</v>
-      </c>
-      <c r="E116" s="10">
-        <f>COUNTIF(E109:E115,"pass")</f>
-        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B117" s="5">
-        <f>COUNTIF(B109:B115,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="C117" s="5">
-        <f>COUNTIF(C109:C115,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="D117" s="5">
-        <f>COUNTIF(D109:D115,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="E117" s="5">
-        <f>COUNTIF(E109:E115,"Ok")</f>
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B117" s="10">
+        <f>COUNTIF(B110:B116,"pass")</f>
+        <v>7</v>
+      </c>
+      <c r="C117" s="10">
+        <f>COUNTIF(C110:C116,"pass")</f>
+        <v>7</v>
+      </c>
+      <c r="D117" s="10">
+        <f>COUNTIF(D110:D116,"pass")</f>
+        <v>7</v>
+      </c>
+      <c r="E117" s="10">
+        <f>COUNTIF(E110:E116,"pass")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B118" s="11">
-        <f>COUNTIF(B109:B115,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="C118" s="11">
-        <f t="shared" ref="C118:D118" si="2">COUNTIF(C109:C115,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="D118" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E118" s="11">
-        <f>COUNTIF(E140:E172,"workaround")</f>
-        <v>0</v>
+        <v>143</v>
+      </c>
+      <c r="B118" s="5">
+        <f>COUNTIF(B110:B116,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C118" s="5">
+        <f>COUNTIF(C110:C116,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D118" s="5">
+        <f>COUNTIF(D110:D116,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E118" s="5">
+        <f>COUNTIF(E110:E116,"Ok")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B119" s="12">
-        <f>COUNTIF(B109:B115,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C119" s="12">
-        <f>COUNTIF(C109:C115,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="D119" s="12">
-        <f>COUNTIF(D109:D115,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="E119" s="12">
-        <f>COUNTIF(E109:E115,"Fail")</f>
-        <v>3</v>
+        <v>140</v>
+      </c>
+      <c r="B119" s="11">
+        <f>COUNTIF(B110:B116,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C119" s="11">
+        <f t="shared" ref="C119:D119" si="2">COUNTIF(C110:C116,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D119" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E119" s="11">
+        <f>COUNTIF(E141:E173,"workaround")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B120" s="2">
-        <f>COUNT(B109:B115,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C120" s="2">
-        <f>COUNT(C109:C115,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D120" s="2">
-        <f>COUNT(D109:D115,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E120" s="2">
-        <f>COUNT(E109:E115,"Untested")</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B120" s="12">
+        <f>COUNTIF(B110:B116,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C120" s="12">
+        <f>COUNTIF(C110:C116,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D120" s="12">
+        <f>COUNTIF(D110:D116,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E120" s="12">
+        <f>COUNTIF(E110:E116,"Fail")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121" s="2">
+        <f>COUNT(B110:B116,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C121" s="2">
+        <f>COUNT(C110:C116,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D121" s="2">
+        <f>COUNT(D110:D116,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E121" s="2">
+        <f>COUNT(E110:E116,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B121" s="2">
-        <f>B116+B119+B118+B120+B117</f>
+      <c r="B122" s="2">
+        <f>B117+B120+B119+B121+B118</f>
         <v>7</v>
       </c>
-      <c r="C121" s="2">
-        <f>C116+C119+C118+C120+C117</f>
+      <c r="C122" s="2">
+        <f>C117+C120+C119+C121+C118</f>
         <v>7</v>
       </c>
-      <c r="D121" s="2">
-        <f>D116+D119+D118+D120+D117</f>
+      <c r="D122" s="2">
+        <f>D117+D120+D119+D121+D118</f>
         <v>7</v>
       </c>
-      <c r="E121" s="2">
-        <f>E116+E119+E118+E120+E117</f>
+      <c r="E122" s="2">
+        <f>E117+E120+E119+E121+E118</f>
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="18" t="s">
+    <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B122" s="6">
-        <f>IF(B$121=0, 0, (B$116+B$117)/B$121)</f>
+      <c r="B123" s="6">
+        <f>IF(B$122=0, 0, (B$117+B$118)/B$122)</f>
         <v>1</v>
       </c>
-      <c r="C122" s="6">
-        <f>IF(C$121=0, 0, (C$116+C$117)/C$121)</f>
+      <c r="C123" s="6">
+        <f>IF(C$122=0, 0, (C$117+C$118)/C$122)</f>
         <v>1</v>
       </c>
-      <c r="D122" s="6">
-        <f>IF(D$121=0, 0, (D$116+D$117)/D$121)</f>
+      <c r="D123" s="6">
+        <f>IF(D$122=0, 0, (D$117+D$118)/D$122)</f>
         <v>1</v>
       </c>
-      <c r="E122" s="6">
-        <f>IF(E$121=0, 0, (E$116+E$117)/E$121)</f>
+      <c r="E123" s="6">
+        <f>IF(E$122=0, 0, (E$117+E$118)/E$122)</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="13"/>
-      <c r="B123" s="16"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="15" t="s">
+    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="13"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B124" s="55" t="s">
+      <c r="B125" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C124" s="56" t="s">
+      <c r="C125" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="D124" s="56" t="s">
+      <c r="D125" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E125" s="3" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>6</v>
@@ -13387,13 +13363,13 @@
       <c r="D126" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="4" t="s">
-        <v>6</v>
+      <c r="E126" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>6</v>
@@ -13410,7 +13386,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>6</v>
@@ -13427,7 +13403,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>6</v>
@@ -13444,7 +13420,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>6</v>
@@ -13461,41 +13437,41 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C131" s="8" t="s">
-        <v>7</v>
+      <c r="C131" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E131" s="8" t="s">
-        <v>7</v>
+      <c r="E131" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C132" s="4" t="s">
-        <v>6</v>
+      <c r="C132" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="4" t="s">
-        <v>6</v>
+      <c r="E132" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>6</v>
@@ -13503,7 +13479,7 @@
       <c r="C133" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D133" s="36" t="s">
+      <c r="D133" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E133" s="4" t="s">
@@ -13512,7 +13488,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>6</v>
@@ -13520,7 +13496,7 @@
       <c r="C134" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="D134" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E134" s="4" t="s">
@@ -13529,7 +13505,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>6</v>
@@ -13546,7 +13522,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>217</v>
+        <v>302</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>6</v>
@@ -13557,13 +13533,13 @@
       <c r="D136" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E136" s="8" t="s">
-        <v>7</v>
+      <c r="E136" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>301</v>
+        <v>217</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>6</v>
@@ -13574,13 +13550,13 @@
       <c r="D137" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E137" s="4" t="s">
-        <v>6</v>
+      <c r="E137" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>6</v>
@@ -13591,13 +13567,13 @@
       <c r="D138" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E138" s="8" t="s">
-        <v>7</v>
+      <c r="E138" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>6</v>
@@ -13608,13 +13584,13 @@
       <c r="D139" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E139" s="4" t="s">
-        <v>6</v>
+      <c r="E139" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>233</v>
+        <v>299</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>6</v>
@@ -13631,7 +13607,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>297</v>
+        <v>233</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>6</v>
@@ -13648,16 +13624,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B142" s="35" t="s">
-        <v>144</v>
+        <v>297</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D142" s="8" t="s">
-        <v>7</v>
+      <c r="D142" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>6</v>
@@ -13665,263 +13641,263 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B143" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B143" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="15" t="s">
+      <c r="B144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B144" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C144" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D144" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E144" s="54" t="s">
+      <c r="B145" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" s="54" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B145" s="10">
-        <f>COUNTIF(B125:B144,"pass")</f>
-        <v>19</v>
-      </c>
-      <c r="C145" s="10">
-        <f>COUNTIF(C125:C144,"pass")</f>
-        <v>19</v>
-      </c>
-      <c r="D145" s="10">
-        <f>COUNTIF(D125:D144,"pass")</f>
-        <v>19</v>
-      </c>
-      <c r="E145" s="10">
-        <f>COUNTIF(E125:E144,"pass")</f>
-        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B146" s="5">
-        <f>COUNTIF(B125:B144,"Ok")</f>
-        <v>1</v>
-      </c>
-      <c r="C146" s="5">
-        <f>COUNTIF(C125:C144,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="D146" s="5">
-        <f>COUNTIF(D125:D144,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="E146" s="5">
-        <f>COUNTIF(E125:E144,"Ok")</f>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B146" s="10">
+        <f>COUNTIF(B126:B145,"pass")</f>
+        <v>19</v>
+      </c>
+      <c r="C146" s="10">
+        <f>COUNTIF(C126:C145,"pass")</f>
+        <v>19</v>
+      </c>
+      <c r="D146" s="10">
+        <f>COUNTIF(D126:D145,"pass")</f>
+        <v>19</v>
+      </c>
+      <c r="E146" s="10">
+        <f>COUNTIF(E126:E145,"pass")</f>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B147" s="11">
-        <f>COUNTIF(B125:B144,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="C147" s="11">
-        <f>COUNTIF(C125:C144,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="D147" s="11">
-        <f>COUNTIF(D125:D144,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="E147" s="11">
-        <f>COUNTIF(E125:E144,"workaround")</f>
+        <v>143</v>
+      </c>
+      <c r="B147" s="5">
+        <f>COUNTIF(B126:B145,"Ok")</f>
+        <v>1</v>
+      </c>
+      <c r="C147" s="5">
+        <f>COUNTIF(C126:C145,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D147" s="5">
+        <f>COUNTIF(D126:D145,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E147" s="5">
+        <f>COUNTIF(E126:E145,"Ok")</f>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B148" s="12">
-        <f>COUNTIF(B125:B144,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C148" s="12">
-        <f>COUNTIF(C125:C144,"Fail")</f>
-        <v>1</v>
-      </c>
-      <c r="D148" s="12">
-        <f>COUNTIF(D125:D144,"Fail")</f>
-        <v>1</v>
-      </c>
-      <c r="E148" s="12">
-        <f>COUNTIF(E125:E144,"Fail")</f>
-        <v>5</v>
+        <v>140</v>
+      </c>
+      <c r="B148" s="11">
+        <f>COUNTIF(B126:B145,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C148" s="11">
+        <f>COUNTIF(C126:C145,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D148" s="11">
+        <f>COUNTIF(D126:D145,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E148" s="11">
+        <f>COUNTIF(E126:E145,"workaround")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B149" s="2">
-        <f>COUNT(B125:B144,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C149" s="2">
-        <f>COUNT(C125:C144,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D149" s="2">
-        <f>COUNT(D125:D144,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E149" s="2">
-        <f>COUNT(E125:E144,"Untested")</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B149" s="12">
+        <f>COUNTIF(B126:B145,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C149" s="12">
+        <f>COUNTIF(C126:C145,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="D149" s="12">
+        <f>COUNTIF(D126:D145,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="E149" s="12">
+        <f>COUNTIF(E126:E145,"Fail")</f>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B150" s="2">
+        <f>COUNT(B126:B145,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C150" s="2">
+        <f>COUNT(C126:C145,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D150" s="2">
+        <f>COUNT(D126:D145,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E150" s="2">
+        <f>COUNT(E126:E145,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B150" s="2">
-        <f>B145+B148+B147+B149+B146</f>
+      <c r="B151" s="2">
+        <f>B146+B149+B148+B150+B147</f>
         <v>20</v>
       </c>
-      <c r="C150" s="2">
-        <f>C145+C148+C147+C149+C146</f>
+      <c r="C151" s="2">
+        <f>C146+C149+C148+C150+C147</f>
         <v>20</v>
       </c>
-      <c r="D150" s="2">
-        <f>D145+D148+D147+D149+D146</f>
+      <c r="D151" s="2">
+        <f>D146+D149+D148+D150+D147</f>
         <v>20</v>
       </c>
-      <c r="E150" s="2">
-        <f>E145+E148+E147+E149+E146</f>
+      <c r="E151" s="2">
+        <f>E146+E149+E148+E150+E147</f>
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="18" t="s">
+    <row r="152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B151" s="6">
-        <f>IF(B$150=0, 0, (B$145+B$146)/B$150)</f>
+      <c r="B152" s="6">
+        <f>IF(B$151=0, 0, (B$146+B$147)/B$151)</f>
         <v>1</v>
       </c>
-      <c r="C151" s="6">
-        <f>IF(C$150=0, 0, (C$145+C$146)/C$150)</f>
+      <c r="C152" s="6">
+        <f>IF(C$151=0, 0, (C$146+C$147)/C$151)</f>
         <v>0.95</v>
       </c>
-      <c r="D151" s="6">
-        <f>IF(D$150=0, 0, (D$145+D$146)/D$150)</f>
+      <c r="D152" s="6">
+        <f>IF(D$151=0, 0, (D$146+D$147)/D$151)</f>
         <v>0.95</v>
       </c>
-      <c r="E151" s="6">
-        <f>IF(E$150=0, 0, (E$145+E$146)/E$150)</f>
+      <c r="E152" s="6">
+        <f>IF(E$151=0, 0, (E$146+E$147)/E$151)</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="14"/>
-      <c r="B152" s="14"/>
-      <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="15" t="s">
+    <row r="153" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="14"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B153" s="55" t="s">
+      <c r="B154" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C153" s="56" t="s">
+      <c r="C154" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="D153" s="56" t="s">
+      <c r="D154" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="E154" s="3" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C155" s="8" t="s">
-        <v>7</v>
+      <c r="C155" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E155" s="8" t="s">
-        <v>7</v>
+      <c r="E155" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>6</v>
+      <c r="C156" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E156" s="4" t="s">
-        <v>6</v>
+      <c r="E156" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>6</v>
@@ -13938,7 +13914,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>6</v>
@@ -13955,7 +13931,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>6</v>
@@ -13972,7 +13948,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>6</v>
@@ -13989,7 +13965,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>6</v>
@@ -14006,7 +13982,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>6</v>
@@ -14023,7 +13999,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>6</v>
@@ -14040,229 +14016,229 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="15" t="s">
+      <c r="B165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="B165" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C165" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D165" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E165" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B166" s="10">
-        <f>COUNTIF(B154:B165,"pass")</f>
-        <v>12</v>
-      </c>
-      <c r="C166" s="10">
-        <f>COUNTIF(C154:C165,"pass")</f>
-        <v>11</v>
-      </c>
-      <c r="D166" s="10">
-        <f>COUNTIF(D154:D165,"pass")</f>
-        <v>12</v>
-      </c>
-      <c r="E166" s="10">
-        <f>COUNTIF(E154:E165,"pass")</f>
-        <v>11</v>
+      <c r="B166" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" s="21" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B167" s="5">
-        <f>COUNTIF(B154:B165,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="C167" s="5">
-        <f>COUNTIF(C154:C165,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="D167" s="5">
-        <f>COUNTIF(D154:D165,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="E167" s="5">
-        <f>COUNTIF(E154:E165,"Ok")</f>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B167" s="10">
+        <f>COUNTIF(B155:B166,"pass")</f>
+        <v>12</v>
+      </c>
+      <c r="C167" s="10">
+        <f>COUNTIF(C155:C166,"pass")</f>
+        <v>11</v>
+      </c>
+      <c r="D167" s="10">
+        <f>COUNTIF(D155:D166,"pass")</f>
+        <v>12</v>
+      </c>
+      <c r="E167" s="10">
+        <f>COUNTIF(E155:E166,"pass")</f>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B168" s="11">
-        <f>COUNTIF(B154:B165,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="C168" s="11">
-        <f>COUNTIF(C154:C165,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="D168" s="11">
-        <f>COUNTIF(D154:D165,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="E168" s="11">
-        <f>COUNTIF(E154:E165,"workaround")</f>
+        <v>143</v>
+      </c>
+      <c r="B168" s="5">
+        <f>COUNTIF(B155:B166,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C168" s="5">
+        <f>COUNTIF(C155:C166,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D168" s="5">
+        <f>COUNTIF(D155:D166,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E168" s="5">
+        <f>COUNTIF(E155:E166,"Ok")</f>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B169" s="12">
-        <f>COUNTIF(B154:B165,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C169" s="12">
-        <f>COUNTIF(C154:C165,"Fail")</f>
-        <v>1</v>
-      </c>
-      <c r="D169" s="12">
-        <f>COUNTIF(D154:D165,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="E169" s="12">
-        <f>COUNTIF(E154:E165,"Fail")</f>
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="B169" s="11">
+        <f>COUNTIF(B155:B166,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C169" s="11">
+        <f>COUNTIF(C155:C166,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D169" s="11">
+        <f>COUNTIF(D155:D166,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E169" s="11">
+        <f>COUNTIF(E155:E166,"workaround")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B170" s="2">
-        <f>COUNT(B154:B165,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C170" s="2">
-        <f>COUNT(C154:C165,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D170" s="2">
-        <f>COUNT(D154:D165,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E170" s="2">
-        <f>COUNT(E154:E165,"Untested")</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B170" s="12">
+        <f>COUNTIF(B155:B166,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C170" s="12">
+        <f>COUNTIF(C155:C166,"Fail")</f>
+        <v>1</v>
+      </c>
+      <c r="D170" s="12">
+        <f>COUNTIF(D155:D166,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E170" s="12">
+        <f>COUNTIF(E155:E166,"Fail")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B171" s="2">
+        <f>COUNT(B155:B166,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C171" s="2">
+        <f>COUNT(C155:C166,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D171" s="2">
+        <f>COUNT(D155:D166,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E171" s="2">
+        <f>COUNT(E155:E166,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B171" s="2">
-        <f>B166+B169+B168+B170+B167</f>
+      <c r="B172" s="2">
+        <f>B167+B170+B169+B171+B168</f>
         <v>12</v>
       </c>
-      <c r="C171" s="2">
-        <f>C166+C169+C168+C170+C167</f>
+      <c r="C172" s="2">
+        <f>C167+C170+C169+C171+C168</f>
         <v>12</v>
       </c>
-      <c r="D171" s="2">
-        <f>D166+D169+D168+D170+D167</f>
+      <c r="D172" s="2">
+        <f>D167+D170+D169+D171+D168</f>
         <v>12</v>
       </c>
-      <c r="E171" s="2">
-        <f>E166+E169+E168+E170+E167</f>
+      <c r="E172" s="2">
+        <f>E167+E170+E169+E171+E168</f>
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="18" t="s">
+    <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B172" s="6">
-        <f>IF(B$171=0, 0, (B$166+B$167)/B$171)</f>
+      <c r="B173" s="6">
+        <f>IF(B$172=0, 0, (B$167+B$168)/B$172)</f>
         <v>1</v>
       </c>
-      <c r="C172" s="6">
-        <f>IF(C$171=0, 0, (C$166+C$167)/C$171)</f>
+      <c r="C173" s="6">
+        <f>IF(C$172=0, 0, (C$167+C$168)/C$172)</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="D172" s="6">
-        <f>IF(D$171=0, 0, (D$166+D$167)/D$171)</f>
+      <c r="D173" s="6">
+        <f>IF(D$172=0, 0, (D$167+D$168)/D$172)</f>
         <v>1</v>
       </c>
-      <c r="E172" s="6">
-        <f>IF(E$171=0, 0, (E$166+E$167)/E$171)</f>
+      <c r="E173" s="6">
+        <f>IF(E$172=0, 0, (E$167+E$168)/E$172)</f>
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="13"/>
-      <c r="B173" s="16"/>
-      <c r="C173" s="13"/>
-      <c r="D173" s="13"/>
-      <c r="E173" s="13"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="15" t="s">
+    <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="13"/>
+      <c r="B174" s="16"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="13"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B174" s="55" t="s">
+      <c r="B175" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C174" s="56" t="s">
+      <c r="C175" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="D174" s="56" t="s">
+      <c r="D175" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="E175" s="3" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>6</v>
@@ -14279,7 +14255,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>6</v>
@@ -14296,30 +14272,30 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B178" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C178" s="8" t="s">
+      <c r="B179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>6</v>
@@ -14330,24 +14306,24 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="23" t="s">
         <v>261</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>6</v>
@@ -14364,7 +14340,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>6</v>
@@ -14381,24 +14357,24 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E183" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="23" t="s">
-        <v>210</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>6</v>
@@ -14415,58 +14391,58 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B185" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
+      <c r="B186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B186" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E186" s="8" t="s">
+      <c r="B187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E187" s="8" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C187" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>6</v>
@@ -14482,14 +14458,14 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>269</v>
+      <c r="A189" s="23" t="s">
+        <v>259</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C189" s="4" t="s">
-        <v>6</v>
+      <c r="C189" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>6</v>
@@ -14500,7 +14476,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>6</v>
@@ -14517,7 +14493,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>6</v>
@@ -14534,92 +14510,92 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C192" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E192" s="8" t="s">
-        <v>7</v>
+      <c r="C192" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C193" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>6</v>
+      <c r="C193" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B194" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="23" t="s">
+      <c r="B195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="B195" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C195" s="8" t="s">
+      <c r="B196" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D195" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E195" s="8" t="s">
+      <c r="D196" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E196" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="23" t="s">
-        <v>257</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>6</v>
@@ -14636,41 +14612,41 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>7</v>
+        <v>257</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D198" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E198" s="8" t="s">
-        <v>7</v>
+      <c r="D198" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="23" t="s">
         <v>255</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>6</v>
@@ -14687,41 +14663,41 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B202" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C201" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="23" t="s">
+      <c r="C202" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="23" t="s">
         <v>255</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>6</v>
@@ -14738,7 +14714,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>6</v>
@@ -14755,13 +14731,13 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B205" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C205" s="8" t="s">
-        <v>7</v>
+        <v>253</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>6</v>
@@ -14772,27 +14748,27 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B206" s="35" t="s">
+      <c r="B207" s="35" t="s">
         <v>144</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>6</v>
@@ -14806,7 +14782,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="23" t="s">
-        <v>343</v>
+        <v>251</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>6</v>
@@ -14823,30 +14799,30 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="B209" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D209" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="B210" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C210" s="8" t="s">
-        <v>7</v>
+      <c r="C210" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>6</v>
@@ -14857,13 +14833,13 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C211" s="4" t="s">
-        <v>6</v>
+      <c r="C211" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>6</v>
@@ -14874,7 +14850,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>6</v>
@@ -14891,41 +14867,41 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B213" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="23" t="s">
+      <c r="B214" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="23" t="s">
         <v>248</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>6</v>
@@ -14942,7 +14918,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>6</v>
@@ -14959,7 +14935,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>6</v>
@@ -14976,7 +14952,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>6</v>
@@ -14993,7 +14969,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>349</v>
+        <v>237</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>6</v>
@@ -15010,7 +14986,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>296</v>
+        <v>349</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>6</v>
@@ -15027,7 +15003,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>6</v>
@@ -15044,7 +15020,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>6</v>
@@ -15061,7 +15037,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>313</v>
+        <v>244</v>
       </c>
       <c r="B223" s="4" t="s">
         <v>6</v>
@@ -15078,7 +15054,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>238</v>
+        <v>313</v>
       </c>
       <c r="B224" s="4" t="s">
         <v>6</v>
@@ -15095,7 +15071,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B225" s="4" t="s">
         <v>6</v>
@@ -15112,238 +15088,244 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B226" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E226" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="15" t="s">
+      <c r="B227" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="B227" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C227" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D227" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E227" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B228" s="10">
-        <f>COUNTIF(B$175:B$227,"pass")</f>
-        <v>49</v>
-      </c>
-      <c r="C228" s="10">
-        <f>COUNTIF(C$175:C$227,"pass")</f>
-        <v>46</v>
-      </c>
-      <c r="D228" s="10">
-        <f>COUNTIF(D$175:D$227,"pass")</f>
-        <v>51</v>
-      </c>
-      <c r="E228" s="10">
-        <f>COUNTIF(E$176:E$227,"pass")</f>
-        <v>48</v>
+      <c r="B228" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C228" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E228" s="21" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B229" s="5">
-        <f>COUNTIF(B$175:B$227,"Ok")</f>
-        <v>1</v>
-      </c>
-      <c r="C229" s="5">
-        <f>COUNTIF(C$175:C$227,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="D229" s="5">
-        <f>COUNTIF(D$175:D$227,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="E229" s="5">
-        <f>COUNTIF(E$176:E$227,"Ok")</f>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B229" s="10">
+        <f>COUNTIF(B$176:B$228,"pass")</f>
+        <v>49</v>
+      </c>
+      <c r="C229" s="10">
+        <f>COUNTIF(C$176:C$228,"pass")</f>
+        <v>46</v>
+      </c>
+      <c r="D229" s="10">
+        <f>COUNTIF(D$176:D$228,"pass")</f>
+        <v>51</v>
+      </c>
+      <c r="E229" s="10">
+        <f>COUNTIF(E$177:E$228,"pass")</f>
+        <v>48</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B230" s="11">
-        <f>COUNTIF(B$175:B$227,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="C230" s="11">
-        <f>COUNTIF(C$175:C$227,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="D230" s="11">
-        <f>COUNTIF(D$175:D$227,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="E230" s="11">
-        <f>COUNTIF(E$176:E$227,"workaround")</f>
+        <v>143</v>
+      </c>
+      <c r="B230" s="5">
+        <f>COUNTIF(B$176:B$228,"Ok")</f>
+        <v>1</v>
+      </c>
+      <c r="C230" s="5">
+        <f>COUNTIF(C$176:C$228,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D230" s="5">
+        <f>COUNTIF(D$176:D$228,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E230" s="5">
+        <f>COUNTIF(E$177:E$228,"Ok")</f>
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B231" s="12">
-        <f>COUNTIF(B175:B227,"Fail")</f>
-        <v>3</v>
-      </c>
-      <c r="C231" s="12">
-        <f>COUNTIF(C175:C227,"Fail")</f>
-        <v>7</v>
-      </c>
-      <c r="D231" s="12">
-        <f>COUNTIF(D175:D227,"Fail")</f>
-        <v>2</v>
-      </c>
-      <c r="E231" s="12">
-        <f>COUNTIF(E176:E227,"Fail")</f>
-        <v>4</v>
+        <v>140</v>
+      </c>
+      <c r="B231" s="11">
+        <f>COUNTIF(B$176:B$228,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C231" s="11">
+        <f>COUNTIF(C$176:C$228,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D231" s="11">
+        <f>COUNTIF(D$176:D$228,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E231" s="11">
+        <f>COUNTIF(E$177:E$228,"workaround")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B232" s="2">
-        <f>COUNT(B$179:B$214,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C232" s="2">
-        <f>COUNT(C$179:C$214,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D232" s="2">
-        <f>COUNT(D$179:D$214,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E232" s="2">
-        <f>COUNT(E$179:E$214,"Untested")</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B232" s="12">
+        <f>COUNTIF(B176:B228,"Fail")</f>
+        <v>3</v>
+      </c>
+      <c r="C232" s="12">
+        <f>COUNTIF(C176:C228,"Fail")</f>
+        <v>7</v>
+      </c>
+      <c r="D232" s="12">
+        <f>COUNTIF(D176:D228,"Fail")</f>
+        <v>2</v>
+      </c>
+      <c r="E232" s="12">
+        <f>COUNTIF(E177:E228,"Fail")</f>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B233" s="2">
+        <f>COUNT(B$180:B$215,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C233" s="2">
+        <f>COUNT(C$180:C$215,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D233" s="2">
+        <f>COUNT(D$180:D$215,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E233" s="2">
+        <f>COUNT(E$180:E$215,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B233" s="2">
-        <f>B$228+B$231+B$230+B$232+B$229</f>
+      <c r="B234" s="2">
+        <f>B$229+B$232+B$231+B$233+B$230</f>
         <v>53</v>
       </c>
-      <c r="C233" s="2">
-        <f>C$228+C$231+C$230+C$232+C$229</f>
+      <c r="C234" s="2">
+        <f>C$229+C$232+C$231+C$233+C$230</f>
         <v>53</v>
       </c>
-      <c r="D233" s="2">
-        <f>D$228+D$231+D$230+D$232+D$229</f>
+      <c r="D234" s="2">
+        <f>D$229+D$232+D$231+D$233+D$230</f>
         <v>53</v>
       </c>
-      <c r="E233" s="2">
-        <f>E$228+E$231+E$230+E$232+E$229</f>
+      <c r="E234" s="2">
+        <f>E$229+E$232+E$231+E$233+E$230</f>
         <v>52</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="18" t="s">
+    <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B234" s="6">
-        <f>IF(B$233=0, 0, (B$228+B$229)/B$233)</f>
+      <c r="B235" s="6">
+        <f>IF(B$234=0, 0, (B$229+B$230)/B$234)</f>
         <v>0.94339622641509435</v>
       </c>
-      <c r="C234" s="6">
-        <f>IF(C$233=0, 0, (C$228+C$229)/C$233)</f>
+      <c r="C235" s="6">
+        <f>IF(C$234=0, 0, (C$229+C$230)/C$234)</f>
         <v>0.86792452830188682</v>
       </c>
-      <c r="D234" s="6">
-        <f>IF(D$233=0, 0, (D$228+D$229)/D$233)</f>
+      <c r="D235" s="6">
+        <f>IF(D$234=0, 0, (D$229+D$230)/D$234)</f>
         <v>0.96226415094339623</v>
       </c>
-      <c r="E234" s="6">
-        <f>IF(E$233=0, 0, (E$228+E$229)/E$233)</f>
+      <c r="E235" s="6">
+        <f>IF(E$234=0, 0, (E$229+E$230)/E$234)</f>
         <v>0.92307692307692313</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="13"/>
-      <c r="B235" s="16"/>
-      <c r="C235" s="13"/>
-      <c r="D235" s="13"/>
-      <c r="E235" s="13"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="19" t="s">
+    <row r="236" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="13"/>
+      <c r="B236" s="16"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="13"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="B236" s="55" t="s">
+      <c r="B237" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C236" s="56" t="s">
+      <c r="C237" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="D236" s="56" t="s">
+      <c r="D237" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="E236" s="3" t="s">
+      <c r="E237" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B237" s="2"/>
-      <c r="C237" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C238" s="8" t="s">
-        <v>7</v>
+        <v>362</v>
+      </c>
+      <c r="B238" s="2"/>
+      <c r="C238" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B239" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C239" s="4" t="s">
         <v>6</v>
       </c>
@@ -15352,7 +15334,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" s="4" t="s">
@@ -15363,7 +15345,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" s="4" t="s">
@@ -15374,88 +15356,88 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C242" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="B242" s="2"/>
+      <c r="C242" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B243" s="2"/>
-      <c r="C243" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="B244" s="2"/>
       <c r="C244" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D244" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="D244" s="2"/>
       <c r="E244" s="2"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
+      <c r="C245" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="E245" s="2"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B246" s="2"/>
-      <c r="C246" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C247" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="B247" s="2"/>
+      <c r="C247" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B248" s="2"/>
-      <c r="C248" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" s="4" t="s">
@@ -15466,7 +15448,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" s="4" t="s">
@@ -15476,34 +15458,30 @@
       <c r="E250" s="2"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C251" s="2"/>
+      <c r="A251" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B251" s="2"/>
+      <c r="C251" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="2" t="s">
-        <v>361</v>
+      <c r="A252" s="23" t="s">
+        <v>198</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C252" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D252" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
       <c r="E252" s="2"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>276</v>
+        <v>361</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>6</v>
@@ -15511,538 +15489,546 @@
       <c r="C253" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D253" s="2"/>
+      <c r="D253" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E253" s="2"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B254" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D254" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E254" s="2"/>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="B255" s="59">
-        <f>COUNTIF(B237:B254,"pass")</f>
+      <c r="B255" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E255" s="2"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B256" s="59">
+        <f>COUNTIF(B238:B255,"pass")</f>
         <v>9</v>
       </c>
-      <c r="C255" s="59">
-        <f t="shared" ref="C255:E255" si="3">COUNTIF(C237:C254,"pass")</f>
-        <v>13</v>
-      </c>
-      <c r="D255" s="59">
+      <c r="C256" s="59">
+        <f t="shared" ref="C256:E256" si="3">COUNTIF(C238:C255,"pass")</f>
+        <v>14</v>
+      </c>
+      <c r="D256" s="59">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E255" s="59">
+      <c r="E256" s="59">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B256" s="5">
-        <f>COUNTIF(B237:B254,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="C256" s="5">
-        <f t="shared" ref="C256:E256" si="4">COUNTIF(C237:C254,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="D256" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E256" s="5">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B257" s="11">
-        <f>COUNTIF(B237:B254,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="C257" s="11">
-        <f>COUNTIF(C239:C253,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="D257" s="11">
-        <f>COUNTIF(D239:D253,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="E257" s="11">
-        <f>COUNTIF(E239:E253,"workaround")</f>
+        <v>143</v>
+      </c>
+      <c r="B257" s="5">
+        <f>COUNTIF(B238:B255,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C257" s="5">
+        <f t="shared" ref="C257:E257" si="4">COUNTIF(C238:C255,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D257" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E257" s="5">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B258" s="11">
+        <f>COUNTIF(B238:B255,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C258" s="11">
+        <f>COUNTIF(C240:C254,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D258" s="11">
+        <f>COUNTIF(D240:D254,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E258" s="11">
+        <f>COUNTIF(E240:E254,"workaround")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B258" s="12">
-        <f>COUNTIF(B237:B254,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C258" s="12">
-        <f t="shared" ref="C258:E258" si="5">COUNTIF(C237:C254,"Fail")</f>
-        <v>1</v>
-      </c>
-      <c r="D258" s="12">
+      <c r="B259" s="12">
+        <f>COUNTIF(B238:B255,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C259" s="12">
+        <f t="shared" ref="C259:E259" si="5">COUNTIF(C238:C255,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D259" s="12">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E258" s="12">
+      <c r="E259" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B259" s="2">
-        <f>COUNT(B237:B254,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C259" s="2">
-        <f t="shared" ref="C259:E259" si="6">COUNT(C237:C254,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D259" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E259" s="2">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B260" s="2">
+        <f>COUNT(B238:B255,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C260" s="2">
+        <f t="shared" ref="C260:E260" si="6">COUNT(C238:C255,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D260" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E260" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B260" s="2">
-        <f>B255+B258+B257+B259+B256</f>
+      <c r="B261" s="2">
+        <f>B256+B259+B258+B260+B257</f>
         <v>9</v>
       </c>
-      <c r="C260" s="2">
-        <f>C255+C258+C257+C259+C256</f>
+      <c r="C261" s="2">
+        <f>C256+C259+C258+C260+C257</f>
         <v>14</v>
       </c>
-      <c r="D260" s="2">
-        <f>D255+D258+D257+D259+D256</f>
+      <c r="D261" s="2">
+        <f>D256+D259+D258+D260+D257</f>
         <v>3</v>
       </c>
-      <c r="E260" s="2">
-        <f>E255+E258+E257+E259+E256</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="18" t="s">
+      <c r="E261" s="2">
+        <f>E256+E259+E258+E260+E257</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B261" s="6">
-        <f>IF(B$260=0, 0, (B$255+B$256)/B$260)</f>
+      <c r="B262" s="6">
+        <f>IF(B$261=0, 0, (B$256+B$257)/B$261)</f>
         <v>1</v>
       </c>
-      <c r="C261" s="6">
-        <f>IF(C$260=0, 0, (C$255+C$256)/C$260)</f>
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="D261" s="6">
-        <f>IF(D$260=0, 0, (D$255+D$256)/D$260)</f>
+      <c r="C262" s="6">
+        <f>IF(C$261=0, 0, (C$256+C$257)/C$261)</f>
+        <v>1</v>
+      </c>
+      <c r="D262" s="6">
+        <f>IF(D$261=0, 0, (D$256+D$257)/D$261)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E261" s="6">
-        <f>IF(E$260=0, 0, (E$255+E$256)/E$260)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="13"/>
-      <c r="B262" s="13"/>
-      <c r="C262" s="13"/>
-      <c r="D262" s="13"/>
-      <c r="E262" s="13"/>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="15" t="s">
+      <c r="E262" s="6">
+        <f>IF(E$261=0, 0, (E$256+E$257)/E$261)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="13"/>
+      <c r="B263" s="13"/>
+      <c r="C263" s="13"/>
+      <c r="D263" s="13"/>
+      <c r="E263" s="13"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="B263" s="15"/>
-      <c r="C263" s="15"/>
-      <c r="D263" s="15"/>
-      <c r="E263" s="15"/>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="28" t="s">
+      <c r="B264" s="15"/>
+      <c r="C264" s="15"/>
+      <c r="D264" s="15"/>
+      <c r="E264" s="15"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="B264" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C264" s="28"/>
-      <c r="D264" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E264" s="28"/>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B265" s="10">
-        <f>COUNTIF(B264,"pass")</f>
-        <v>1</v>
-      </c>
-      <c r="C265" s="10">
-        <f>COUNTIF(C264,"pass")</f>
-        <v>0</v>
-      </c>
-      <c r="D265" s="10">
-        <f>COUNTIF(D264,"pass")</f>
-        <v>1</v>
-      </c>
-      <c r="E265" s="10">
-        <f>COUNTIF(E264,"pass")</f>
-        <v>0</v>
-      </c>
+      <c r="B265" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C265" s="28"/>
+      <c r="D265" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E265" s="28"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B266" s="5">
-        <f>COUNTIF(B264,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="C266" s="5">
-        <f>COUNTIF(C264,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="D266" s="5">
-        <f>COUNTIF(D264,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="E266" s="5">
-        <f>COUNTIF(E264,"Ok")</f>
+        <v>6</v>
+      </c>
+      <c r="B266" s="10">
+        <f>COUNTIF(B265,"pass")</f>
+        <v>1</v>
+      </c>
+      <c r="C266" s="10">
+        <f>COUNTIF(C265,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="D266" s="10">
+        <f>COUNTIF(D265,"pass")</f>
+        <v>1</v>
+      </c>
+      <c r="E266" s="10">
+        <f>COUNTIF(E265,"pass")</f>
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B267" s="11">
-        <f>COUNTIF(B264,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="C267" s="11">
-        <f>COUNTIF(C264,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="D267" s="11">
-        <f>COUNTIF(D264,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="E267" s="11">
-        <f>COUNTIF(E264,"workaround")</f>
+        <v>143</v>
+      </c>
+      <c r="B267" s="5">
+        <f>COUNTIF(B265,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C267" s="5">
+        <f>COUNTIF(C265,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D267" s="5">
+        <f>COUNTIF(D265,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E267" s="5">
+        <f>COUNTIF(E265,"Ok")</f>
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B268" s="12">
-        <f>COUNTIF(B264,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C268" s="12">
-        <f>COUNTIF(C264,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="D268" s="12">
-        <f>COUNTIF(D264,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="E268" s="12">
-        <f>COUNTIF(E264,"Fail")</f>
+        <v>140</v>
+      </c>
+      <c r="B268" s="11">
+        <f>COUNTIF(B265,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C268" s="11">
+        <f>COUNTIF(C265,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D268" s="11">
+        <f>COUNTIF(D265,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E268" s="11">
+        <f>COUNTIF(E265,"workaround")</f>
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B269" s="2">
-        <f>COUNT(B264,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C269" s="2">
-        <f>COUNT(C264,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D269" s="2">
-        <f>COUNT(D264,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E269" s="2">
-        <f>COUNT(E264,"Untested")</f>
+        <v>7</v>
+      </c>
+      <c r="B269" s="12">
+        <f>COUNTIF(B265,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C269" s="12">
+        <f>COUNTIF(C265,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D269" s="12">
+        <f>COUNTIF(D265,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E269" s="12">
+        <f>COUNTIF(E265,"Fail")</f>
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B270" s="2">
+        <f>COUNT(B265,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C270" s="2">
+        <f>COUNT(C265,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D270" s="2">
+        <f>COUNT(D265,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E270" s="2">
+        <f>COUNT(E265,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B270" s="2">
-        <f>B265+B268+B267+B269+B266</f>
+      <c r="B271" s="2">
+        <f>B266+B269+B268+B270+B267</f>
         <v>1</v>
       </c>
-      <c r="C270" s="2">
-        <f>C265+C268+C267+C269+C266</f>
-        <v>0</v>
-      </c>
-      <c r="D270" s="2">
-        <f>D265+D268+D267+D269+D266</f>
+      <c r="C271" s="2">
+        <f>C266+C269+C268+C270+C267</f>
+        <v>0</v>
+      </c>
+      <c r="D271" s="2">
+        <f>D266+D269+D268+D270+D267</f>
         <v>1</v>
       </c>
-      <c r="E270" s="2">
-        <f>E265+E268+E267+E269+E266</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="18" t="s">
+      <c r="E271" s="2">
+        <f>E266+E269+E268+E270+E267</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B271" s="6">
-        <f>IF(B$280=0, 0, (B$275+B$276)/B$280)</f>
+      <c r="B272" s="6">
+        <f>IF(B$281=0, 0, (B$276+B$277)/B$281)</f>
         <v>1</v>
       </c>
-      <c r="C271" s="6">
-        <f>IF(C$280=0, 0, (C$275+C$276)/C$280)</f>
-        <v>0</v>
-      </c>
-      <c r="D271" s="6">
-        <f>IF(D$280=0, 0, (D$275+D$276)/D$280)</f>
+      <c r="C272" s="6">
+        <f>IF(C$281=0, 0, (C$276+C$277)/C$281)</f>
+        <v>0</v>
+      </c>
+      <c r="D272" s="6">
+        <f>IF(D$281=0, 0, (D$276+D$277)/D$281)</f>
         <v>1</v>
       </c>
-      <c r="E271" s="6">
-        <f>IF(E$280=0, 0, (E$275+E$276)/E$280)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="13"/>
-      <c r="B272" s="13"/>
-      <c r="C272" s="13"/>
-      <c r="D272" s="13"/>
-      <c r="E272" s="13"/>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="15" t="s">
+      <c r="E272" s="6">
+        <f>IF(E$281=0, 0, (E$276+E$277)/E$281)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="13"/>
+      <c r="B273" s="13"/>
+      <c r="C273" s="13"/>
+      <c r="D273" s="13"/>
+      <c r="E273" s="13"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B273" s="15"/>
-      <c r="C273" s="15"/>
-      <c r="D273" s="15"/>
-      <c r="E273" s="15"/>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="28" t="s">
+      <c r="B274" s="15"/>
+      <c r="C274" s="15"/>
+      <c r="D274" s="15"/>
+      <c r="E274" s="15"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B274" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C274" s="28"/>
-      <c r="D274" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E274" s="28"/>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B275" s="10">
-        <f>COUNTIF(B274,"pass")</f>
-        <v>1</v>
-      </c>
-      <c r="C275" s="10">
-        <f>COUNTIF(C274,"pass")</f>
-        <v>0</v>
-      </c>
-      <c r="D275" s="10">
-        <f>COUNTIF(D274,"pass")</f>
-        <v>1</v>
-      </c>
-      <c r="E275" s="10">
-        <f>COUNTIF(E274,"pass")</f>
-        <v>0</v>
-      </c>
+      <c r="B275" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C275" s="28"/>
+      <c r="D275" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E275" s="28"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B276" s="5">
-        <f>COUNTIF(B274,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="C276" s="5">
-        <f>COUNTIF(C274,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="D276" s="5">
-        <f>COUNTIF(D274,"Ok")</f>
-        <v>0</v>
-      </c>
-      <c r="E276" s="5">
-        <f>COUNTIF(E274,"Ok")</f>
+        <v>6</v>
+      </c>
+      <c r="B276" s="10">
+        <f>COUNTIF(B275,"pass")</f>
+        <v>1</v>
+      </c>
+      <c r="C276" s="10">
+        <f>COUNTIF(C275,"pass")</f>
+        <v>0</v>
+      </c>
+      <c r="D276" s="10">
+        <f>COUNTIF(D275,"pass")</f>
+        <v>1</v>
+      </c>
+      <c r="E276" s="10">
+        <f>COUNTIF(E275,"pass")</f>
         <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B277" s="11">
-        <f>COUNTIF(B274,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="C277" s="11">
-        <f>COUNTIF(C274,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="D277" s="11">
-        <f>COUNTIF(D274,"workaround")</f>
-        <v>0</v>
-      </c>
-      <c r="E277" s="11">
-        <f>COUNTIF(E274,"workaround")</f>
+        <v>143</v>
+      </c>
+      <c r="B277" s="5">
+        <f>COUNTIF(B275,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="C277" s="5">
+        <f>COUNTIF(C275,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="D277" s="5">
+        <f>COUNTIF(D275,"Ok")</f>
+        <v>0</v>
+      </c>
+      <c r="E277" s="5">
+        <f>COUNTIF(E275,"Ok")</f>
         <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B278" s="12">
-        <f>COUNTIF(B274,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C278" s="12">
-        <f>COUNTIF(C274,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="D278" s="12">
-        <f>COUNTIF(D274,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="E278" s="12">
-        <f>COUNTIF(E274,"Fail")</f>
+        <v>140</v>
+      </c>
+      <c r="B278" s="11">
+        <f>COUNTIF(B275,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="C278" s="11">
+        <f>COUNTIF(C275,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="D278" s="11">
+        <f>COUNTIF(D275,"workaround")</f>
+        <v>0</v>
+      </c>
+      <c r="E278" s="11">
+        <f>COUNTIF(E275,"workaround")</f>
         <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B279" s="2">
-        <f>COUNT(B274,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="C279" s="2">
-        <f>COUNT(C274,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="D279" s="2">
-        <f>COUNT(D274,"Untested")</f>
-        <v>0</v>
-      </c>
-      <c r="E279" s="2">
-        <f>COUNT(E274,"Untested")</f>
+        <v>7</v>
+      </c>
+      <c r="B279" s="12">
+        <f>COUNTIF(B275,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C279" s="12">
+        <f>COUNTIF(C275,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D279" s="12">
+        <f>COUNTIF(D275,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E279" s="12">
+        <f>COUNTIF(E275,"Fail")</f>
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B280" s="2">
+        <f>COUNT(B275,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="C280" s="2">
+        <f>COUNT(C275,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="D280" s="2">
+        <f>COUNT(D275,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E280" s="2">
+        <f>COUNT(E275,"Untested")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B280" s="2">
-        <f>B275+B278+B277+B279+B276</f>
+      <c r="B281" s="2">
+        <f>B276+B279+B278+B280+B277</f>
         <v>1</v>
       </c>
-      <c r="C280" s="2">
-        <f>C275+C278+C277+C279+C276</f>
-        <v>0</v>
-      </c>
-      <c r="D280" s="2">
-        <f>D275+D278+D277+D279+D276</f>
+      <c r="C281" s="2">
+        <f>C276+C279+C278+C280+C277</f>
+        <v>0</v>
+      </c>
+      <c r="D281" s="2">
+        <f>D276+D279+D278+D280+D277</f>
         <v>1</v>
       </c>
-      <c r="E280" s="2">
-        <f>E275+E278+E277+E279+E276</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="18" t="s">
+      <c r="E281" s="2">
+        <f>E276+E279+E278+E280+E277</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B281" s="6">
-        <f>IF(B$280=0, 0, (B$275+B$276)/B$280)</f>
+      <c r="B282" s="6">
+        <f>IF(B$281=0, 0, (B$276+B$277)/B$281)</f>
         <v>1</v>
       </c>
-      <c r="C281" s="6">
-        <f>IF(C$280=0, 0, (C$275+C$276)/C$280)</f>
-        <v>0</v>
-      </c>
-      <c r="D281" s="6">
-        <f>IF(D$280=0, 0, (D$275+D$276)/D$280)</f>
+      <c r="C282" s="6">
+        <f>IF(C$281=0, 0, (C$276+C$277)/C$281)</f>
+        <v>0</v>
+      </c>
+      <c r="D282" s="6">
+        <f>IF(D$281=0, 0, (D$276+D$277)/D$281)</f>
         <v>1</v>
       </c>
-      <c r="E281" s="6">
-        <f>IF(E$280=0, 0, (E$275+E$276)/E$280)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="1"/>
-      <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
-      <c r="D282" s="1"/>
-      <c r="E282" s="1"/>
+      <c r="E282" s="6">
+        <f>IF(E$281=0, 0, (E$276+E$277)/E$281)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="283" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="20"/>
-      <c r="C283" s="20"/>
-      <c r="D283" s="20"/>
-      <c r="E283" s="20"/>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="2"/>
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+    </row>
+    <row r="284" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B284" s="20"/>
       <c r="C284" s="20"/>
       <c r="D284" s="20"/>
@@ -16050,10 +16036,17 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
-      <c r="C285" s="2"/>
-      <c r="D285" s="2"/>
-      <c r="E285" s="2"/>
+      <c r="B285" s="20"/>
+      <c r="C285" s="20"/>
+      <c r="D285" s="20"/>
+      <c r="E285" s="20"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="2"/>
+      <c r="B286" s="2"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="2"/>
+      <c r="E286" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16090,22 +16083,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -20383,22 +20376,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -24659,22 +24652,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -28658,22 +28651,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>318</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -32657,22 +32650,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -36657,26 +36650,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -36691,18 +36684,18 @@
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65" t="s">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="65"/>
+      <c r="G4" s="66"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -42004,26 +41997,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -42038,18 +42031,18 @@
       <c r="A4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65" t="s">
+      <c r="E4" s="66"/>
+      <c r="F4" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="65"/>
+      <c r="G4" s="66"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -46710,14 +46703,14 @@
       <c r="A1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="67" t="s">
+      <c r="C1" s="67"/>
+      <c r="D1" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="67"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
